--- a/output2.xlsx
+++ b/output2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,23 +431,23 @@
         <is>
           <t xml:space="preserve">
 "Time Park" - уникальный банный комплекс,  расположенный в районе Москвы Выхино-Жулебино.  "Taim Park" сочетает в себе традиции русского парения с Wellness &amp; Spa.  Это закрытая территория в лесопарковой зоне (800 кв. м),  современный сьют с открытой террасой и камином с живым огнём,  вокруг которого можно посидеть на мягких подушках,  чан с душистыми травами и купель с отделкой из шунгита.  В комплексе с комфортом расположится компания до 12  человек.  Всем гостям предлагаем коллективный аромопар в подарок!
-"Time Park" это:
-- профессиональная парная облицована пихтой,  с подогреваемым полом и мощной дровяной печью;
-- открытая терраса с камином и местами для отдыха;
-- чан с душистыми травами на открытом воздухе;
-- купель с отделкой из целебного шунгита и греческого мрамора на террасе;
-- душевые,  обливная кадушка;
-- услуги пармейстера (помывки,  парения);
-- спа процедуры (массажи,  пилинги,  обёртывания);
+"Time Park" это:
+- профессиональная парная облицована пихтой,  с подогреваемым полом и мощной дровяной печью;
+- открытая терраса с камином и местами для отдыха;
+- чан с душистыми травами на открытом воздухе;
+- купель с отделкой из целебного шунгита и греческого мрамора на террасе;
+- душевые,  обливная кадушка;
+- услуги пармейстера (помывки,  парения);
+- спа процедуры (массажи,  пилинги,  обёртывания);
 - барное меню,  и блюда от шеф-повара. 
-Не допускается приносить свою еду,  так как в нашем комплексе наивкуснейшая кухня и чудесный шеф-повар! Спиртное приносить можно при наличии чека из магазина,  пиво не допускается.  У нас большой выбор пива на любой вкус!
+Не допускается приносить свою еду,  так как в нашем комплексе наивкуснейшая кухня и чудесный шеф-повар! Спиртное приносить можно при наличии чека из магазина,  пиво не допускается.  У нас большой выбор пива на любой вкус!
 Узнать дополнительную информацию или забронировать время посещения можете по телефону: 
-+7 985 795 07 56 
++7 985 795 07 56 
 или на официальном сайте банного комплекса "Time Park":
 https://time-park.ru/
-За сутки: 106
-За последние 30 дней: 216
-Всего: 2346
+За сутки: 226
+За последние 30 дней: 336
+Всего: 2466
 </t>
         </is>
       </c>
@@ -460,158 +460,16 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>СТОИМОСТЬ:
+          <t>СТОИМОСТЬ:
 Минимальное время аренды 2 часа.
-10-00 – 17-00 – 2900 руб/час
+10-00 – 17-00 – 2900 руб/час
 17-00 – 09-00 – 4500 руб/час
-Стоимость указана на компанию до 8 человек, каждый дополнительный человек 500 руб/час.
-Внимание! АКЦИИ:
-- Скидка в честь дня рождения 20% на аренду сьюта, 3 дня до и 3 дня после дня рождения.
-Дополнительно:
-Чан с душистыми травами: 5000 – 8000 руб;
-Услуги пармейстера: 900 – 3500 руб;
-Пилинги: 800 руб;
-Массажи: 1200 – 3500 руб;
-Обёртывания: 1900 руб;
-Маски для лица: 1000 руб/20 мин.
-Продажа:
-Банная шапка TIME PARK (белая/черная) - 750 руб;
-Тапочки резиновые «кроксы» - 600 руб.
-Аренда:
-Простыня – 250 руб;
-Полотенце – 300 руб;
-Халат – 500 руб;
-Веники в ассортименте – 450 руб;
-Веничек травяной ароматный – 250 руб;
-Мешок травяной для чана – 500 руб;
-Вязанка дров для патио – 1000 руб;
-Лыко – 300 руб;
-Мыло – 200 руб;
-Зубной набор – 200 руб;
-Бритвенный набор – 200 руб;
-Уборка парной – 1000 руб. (при самостоятельном парении, с использованием веников, скрабов и т п, без услуг нашего банщика)</t>
+Стоимость указана на компанию до 8 человек, каждый до</t>
         </is>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
-      <c r="F1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>г. Долгопрудный, 3-я Северная линия, дом 2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Общественная баня.  
-Северные бани в Долгопрудном - это новые общественные бани,  вместимостью до 50 человек.  Баня расположена в Северном районе,  и открыта ежедневно до 23 часов.  
-В бане для гостей:
-- Современная раздевалка,  оборудованная индивидуальными шкафчиками с электронными замками. 
-- Общий зал разделенный на кабинки с комфортными диванами и столом.  В некоторых кабинках есть телевизор. 
-- Своя кухня на территории бани и бар с прохладительными напитками. 
-- Вместительная парная отделана липой.  Огромная печь из 6 тонн чугуна и профессиональные банщики.  Ежечасно банные мастера готовят ароматный пар,  добавляя эвкалипт,  чеснок,  донник и другие травы. 
-- Бассейн,  обливные кадушки и душевые. 
-- Услуги парения,  мойки и массажа. 
-Баня работает ежедневно.  Женский день - вторник. 
-Узнать дополнительную информацию можно по телефону администратора: 
-8 495 665 25 58
-За сутки: 87
-За последние 30 дней: 373
-Всего: 4327
-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: бассейн, кондиционер, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>СТОИМОСТЬ:
-Посещение бани 2 часа - 1000 руб.
-Доплата за последующий час - 300 руб.
-Дети до 7 лет- бесплатно
-Дети с 7 до 14 лет- 500 руб.
-Льготные категории граждан: пенсионеры, ветераны, инвалиды, многодетные семьи - вт, ср, чт ( при входе до 14-00) - 500 руб.
-Доплата за последующий час для льготных категорий граждан - 150 руб.
-Услуги парения и массажа 600 - 2500 руб
-Режим работы: 
-Пн: с 15-00 до 23-00 ч.
-Вт, Ср, Чт, Пт: с 10-00 до 23-00 ч.
-Сб, Вс: с 09-00 до 23-00 ч.
-Мужские дни: Пн, Ср, Чт, Пт, Сб, Вс
-Женские дни: Вт</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Большая Марьинская улица, дом 1А </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-CLUB SPACE - элитная сауна по приемлемым ценам в Москве,  расположена в Останкинском районе столицы,  недалеко от метро Алексеевская или Рижская.  
-Попадая в наш банный комплекс,  сразу погрузитесь в мир роскоши,  расслабления,  первоклассного сервиса и гостеприимства. 
-Наша отличительная черта - уважение к вашему комфорту,  конфиденциальности и приватности. 
-В сауне CLUB SPACE три отделения,  вместимостью от 8 до 40 человек.  Каждое отделение оборудовано всем необходимым для вашего банно-оздоровительного отдыха. 
-В сауне для гостей:
-Парная: финская и турецкая вместимостью до 10 человек каждая;
-Банные услуги: банщик,  выбор веников,  различные виды пропарок,  программы по телу,  турецкий пиллинг,  обертывания,  спа-терапия,  ароматерапия,  ароматы для парной;
-Комнаты отдыха: несколько комнат для отдыха и романтического свидания,  с уютной отделкой интерьера и двуспальными кроватями. 
-Зона отдыха и развлечения: гостиная,  банкетный зал,  кальян,  кальянная комната,  ассортимент табака,  сигары,  бар,  танцпол,  стрип-подиум,  стриптиз-шоу,  шоу программы,  аудио-видео аппаратура,  эротические каналы,  караоке,  бесплатный Wi-Fi;
-Кухня: домашняя,  русская,  европейская кухня,  бар с напитками;
-Бассейны: подогрев,  противоток,  фильтрация,  джакузи,  купель,  подсветка,  гейзер,  гидромассаж;
-Оздоровление: массажный стол,  оздоровительный массаж,  гидромассаж,  купель,  джакузи;
-Парковка клуба: бесплатная,  охраняемая парковка для наших гостей. 
-Зал "CITY SPACE" - самый вместительный из всех залов.  Используется для корпоративов,  встреч выпускников,  юбилеев и празднования других знаменательных событий в большой компании.  Для этого здесь имеется сцена с профессиональным оборудованием и караоке.  При желании,  мы можем украсить зал к вашему торжеству и пригласить артистов,  музыкантов или другие творческие коллективы.  Вмещает до 40 человек,  площадь зала 450 кв. м
-Зал "SMALL SPACE" - выделяется стильным интерьером.  Комнаты отдыха здесь обставлены и декорированы с большим вкусом.  Это помещение отлично подходит для отдыха в семейном кругу или для встреч с деловыми партнерами.  Вмещает до 20 человек,  площадь зала 220 кв. м
-Зал "NEW SPACE" - самый маленький и уютный зал,  отлично подойдет для проведения романтического свидания,  отдыха в кругу семьи или дружеских посиделок небольшой компании.  Вмещает до 8 человек,  площадь зала 80 кв. м
-Забронировать сауну или узнать подробную информации можете по телефону:
-+7 499 705 46 13
-Официальный сайт сауны:
-https://club-space24.ru/
-За сутки: 72
-За последние 30 дней: 184
-Всего: 6822
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Вид парной: финская парная, турецкая парная(хамам)Кухня: русская, бар, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центр, банкеты, оплата картамиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, бассейн с противотоком
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">СТОИМОСТЬ
-CITY SPACE (до 40 человек):
-- 5000 - 7000 руб/час;
-SMALL SPACE (до 20 человек):
-- 3000 - 4500 руб/час;
-NEW SPACE (до 8 человек):
-- 2000 - 3000 руб/час
- </t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,9 +445,9 @@
 +7 985 795 07 56 
 или на официальном сайте банного комплекса "Time Park":
 https://time-park.ru/
-За сутки: 226
-За последние 30 дней: 336
-Всего: 2466
+За сутки: 262
+За последние 30 дней: 372
+Всего: 2502
 </t>
         </is>
       </c>
@@ -470,6 +470,11 @@
       <c r="E1" t="b">
         <v>0</v>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>финская парная, русская баня, русская на дровах</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,9 +445,9 @@
 +7 985 795 07 56 
 или на официальном сайте банного комплекса "Time Park":
 https://time-park.ru/
-За сутки: 262
-За последние 30 дней: 372
-Всего: 2502
+За сутки: 283
+За последние 30 дней: 465
+Всего: 2596
 </t>
         </is>
       </c>
@@ -464,15 +464,7285 @@
 Минимальное время аренды 2 часа.
 10-00 – 17-00 – 2900 руб/час
 17-00 – 09-00 – 4500 руб/час
-Стоимость указана на компанию до 8 человек, каждый до</t>
+Стоимость указана на компанию до 8 человек, каждый д</t>
         </is>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>финская парная, русская баня, русская на дровах</t>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, японский офуро, большой TV, камин, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>г. Долгопрудный, 3-я Северная линия, дом 2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  
+Северные бани в Долгопрудном - это новые общественные бани,  вместимостью до 50 человек.  Баня расположена в Северном районе,  и открыта ежедневно до 23 часов.  
+В бане для гостей:
+- Современная раздевалка,  оборудованная индивидуальными шкафчиками с электронными замками. 
+- Общий зал разделенный на кабинки с комфортными диванами и столом.  В некоторых кабинках есть телевизор. 
+- Своя кухня на территории бани и бар с прохладительными напитками. 
+- Вместительная парная отделана липой.  Огромная печь из 6 тонн чугуна и профессиональные банщики.  Ежечасно банные мастера готовят ароматный пар,  добавляя эвкалипт,  чеснок,  донник и другие травы. 
+- Бассейн,  обливные кадушки и душевые. 
+- Услуги парения,  мойки и массажа. 
+Баня работает ежедневно.  Женский день - вторник. 
+Узнать дополнительную</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: бассейн, кондиционер, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Посещение бани 2 часа - 1000 руб.
+Доплата за последующий час - 300 руб.
+Дети до 7 лет- бесплатно
+Дети с 7 до 14 лет- 500 руб.
+Льготные категории граждан: пенсионеры, ветераны, инвалиды, многодетные семьи - вт, ср, чт ( при входе до 14-00) - 500 руб.
+Доплата за последующий час для льготных категорий граждан - 150 руб.
+Услуги парения и массажа 600 - 2500 руб
+Режим работы: 
+Пн: с 15-00 до 23-00 ч.
+Вт, Ср, Чт, Пт: с 10-00 до 23-00 ч.
+Сб, Вс: с 09-00 до 23-00 ч.
+Мужские дни: Пн, Ср, Чт, Пт, Сб, Вс
+Женские дни: Вт</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Большая Марьинская улица, дом 1А </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CLUB SPACE - элитная сауна по приемлемым ценам в Москве,  расположена в Останкинском районе столицы,  недалеко о</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: русская, бар, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центр, банкеты, оплата картамиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, бассейн с противотоком
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+CITY SPACE (до 40 человек):
+- 5000 - 7000 руб/час;
+SMALL SPACE (до 20 человек):
+- 3000 - 4500 руб/час;
+NEW SPACE (до 8 человек):
+- 2000 - 3000 руб/час
+ </t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, бассейн с противотоком</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Первомайская ул., дом 85</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+В Измайловском районе на улице Первомайская дом 85 в шаговой доступности от станции метро Первомайская,  находится очень уютное и комфортное местечко .  В зависимости от количества гостей и ваших пожеланий мы вам можем предложить выбор большого или маленького зала .  Посетив большой зал вы окунетесь в деревенский мир душевного покоя ,  красивая гостиная которая оформлена в виде деревянного сруба и оборудована удобной банкетной зоной с камином и современной музыкальной системой .  Вы так же сможете воспользоваться русско-финской парной и бассейном с чистой и проточной водой . В парной можно использовать наши веники и различные настои эфирных масел .  Для приятного досуга : любителей бильярда ждет сюрприз- наличие бильярдного стола ,  для желающих развлечься пением – наличие караоке ,  увлекающихся танцами громкое стереофоническое сопровождение любимых мелодий с лазерным и светомузыкальным шоу с использованием парогенератора . Уставшие от драйва имеют возможность отдохнуть в уютных комнатах отдыха с просторной кроватью .  Повар готов приготовить вкусную домашнюю еду для гостей заведения .  Наша кухня оборудована всем необходимым и приятно удивит разнообразием. 
+Высокое качество нашего сервиса успели оценить сотни почитателей русской и финской бани.  При этом наши цены вполне демократичны и доступны в чем Вы убедитесь посетив наше заведение . 
+Мы благодарны нашим постоянным гостям за добрые отзывы о наш</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, ресторан, можно со своими продуктами, меню доставкиУслуги: веники, банщикСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Цены
+Большой зал
+от 1 до 4 человек - 1400 руб/час
+от 5 до 6 человек - 1500 руб/час
+от 7 до 8 человек - 1600 руб/час
+от 9 до 10 человек - 1700руб/час
+от 11 до 12 человек - 1800руб/час
+Малый зал
+от 1 до 4 человек - 1000 руб/час
+от 5 до 6 человек - 1100 руб/час
+Банные принадлежности:
+простынь - 100 руб.
+полотенце -100 руб.
+тапочки (одноразовые) - 70 руб.
+веник (дубовый) - 500 руб.
+настой (мята, эвкалипт) - 50 руб.
+настой травяной - 120 руб.
+шампунь - 200 руб.
+мыло- 100 руб.
+*при посещении сауны со своими продуктами и напитками, взимается компенсация, в зависимости от количества гостей</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Россия, Москва, улица Пришвина, 13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Дорогие гости,  SPA сауна "Возрождение" представляет Вам на выбор 2 зала - большой и малый. 
+В большом зале есть  бассейн 3х4х1, 6 с подсветкой,  кондиционер,  караоке,  2 комнаты отдыха,  банкетный зал,  плазма,  кабельное телевидение.  Вместимость большого зала - 8-10 человек. 
+В малом зале: плазма,  кабельное тв,  караоке,  джакузи.  Вместимость малого зала - 2-4 человек. 
+Так же предлагаем Вашему вниманию SPA процедуры: шугаринг,  массаж тела,  массаж лица,  прессотерапия ,  миостимуляция,  скраб всего тела,  обертывания. 
+За сутки: 79
+За последние 30 дней: 217
+Всего: 9249
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Кухня: русская, барУслуги: банщик, спа-терапия, оздоровительный массаж, ароматерапия, музыкальный центрСервис: бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Прайс
+Большой зал:
+понедельник,вторник, среда, четверг с 8 до 17 - 1200 руб./час
+понедельник,вторник, среда, четверг с 17 до 8 - 1500 руб./час
+пятница, суббота, воскресенье - 1500 руб./час
+Малый зал:
+понедельник,вторник, среда, четверг с</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ул. Новый Арбат, д. 15, стр.1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+VIP-Баня на дровах на Новом Арбате «МИРъ БАНИ» - это элитное банное заведение в центре Москвы,  уникальное в своём роде,  так как только здесь в парных,  благодаря совершенной системе фильтрации воздуха,  установлены дровяные печи с камином,  которые вместе с легким паром дарят тепло и уют от созерцания живого огня.  Вас ожидает совершенный сервис,  шикарный интерьер и множество приятных мелочей!
+Роскошный дизайнерский интерьер: Мы продумали каждую мелочь в интерьере,  и предлагаем нашим гостям на выбор два двухуровневых зала с лифтом,  для компаний до 6 человек.  Бильярд,  аэро - хоккей,  караоке,  душ впечатлений,  массажный кабинет,  комнаты отдыха,  4 современных ТВ плазмы,  новая удобная мебель – здесь всё создано для Вашего комфортного отдыха. 
+Кристально чистый бассейн: На дне бассейна установлен телевизор,  при взгляде на который можно убедиться в идеальной чистоте воды.  Мы используем современную систему фильтрации и очистки – без хлора! Температура воды регулируется по желанию гостей. 
+Лёгкий пар: Правильная парная - полки из цельного ствола кедра,  ароматные травяные матрасы,  сводчатый потолок с подогревом из меди высотой 3 метра позволяющий аккумулировать пар в виде газо-воздушного пузыря,  а это значит,  что и париться будет легко.  Отделка парной полудрагоценным камнем - жадеитом и современная печь - каменка,  позволяющая получить мелкодисперсный легкий пар,  который невозможно получить ни в кирпичных,  ни в металлических печах.  И плюс - возможность переключен</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктами, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное креслоСервис: бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин
+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Стоимость:
+«РУССКАЯ БАНЯ» на дровах 
+(до 6 чел.) – 5000 руб/час
+«АЛТАЙСКАЯ БАНЯ» на дровах 
+(до 6 чел.) – 5000 руб/час
+«ХАМАМ»
+(до 2 чел.) – 2500 руб/час
+Дополнительно:
+*Травяной матрас – 2000 руб;
+*Ванна с травами
+(лесной сбор, хвойный настой, с эвкалиптом) – 2000 руб;
+*Веники
+(дуб, береза, пихта, можжевельник, липа, эвкалипт) – 350 руб;
+*ФитоВеники
+(багульник, донник, лыко дран., мята, полынь, ромашка, чабрец) – 250 руб;
+*Банный набор
+(шапка, халат, тапки, полотенце, простынь) – 800 руб;
+*Аренда халата	- 250 руб;
+*Аренда полотенце / простыня	 - 100 руб;
+*Тапки махровые / резиновые – 250 руб;
+*Шапка / руковицы / подстилка банные – 300 руб;
+*Перчатки х/б для парения – 100 руб;
+*Косметические средства
+(шампунь / бальзам / гель для душа / мыло / пена для бритья) – 300 руб;
+*Средства личной гигиены
+(зубной набор / станок для бритья / расческа) – 500 руб;
+*Настойка для бани – 150 руб;
+*Минеральная вода для обливания – 200 руб;
+*Масло / Мед / Соль / Лёд / Фрукты для процедур
+(1 порция) – 250 руб
+Услуги банщиков: От 500 руб/чел до 3500 руб/чел
+Услуги массажистов: От 1000 руб/чел до 3500 руб/чел 
+*Безалкогольные напитки:
+Чай, кофе, минеральная вода, квас и т п
+От 150 руб до 500 руб
+*Специальное банное меню:
+От 1000 руб до 1950 руб
+Сбор за принесенные с собой напитки и продуты 500 руб. с человека
+***ВОЗМОЖНА ОПЛАТА КАРТАМИ***</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ул. Тверская, дом 12, стр. 1а</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+VIP-club Premium GALLERY - это элитный банный отдых для людей,  ценящих изысканность и высокий уровень обслуживания.  Банный клуб "Галерея" расположился в центе Москвы,  в Тверском районе и открыт 24 часа в сутки.  Превосходный интерьер в современном стиле,  чистота помещений,  квалифицированный персонал,  спа-процедуры,  ресторанное меню - будут способствовать вашему отдыху и приятному времяпровождению.  
+VIP-club Premium GALLERY - это место для веселых компаний друзей,  шумных вечеринок,  проведения праздничных мероприятий,  корпоративов,  мальчишников и девичников,  а также спокойного семейного отдыха с детьми или же романтического свидания в уединённой обстановке роскоши и комфорта. 
+В банном клубе для гостей: 
+- Парная: русско-финская (на 5 человек),  турецкий хаммам (на 5 человек).  В русско-финской парной можно пользоваться вениками. 
+- Оздоровительные процедуры: парения,  различные виды пропарок,  массажи,  спа-процедуры,  пилинги,  обёртывания,  ароматерапия;
+- Бассейн с противотоком,  гидромассажем,  гейзером,  водопадом и подогревом.  Размер 6 х 5 метра,  глубина до 2х м. 
+- Комната отдыха с двуспальной кроватью;
+- Банкетный зал,  с проектором и экраном 4 х 5 м,  звук Dolby Digital;
+- Техника: профессиональное оборудование DJ (как в ночном клубе); профессиональное караоке,  спутниковое TV (все спутниковые каналы,  в том числе и спортивные),  Apple TV,  Домашний 3D кинотеатр
+- Бильярд 10 футов;
+- Кальян (различные виды),  настоящие кубинские сигары;
+- Меню ресторана: своя европейская и восточная кухня (манты,  хинкали,  плов и т п</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: русская, бар, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV, бассейн с противотоком, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ: 
+Минимальная аренда сауны - 2 часа.
+- от 5000 руб/час
+Внимание! АКЦИЯ:
+- с 07-00 до 15-30 - 3500 руб/час;
+- скидки до 20% на празднование знаменательных событий (день рождения, мальчишники, девичники и т п).
+Всю подробную информацию о скидках и акциях уточняйте у администратора.
+ </t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV, бассейн с противотоком, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>г. Ногинск,  д. Клюшниково, ул.Кутузовская, д.3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Александровская баня расположилась в экологически чистом и спокойном месте,  в 50 км от Москвы,  в Ногинске.  Вы можете арендовать коттедж  для проведения времени с друзьями и семьёй,  отпраздновать знаменательное событие или устроить романтическое свидание в уединенной и закрытой от посторонних глаз обстановке.  Двухэтажный коттедж на оборудованной территории - отличное место,  чтобы с пользой провести выходные дни,  насладится оздоровительными банными процедурами и получить заряд бодрости и позитивного настроения.  Вместимость Александровской бани - 18 человек. 
+Мы предлагаем гостям: 
+- Двухэтажный коттедж на закрытой территории с парковкой;
+- Вместительная русско-финская парная на дровах,  рассчитана на 9 человек;
+- Веники в продаже,  услуги банщика;
+- Бассейн с водопадом и гидромассажем,  размер 9х5 метра,  глубина до 2, 3 м;
+- Душевые,  обливные кадушки с ледяной водой;
+- Банкетный зал с обеденным столом,  скамейками;
+- Зона отдыха с караоке,  ТВ,  музыкальным центром и настольными играми;
+- Бильярд;
+- Две комнаты отдыха с двуспальными кроватями и кожаным диваном;
+- Во дворе -  большая беседка,  мангал для приготовления блюд на углях. 
+Александровская баня работает круглосуточно! 
+Забронировать баню или узнать всю подробную информацию Вы можете позвонив по телефонам:
++7 967 781 73 11 или +7 496 519 33 35
+Страница Александровской бани ВК:  
+https://vk.com/alexbanya
+За сутки: 34
+За последние 30 дней: 199
+Всего: 6331
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: мангал, можно со своими продуктамиУслуги: веники, банщик, ароматерапия, музыкальный центрСервис: бассейн, бильярд, охраняемая парковка, караоке, обливное ведро, большой TV, настольные игры, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+1 час - 2000 руб;
+3 часа - 6000 руб;
+6 часов - 12 000 руб; 
+12 часов - 24 000 руб.
+Стоимость действительна для компаний до 5 человек. Если отдыхающих больше - доплата по 300 руб. за каждого превышающего. 
+24 часа - 27 000 руб (до 8 человек).</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, караоке, обливное ведро, большой TV, настольные игры, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Малое Видное, Подлипки тлпх, 10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+«Альпийская деревня» - это замечательная сауна в Москве,  где вы сможете провести немало минут релаксации,  насладиться спокойствием,  приятными мыслями,  зарядиться хорошим настроением,  а также провести день вместе с самыми близкими.  В сауне «Альпийская деревня» можно провести день рождения,  устроив веселую вечеринку,  а также поддавшись развлечениям в баньке с парением ароматными вениками и купанием в ледяной купели.  Если вы хотите расслабиться и получить массу удовольствия,  то отдых в замечательной сауне поможет вам отлично провести время и зарядиться бодростью на всю рабочую неделю вперед.  Если вы устали от постоянного шума и городской суеты,  загруженности и обилия обязанностей,  то скорее приезжайте в расслабляющее место,  где вы сможете провести немало приятных минут – это сауна «Альпийская деревня».  Она представляет собой деревянный домик,  в котором имеется все для совершенного расслабления и получения приятных эмоций.  Здесь вас ждут привлекательные интерьеры,  в которых много света,  деревянной красивой мебели,  имеется все для вашего постоянного расслабления и приятного проведения времени. 
+Домик имеет два этажа,  на которых вы без проблем сможете разместиться и повеселиться от души.  В этом гостеприимном домике сможет с успехом разместиться компания из 30 человек,  поэтому можно устраивать целые банкеты,  празднования юбилеев и корпоративы.  Расслабление а сауне «Альпийская деревня» вы запомните на долгое время.  В зимнее и летнее время в таком домике будет интересно проводить время: имеется рядом расположенная территория,  где вы повеселитесь от души. 
+Интерьеры и развлечения сауна «Альпийская деревня»
+В этой гостеприимной сауне для вас открыты все двери.  Большой банкетный стол,  возможность заказать еду из ресторана – вы сможете устроить отличный праздник,  повеселившись от души.  Интерьеры сауны порадуют вас своими просторами,  а также большим колич</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, мангал, можно со своими продуктамиУслуги: веники, банщик, оздоровительный массаж, кальянСервис: охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Стоимость аренды 1 часа:
+от 1000 до 1500 рублей.</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Астраханский переулок, дом 5, стр.3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  
+Астраханские бани расположились в Мещанском районе Москвы,  недалеко от станций метро Проспект Мира и Сухаревская.  Бани работают каждый день,  с 8 утра до 22 вечера.  Понедельник - выходной. 
+Общее отделение включает всбея русскую парную,  бассейн,  купель,  душевые,  помывочные,  зал для отдыха с ТВ.  
+Среди дополнительных услуг - парикахерская и массажный кабинет.  Также в бане работает буфет,  с большим выбором напитков и лёгких закусок.  
+Предусмотрены скидки на посещение для льготных категорий людей.  
+Добро пожаловать в Астраханские бани Москвы! 
+За сутки: 28
+За последние 30 дней: 117
+Всего: 15985
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, оздоровительный массаж, оплата картамиСервис: бассейн, холодная купель, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ: 
+- 900 руб/2 часа
+Время работы:
+ежедневно с 8.00 до 22.00
+понедельник - санитарный день
+Льготное время для пенсионеров по возрасту (мужчины от 60 лет, женщины от 55 лет):
+вторник с 8.00 до 16.00
+среда      с 8.00 до 10.00
+четверг   с 8.00 до 10.00
+пятница  с 8.00 до 10.00
+стоимость посещения:
+- 450 руб/2 часа
+Прокат банных принадлежностей:
+Простыня х/б - 100 руб.
+Простыня махровая - 120 руб.
+Полотенце махровое - 60 руб.
+Хранение ценных вещей - 60 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Староватутинский проезд, дом 5, стр. 2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в Бабушкинские бани на Староватутинском проезде,  дом 5! Общественные бани включают в себя мужское и женское отделения и индивидуальные номера "люкс". 
+Женское отделение Бабушкинских бань — просторное и уютное место для вашего отдыха.  Мужское отделение состоит из раздевалки,  помывочной и парной.  Раздевалка одновременно выполняет и функции общего зала – по бокам стоят шкафчики,  а посередине столы и диваны,  есть телевизор.  В мыльном отделении посетитель найдет все необходимое: каменные скамьи,  душевые кабины открытого типа,  купель с проточной водой.  Стены и лежаки в помещении украшены мозаикой. К вашим услугам предоставляется прокат банного белья и тапок,  аренда ячеек для хранения ценностей.  В продаже всегда большой выбор банных веников и сопутствующих товаров,  необходимых для отличного отдыха в бане.  Получить настоящее удовольствие от посещения Бабушкинских бань вам помогут опытные массажисты и мастера салона красоты.  Салон красоты предлагает широкий спектр услуг — парикмахерская,  маникюр,  педикюр,  косметические услуги и пр. 
+За сутки: 21
+За последние 30 дней: 117
+Всего: 4494
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массажСервис: бассейн, охраняемая парковка, холодная купель, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 1500 руб/ 3 часа
+Льготы пенсионерам и детям до 12 лет. 
+Дети до 7 лет - бесплатно</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>проспект Будённого, дом 33</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Банный комплекс "Соколиная гора" был основан в 1939 году,  и с тех пор радует посетителей отличным паром,  душевной атмосферой и разнообразием дополнительных банных услуг.  После произведенного ремонта в банях,  гостям понравится обновленный интерьер,  чистота помещений,  новое оборудование и мебель,  а также приветливый персонал.  Общественные городские бани "Соколиная гора" расположились в одноимённом районе Москвы,  на проспекте Будённого,  дом 33,  недалеко от метро Шоссе Энтузиастов или Семеновская.  Общие бани делятся на общие мужские и женские,  в каждой из которых предлагаются отдельные кабинеты для гостей,  которые хотят отдохнуть после банных процедур в своей компании. 
+В бане для посетителей:
+- раздевалка с индивидуальными шкафами;
+- русская парная с жаркой печью (температура печи составляет 750 градусов,  хромистые чугунные болванки весом 8 тонн);
+- турецкая баня - хаммам;
+- помывочная с душевыми кабинами и обливными кадушками;
+- бассейн;
+- соляная пещера;
+- зал для отдыха с диванами и столами;
+- бесплатный Wi-Fi;
+- бесплатная парковка. 
+Для гостей работает бар-ресторан с прохладительными напитками,  и лёгкими закусками. 
+Дополнительно предлагаем услуги парения,  массажа и спа-процедур.  В продаже - банные принадлежности,  средства гигиены и подарочные сертификаты.  Работает солярий,  парикмахерская и маникюрный кабинет. 
+Часы работы бани: 
+Пн - Чт с 08-00 до 22-00;
+Пт с 12-00 до 22-00;
+Сб - Вс с 08-00 до 22-00
+Дополнительную информацию можно узнать по телефонам:
++7 495 365 13 44 или +7 495 365 02 76
+За сутки: 28
+За последние 30 дней: 222
+Всего: 14997
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, солярий, оплата картамиСервис: бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Мужская баня:
+Билет (3 часа) до 20-00 в будни — 1500 руб;
+Билет (3 часа) до 20-00 в выходные — 1600 руб;
+Билет (2 часа) с 20-00 до 22-00 в будни — 1000 руб;
+Билет (2 часа) с 20-00 до 22-00 в выходные — 1100 руб;
+Билет на посещение без ограничений по времени в будни — 2500 руб;
+Билет на посещение без ограничений по времени в выходные — 2500 руб;
+Доплата в будни (поминутно) — 8 руб;
+Доплата в выходные (поминутно) — 8 руб;
+Льготный билет (3 часа) — 800 руб; 
+Доплата льготный билет (поминутно) — 4 руб; 
+Кабинет на 6 человек (3 часа) в будни — 10000 руб;
+Кабинет на 6 человек (3 часа) в выходные — 11000 руб;
+Кабинет на 6 человек (без ограничения по времени) в будни — 16000 руб;
+Кабинет на 6 человек (без ограничения по времени) в выходные — 17000 руб;
+Доплата за кабинет 6 человек (минута) в будни — 60 руб;
+Доплата за кабинет 6 человек (минута) в выходные — 60 руб;
+Кабинет на 10 человек (3 часа) в будни — 15000 руб;
+Кабинет на 10 человек (3 часа) в выходные — 16000 руб;
+Кабинет на 10 человек (без ограничения по времени) в будни — 25000 руб;
+Кабинет на 10 человек (без ограничения по времени) в выходные — 27000 руб;
+Доплата за кабинет 10 человек (минута) в будни — 85 руб;
+Доплата за кабинет 10 человек (минута) в выходные — 85 руб;
+Дети до 7 лет - бесплатно;
+Дети с 7 до 12 лет (3 часа) - 750 руб
+Женская баня:
+Билет (3 часа) до 20-00 в будни — 1200 руб; 
+Билет (3 часа) до 20-00 в выходные — 1300 руб;
+Билет (2 часа) с 20-00 до 22-00 в будни — 800 руб;
+Билет (2 часа) с 20-00 до 22-00 в выходные — 900 руб;
+Билет на посещение без ограничений по времени в будни — 2000 руб;
+Билет на посещение без ограничений по времени в выходные — 2000 руб;
+Доплата в будни (поминутно) — 6 руб;
+Доплата в выходные (поминутно) — 6 руб;
+Льготный билет (3 часа) — 800 руб;
+Доплата льготный билет (поминутно) — 4 руб;
+Кабинет на 6 человек (3 часа) в будни — 8000 руб;
+Кабинет на 6 человек (3 часа) в выходные — 9000 руб;
+Кабинет на 6 человек (без ограничения по времени) в будни — 12000 руб;
+Кабинет на 6 человек (без ограничения по времени) в выходные — 13000 руб;
+Доплата за кабинет 6 человек (минута) в будни — 45 руб;
+Доплата за кабинет 6 человек (минута) в выходные — 45 руб;
+Кабинет на 10 человек (3 часа) в будни — 12000 руб;
+Кабинет на 10 человек (3 часа) в выходные — 13000 руб;
+Кабинет на 10 человек (без ограничения по времени) в будни — 20000 руб;
+Кабинет на 10 человек (без ограничения по времени) в выходные — 21000 руб;
+Доплата за кабинет 10 человек (минута) в будни — 70 руб;
+Доплата за кабинет 10 человек (минута) в выходные — 70 руб;
+Дети до 7 лет - бесплатно;
+Дети с 7 до 12 лет (3 часа) - 750 руб;
+Льготные категории населения (пенсионеры, инвалиды, участники ВОВ):
+Понедельник с 08-00 до 22-00, 3 часа — 800 руб;
+Доплата поминутная 4 руб - 1 минута;
+Вторник, среда, помывка с 08-00 до 14-00, 3 часа — 800 руб
+ </t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Московская обл., г. Красногорск, ул. Центральная, дом 45</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в Баню на Воде в Красногорске!
+Баня расположилась на корабле,  летом - путешествуем по реке и паримся в различных местах по пути следования корабля и купаемся в реке.  Зимой стоим у причала рядом с Павшинской поймой,  где гости после бани могут окунуться в прорубь или насладится горячей купелью на свежем воздухе в окружении сугробов. 
+Бани на воде это:
+- плавучая баня-корабль для компании до 12 человек;
+- русская баня на дровах с панорамными окнами;
+- тёплый душ с эффектом тумана;
+- природный водоём летом,  со спуском в воду;
+- прорубь - зимой;
+- японская купель с горячей водой на свежем воздухе;
+- банкетный зал с ТВ,  музыкальным центром и караоке;
+- мангал на борту для приготовления блюд на углях;
+- организация банкетов,  фуршетов,  своя кухня;
+При желании Вы можете принести продукты с собой и самостоятельно приготовить блюда.  
+Дополнительно - простыни,  веники,  тапочки,  шапочки,  чай,  уголь для мангала и настольные игры. 
+Забронировать баню на воде или узнать дополнительную информацию можно по телефону: 
++7 903 136 39 26
+За сутки: 43
+За последние 30 дней: 295
+Всего: 6103
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, мангал, можно со своими продуктами, кафеУслуги: веники, банщик, музыкальный центр, банкетыСервис: холодная купель, прорубь, спутниковое тв, караоке, японский офуро, большой TV, настольные игры, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Пн- Пт
+- 1500 руб/час
+Минимальная аренда - 4 часа
+Выходные, праздники и пятница после 16 часов:
+- 2000 руб/час
+Минимальная аренда - 3 часа (далее 1500 руб/час)
+На весь день ( с 11 утра до 24 часов) - 18 000 руб.
+Новогодняя ночь:   30 000 руб.</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>холодная купель, прорубь, спутниковое тв, караоке, японский офуро, большой TV, настольные игры, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Пушкино, мкр. Заветы Ильича, Вокзальный пр-д, дом 7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные бани в посёлке "Заветы Ильича" в Пушкино славятся своим прекрасным паром,  чистотой помещений,  уютом,  приемлемой стоимостью и дружественной атмосферой.  Баня топится исключительно дровами,  чем ценится любителями русской бани.  Добротное кирпичное здание было построено во времена СССР,  в 60 х годах,  позже реставрировалось и обновляло внутренний интерьер.  При входе в баню,  гостей в холле встречает приветливый администратор.  Здесь можно приобрести напитки,  веники или другие банные товары.  Далее располагаются отделения - мужское и женское.  В каждом отделении раздевалки в виде кабинок,  вмещают по 6-8 человек.  В кабинках - стол,  полки и крючки для одежды.  В моечном отделении стоят лавки с тазами,  душевые и бассейн - купель с ледяной водой (1, 5 х 1, 5 м).  В моечной комфортно разместятся 25-30 человек.  В парной - огромная кирпичная печь с чугунной дверью,  и лестницей наверх.  Одновременно в парилке могут разместится до 15 человек.  Пар - очень густой,  горячий,  но мягкий,  обволакивающий.  В бане есть зал для отдыха,  с деревянными столами и скамейками,  где можно отдохнуть после бани,  выпить горячий чай или холодный квас.  После парной есть возможность выйти на улицу подышать свежим воздухом и отдохнуть в закрытом дворике с беседками,  столиками и скамейками. 
+Баня работает суббота,  воскресенье и понедельник,  с 08-00 до 20-00.  Касса до 19-00. 
+Дополнительную информацию можете узнать по телефонам бани:
+8 496 531 60 32 или 8 925 866 88 98
+За сутки: 43
+За последние 30 дней: 490
+Всего: 6600
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, можно со своими продуктамиУслуги: веники, оплата картамиСервис: бассейн, холодная купель
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- 450 руб/сеанс
+Льготники и пенсионеры скидка 50 % только в понедельник.
+Режим работы: 
+Сб - 08-00 - 20-00;
+Вс - 08-00 - 20-00;
+Пн - 08-00 - 20-00
+Касса работает до 19-00
+ </t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ул. Дубнинская, 6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  Мужское отделение. 
+Городская баня на Дубнинской вновь открывает мужское отделение после реконструкции и ремонта.  Полностью обновлённый интерьер,  новое оборудование и мебель по достоинству оценят любители банного отдыха.  Теперь гости смогут не только помыться и отдохнуть,  но и получить полный комплекс оздоровительных процедур в комфортных условиях.  
+БОК на Дубнинской расположился недалеко от метро Верхние Лихоборы или Окружная,  на ул.  Дубнинская,  дом 6. 
+В сауне для посетителей:
+- Финская сауна;
+- Турецкий хаммам;
+- Бассейн-купель,  обливные вёдра,  душевые;
+- Банные процедуры,  массаж;
+- Зал для отдыха с диванами,  столами и массажным креслом;
+- Мини-бар с прохладительными напитками. 
+График работы: ежедневно с 10:00 до 23:00
+Касса на продажу входных билетов работает до 21:00
+Подробную информацию можете узнать по телефону администратора: 
+8 495 707 60 40
+За сутки: 31
+За последние 30 дней: 225
+Всего: 5182
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: бар, можно со своими продуктами, меню доставкиУслуги: банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, музыкальный центр, оплата картами, акции и скидкиСервис: бассейн, кондиционер, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+График работы: ежедневно с 10:00 до 23:00
+Касса на продажу входных билетов работает до 21:00
+БУДНИ:
+2 часа - 800 руб. Каждый дополнительный час - 250 руб.
+3 часа - 1000 руб. Каждый дополнительный час - 250 руб.
+Пенсионерам - 500 руб/3 часа
+С ПЯТНИЦЫ ПО ВОСКРЕСЕНЬЕ:
+2 часа - 1000 руб. Каждый дополнительный час- 250 руб.
+3 часа - 1200 руб. Каждый дополнительный час- 250 руб.
+Дети до 7 лет обслуживаются бесплатно.
+Дети от 7 до 12 лет - 500 руб. без ограничений во времени.
+ЛЬГОТНЫЕ КАТЕГОРИИ ГРАЖДАН:
+пенсионеры (пенсионный возраст)
+Понедельник с 10:00 до 23:00
+Вторник, среда, четверг, пятница с 10:00 до 14:00
+3 часа - 500 руб.</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Очаковское шоссе, дом 40, стр. 3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Банный двор в Очаково – элитный банный комплекс в Москве,  с банями на дровах и сказочным дизайном в русском стиле! Бани расположились на Очаковском шоссе,  дом 40,  стр. 3,  в районе Очаково-Матвеевское. 
+Отличительная особенность Банного двора в Очаково в том,  что кроме традиционных русских бань по-белому,  здесь растапливаются бани по-чёрному,  с которых начинается история русской бани. 
+Бани по-черному в современном мире редкость,  они сохранились лишь в отдаленных деревнях,  в основном сибирских и дальневосточных.  Здесь Вам предоставляется возможность насладится русской баней по-чёрному,  не выезжая из Москвы. 
+Банный двор в Очаково это:
+- 11 двухэтажных бревенчатых срубов,  у каждого домика своё неповторимое убранство и интерьер;
+- во всех срубах мягкая мебель,  гостиная с камином,  комнаты отдыха,  бильярд,  музыкальный центр,  караоке,  спутниковое ТВ;
+- парные с настоящей русской каменкой,  которая топится березовыми дровами,  русские бани по-белому,  по-черному,  а в некоторых домиках присутствует турецкая баня – хаммам;
+- у каждого сруба свой внутренний дворик с подогреваемым бассейном,  дубовые купели и джакузи под открытым небом;
+- опытные банщики и массажисты,  парения на вениках или сене; венично-травяные обертывания; пилинг на вишневых косточках,  на кокосовой стружке,  медово-солевой,  медово-травяной,  кофейно-медовый; антицеллюлитные обертывания,  шлако-выводящие и токсино-выводящие процедуры,  комплексы для похудения. 
+Срубы Банного двора в Очаково:
+«Сибирский»
+Парная: русская баня по-чёрному. 
+Бассейн: 3х5м с подогревом и подсветкой. 
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин
+Сибирская баня по-черному из обтесанного бревна оздоровит,  избавит от хвори,  придаст сил и бодрости.  А гостеприимство наше сибирское встретит вас наливками русскими самоваром на еловых шишках с пряниками да баранками. 
+Вместительность: до 15 человек. 
+«Мастеровой»
+Парная: баня по-белому. 
+Бассейн: 3х5м с подогревом и подсветкой. 
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин. 
+Знатоков и ценителей русских промыслов ждет сруб Мастеровой.  Со всех уголков земли русской собрали мы красоту,  сотворенную золотыми руками наших мастеров.  Все от гжели и палеха,  жостовской росписи и хохломы красуется в срубе-музее Мастеровом. 
+Вместительность: до 12 человек
+«Русская изба»
+Парная: баня по-белому. 
+Бассейн: 3х5м с подогревом и подсветкой. 
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин. 
+Переступив порог сруба «Русская изба»,  вы попадаете в сказку.  В Вашем распоряжении – двухэтажная расписная русская изба с волшебной атмосферой. 
+Вместительность: до 12 человек
+«Садко»
+Парная: баня по-белому. 
+Бассейн: 3х5м с подогревом и подсветкой. 
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин. 
+Вместительность: до 12 человек
+«Форт»
+Парная: баня по-белому. 
+Бассейн: джакузи. 
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин. 
+Вместительность: до 12 человек
+«Мужские забавы»
+Парные: баня по-белому,  баня по-черному. 
+Бассейн: 3х5м с подогревом и подсветкой
+3 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин. 
+Бревенчатый терем для настоящих охотников и задушевных разговоров,  где они наберутся здоровья и попарятся как следует по-белому или по-черному.  Баня по-черному из неотесанной пихты прогонит прочь все хвори и наполнит пихтовым ароматом.  Баня по-белому расслабит и избавит от усталости. 
+Вместительность: до 20 человек. 
+«Княжеский»
+Парные: по-белому,  турецкая баня (хаммам)
+Бассейн: 4х8м (с подныром на улицу). 
+4 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Резная беседка на улице.  Камин
+На первом этаже – роскошная гостиная с панорамными витражами.  На втором этаже бильярдная с 12-футовым,  профессиональным,  турнирным русским бильярдом.  Площадь сруба 500 кв м,  площадь внутреннего дворика 100 кв м.  Танцпол со светомузыкой и профессиональной аппаратурой.  Резная беседка на улице. 
+Вместительность: до 35 человек. 
+«Зимняя сказка»,  «Весенний»,  «Летний»,  «Осенний»
+Парные: по-белому. 
+Бассейн: нет
+2 комнаты отдыха. 
+Русский бильярд.  Дубовая купель.  Караоке.  TV.  Камин
+Вместительность: до 6 человек. 
+На территории комплекса работает кухня,  где можно заказать русские,  кавказские и европейские блюда,  которые Вам доставят к месту банно-оздоровительного отдыха,  в любой из срубов. 
+!!! Уважаемые гости,  на территорию Банного двора запрещено приносить свои продукты,  напитки и алкоголь без согласования с администрацией. 
+Всю подробную информацию можно узнать у администратора по телефонам:
++7 (495) 795-00-01
++7 (495) 637-80-80
+WhatsApp,  Telegramm +79251505253
+И на официальном сайте комплекса «Банный двор в Очаково»: 
+https://banniy-dvor.ru/
+За сутки: 33
+За последние 30 дней: 294
+Всего: 16045
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баня, русская на дровахКухня: русская, бар, ресторан, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, музыкальный центрСервис: бассейн, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, камин, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Минимальное время аренды – 3 часа
+«Сибирский»
+- 6000 руб/час
+До 15 человек
+«Мастеровой»
+– 6000 руб/час
+До 12 человек
+«Русская изба»
+– 6000 руб/час
+До 12 человек
+«Садко»
+– 6000 руб/час
+До 12 человек
+«Форт»
+- 6000 руб/час
+До 12 человек.
+«Мужские забавы»
+- 10000 руб/час
+До 20 человек.
+«Княжеский»
+- 12000 руб/час
+До 35 человек.
+«Зимняя сказка», «Весенний», «Летний», «Осенний»
+- 4000 руб/час
+До 6 человек
+За превышение установленной в срубах численности отдыхающих производится доплата 500 руб/час за 1 человека.
+Минимальное расчётное время оплаты аренды сруба - 15 мин.
+Администрация вправе отказать в посещении комплекса без объяснения причин, а также приостановить оказание услуг, в случае нарушения правил посещения комплекса.
+Использование своих продуктов и напитков запрещено.
+Дополнительно:
+Парения – 4000 руб/час;
+Купели (на всё время аренды):
+Боярская - 7500 руб;
+Цитрусовая - 7000 руб;
+Эвкалиптовая - 6500 руб;
+Лесная - 5000 руб;
+Ромашка - 5000 руб;
+Багульник - 5000 руб;
+Травяная - 4000 руб;
+Купель с горячей/холодной водой - 3000 руб.
+Услуги:
+Приготовление блюд поваром в срубе - 1000 руб/час;
+Персональное обслуживание официанта в срубе - 1000 руб/час;
+Приготовление блюд из продуктов гостя - 3000 руб/кг;
+Пробковый сбор - 3000 руб/1 бут
+Аренда:
+Банный комплект (полотенце и простынь) - 350 руб/шт;
+Банный Халат - 350 руб/шт;
+Массажный стол - 1000 руб/час
+Продажа: 
+Сено 10 кг - 2000 руб;
+Травяной сбор 300 г - 600 руб;
+Веник банный в ассортименте - 300 руб;
+Лапти - 400 руб;
+Шапка банная - 300 руб;
+Мочалка лыковая - 300 руб;
+Рукавица "Кесе" - 300 руб;
+Мед для ухода за телом 200 г - 300 руб;
+Соль для пилинга 200 г - 150 руб;
+Мыло дегтярное - 150 руб;
+Настойка для парения в ассортименте - 150 руб;
+Бритвенный набор - 600 руб;
+Зубной набор - 350 руб;
+Расческа - 150 руб;
+Тапочки резиновые - 350 руб;
+Тапочки одноразовые - 150 руб;
+Средство контрацепции 1 уп./3 шт - 350 руб;
+Профилактическое средство «Мирамистин» - 500 руб;
+Масло для ухода за телом - 300 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, камин, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Россия, Московская область, Люберецкий район, Новорязанское шоссе, 23-й километр, СНТ Ручеёк, ул. Весенняя 862</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в Банный дворик «Ручеёк»,  который расположился в ближайшем Подмосковье,  в Котельниках! Добираться к нам удобно как на автомобиле,  так и общественным транспортом – вблизи Новорязанское шоссе и станция метро Котельники. 
+Банный дворик «Ручеек» это деревянные 2х этажные срубы с баней на дровах и мини-отелем на благоустроенной закрытой территории.  Празднуете ли Вы торжество,  отдыхаете в семейном кругу или компании друзей,  организуете мальчишник-девичник – наш Банный дворик создаст для гостей необходимые условия,  чтобы Ваш отдых прошел незабываемо.  Интерьер коттеджа выполнен в традиционном русском стиле из натурального дерева,  который создаёт атмосферу современного деревенского дома с его колоритом и настроением. 
+На первом этаже сруба:
+- Русская баня на дровах.  Парная рассчитана на компанию до 6 человек.  Банные веники можете привезти с собой или приобрести у нас.  В бане также – душевая,  обливная кадушка с ледяной водой и банная купель. 
+- Гостиный зал с большим столом для трапезы,  стульями,  скамейкой,  ТВ,  караоке,  холодильником,  СВЧ печью,  чайником и необходимым набором посуды.  В гостиной комфортно будет гостям в количестве до 10-12 человек. 
+На втором этаже дома:
+- Три спальных комнаты с 2х спальными кроватями,  столиком,  стульями.  Интерьер спален также выполнен в русском стиле из дерева,  что способствует комфортному пребыванию и отдыху.  Также предоставляем дополнительные спальные места по запросу,  если компания больше 6 человек. 
+На территории:
+- Большая уличная купель с подогревом,  которая топится дровами до комфортной для Вас температуры. 
+- Беседка – домик
+- Мангал со всем необходимым для приготовления блюд на углях. 
+Бесплатный Wi-Fi на всей территории комплекса. 
+Забронировать банный дворик "Ручеёк" или уточнить подробности Вы можете по телефонам: +7 (965) 434 24 24; +7 (926) 683 24 24
+За сутки: 48
+За последние 30 дней: 478
+Всего: 23067
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, мангал, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, оздоровительный массаж, ароматерапияСервис: охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, настольные игры, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Пн. - Чт. (минимум 2 часа) - 3000 р. за два часа
+•	После 2 часов каждый час 1000 р.
+•	Аренда 12 часов 12000 р.
+•	Аренда за сутки 24 часа 20000 р.
+Сб., Вс. и праздничные дни
+первые 2 часа 4500 р. за два часа
+свыше 2 часов аренда 1500 р./час
+•	2 часа 4500 р.
+•	3 часа 6000 р.
+•	6 часов 10500 р.
+•	12 часов 18000 р.
+•	24 часа 24000 р.
+•	Купель (топка, уход): 3000 р. время не ограничено
+• Фито-купель (на травах, топка, уход): 4500 р. время не ограничено
+Дополнительно:
+Полотенце 150 р.
+Простыня 100 р.
+Тапочки одноразовые 100 р.
+Шапочка 60 р.
+Халат 250 р.
+Веник дуб/береза 250 р.
+Эфирные масла 150 р.
+ </t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, настольные игры, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Россия, Москва, Коломенский проезд, 10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Банный клуб "Девятый вал" — это современный банно-оздоровительный комплекс в Москве,  предназначенный для отдыха,  релаксации и проведения досуга.  Здесь есть финские сауны и турецкие бани хамам,  а также 12 бассейнов разных размеров с водопадами и гидромассажами,  джакузи,  массажные кресла,  бильярды и другие развлечения для Вашего времяпрепровождения. 
+Стоит отметить,  что клуб разделен на отдельные автономные залы,  где Вы и Ваши гости смогут хорошо и с комфортом отдохнуть.  В зависимости от предпочтений гостей и многочисленности компании,  мы можем предложить девять различных залов. 
+КАКОЙ ИЗ ЗАЛОВ ВЫБРАТЬ?
+Все зависит от ваших личных предпочтений,  а также от многочисленности вашей компании.  Зал "Япония" вместимостью до 4-х человек оформлен в восточном стиле в духе минимализма с декоративным входом в японский садик – он явно располагает к романтичному настрою.  В зоне отдыха имеются кожаные диваны,  большой телевизор и массажное кресло,  также здесь есть небольшой бассейн-купель с гидромассажем и финская парная. 
+Яркий и светлый зал "Цветы" также подойдёт для небольшой компании и особенно отдыха с детьми,  в этом зале имеется аква горка.  Если гостей более 6-ти,  но менее 8-ми человек,  мы предложим Вам зал "Африка" или "Греция".  Здесь есть баня (сауна финская с электрокаменкой),  бассейн,  зона отдыха,  телевизор и все необходимое.  На компанию до 10-ти человек рассчитаны залы "Мексика" и "Персия": банный комплекс с бассейном,  турецкая баня хамам,  просторная зона отдыха с диванами и столом,  бильярд.  Зал "Венеция" на 12 человек порадует Вас бассейном 5 х 3. 5 м и искусственным водопадом,  а также обливным устройством для принятия контрастного душа.  Кроме того,  к вашим услугам сухой мягкий лед для обтирания. 
+"Камбоджа" рассчитана на 25 человек: большой зал,  русский бильярд,  финская парная и турецкая баня хамам,  бассейн 7*5м с водопадом и гидромассажем,  большой стол для трапезы,  стрип-подиум.  Постоянных гостей мы можем удивить новым залом под названием "Шале": его вместимость до 20-ти человек: большая баня (сауна финская),  бассейн с водопадом,  русский бильярд,  джакузи,  отдельная комната отдыха и многое другое.  Каждый из залов имеет свои преимущества,  мы постарались создать уютную и неповторимую атмосферу для Вас. 
+За сутки: 19
+За последние 30 дней: 118
+Всего: 9528
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: барУслуги: веники, оздоровительный массаж, массажное креслоСервис: бассейн, кондиционер, бильярд, джакузи, спутниковое тв, караоке, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Цены:
+"Япония", "Ялта" (до 4-х человек):
+будни 10-13 - 1000  руб./час; 13-17 - 1200 руб/час; 17-10 - 1500 руб/час
+пт, сб, вс 10-13 - 1200  руб./час; 13-17 - 1500 руб/час; 17-10 - 1700 руб/час
+"Цветы" (до 6-ти человек):
+будни 10-13 - 1000  руб./час; 13-17 - 1300 руб/час; 17-10 - 1600 руб/час
+пт, сб, вс 10-13 - 1300  руб./час; 13-17 - 1600 руб/час; 17-10 - 1900 руб/час
+"Греция", "Африка" (до 8-ми человек):
+будни 10-13 - 1100  руб./час; 13-17 - 1300 руб/час; 17-10 - 1800 руб/час
+пт, сб, вс 10-13 - 1400  руб./час; 13-17 - 1900 руб/час; 17-10 - 2100 руб/час
+"Мексика", "Венеция", "Персия", "Бразилия (10-12 человек):
+будни 10-13 - 1300  руб./час; 13-17 - 1700 руб/час; 17-10 - 2100 руб/час
+пт, сб, вс 10-13 - 1500  руб./час; 13-17 - 2100 руб/час; 17-10 - 2500 руб/час
+Шале "Карибы" (до 20-ти человек):
+будни 10-13 - 1700  руб./час; 13-17 - 2300 руб/час; 17-10 - 3000 руб/час
+пт, сб, вс 10-13 - 2100  руб./час; 13-17 - 2700 руб/час; 17-10 - 3500 руб/час
+"Камбоджа" (до 25-ти человек):
+будни 10-13 - 1900  руб./час; 13-17 - 2500 руб/час; 17-10 - 3200 руб/час
+пт, сб, вс 10-13 - 2200  руб./час; 13-17 - 2800 руб/час; 17-10 - 3700 руб/час
+ </t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, джакузи, спутниковое тв, караоке, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Генерала Белобородова, 11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Банный комплекс "Ананас" приглашает всех расслабиться в чудесных банных территориях и порадовать себя и своих близких чудесным оздоровительным отдыхом,  который также радует различными веселыми мероприятиями,  водными развлечениями и радует своими красочными помещениями и зонами отдыха.  Банный комплекс расположился в районе Митино,  недалеко от одноименной станции метро,  где вы сможете отлично провести время,  радуясь ярким условиям расслабления и умиротворения.  Если у вас силы на исходе,  то подзарядить их вы легко сможете в приятных расслабляющих банных территориях банного комплекса "Ананас"! Здесь вы можете выбрать один из трех залов,  приехать компанией,  или со своей второй половинкой,  семьей и весело провести время в привлекательном месте,  где все направлено для получения ярких и расслабляющих эмоций.  Попариться ароматно запаренными вениками,  насладиться аква-зонами и приятным массажем вы всегда сможете в банном комплексе «Ананас»,  который порадует безгра</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, мангал, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальянСервис: бассейн, кондиционер, охраняемая парковка, холодная купель, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Зал "Аква"
+Стоимость с 9:30 до 16:00 – 1000 руб. в час. С 16:00 до 09:30 – 1300 руб. в час.
+Зал "Лагуна"
+Стоимость аренды с 9:30 до 16:00 – 1500 руб. в час. С 16:00 до 09:30 – 1800 руб. в час.
+Большой зал "Сахара"
+Аренда зала стоит – 2000 руб. в час.</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, холодная купель, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>г. Москва, Шоссе Энтузиастов, д. 33, стр. 7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Банный комплекс «Генеральский» расположился на территории стадиона «Авангард»,  на границе лесопарковой зоны Измайловского парка.  Это тихое,  уютное место для отдыха и организации праздников.  Наш банный комплекс располагает всем необходимым как для тихого семейного отдыха,  так и большого праздника компании друзей. 
+Парилка вмещает 10 человек,  оборудована дровяной печью.  Также есть и электрическая. 
+После парной Вас ждет бассейн размером 5х4 метра,  с современной системой фильтрации и очистки. 
+Банкетный зал с дровяным камином оформлен в охотничьем стиле,  и вмещает компанию до 20 человек.  Здесь же для Вашего отдыха плазменный экран со спутниковым ТВ,  и системой караоке.  А для любителей бильярда – в комплексе есть бильярдный зал с профессиональным столом для русского бильярда.  
+Прилегающая к банному комплексу огороженная уличная территория площадью около 500 кв. м оборудована  мангальной зоной,  открытой верандой,  газоном для пикников и парковкой на 10 автомобилей.  Открытая веранда площадью более 70 м способна вместить с комфортом более 30 человек и идеально подходит для коллективного отдыха на природе.  Здесь Вы можете как самостоятельно приготовить блюда на углях,  так и заказать у нас профессионального повара - шашлычника.  На территории стадиона "Авангард" находится кафе с русской,  кавказкой и европейской кухней - с возможностью заказа и доставкой выбранных Вами блюд. 
+Вы можете арендовать как весь банный комплекс с уличной территорией,  так и по отдельности,  либо баню,  либо мангальную зону для пикника и отдыха на природе.  
+За сутки: 33
+За последние 30 дней: 270
+Всего: 8142
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: мангал, можно со своими продуктами, кафе, меню доставкиУслуги: веники, банщик, кальян, банкетыСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+ПН - ПТ:
+- 2500 руб/час
+СБ - ВС (и праздничные дни):
+- 3000 руб/час
+Стоимость действительна для компаний до 10 человек. Свыше 10 человек доплата по 100 руб/час за каждого превышающего.
+Дополнительно:
+Простыня - 100 руб.
+Полотенце - 100 руб.
+Тапки одноразовые - 100 руб.
+Комплект (простыня, полотенце, тапки) - 250 руб
+Стоянка а/м - 50 руб
+ </t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Строгинский бульвар, 21, Россия, Москва</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Описание банного комплекса
+Если у Вас имеется желание отдохнуть от душной и суетливой Москвы,  то сауна в Строгино и её разнообразные залы всегда к вашим услугам. 
+В сауне Нептун Вы найдёте по доступным ценам самый широкий спектр тематических банных залов,  а наше обширное меню готово удовлетворить потребности любого посетителя.  Так что вне зависимости от того,  пришли ли Вы большой компанией в наш большой банный зал «Рим» на 20-25 человек (от 2000 руб/час) или собрались вдвоем в уютный  зал «Китай» или романтический «Париж»(от 1000 руб/час) - Вы всегда наш желанный гость. 
+Когда в голову приходит желание отдохнуть в  сауне в Москве,  цена это первое,  что хочется проверить.  А если это сауна с большим бассейном недорого быть не может,  но это не так.  Тут мы подготовили для Вас сюрприз - наша сауна в Строгино предоставляет демократичные цены на залы и услуги.   Цена варьируется в зависимости от времени,  когда Вам хочется отдохнуть.   Если Вам захочется попариться с утра,  то цены в нашем банном клубе Вас приятно удивят и позволят прилично сэкономить.  Также по будням цены в нашей сауне в Строгино ниже,  чем по выходным.  У нас вы сможете воспользоваться услугами профессиональных массажистов и банщиков-парильщиков.  Если же Вы приверженец банных традиций,  то наша сауна на Северо-Западе Москвы по отличным  ценам предоставляет целый набор банных принадлежностей и веников: начиная от  привычных с давних времён дубовых,  до экзотических эвкалиптовых  или бамбуковых веников. 
+Приходите к нам в сауну «Нептун»,  мы постараемся найти наиболее подходящий именно  для Вас вариант.  Мы сможем предложить Вам самые демократичные цены на баню,  будь-то финская парная или турецкий хамам,  и,  главное,  мы гарантируем Вам высокое качество сервиса. 
+И помните,  баня – это не только путь к здоровому телу,  но и к здоровому духу. 
+За сутки: 25
+За последние 30 дней: 139
+Всего: 9670
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: русская, бар, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, массажное креслоСервис: бассейн, кондиционер, бильярд, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Цены
+Зал "Море": 
+будни 1300 - 2100 руб./час
+пт, сб, вс 1500-2500 руб./час
+Зал "Китай":
+будни 1000 - 1500 руб./час, пт, сб, вс 1200-1700 руб./час
+Зал "Русь":
+будни 1300 - 2100 руб./час
+пт, сб, вс 1500-2500 руб./час
+Зал "Камень":
+будни 1300 - 2100 руб./час
+пт, сб, вс 1500-2500 руб./час
+Зал "Рим":
+будни 2000 - 3100 руб./час
+пт, сб, вс 2400-3700 руб./час
+Зал "Космос":
+будни 1000 - 1800 руб./час
+пт, сб, вс 1400-2100 руб./час
+Зал "Индия":
+будни 1000 - 1800 руб./час
+пт, сб, вс 1400-2100 руб./час
+Зал "Париж":
+будни 1000 - 1500 руб./час 
+пт, сб, вс 1200-2700 руб./час
+Зал "Техас": 
+будни 1300 - 2100 руб./час
+пт, сб, вс 1500-2500 руб./час
+Отдыхаете, паритесь и веселитесь в нашем клубе свыше 5 часов и получаете 10% скидки.
+ </t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Московская обл, Одинцовский район, с. Ромашково, ул. Светлая, д.1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Резиденция Кунцево располагается в 2х км от МКАД по Рублёво-Успенскому шоссе в Одинцовском районе.  Это отличное место для проведения мероприятий,  празднования знаменательных событий или загородного отдыха в компании друзей.  Резиденция находится на закрытой от посторонних глаз территории 1 га,  с ландшафтным дизайном,  фонтаном,  ротондой,  детской площадкой,  беседкой и мангальной зоной.  Есть свой выход в лес.  Дизайнерский интерьер выполнен в классическом стиле 18 века,  и не оставит равнодушным даже самого взыскательного гостя. 
+Банный комплекс располагается в отдельно стоящем здании (1000 м2) в котором для гостей:
+- русская баня на дровах;
+- бассейн 17х5 метров с подогревом,  подсветкой и водопадом;
+- каминный зал;
+- кальянная;
+- несколько зон отдыха с роскошной мебелью;
+- спутниковое ТВ,  караоке,  музыкальный центр;
+- спальни/комнаты отдыха. 
+Резиденция площадью 1000 кв. м включает в себя:
+- 2 этажа;
+- банкетный зал до 60 человек;
+- гостиный зал;
+- каминный зал;
+- зона отдыха с бильярдным столом;
+- 6 спален со своими санузлами и гардеробными (до 35 человек);
+- 6 гардеробных;
+- 1 огромная кухня со всем необходимым оборудованием;
+- летняя терраса. 
+Всю подробную информацию вы можете узнать у ад</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: мангал, можно со своими продуктамиУслуги: кальян, музыкальный центр, банкетыСервис: бассейн, кондиционер, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV, камин, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> СТОИМОСТЬ:
+Банный комплекс (до 10 гостей):
+- 3000 руб/час
+- 40 000 руб/сутки</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV, камин, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Москва, Волоколамское шоссе, 89к1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Провести время с комфортом в кругу друзей и близких предлагает усадьба «Таежные бани».  Приятное обслуживание,  многообразие оздоровительных программ и незабываемая атмосфера настоящей русской баньки – то,  что нужно для качественного и полезного отдыха. 
+Варианты размещения
+Мы предлагаем несколько банных срубов,  оформленных в различных тематиках. 
+1.  «Охотничий».  Уютная баня,  стилизованная под настоящий охотничий домик.  Все элементы сруба выполнены из натуральной древесины,  что делает пребывание в нем максимально комфортным.  Здесь вы можете эффективно попариться с ароматными вениками,  поплавать в бассейне или поиграть в бильярд. 
+2.  «Купеческий».  Просторный сруб с дровяной печью,  выполненный в исконно русских традициях.  Значительная площадь помещения позволяет с удобством расположиться большой компанией.   
+3.  «Гжель».  Стильный небольшой домик,  расположенный в уединенном месте.  В летнее время гости могут не только насладиться банными процедурами,  но и освежиться в бассейне под открытым небом. 
+4.  «Русь».   Традиционные интерьеры и неотъемлемые элементы русской избы создают ощущение умиротворения и спокойствия.  После релаксации в бане гости могут окунуться в прохладный бассейн или провести время за игрой в бильярд. 
+5.  «Петр I».  Отдых в элегантном домике предусматривает не только парную и бассейн,  но и оздоровительные процедуры в фитобочке.  Даже после одного сеанса прилив сил и позитивного настроения обеспечен!
+6.  «Ермак».  Помимо традиционной русской парной,  гостям предлагается турецкий хаммам.  Это идеальный вариант для тех,  кто не переносит высокие температуры. 
+7.  «Байкал».  Классическая русская баня с густым паром и зашкаливающими температурами – прекрасный способ расслабиться после тяжелой рабочей недели. 
+Гости могут арендовать понравившийся домик на один или несколько дней,  в зависимости от предпочтений и количества посетителей. 
+Дополнительные услуги:
+Оздоровительные процедуры благоприятно влияют на физическое и моральное состояние,  позволяют снять стресс и надолго дарят ощущение позитива. 
+Чтобы процедуры в сауне дали великолепный результат,  вы можете воспользоваться услугами банщиков.  Наши специалисты помогут выбрать веники и провести процедуру максимально эффективно. 
+Все гости без исключения могут насладиться расслабляющим массажем,  который выполняется опытными профессионалами.  А прекрасным дамам придутся по душе уникальные спа-процедуры для красоты тела. 
+Желающим перекусить предлагаем заглянуть в ресторан русской кухни,  отведать мясные блюда на мангале или провести время в баре.  Широкий выбор блюд и напитков по демократичным ценам порадует даже самых избирательных посетителей. 
+Также,  на территории нашего комплекса "Таёжные бани" к Вашим услугам мини-отель "Таёжный" с номерами различный категорий,  от "стандарт" до аппартаментов в японском стиле и коттеджей.  В нашем отеле можно арендовать номер не только с посуточной оплатой,  но и с почасовой. 
+ Видео банного комплекса "Таёжные бани":
+https://www.youtube.com/watch?v=fiv6idkXIzo 
+За сутки: 28
+За последние 30 дней: 418
+Всего: 34659
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баня, русская на дровахКухня: русская, бар, мангал, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, кальян, кедровая бочкаСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, настольные игры, камин, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сруб "Охотничий"
+с 10:00 до 18:00 - 6 000 руб/час;
+с 18:00 до 10:00 - 6 000 руб/час;
+Сруб "Купеческий"
+с 10:00 до 18:00 - 6 000 руб/час;
+с 18:00 до 10:00 - 6 000 руб/час;
+Сруб "Гжель"
+с 10:00 до 18:00 - 6 000 руб/час;
+с 18:00 до 10:00 - 6 000 руб/час;
+Сруб "Русь"
+с 10:00 до 18:00 - 5 000 руб/час;
+с 18:00 до 10:00 - 5 000 руб/час;
+Сруб "Петр I"
+с 10:00 до 18:00 - 5 000 руб/час;
+с 18:00 до 10:00 - 5 000 руб/час;
+Сруб "Ермак" 
+Круглосуточно - 14 000 руб/час; 
+Сруб "Байкал"
+Круглосуточно - 12 000 руб/час; 
+ХАМАМ
+Круглосуточно - 10 000 руб/час; </t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, настольные игры, камин, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>улица Рогова, дом 22, корп. 2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная городская баня у метро Щукинская расположилась на улице Рогова,  дом 22,  корп 2.  Банный комплекс "Легкий  пар" рассчитана на гостей любого уровня и достатка.  Кроме бюджетных общих мужских и женский отделений в банном комплексе представлены отдельные сауны люкс - класса,  где можно провести время в компании друзей или семьи. 
+В общих отделениях бани для посетителей предлагается русская парная с мокрым паром,  бассейн с прохладной водой размером 2×2, 5 метра и душевые.  Для переодевания и отдыха - кабинки,  а если Вы пришли с компанией к Вашим услугам кабинеты вместимостью до 8 человек.  
+В продаже выбор веников,  банные принадлежности и средства гигиены.  
+Подробную информацию можно узнать у администратора бани по телефонам:
+8 495 947 27 69 или 8 495 234 61 56 
+За сутки: 24
+За последние 30 дней: 127
+Всего: 3973
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баняКухня: бар, можно со своими продуктамиУслуги: веники, банщик, оплата картамиСервис: бассейн, холодная купель, спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Входной билет на 3 часа.
+Мужское отделение:
+Пн - Чт - 1300 руб;
+Сб - Вс - 1400 руб; (праздничные дни по стоимости выходных);
+Режим работы: 
+Будние дни с 08:00 до 22:00 (кроме пятницы). Понедельник 12:00 до 22:00
+Выходные и праздничные дни с 08:00 до 23:00
+Женское отделение:
+Пн - Пт - 1300 руб;
+Сб - Вс - 1400 руб (праздничные дни по стоимости выходных)
+Режим работы:
+Будние дни с 08:00 до 22:00. Понедельник с 08:00 до 20:00. Среда с 12:00 до 20:00
+Выходные и праздничные дни с 08:00 до 22:00
+Пенсионеры: Пн - Вт с 8:00 до 14:00 - 600 руб.
+Дети до 7 лет - бесплатно
+Дети от 7 до 12 лет - 600 руб.
+Прокат простыней - 250 руб.
+Тапочки одноразовые - 100 руб.
+Банный веник в ассартименте - 350 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Березовая аллея, дом 12А</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Баня «Аквалина» расположена на Берёзовой аллее и выглядит как настоящий особняк,  её площадь – 200 квадратных метров,  а вмещает это шикарное заведение до 20 человек.  К вашим услугам предлагается русская парная на дровах,  в которой одновременно поместится 6 отдыхающих.  Вам откроются настоящие традиции отдыха в бане,  которые бережно хранились нашим народом и передавались из поколения в поколение.  В нашей бане работают профессиональные банщики,  которые помогут вам оздоровиться и предоставят все необходимые услуги,  наиболее важная из которых – массаж вениками.  На выбор посетителей есть наиболее распространённые виды: берёзовые,  дубовые и даже травяные.  В этом большое преимущество нашей бани,  потому что не каждому человеку подойдёт тот или иной тип веников.  После процедуры эффект лучше закрепить травяным чаем.  Наши банщики-профессионалы подберут для вас оздоровительную программу,  благодаря которой вы уйдёте от нас бодрым,  здоровым и захотите вернуться ещё.  
+У гостей есть возможность отведать блюда русской кухни,  заказать напитки в нашем баре,  в том числе разливное пиво и даже шашлыки на мангале,  таким образом вы отметите любой праздник,  в том числе корпоративную вечеринку.  Кто любить плавать,  тот может искупаться в просторном бассейне.  В двух комнатах отдыха установлена уютная мебель,  имеется отдельное помещение для проведения банкетов и ароматный кальян.  
+Для любителей караоке предлагается более 200. 000 песен,  которые можно слушать в широком диапазоне громкости.  Также есть возможность поиграть в бильярд. 
+sauna-ostankino.ru
+За сутки: 18
+За последние 30 дней: 121
+Всего: 7218
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, бильярд, холодная купель, спутниковое тв, караоке, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Стоимость: 
+от 1300 руб/час до 1500 руб/час (до 6 человек, свыше по 100 руб/час за человека)
+Внимание! АКЦИИ:
+- Акция выходного дня. Воскресенье - семейные выходные с детьми. Скидка 20 % на меню.
+- Акция будних дней. ПН, ВТ, СР до 17 часов - при заказе сауны от 2х часов - 3й час в подарок.</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, холодная купель, спутниковое тв, караоке, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Химки, микрорайон Сходня, ул. Некрасова, дом 2 Г</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные Бани № 2 "Жар Птица" расположились в Химках,  в микрорайоне Сходня,  на ул.  Некрасова 2 Г.  Это главные городские общие бани,  построенные во времена СССР,  в 1961 году.  В 2020 году в банях производился капитальный ремонт,  но по задумке руководства банного комплекса,  бани сохранили первозданный вид,  стилистику помещений и мебель времен СССР.  Попадая в помещение бани,  гости перенесутся в 60-80 года прошлого века,  с банными традициями того времени,  интерьером и обликом помещений.  
+Общая баня делится на 2 разряда,  мужской и женский.  
+Мужской разряд:
+- парная на дровах,  21 м3;
+- парная на дровах,  9 м3;
+- сауна 21 м3 на электрических ТЭНах;
+- сауна 9 м3 на электрических ТЭНах;
+- кедровые бочки;
+- холодная купель;
+- помывочный зал с душевыми кабинами и обливными кадушками;
+- зал для отдыха с диванами. 
+Женский разряд:
+- парная на дровах,  30 м3;
+- помывочный зал с душевыми кабинами и обливными кадушками;
+- зал для отдыха с диванами
+Если хотите провести время своей компанией друзей или в кругу семьи,  в аренду предлагаются отдельные кабинки,  рассчитанные на 4-8 человек. 
+Также,  можете воспользоваться услугами банщика-парильщика или массажиста.  В продаже всегда банные принадлежности и средства гигиены. 
+Режим работы бани с 08-00 до 23-00 (Чт-Вс)
+Дополнительную информацию можно узнать по телефону бани:
++7 925 811 11 60 
+За сутки: 33
+За последние 30 дней: 258
+Всего: 2193
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кедровая бочка, оплата картамиСервис: охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Мужской разряд:
+Будние дни.
+08-00 – 12-00 – 380 руб/2 часа;
+Больше 2х часов – 95 руб/30 минут;
+12-00 – 17-00 – 560 руб/2 часа;
+Больше 2х часов – 140 руб/30 минут;
+17-00 – 23-00 – 620 руб/2 часа;
+Больше 2х часов – 155 руб/30 минут;
+Дети до 7 лет – бесплатно;
+Дети с 7 до 18 лет – 380 руб/2 часа;
+Больше 2х часов – 95 руб/30 минут;
+Льготные категории с 08-00 до 12-00 – 50%
+Выходные и праздничные дни.
+08-00 – 23-00 – 620 руб/2 часа;
+Больше 2х часов – 155 руб/30 минут;
+Дети до 7 лет – бесплатно;
+Дети с 7 до 18 лет – 420 руб/2 часа;
+Больше 2х часов – 105 руб/30 минут
+Женский разряд:
+Будние дни.
+08-00 – 12-00 – 260 руб/2 часа;
+Больше 2х часов – 65 руб/30 минут;
+12-00 – 17-00 – 380 руб/2 часа;
+Больше 2х часов – 65 руб/30 минут;
+17-00 – 23-00 – 420 руб/2 часа;
+Больше 2х часов – 95 руб/30 минут;
+Дети до 7 лет – бесплатно;
+Дети с 7 до 18 лет, до 17-00 – 100 руб/2 часа;
+Больше 2х часов – 25 руб/30 минут;
+Дети с 7 до 18 лет, после 17-00 – 200 руб/2 часа;
+Больше 2х часов – 65 руб/30 минут;
+Льготные категории с 08-00 до 12-00 – 50%
+Выходные и праздничные дни.
+08-00 – 23-00 – 420 руб/2 часа;
+Больше 2х часов – 95 руб/30 минут;
+Дети до 7 лет – бесплатно;
+Дети с 7 до 18 лет – 200 руб/2 часа;
+Больше 2х часов – 65 руб/30 минут
+Дополнительно: 
+Веник – 180 руб;
+Тапочки – 280 руб;
+Шапка банная – 230 руб;
+Прокат халата банного – 200 руб;
+Прокат полотенца – 100 руб;
+Прокат простыни – 125 руб;
+Аренда кабинок от 1600 руб до 2200 руб/2 часа.
+ </t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Московская область, г. Балашиха, микрорайон Железнодорожный, ул. Луговая, дом 1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани в Железнодорожном микрорайоне Балашихи расположились на улице Луговая,  дом 1.  Баня топится исключительно дровами,  и включает в себя: 
+- русская парная на дровах;
+- помывочный зал с душевыми;
+- бассейн-купель с прохладной водой;
+- зал для отдыха с диванами,  скамейками,  столиками и ТВ;
+- кафе-бар с прохладительными напитками и лёгкими закусками;
+- отдельное кафе во дворе;
+- места для отдыха на свежем воздухе,  скамейки;
+- отдельный вип-зал для компании;
+- услуги массажиста,  парикмахерская;
+- парковка для автомобилей на территории.  
+Общая городская баня на Луговой работает ежедневно,  кроме понедельника.  
+Дополнительную информацию можно узнать по телефону бани:
++7 903 555 20 99
+За сутки: 43
+За последние 30 дней: 462
+Всего: 4054
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, мангал, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массаж, оплата картамиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+от 400 руб/сеанс
+Режим работы: 
+Понедельник - выходной
+Вторник - 09:00 – 22:00
+Среда - 09:00 – 22:00
+Четверг - 09:00 – 22:00
+Пятница - 09:00 – 23:00
+Суббота - 09:00 – 23:00
+Воскресенье - 09:00 – 22:00</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Москва, поселение Рязановское, пос. Остафьево, дом 9 Б</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани на дровах в Остафьево открылись в 1934 году.  За этот период баня претерпела ряд конструктивных изменений,  но и по сей день пользуется неизменной популярностью у любителей русской парной.  Общая баня делится на мужские и женские дни,  а также по средам возможно арендовать весь комплекс,  для  компании друзей,  отдыха в семейном кругу или проведения мероприятия.  К зданию бани примыкает гостевая автостоянка и дворик с беседкой и мангалом,  для отдыха на свежем воздухе.  Летом во дворе установлены лежаки,  а зимой,  после жаркой парной,  можно окунуться в снег.  Общие бани рассчитаны на одновременное пребывание до 40 посетителей. 
+В бане для гостей:
+- раздевалка с вешалками и индивидуальными сейфовыми ячейками;
+- две русских парных на дровах;
+- помывочная,  душевые,  бассейн-купель;
+- зал для отдыха с лежаками,  столами,  скамейками,  ТВ,  настольными играми и принадлежностями для чая;
+- веники,  банные принадлежности и средства гигиены в продаже. 
+Баня работает до 22 часов,  с четверга по воскресенье.  
+Доп</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, мангал, можно со своими продуктамиУслуги: веники, массажное креслоСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+В общественные дни стоимость за входной билет, без ограничения по времени.
+Четверг:
+- 650 руб;
+Дети до 6 лет – бесплатно;
+Дети 7 – 14 лет – 400 руб;
+Многодетные родители – 550 руб;
+Пенсионеры по старости, инвалиды 1 группы – 450 руб.
+Пятница:
+- 700 руб;
+Дети до 6 лет – бесплатно;
+Дети 7 – 14 лет – 450 руб;
+Многодетные родители – 600 руб;
+Пенсионеры по старости, инвалиды 1 группы – 500 руб.
+Суббота:
+- 700 руб;
+Дети до 6 лет – бесплатно;
+Дети 7 – 14 лет – 450 руб;
+Воскресенье:
+- 700 руб;
+Дети до 6 лет – бесплатно;
+Дети 7 – 14 лет – 450 руб;
+Среда – по предварительному заказу, для компаний. Не менее 3х часов.
+- 2000 руб/час (до 10 человек);
+- 2500 руб/час (11 – 20 человек)
+Душ отдельно (без бани) – 350 руб
+Режим работы: 
+ПН – санитарный день;
+ВТ – выходной;
+СР – круглосуточно (заказ);
+ЧТ – с 14-00 до 22-00;
+ПТ – с 14-00 до 22-00;
+СБ – с 11-00 до 22-00;
+ВС – с 11-00 до 22-00
+Мужские дни: четверг, суббота, воскресенье.
+Женский день: пятница
+ </t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ул. Новоостаповская, дом 5, стр. 2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Баня на Морозе" - расположилась в Ледовом комплексе "Морозово",  рядом со станциями метро Дубровка и Волгоградский проспект.   Баня на Морозе позволит получить банно-оздоровительные процедуры сразу после тренировки,  провести время в компании друзей,  отдохнуть с семьёй,  посмотреть спортивные трансляции на больших экранах и отдохнуть от шума и суеты мегаполиса.  Баня рассчитана на компанию до 15 человек.  Парная вмещает одновременно 6-8 человек. 
+Можно объединить аренду бани и льда,  проводить корпоративы и праздничные мероприятия. 
+В бане "на Морозе" для гостей:
+- русская баня;
+- две контрастные купели;
+- обливное ведро,  душевые;
+- душистый чай из самовара,  сушки,  пряники;
+- снековое меню;
+- закуски и полное меню ресторана "Лёд";
+- комната отдыха (2 больших экрана со спортивными трансляциями,  приставка Sony Playstation 4,  Wi-Fi);
+- настольные игры
+В продаже имеются банные веники и аксессуары.  Дополнительно,  можно воспользоваться услугами банщика - парильщика или пригласить профессионального массажиста (есть массажный кабинет). 
+Кроме аренды бани одной компанией,  мы предлагаем посещение с массовым парением,  и пакетные предложения для корпоративов.  Расписание массовых парений и полную информацию можно узнать у администратора.  
+Забронировать баню или задать интересующие вопросы можете по телефонам:
++7(926)367-77-79; +7(926)856-77-74
+Официальный сайт ледовой арены "Морозово":
+https://arenamorozovo.ru/
+За сутки: 21
+За последние 30 дней: 99
+Всего: 3613
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, ресторан, можно со своими продуктами, кафе, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, музыкальный центр, банкеты, акции и скидкиСервис: холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Аренда бани целиком:
+3000 рублей /1 час
+5000 рублей/2 часа
+6500 рублей /3 часа
+Каждый последующий час после 4-го 2000 рублей. 
+При аренде бани от 4х сеансов в месяц - скидки до 20%
+Массовые парения:
+500 руб/сеанс
+Каждое 10-е посещение бани в подарок.
+Длительность сеансов и расписание парений можно узнать по телефонам бани.
+Дополнительно:
+Парение классическое – 1500 руб;
+Массаж ног – 500 руб;
+Массаж шеи и головы – 800 руб;
+Арома – 500 руб.
+Товары:
+Веник банный – 300 руб;
+Халат махровый – 3000 руб;
+Халат вафельный – 1400 руб;
+Шапка банная – 300 руб;
+Тапочки махровые – 100 руб;
+Простынь бязевая 150х180 см – 500 руб
+ </t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ул. Совхозная, дом 8, стр. 1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  Мужской разряд. 
+Общественная баня на Совхозной улице,  дом 8 расположилась в районе Люблино,  и работает для посетителей с 08-00 до 22-00.  В бане только мужской разряд. 
+Гостям предагается:
+- Финская сауна;
+- Турецкий хаммам;
+- Душевые,  обливные кадушки;
+- Зал для отдыха со столиками;
+- Раздевалка с индивидуальными шкафчиками;
+- Прохладительные напитки,  банные принадлежности и средства гигиены в продаже. 
+В одном здании с баней находится магазин продуктов,  где вы можете приобрести себе перекусить. 
+Подробную информацию можете узнать у администратора бани:
+8 495 351 79 96
+За сутки: 27
+За последние 30 дней: 264
+Всего: 2920
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: бар, можно со своими продуктамиУслуги: веники, оплата картамиСервис: обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Без ограничения времени пребывания в указанные часы.
+Пн - Пт:
+08-00 - 13-00 - 250 руб;
+13-20 - 22-00 - 500 руб;
+Сб - Вс:
+08-00 - 22-00 - 500 руб
+Режим работы:
+Ежедневно с 08-00 до 22-00
+с 13-00 до 13-20 — технический перерыв.</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Московская обл, Домодедово, село Красный Путь, микрорайон Белые Столбы-2 ул. Гвардейская</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Баня Шаховская - это общественные городские бани в Домодедово,  расположенные в мкр.  Белые Столбы - 2,  на улице Гвардейская. 
+Общая баня Шаховская разделяется на мужские и женские дни,  и работает 5 дней в неделю - Ср,  Чт,  Пт,  Сб и Вс. 
+В бане для гостей: 
+- русская парная с добротной печью,  которая топится только березовыми дровами;
+- помывочная с душевыми кабинами и обливными кадушками;
+- зал для отдыха со скамейками и столами;
+- бар-буфет с прохладительными напитками и лёгкими закусками;
+- в продаже - банные принадлежности и средства гигиены;
+Общие бани славятся своей печью,  лёгким паром и вместительной парной.  Приятная и дружеская атмосфера бани подарит гостям заряд бодрости и отличного настроения. 
+Подробную информацию можно узнать по телефону бани: 
++7 926 279 49 08 
+За сутки: 42
+За последние 30 дней: 351
+Всего: 4428
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, оздоровительный массажСервис: обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 650 руб/безлимит
+Режим работы
+Мужские дни:
+Чт - 14-00 - 21-00;
+Сб - 10-00 - 23-00;
+Вс - 10-00 - 21-00;
+Женские дни:
+Ср - 14-00 - 21-00;
+Пт - 14-00 - 23-00</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Россия, Москва, Ленинградский проспект, 39, стр. 3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна «Баскет-бар» приглашает вас повеселиться и провести время отлично: к вашим услугам замечательные апартаменты,  которые устроены в современном стиле.  Такое стильное и яркое решение в виде полноценного банного отдыха обязательно принесет вам много приятных эмоций.  «Баскет-бар» находится в Хорошевском районе Москвы,  недалеко от метро Аэропорт и Динамо.  Приглашаем вас посетить замечательные типы парных и проникнуться приятными эмоциями,  способствующими вашему расслаблению.  Интерьеры сауны представляют собой оригинальную атмосферу,  в которой вы найдете много укромных зон и веселого проведете время.  В этой сауне замечательно пройдут дружеские встречи или просмотры спортивных матчей на большой ТВ-панели.  Зона с мягкими диванами,  различные развлечения,  которые всегда принесут множество приятных эмоций.  Если вы хотите сделать отдых впечатляю</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: русская, бар, ресторанУслуги: веники, банщик, оздоровительный массаж, ароматерапия, кальянСервис: бассейн, кондиционер, джакузи, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Цены
+V.I.P. Зал - 1500 руб/час
+Золотой зал - 1500 руб/час
+Люкс зал - 1500 руб/час
+У нас профессиональное караоке, каждый час песня бесплатно.
+В праздники и выходные скидки. Подробности вы можете узнать по телефону.
+ </t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, джакузи, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Московская обл, Домодедово, мкр. Белые Столбы, ул. Пролетарская, дом 5</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани в Домодедово "Белые столбы" расположились в одноименном микрорайоне,  на улице Пролетарская,  дом 5.  
+Общие отделения бани работают с пятницы по воскресенье,  с 11-00 до 22-00.  
+В бане для гостей:
+- русско-финская парная (электрическая);
+- помывочный зал с душевыми кабинами и обливными кадушками;
+- зал для отдыха со скамейками и столами;
+- бар-буфет с прохладительными напитками и лёгкими закусками;
+- банные принадлежности и средства гигиены в продаже. 
+Общая городская баня делится на мужские и женские дни посещения: пятница - женский день,  суббота и воскресенье - мужские дни. 
+Дополнительную информацию можно узнать по телефону бани:
++7 925 805 45 85
+За сутки: 31
+За последние 30 дней: 285
+Всего: 3954
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, оплата картамиСервис: спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 500 руб/2 часа;
+- 700 руб/день
+Режим работы:
+с 11-00 до 22-00
+Пт - женский день;
+Сб, Вс - мужские дни</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Московская область, Раменский район, поселок городского типа Быково, Вялковская улица, 1а </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские Быковские бани расположились в тихом уголке Раменского района Московской области,  в двух минутах ходьбы от живописного парка.  Общая баня делится на мужские и женские дни посещения.  Баня славится отличным паром,  добротной печью и вместительной парной.  Напротив бани,  в лесопарковой зоне находится пруд,  где в зимнее время гости могут окунуться в ледяную прорубь,  а летом искупаться в прохладной воде. 
+В бане для гостей:
+- 2 парные,  одна из которых топится дровами,  вторая газовой печью и финская сауна;
+- бассейн - купель;
+- помывочная с душевыми;
+- зал для отдыха с креслами и столами;
+- кафе-бар с напитками и закусками;
+- услуги банщика - парильщика и массажиста;
+- банные принадлежности в продаже;
+- парикмахерская,  солярий,  парковка. 
+Для желающих провести время в семейном кругу,  в компании друзей или наедине с близким человеком,  предлагаем отдельную ВИП- баню на дровах.  В бане кроме русской парной и бассейна-купели,  гостей порадует зал для отдыха с диванами,  столом для трапезы,  ТВ и караоке. 
+Режим работы общественной бани с 08-00 до 22-00
+Общие бани предоставляют скидки для льготных категорий населения.  Подробности уточняйте у администратора бани по телефонам:
++7 496 469 10 43 или +7 903 666 71 06
+За сутки: 48
+За последние 30 дней: 529
+Всего: 5049
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массаж, ароматерапия, солярий, музыкальный центр, оплата картами, акции и скидкиСервис: бассейн, охраняемая парковка, холодная купель, прорубь, спутниковое тв, караоке, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Входной билет:
+Пн, Ср, Чт, Пт - 400 руб;
+Сб, Вс - 600 руб;
+Для льготных категорий населения действуют скидки.
+Отдельная VIP баня - 1200 руб/час
+Режим работы: 
+с 08-00 до 22-00
+Понедельник - общий
+Вторник - санитарный день
+Среда - женский
+Четверг - женский (с 19-30 общий)
+Пятница - мужской
+Суббота - мужской
+Воскресение - мужской
+ </t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, прорубь, спутниковое тв, караоке, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>г. Видное, ул. Гаевского, дом 1А</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани в г.  Видное предлагают жителям и гостям Москвы и области получить максимум удовольствия от посещения современной русской бани на дровах.  Бани расположились в старой части города,  на улице Гаевского,  дом 1 А,  и работают для посетителей все дни,  кроме понедельника. 
+Банный комплекс в г.  Видное обслуживает посетителей с 1954 года и хорошо себя зарекомендовал отличным паром,  чистотой помещений и душевной атмосферой.  В сентябре 2017 года в банях был произведен капитальный ремонт,  где использовались только натуральные и экологичные материалы - липа,  камень и керамика. 
+Отличительной чертой Видновских бань является то,  что за 65 лет существования,  бани топятся исключительно дровами. 
+В общей бане представлены 2 отделения - мужское и женское,  а также отдельные номерные сауны для компании друзей или семьи. 
+В каждом общем отделении для гостей:
+- вместительная русская парная на дровах;
+- душевые и обливные кадушки;
+- зал для отдыха разделенный на кабинки;
+- услуги профессионального парильщика;
+- ароматические и спа - процедуры;
+Посетители комплекса могут приобрести все необходимые банные принадлежности - дубовые и березовые веники,  шапки,  простыни,  одноразовые тапочки,  шампуни,  мыло,  гели для душа и мочалки.  
+На территории Видновских бань находится спорт-бар "Ника",  где посетители могут заказать блюда европейской и азиатской кухни,  прохладительные напитки или чай/кофе.  Особый акцент сделан на традиционно банных блюдах: супах,  закусках,  горячих и холодных салатах,  а также блюда из мяса,  птицы или рыбы.  Демократичные цены и высокий уровень сервиса гарантированы! Холодное пиво,  отменная еда и просмотр спортивного матча - что может быть лучше после горячей баньки?
+Обращаем Ваше внимание,  что приносить с собой и употреблять продукты питания,  напитки (особенно алкоголь) у нас запрещено.  Вашему вниманию предлагается наш бар-ресторан,  где вы сможете приобрести готовые блюда и разнообразные напитки. 
+По всем вопросам звоните по телефону бани : 
++7 929 502 62 82 
+За сутки: 49
+За последние 30 дней: 346
+Всего: 3343
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: охраняемая парковка, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Сеанс - 3 часа.
+- 700 руб/3 часа
+Каждый дополнительный час - 100 руб.
+Без ограничения по времени:
+- 800 руб
+Ветераны и участники ВОВ - бесплатно;
+Дети до 7 лет - бесплатно;
+Дети с 7 до 14 лет - 300 руб/3 часа;
+Пенсионеры и инвалиды (Вт - Пт) - 300 руб
+Многодетные семьи при наличии документов (Вт - Пт) - 300 руб
+Режим работы:
+Вт - Пт - 10-00 - 22-00
+Сб - Вс - 09-00 - 22-00
+Дополнительно:
+Веник дубовый - 250 руб;
+Веник березовый - 180 руб;
+Веник пихтовый - 180 руб;
+Веник липовый - 220 руб;
+Веник эвкалиптовый - 180 руб;
+Веник донник - 140руб;
+Веник полынь - 140 руб;
+Тапочки резиновые (пара) - 250 руб;
+Прокат простыни - 150 руб
+ </t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Внуково, ул. Аэрофлотская, дом 4 Б</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  
+Внуковские бани расположились в районе Москвы Внуково,  на ул.  Аэрофлотская,  дом 4 Б.  Это общественные городские бани,  в которых представлены общие мужские и женские отделения,  отдельные номерные сауны,  массажные кабинеты,  салон красоты и гирудотерапия.  Здесь вы сможете провести время с пользой для здоровья,  помыться и попариться.  Сеанс в общих отделениях длится 3 часа.  Всегда в продаже товары для бани и средства гигиены.  
+Работают отделения ежедневно,  кроме понедельника (санитарный день),  с 08:00 до 22:00 часов,  сауна — круглосуточно.  Для льготных категорий граждан предусмотрены скидки и льготные дни посещения.  
+Подробную информацию можно узнать у администратора бани по телефону:
+8 495 436 69 92
+За сутки: 27
+За последние 30 дней: 124
+Всего: 2151
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, массажное кресло, оплата картами, акции и скидкиСервис: бассейн, охраняемая парковка, холодная купель, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Сеанс 3 часа. 
+Мужской разряд:
+Пн - Пт - 1000 руб/сеанс;
+Сб - Вс - 1100 руб/сеанс;
+Праздничные дни - 1100 руб/сеанс
+Дети до 7 лет - бесплатно
+Дети 7-12 лет - 500 руб/сеанс
+Льготные дни: Вт с 08-00 до 20-00; Ср, Чт с 08-00 до 14-00 - 500 руб/сеанс.
+Женский разряд:
+Пн - Пт - 900 руб/сеанс;
+Сб - Вс - 1000 руб/сеанс
+Праздничные дни - 1000 руб/сеанс
+Дети до 7 лет - бесплатно
+Дети 7-12 лет - 450 руб
+Льготные дни: Вт, Чт с 08-00 до 20-00; Ср с 08-00 - 14-00 - 450 руб/сеанс
+Режим работы:
+Пн - санитарный день; Вт - Вс с 08-00 до 22-00
+ </t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Москва, Воронцовский переулок, 5/7, стр. 1  </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Воронцовские бани" – это исторический банный комплекс,  существующий с 1938 года.  Помимо трех шикарных общественных разрядов,  он включает в себя четыре отдельных тематических зала отдыха: "Минимализм",  "Хаммам",  "Русский зал" и "Индиана",  а также 6 мини-саун,  предназначенных для тихого уединенного отдыха.  Атмосфера комфорта и профессиональный персонал,  безусловно,  дадут вам почувствовать себя дорогим гостем.  Здесь вы сможете полностью расслабиться от городской суеты и вдохнуть новую жизнь в свое тело! Наши виртуозы-банщики предложат различные виды парения и ароматерапии.  Среди предлагаемых процедур такие,  как парение на сене или пихте,  различные виды пилинга и скрабирования.  А массаж после бани принесет вам массу удовольствия! Наличие ресторана,  в котором даже самый требовательный гурман выберет себе блюдо по вкусу,  делает это заведение еще более</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баняКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, банкеты, оплата картамиСервис: бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Минимализм:
+1 час = 7000 рублей.
+Турецкий хамам:
+1 час = 8000 рублей
+Русская баня:
+1 час = 5000 рублей.
+Индиана:
+1 час = 4000 рублей.
+Мини-сауны:
+1 час = 2000-4000 рублей
+Спецпредложение:
+Постоянным клиентам мы дарим скидку на время посещения, бар и ресторан в размере от 10 до 20%!
+ </t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Московская область, поселок Восточный, улица 9 Мая, дом 8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские Восточные бани расположились в посёлке Восточный,  на ул.  9 Мая,  дом 8 (рядом с МКАД).  В здании банного комплекса находится общая баня и индивидуальные сауны. 
+Общие бани работают ежедневно с 09-00 до 21-00 и делятся на мужской и женский разряд.  
+В бане для гостей:
+- русско-финская парная;
+- помывочная с душевыми кабинами;
+- бассейн-купель с холодной водой;
+- зал для отдыха с диванами и столами;
+- в продаже банные принадлежности и средств гигиены. 
+На территории бани работает массажный кабинет,  кафе,  солярий и парикмахерская.  
+Дополнительную информацию можно узнать по телефону:
++7 499 780 16 28
+За сутки: 27
+За последние 30 дней: 190
+Всего: 14163
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массаж, солярий, оплата картамиСервис: холодная купель, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ: 
+- 800 руб/3 часа
+Пенсионеры - 50 % (по будням, до 12-00)
+Режим работы: 
+ежедневно, с 09-00 до 21-00
+ </t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>холодная купель, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Московская область, г/о. Домодедово, Востряково, Проспект 1 Мая, 48а</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественные бани. 
+Востряковские бани – один из старейших подмосковных банных комплексов,  построенный в начале ХХ века.  Совсем недавно была выполнена реконструкция. 
+Востряковские бани занимают большое одноэтажное здание,  в котором располагается: общий зал,  со своим большим бассейном и автоматической системой очистки,  а так же русской парной на дровах выполненной в современном стиле; вип зал с собственным бассейном и мебелью из массива дерева и русской парной на дровах,  кухня и массажные кабинеты.  Парадная часть здания имеет уютную приватную территорию,  где можно посидеть,  отдохнуть,  подышать свежим воздухом и насладиться тишиной,  а в зимний период окунуться в сугробы. 
+Русская баня в Домодедово подарит гостям качественный банно-оздоровительный отдых. 
+За сутки: 21
+За последние 30 дней: 70
+Всего: 11931
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщикСервис: бассейн, холодная купель, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Сеанс не более 4 часов  - 1000 рублей
+Пенсионеры (пенсионные дни среда и четверг) - 600 рублей*  / помывка без парилки  - 200 рублей*
+Дети с 7 до 14 лет - 200 рублей
+Инвалиды I и II группы  - 150 рублей*
+Малоимущие семьи - 150 рублей  
+* - при предъявлении удостоверения</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г. Люберцы пос. Вуги 1с2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна "Вуги-Вуги" в Томилино - это прекрасное место для встречи лучших друзей,  которое подарит вам яркие воспоминания и  потрясающие эмоции.  Если вы давно не сидели доброй дружеской компанией,  то советуем вам исправить ситуацию и обязательно собраться в тесном или широком дружеском кругу,  чтобы весело провести время,  найти много развлечений,  расслабления - водных процедур,  гармонии и удовлетворения вкупе с вкусной кухней,  приглашаем вас в сауну "Вуги-Вуги",  где в красивых интерьерах измененной сауны вас ждет несколько типов парных,  отличных банных заведений,  обещающих вам комфорт и только приятные расслабляющие эмоции.  Приглашаем вас отлично расслабиться в приятной банной обстановке,  получить мощный заряд сил и энергии.  Вам обязательно понравится в банных просторах сауны "Вуги-Вуги",  и вы запишитесь в постоянные клиенты,  так как все располагает именно к этому: вежливый и предусмотрительный персонал,  современные интерьеры,  качественные парилки,  вкусная еда - уют и комфорт не оставят вас ни на минуту в нашем замечательной сауне!
+Банное заведение "Вуги-Вуги" работает круглосуточно,  снять сауну можно на любой срок - собирайте веселые компании и приезжайте в любое время дня и ночи,  чтобы отлично попариться и весело отдохнуть.  Семьям тоже будет чем оздоровиться в сауне "Вуги-Вуги": помимо парных,  к вашим услугам оздоровительный массаж,  теплый бассейн,  ароматерапия,  спа-сеансы красоты.  Идеальный отдых,  который ждет вас в приятной и расслабляющей сауне,  сможет принести вам много ярких эмоций,  бодрость и восстановление сил перед рабочими буднями. 
+Банная зона сауны "Вуги-Вуги"
+Аква-территория и банная зона сауны "Вуги-Вуги" впечатлят не только габаритами,  но и совершенной наполненностью.  Именно в этом расслабляющем месте вы сможете найти массу приятных эмоций и завораживающих банных процедур.  Профессиональное парение вениками от лучших банщиков со специальной ароматной запаркой травами,  приятные расслабляющие процедуры после баньки,  охлаждение после парения в бассейне.  Приятные мгновения,  проведенные в сауне "Вуги-Вуги" вам будут вспоминаться еще долго!
+Развлечения и веселый отдых в сауне
+Благодаря охраняемой стоянке на территории сауны вы можете не волноваться за сохранность своего автомобиля.  Уютные просторы сауны обещают вам много расслабления и полного отстранения от проблем.  В гостиной есть спутниковое ТВ,  беспроводной интернет,  можно сделать заказ кальяна или посмотреть спортивный матч.  К услугам гостей блюда русской кухни,  мясо и овощи на мангале,  разливное пиво.  Можно принести продукты сразу с собой.  Приятный отдых,  который пройдет именно так,  как хотите вы - в сауне "Вуги-Вуги". 
+За сутки: 22
+За последние 30 дней: 96
+Всего: 7843
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, мангал, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальянСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Пн, Вт, Ср:
+с 06:00 - 12:00 - 750 р/ч 
+до 10 чел.
+с 12:00 - 15:00 - 1000 р/ч
+до 8 чел.
+с 15:00 - 21:00 - 1100 р/ч
+до 8 чел.
+с 21:00 - 06:00 - 1100 р/ч
+до 10 чел. 
+Чт, Пт, Сб:
+с 06:00 - 12:00 - 1100 р/ч 
+до 10 чел.
+с 12:00 - 15:00 - 1300 р/ч
+до 10 чел.
+с 15:00 - 06:00 - 1100 р/ч
+до 10 чел. 
+За каждого превышающего - 100 р/ч
+К сумме чека +20% за обслуживание и уборку.
+ </t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4-й Вятский переулок, 10 </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+По московскому переулку Четвертый Вятский,  дом 10 находятся круглосуточные бани.  Любое время суток мы в вашем распоряжении,  оздоравливаться и отдыхать никогда не поздно.  До станции метро Дмитровская всего 0, 7 километра.  
+Для вас помывочное отделение,  разных видов парные.  Снимите усталость,  порадуйте свой организм,  предайтесь услугам жару,  его целебные возможности придадут сил,  вдохновения,  бодрости.  Ароматные веники разных подвидов деревьев.  Бассейн для плавания,  купели,  позовите банщика,  воспользуйтесь услугами массажиста,  подзарядитесь,  подпитайте организм энергией.  Платите за три часа пребывания в комплексе. 
+Русские или финские парные принимать следует в несколько заходов для того,  чтобы человеческое тело прогрелось.  Десять минут для каждого приема.  Пот во время прогревания выступает,  меняйте процедуру.  Измените обстановку,  она произойдет в душевой кабине,  а также при чаепитии заварного травяного чая.  Организм во время таких процедур отдыхает,  но процесс выделения пота будет протекать дальше.  Благоприятная смена подействует на внутреннею систему человека,  даст заряд и прекрасное настроение. 
+За сутки: 24
+За последние 30 дней: 73
+Всего: 10140
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пивоУслуги: веники, банщик, оздоровительный массажСервис: бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Понедельник  (Мужской день) 12.00 - 22.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+Вторник (Женский день) 10.00 - 22.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+10.00 - 17.00 для льготной категории
+750 р.(безлимит.)   500 р. (2 часа)
+Среда  (Мужской день) 10.00 - 22.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+10.00 - 17.00 для льготной категории
+750 р.(безлимит.)   500 р. (2 часа)
+Четверг  (Мужской день) 12.00 - 23.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+Пятница  (Мужской день) 12.00 - 23.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+Суббота  (Мужской день) 08.00 - 22.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+Воскресенье  (Мужской день) 08.00 - 22.00
+1500 р.(безлимит.)   1000 р. (2 часа)
+Билет стоит 1500  рублей( безлимитный тариф), если укладывайтесь в 2 часа, то при выходе можете получить обратно 500 рублей.
+Для льготной категории и детей с 7 до 12 лет билет стоит 750 рублей, если укладывайтесь в 2 часа, то при выходе можете получить обратно 250 рублей.
+Дополнительно в общем отделении:
+Кабина малая:          стоимость - 2000 рублей за 3 часа
+Кабина большая:     стоимость  - 3000 рублей за 3 часа
+Кабина VIP:              стоимость  - 4000 рублей за 3 часа
+Детям до 7 лет  бесплатно. С 7 до 12 лет – 750 рублей при предъявлении документа ребенка (свидетельство о рождении, паспорт).
+Льготы и скидки  предоставляются только при предъявлении соответствующего документа.
+ </t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Московская область, г. Дзержинский, ул. Дзержинская, дом 46 В</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня 
+Городская баня в Дзержинском расположилась на улице Дзержинская,  дом 46 В,  и открыта для посетителей с 10-00 до 23-00.  Общественные бани делятся на мужские и женские дни посещения,  по будним дням предоставляются скидки льготникам. 
+Общая баня предлагает гостям:
+- русская парная на дровах;
+- помывочная,  душевые,  обливные кадушки,  бассейн-купель с холодной водой;
+- зал для отдыха со скамейками,  столиками и ТВ;
+- массажное кресло;
+- веники,  банные принадлежности и средства гигиены в продаже;
+- оборудованное место отдыха на улице с шезлонгами и скамейками;
+- парковка для автомобилей во дворе бани. 
+Дополнительную информацию узнавайте по телефону бани:
++7 925 567 23 30
+За сутки: 34
+За последние 30 дней: 456
+Всего: 7599
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: можно со своими продуктамиУслуги: веники, массажное кресло, оплата картамиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Сеанс - 3 часа.
+ВТ - ПТ - 550 руб;
+СБ - ВС - 650 руб.
+Режим работы:
+ВТ - ВС, 10-00 - 23-00.
+Женские дни: ВТ, ЧТ
+Мужские дни: СР, ПТ, СБ, ВС.</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Одинцово, Можайское шоссе, дом 8</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани в Одинцово расположились на Можайском шоссе,  дом 8 и топятся исключительно дровами.  Общие отделения бани разделяются на мужские и женские дни посещения,  также предлагаем отдельную сану для компании друзей или отдыха в семейном кругу.  
+В бане для посетителей:
+- парковка для автомобилей;
+- гардероб и раздевалка с индивидуальными шкафчиками;
+- русская парная на дровах,  в которой можно пользоваться вениками;
+- соляная сауна;
+- помывочная с душевыми и обливными кадушками;
+- бассейн-купель;
+- зал для отдыха с деревянными креслами,  столами и ТВ;
+- место отдыха на улице под навесом;
+- в продаже банные принадлежности и средства гигиены;
+- массажный кабинет и прачечная самообслуживания. 
+Общая городская баня в Одинцово открыта: Вт,  Ср,  Пт,  Вс – с 09-00 до 22-00 – мужские дни. 
+Чт – с 09-00 до 22-00,  Сб – с 12-00 до 22-00 – женские дни. 
+Дополнительную информацию можно узнать по телефону бани:
++7 (495) 599 72 46
+За сутки: 66
+За последние 30 дней: 958
+Всего: 11431
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, оплата картамиСервис: охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Будние дни:
+4 часа – 850 руб;
+3 часа – 750 руб;
+2 часа – 650 руб;
+Выходные и праздничные дни:
+4 часа – 1150 руб;
+3 часа – 1000 руб;
+2 часа – 850 руб.
+Дети – 50% стоимости билета.
+Режим работы:
+Вт, Ср, Пт, Вс – с 09-00 до 22-00 – мужские дни.
+Чт – с 09-00 до 22-00, Сб – с 12-00 до 22-00 – женские дни.
+ </t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Московская область, г. Дедовск, Школьный пр, д. 9</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные городские бани в Дедовске расположились на Школьном проезде,  дом 9,  рядом с остановкой транспорта.  Общие бани работают с четверга по воскресенье,  и делятся на мужские и женские дни. 
+В бане для посетителей:
+- русская парная на дровах;
+- помывочный зал,  душевые,  обливная кадушка,  бассейны-купели с прохладной и тёплой водой;
+- зал для отдыха со столами и скамейками;
+- закрытые кабинки для компаний с ТВ (за дополнительную плату)
+- бар буфет с прохладительными напитками и закусками;
+- в продаже банные принадлежности и средства гигиены.  
+Мужские дни - пятница и воскресенье. 
+Женские дни - четверг и суббота. 
+Дополнительную информацию можно узнать по телефону бани:
+8 916 869 76 69
+За сутки: 43
+За последние 30 дней: 307
+Всего: 5209
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веникиСервис: бассейн, охраняемая парковка, холодная купель, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- 500 руб
+Действуют скидки для льготных категорий населения
+Режим работы.
+Мужские дни:
+Пт - 13-00 - 21-00;
+Вс - 09-00 - 21-00
+Женские дни:
+Чт - 13-00 - 21-00;
+Сб - 09-00 - 21-00
+Пн, Вт - выходной; Ср - санитарный день
+ </t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3 Почтовое отделение д. 100 с 1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Приятные мгновения релаксации ждут вас в тихом и комфортабельном месте – сауне «Дозаправка»,  которая находится в приятной атмосфере тишины и яркого,  непринужденного отдыха – именно здесь вас встретит домашний уют,  забота персонала и всегда дружелюбные встречи.  Сделать отдых веселым или,  наоборот,  тихим и скромным вы сможете самостоятельно.  – этому способствует совершенная банная обстановка,  гарантирующая проведение именно такого отдыха,  который вам нужен.  Веселье,  комфорт и уединение ждут вас в обстановке красиво обустроенной и приятной саны.  Ждем всех в районе метро Жулебино устроить для себя и своей семьи замечательную релаксацию,  которая порадует незабываемыми эмоциями и обязательно зарядит бодростью на целую неделю вперед.  Пусть ваш отдых будет ярким,  запоминающимся и очень интересным – именно таким,  каким вы его и задумали! Ждем всех в «Дозаправке»!
+Сауна «Дозаправка» - отдых в финской парной,  парение и массаж
+Начать свой выходной день с парения в оздоровительной парилке – это правильно! Также важно сделать сеансы посещения жаркой парилки максимально приспособленными,  и подойти к прогреву тела с умом.  Именно в жаркой парилке ваш отдых будет дарить незабываемые эмоции расслабления.  Финская парная – это горячие температуры парения,  сухой воздух,  который действует быстро,  согревает тело моментально.  Чтобы хорошо прогреться и подготовиться к парению,  требуется несколько таких заходов в парилку.  Желаем вам провести время с пользой для себя и своего здоровья в сауне «Дозаправка»! попариться ароматным березовым веником – это прекрасно,  особенно,  если парение дарит профессиональный банщик. 
+В сауне вас также ждет джакузи и большой бассейн с фильтруемой водой.  Спа-релаксация с массажем также пройдет замечательно в приятной обстановке!
+Отдых в сауне «Дозаправка» - вас ждет!
+На территории сауны вас встретит ресторан с русской кухней,  где подают мясо на мангале.  Кроме того,  вы можете принести продукты с напитками с собой,  и устроить уютные посиделки в арендованном зале сауны. 
+Развлечься поможет бильярд,  караоке,  кальян,  спутниковое ТВ,  ароматное разливное пиво и ароматная еда с мангала.  
+Гости сауны «Дозаправка» всегда могут оставить свой автомобиль на охраняемой стоянке – и поддаться неторопливому и приятному отдыху,  который гарантирует вам приятные эмоции. 
+За сутки: 22
+За последние 30 дней: 79
+Всего: 5605
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, мангал, ресторан, разливное пивоУслуги: веники, ароматерапия, кальянСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Цены:
+Сауна — 1200 руб/час
+Акция:
+Сауна + V.I.P зал — 1200 руб/час
+Всем гостям - кальян в подарок!
+Заказавшим сауну на 4 часа 5-ый час в ПОДАРОК!</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>г. Долгопрудный, пр. Ракетостроителей, дом 1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Долгопрудненская городская баня предлагает посетителям широкий спектр банно-оздоровительных услуг.  Комплекс является одним из самых больших в Московской области и расположился в г.  Долгопрудный,  на ул.  Ракетостроителей,  дом 1 (от МКАД - 5 минут)
+Баня в Долгопрудном - это территория 1700 кв. м с возможностью принять одновременно до 150 человек.  Рядом с баней - бесплатная парковка на 50 автомобилей. 
+К Вашим услугам: оборудованная зона отдыха с комфортными диванами,  бар с выбором напитков и закусок,  просторные парные,  купели,  обливные ведра,  душевые,  оборудованные зоны для процедур,  отдельные кабины для больших и маленьких компаний,  мужской и женский залы. 
+Общественная городская баня в Долгопрудном— шикарный пар,  просторные помещения,  стильный интерьер,  профессиональные специалисты,  собственный ресторан,  большой выбор услуг по парению,  массажу и СПА процедурам. 
+Для любителей бани и постоянных клиентов имеются программы лояльности,  а также клиентские карты. 
+Время работы:
+Каждый третий понедельник месяца санитарный день. 
+Понедельник - пятница с 09. 00 до 23. 00
+Суббота - воскресенье с 08. 00 до 23. 00
+Подробную информацию можете узнать у администратора бани по телефону:
++7 495 128 29 55
+За сутки: 42
+За последние 30 дней: 519
+Всего: 4384
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, музыкальный центр, банкеты, оплата картами, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Мужской зал:
+Будни
+с 09.00 до 23.00
+1 час - 600 руб.
+2 часа - 900 руб.
+3 часа - 1200 руб.
+Выходные и праздничные дни
+с 08.00 до 23.00
+1 час - 800 руб.
+2 часа - 1100 руб.
+3 часа - 1350 руб.
+Женский зал:
+Будни
+с 09.00 до 23.00
+1 час - 500 руб.
+2 часа - 800 руб.
+3 часа - 1050 руб.
+Выходные и праздничные дни
+с 08.00 до 23.00
+1 час - 700 руб.
+2 часа - 1000 руб.
+3 часа - 1200 руб.
+Доплата за пребывание в бане более 1, 2-х и 3-х часов (тарификация почасовая, в зависимости от стоимости входного билета).
+Отдельные кабинки:
+- 4000 - 5700 руб
+Семейный зал:
+Минимальное пребывание 3 часа
+Вместимость семейного зала до 15 человек.
+Будние дни - 2500 руб/час;
+Выходные и праздничные - 3100 руб/час
+Время работы:
+Каждый третий понедельник месяца санитарный день.
+Понедельник-пятница с 09.00 до 23.00
+Суббота-воскресенье с 08.00 до 23.00
+Программа лояльности:
+Дети до 7-ми лет и Ветераны ВОВ обслуживаются бесплатно!!!
+Дети с 7-ми  до 12 лет — 300 руб. (сеанс 3 часа)
+Студенты с 09.00 до 17.00 — 750 руб. (сеанс 3 часа)
+Многодетные семьи с 09.00 до 14.00 — 600 руб.
+Льготные категории с 09.00 до 14.00 — 540 руб. (сеанс 3 часа)
+Пенсионеры по возрасту  (пенсионный возраст) — 540 руб.
+Инвалиды 1 и 2 группы — 540 руб.
+Участники боевых действий — 540 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Жуковский, ул. Гарнаева, дом 12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Жуковские городские общественные бани расположились в Жуковском,  Московской области,  на улице Гарнаева,  дом 12.  В бане - мужское и женское отделение,  а также ВИП сауна для компании до 8 человек с бассейном-купелью
+Общая баня включает в себя: раздевалку с индивидуальными шкафами,  просторную парную,  помывочную с душевыми,  купель,  зал для отдыха с креслами и столами,  буфет.  Дополнительно предлагаем услуги парения или оздоровительного массажа.  В продаже банные принадлежности и средства гигиены.  
+Общие Жуковские бани работают с 10-00 до 22-00 (пн,  вт - выходной). 
+Телефон бани: +7 498 487 98 78 или +7 498 484 38 16
+За сутки: 37
+За последние 30 дней: 303
+Всего: 3508
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массаж, солярий, оплата картамиСервис: бассейн, холодная купель, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Входной билет - 500 руб/2 часа;
+Для льготных категорий населения предусмотрены скидки.
+Сауна - 2000 руб/час
+ </t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Большая Калитниковская улица, дом 42</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественные бани. 
+«Калитниковские бани» – большой комплекс банных отделений,  где вас ждут отдельные для женщин и мужчин русские,  турецкие парилки.  Допускается посещение с детьми.  Калитниковские бани действовали еще в советское время,  но сейчас это современное сооружение,  которое состоит из мужского,  мужского высшего разряда и женского,  из кафе и VIP-залов.  Последние арендуются за дополнительную плату,  находятся в каждом отделении банного комплекса.  После хорошо разгоряченной парной есть возможность поплавать в бассейне,  насладится джакузи,  охладиться в деревянной купели.  Все оборудовано для вашего комфортного отдыха.  Имеются удобные раздевалки,  шикарные зоны отдыха.  У нас вы сможете посмотреть с друзьями очередной футбольный матч,  также есть бесплатный Wi-Fi.  Для полного расслабления к вашим услугам профессиональный массажист.  Также имеется выбор веников,  подобрать которые поможет банщик,  он и поможет вам правильно попариться,  даже порадует опахалом.  Какое же это наслаждение! В это время можно помечтать,  вспомнить приятные моменты из жизни,  подумать о чем-то.  Покушать можно в кафе,  где подают блюда русской кухни,  на баре – большой выбор напитков. 
+Все помещения светлые,  в нейтральных приятных тонах,  кожаные большие диваны,  столы.  Баня – самое лучшее место для комфортного отдыха,  приятного расслабления.  Вместе с приятными ощущениями,  эмоциями,  еще и оздоравливаете свой организм.  Особенно хорошо парение помогает при вирусных заболеваниях.  Например,  в банном отделении высшего разряда по желанию будете дышать паром с хреном и чесноком.  Это как раз самое то для настоящих мужчин.  
+Мы стараемся подарить нашим посетителям незабываемые эмоции,  шикарный релакс,  поэтому у нас всегда уютная атмосфера,  чисто,  красиво.  А еще стараемся с каждым днем усовершенствоваться.  Сюда можно прийти не только с друзьями,  семьей,  но и немалым коллективом,  чтобы отпраздновать какую-то значимую дату.  Тем более шеф-повар приготовит огромное количество аппетитных блюд.  Если гость приехал на автомобиле,  он сможет оставить ее на бесплатной стоянке.  Ежедневно,  кроме выходных,  для всех,  а постоянно для граждан льготных категорий имеются скидки.  Расплатиться можно как наличкой,  так и пластиковыми карточками.  
+Наши двери открыты для клиентов.  Поверьте,  побывав у нас единожды,  вернетесь еще,  ведь прекрасные мгновенья хочется переживать много раз. 
+За сутки: 21
+За последние 30 дней: 72
+Всего: 12025
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, оплата картамиСервис: бассейн, кондиционер, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Мужской разряд:
+Будние - 1500 руб/2 часа (затем поминутно);
+Выходные - 1750 руб/2 часа (затем поминутно)
+Время работы: 
+ПН, СР, ЧТ, ПТ - с 11-00 до 23-00
+ВТ - с 16-00 до 23-00
+СБ, ВС - с 09-00 до 23-00
+Женский разряд:
+- 1600 руб/3 часа (затем поминутно)
+Время работы:
+ПН - с 15-00 до 23-00
+ВТ - с 11-00 до 23-00
+Действуют скидки для пенсионеров и детей.
+ </t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2-й квартал Капотни, владение 33, строение 2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Капотнинские бани в Москве расположились недалеко от метро Братиславская или Марьино.  Это городские бани с общественными разрядами,  мужскими и женскими днями посещения и отдельными номерными саунами.  
+В общих банях для посетителей работает буфет с лёгкими закусками и прохладительными напитками. 
+Дополнительно предлагаем услуги банщика,  профессионального массажа и спа-процедур. 
+В продаже имеются банные принадлежности и средства гигиены.  
+За сутки: 30
+За последние 30 дней: 304
+Всего: 3565
+</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картами, акции и скидкиСервис: бассейн, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Время сеанса - 3 часа.
+Пн - Пт:
+08-30 - 12-00 - 450 руб;
+12-00 - 23-00 - 600 руб;
+Сб:
+08-30 - 23-00 - 650 руб;
+Вс:
+08-30 - 22-00 - 650 руб
+Дети до 7 лет - бесплатно. 
+Дети с 8 до 13 лет - 50 %
+VIP - кабинет - 600 руб/час
+Расписание работы: 
+Женские дни:
+Понедельник с 15:00 до 23:00
+Среда с 08:30 до 23:00
+Пятница с 08:30 до 23:00
+Мужские дни:
+Вторник с 08:30 до 23:00
+Четверг с 08:30 до 23:00
+Суббота с 08:30 до 23:00
+Воскресенье с 08:30 до 22:00
+Номерные бани: круглосуточно.
+ </t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Московская обл., г. Красногорск, мкр. Опалиха, ул. Широкая, д. 2А</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Кедровые бани" в Красногорске приглашают гостей отдохнуть от городской суеты,  попариться в бане,  отметить знаменательное событие в кругу друзей,  провести мальчишник/девичник или романтическое свидание в обстановке комфорта и умиротворения.  
+Кедровые бани построены из древесины алтайского кедра,  который издревле славится целебными качествами.  Баня в Красногорске расположилась недалеко от МКАД,  станция метро Опалиха,  и работает 24 часа в сутки. 
+В нашем комплексе для гостей предлагаются общие банные отделения (мужское и женское),  а также отдельный кедровый сруб. 
+В общей бане:
+- просторная русская парная на дровах с отдельным столом для банных процедур;
+- помывочный зал,  бассейн,  душевые кабины,  обливная кадушка;
+- комната отдыха с ТВ,  диванами и столами,  бесплатный Wi-Fi;
+- раздевалка с индивидуальными шкафами;
+- зал для отдыха с камином,  ТВ,  столами и баром. 
+В Кедровом срубе (до 6-8 человек):
+- русская парная на дровах;
+- кедровая купель,  душевые,  обливные кадушки;
+- гостиный зал с камином,  диванами;
+- летняя веранда с тёплым джакузи;
+- караоке,  ТВ,  Wi-Fi;
+- две комнаты отдыха с двуспальными кроватями. 
+Дополнительно гости могут воспользоваться услугами парения.  А на открытом воздухе предлагаем Сибирский банный чан с целебными травами.  Сибирский банный чан - это уличная купель с теплой водой (до 38-40 градусов),  вмещает до 8 человек.  
+На территории банного комплекса работает ресторан с блюдами русской и европейской кухни,  чайным меню и прохладительными напитками.  
+Приносить свои продукты и напитки - запрещено. 
+Все бани бронируются заранее!
+Забронировать баню или узнать дополнительную информацию можете по телефону: 
++7 929 653 16 16
+Или на официальном сайте банного комплекса:
+https://kedrovyebani.ru/
+За сутки: 13
+За последние 30 дней: 160
+Всего: 2242
+</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, ароматерапия, музыкальный центр, банкеты, оплата картами, акции и скидкиСервис: бассейн, кондиционер, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Общее отделение:
+- 2200 руб/3 часа
+Дополнительный час – 500 руб.
+Дети до 7 лет - бесплатно.
+Аренда половины бани:
+Минимальная аренда 3 часа.
+- 5000 руб/час
+Стоимость для компании до 6 человек (включая детей старше 3х лет). Свыше + 500 руб за каждого человека. Если гости приносят свои продукты и напитки +1500 руб/час.
+Аренда всей бани:
+Минимальная аренда 3 часа
+- 10000 руб/час
+Стоимость для компании до 12 человек (включая детей старше 3х лет). Свыше + 500 руб за каждого человека (максимально 24 человека). Если гости приносят свои продукты и напитки +1500 руб/час.
+Кедровый сруб:
+Минимальная аренда 3 часа.
+Будние дни:
+- 3500 руб/час
+Выходные, праздничные дни и ночное время с 23-00 до 10-00:
+- 4500 руб/час
+Стоимость для компании до 6 человек (включая детей старше 3х лет). Свыше + 500 руб за каждого человека. Если гости приносят свои продукты и напитки +1500 руб/час.
+Сибирский чан:
+От 5000 руб до 7500 руб.
+Дополнительно:
+Шапка войлочная с логотипом – 800 руб;
+Шапка войлочная без логотипа – 200 руб;
+Полотенце махровое (аренда) – 500 руб;
+Простыня вафельная (аренда) – 500 руб;
+Кильт (аренда) – 500 руб;
+Тапочки резиновые – 350 руб;
+Перчатки для парения – 250 руб;
+Мочалка лыковая 250 руб;
+Косметический набор – 300 руб;
+Мыло банное 250 руб;
+Алтайское мыло – 500 руб;
+Скраб ручной работы – 500 руб;
+Травяной матрас- 2000 руб;
+Веники (в ассортименте) – 450 руб;
+Ароматные травы (в ассортименте) – 300 руб.
+Внимание! АКЦИИ:
+- При аренде всей бани от 5 часов, пихтовый банный чан в подарок;
+- Мальчишник/девичник. При аренде кедрового сруба или всей бани от 5 часов скидка 15% на аренду и ресторан;
+- День рождения. Скидка 10% на аренду ВИП при предъявлении оригинала документа.
+ </t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ветлужская ул., 8Б</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Косинские бани" располагаются в тихом районе Москвы неподалеку от станции метро Выхино.  Это простое,  но уютное место,  которое пользуется популярностью как у постоянных клиентов,  так и у "новичков".  Гостям предлагается насладиться расслабляющей русской баней на дровах в просторной парилке,  вмещающей до 40 человек.  Помимо этого,  в распоряжении гостей имеется бассейн размерами 3х4 м и кабинки для переодевания.  Приветливый персонал,  всегда готовый помочь,  и оперативная работа сотрудников бани придадут Вашему отдыху ощущение легкости и покоя. 
+За сутки: 30
+За последние 30 дней: 409
+Всего: 12627
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пивоУслуги: веники, банщикСервис: бассейн, холодная купель, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Будни - от 500 до 550 руб/сеанс.
+Выходные -  от 600 до 650 руб/сеанс</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Столярный пер. д.7, стр. 1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Краснопресненские бани - это целый мир отличного настроения и приятных мгновений релаксации,  в этом банном комплексе  имеются женские и мужские разряды,  а также многочисленные банные отделения ВИП-уровня,  где гости смогут отдохнуть своей компанией.  Краснопресненские бани располагаются в Пресненском районе Москвы рядом со станцией метро улица 1905 года.  В этих приятных банных просторах,  где продумана каждая деталь,  ваш отдых пройдет замечательно. 
+Здесь вас ждет целый оздоровительный центр с многообразием номеров,  которые все гости смогут выбрать индивидуально.  В просторах бани вы сможете попарить в настоящей русской баньке или в турецком хамаме,  испытать прелести парении в сухой финской парной.  Краснопресненские бани соединяют в себе целый комплекс услуг,  в который входят общие мужские и женские разряды,  вип-отделения,  ресторан и салон красоты.  Здесь вы сможете насладиться безупречным отдыхом и расслаблением с пользой для своего здоровья.  Банное заведение располагается удобно,  около станции метро улица 1905 года.  Тут гости смогут провести время с пользой,  отметить любой праздник или просто собраться с друзьями и членами семьи. 
+В Краснопресненских банях москвичи и гости города не только парятся в жарких парных,  но и наслаждаются великолепными процедурами по уходу за телом и оздоровлением организма.  Здесь гости смогут насладиться настоящим турецким мыльным массажем в отдельном помещении хамама,  пройти курс ароматерапии,  который поможет вам отлично оздоровиться и провести время просто замечательно.  Стоун-терапия  или массаж горячими камнями - это также очень приятный метод оздоровления,  который порадует своими разнообразными очертаниями,  полезными воздействиями,  которые скажутся на всем самочувствии очень и очень приятно. 
+Краснопресненские бани порадуют вас и номерами с самым приятным обслуживанием,  которое порадует многочисленными приятными и волнующими воздействиями.  Полностью обустроенные всем необходимым,  номера Краснопресненских бань могут стать площадкой для веселых вечеринок и празднований,  помогут сделать отдых легким и приятным.  
+За сутки: 19
+За последние 30 дней: 75
+Всего: 6807
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: русская, бар, ресторан, разливное пиво, кафе, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, оплата картамиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Сеанс 2,5 часа
+Мужское отделение.
+ПН-ПТ:
+08-00 - 17-00 - 2000 руб/сеанс
+17-00 - 23-00 - 2500 руб/сеанс
+СБ-ВС (и праздники):
+- 2500 руб/сеанс
+Женское отделение.
+ПН-ПТ:
+08-00 - 17-00 - 1500 руб/сеанс
+17-00 - 23-00 - 1800 руб/сеанс
+СБ-ВС (и праздники)
+- 1800 руб/сеанс
+Пенсионный день - понедельник до 17-00 - 900 руб/сеанс
+Дети до 7 лет - бесплатно
+Дети с 7 до 12 лет - 500 руб/сеанс
+ </t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ул. Молодогвардейская, дом 29, корп 2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Кунцевские бани расположились в районе Москвы Кунцево,  в шаговой доступности от метро Молодёжная,  на улице Молодогвардейская,  дом 29,  корпус 2.  Это общественные бани для тех,  кто предпочитает качественный пар по приемлемой стоимости.  В банях был произведен ремонт в феврале 2020 года,  обновленный интерьер и чистота помещений порадуют любителей банно-оздоровительных процедур.  
+Баня делится на 2 отделения,  мужское и женское в каждом из которых раздевалка со шкафчиками,  вместительная парная,  душевые,  бассейн с прохладной водой,  зал для отдыха с кабинками и столиками.  На территории бани работает бар - буфет,  где в продаже лёгкие закуски,  прохладительные напитки и горячий чай/кофе.  
+Из бани есть возможность выйти во двор - охладится после парилки,  подышать свежим воздухом или просто посидеть на скамейке. 
+Баня работает ежедневно с 09-00 до 22-00 (понедельник с 16-00 до 22-00)
+Также,  в здании Кунцевских бань расположены индивидуальные сауны,  с отдельным входом. 
+Всю подробную информацию можете узнать по телефонам администратора бани:
+8 495 440 04 15 или 8 495 440 40 67 
+За сутки: 36
+За последние 30 дней: 327
+Всего: 3643
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массажСервис: бассейн, холодная купель
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ: 
+Сеанс 3 часа.
+Пн - Пт - 1000 руб/3 часа;
+Сб - Вс - 1500 руб/3 часа
+Праздничные дни - 1500 руб/3 часа
+Режим работы:
+Пн: 16-00 - 22-00
+Вт - Вс - 09-00 - 22-00</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ул. Лефортовский Вал, 9а</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественные бани. 
+Для тех,  кто давно хотел ощутить на себе целебные свойства русской баньки,  и получить незабываемый массаж веником из натурального дерева,  то приглашаем посетить наш банный комплекс «Лефортовские бани»,  который расположен на Лефортовском вале.   Это место является историческим,  и оформлено оно в морском стиле.  Именно мы стремимся к возрождению вековых банных традиций,  не забывая о современных технологиях.  Поэтому милости просим вас к нам,  у нас вы приятно проведете время и очень хорошо отдохнете. 
+Одним из главных достоинств нашего клуба,  это конечно же русская баня,  которая обеспечит вам очень глубокий прогрев тела,  и доставит незабываемое удовольствие.  Воспользовавшись услугами нашего банщика вы познаете истинное искусство настоящего парения,  Вы почувствуете на своем теле настоящий и профессиональный массаж вениками,  после которого получите легкость и подъем настроения.  Наши банщики владеют всеми хитростями и тонкостями этого искусства и виртуозно владеют этими техниками.  А если вы пожелаете то они наполнят парную ароматами целебных трав,  которые несомненно отвлекут вас от мыслей и будут способствовать настоящему реллаксу.  
+В нашем комплексе  для вашего удобства мы дополнительно выдаем полотенца,  тапочки и шапочку,  но если вы пожелаете,  то можете принести свои банные принадлежности. 
+У нас в баньке обустроена еще одна небольшая русская парная,  в которой есть все необходимые атрибуты для хорошей пропарки.  Это место идеально подходит для тех,  кто собирается провети хороший отдых с небольшой компанией.  Здесь вы почувствуете прикосновение пахучих веников и оздоровительное действие шипящего пара,  которое воздействует не только на тело,  но и на душу. 
+Для любителей побаловать себя не только русской банькой,  но и другими видами парных,  мы предлагаем вам посетить финскую сауну,  в которой температура значительно выше чем в русской парной.  Посетив её,  вы очистите свой организм от токсинов и шлаков,  и восстановите мышечный тонус,  а так же снимете стресс и полностью расслабитесь. 
+Для тех,  кто любит поплавать и насладиться водными процедурами,  мы предлагаем окунуться в наш бассейн,  в который встроена яркая подсветка,  а так же гейзер и бегущая волна,  которой вы сможете насладиться во время плавания.  Эта процедура прибавит вам положительного заряда эмоций и хорошего настроения.  Искупаться в нем после оздоровительных и приятных пропарок и массажа просто необходимо,  это будет венчать вашу оздоровительную программу. 
+Бывают моменты,  когда хочется побыть наедине с самим собой,  или же насладиться общением с близким человеком,  в таком случае мы приглашаем вас в номерные отделения,  в которых расположены уютные кровати.  Своим клиентам мы предоставляем чистые постельные комплекты,  одноразовые тапочки,  фен и полотенце.  Так же для вас круглосуточно работает услужливый и внимательный персонал,  который с удовольствием выполнит любую вашу просьбу.  Каждый номер рассчитан на одновременное пребывание от двух до шести человек,  для вас работает ресторан – бар,  в котором вы сможете заказать как вкусные блюда,  так и любые напитки. 
+Но это далеко не все что мы можем предложить нашим клиентам которые расположились в комфортабельных номерах.  Для того,  чтобы вы хорошо расслабились,  и просто отлично отдохнули,  предлагаем посетить одну из комфортабельных комнат которая оборудована уютным и мягким диваном,  и всем необходимым для вашего отличного отдыха.  Сама комната выполнена в красивых и мягких тонах,  которые позволяют расслабиться и наслаждаться приятным отдыхом,  а рассчитана она на вместимость от двух до шести человек.  Расположившись здесь на уютном диване,  вы сможете насладиться просмотром футбольных матчей либо же других интересных программ,  для этого у нас оборудованная плазменная панель с НТВ+.  А если у вас хороший голос,  и вы хотите его продемонстрировать,  то предлагаем вам спеть в караоке и заворожить всех своим голосом. 
+У нас вы получите просто прекрасный отдых,  который вам запомниться навсегда,  и эти воспоминания будут звать вас к нам обратно,  чему мы будем очень рады. 
+За сутки: 24
+За последние 30 дней: 130
+Всего: 10944
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, банкеты, оплата картами, акции и скидкиСервис: бассейн, бильярд, холодная купель, спутниковое тв, обливное ведро, большой TV, бассейн с противотоком
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Русская общая баня
+- 600 руб/час</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, холодная купель, спутниковое тв, обливное ведро, большой TV, бассейн с противотоком</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Московская область, г. Лобня, Научный городок, дом 11 А</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  
+Общественные городские Луговские бани расположились в Московской области,  г.  Лобня,  Научный городок,  дом 11 А.  Второе название банного комплекса "Баня Научный городок".  В бане кроме общественных разрядов,  есть индивидуальные сауны на компании до 10 человек.  Для автомобилистов на закрытой территории охраняемая парковка на 10 мест. 
+Общая баня делится на мужские и женские дни посещения и работает со вторника по воскресенье. 
+В общественной бане для посетителей:
+- русская парная на дровах;
+- помывочная с душевыми кабинами и обливными кадушками;
+- бассейн-купель с холодной водой;
+- зал для отдыха с диванами,  скамейками и столами;
+- кафе-бар с прохладительными напитками,  холодными и горячими закусками;
+- в продаже банные принадлежности и средства гигиены;
+- услуги парения,  массажа и спа-процедур;
+В саунах кроме парных,  располагается бассейн,  аудио и видео аппаратура,  гостиная с мягкой мебелью и столом,  Wi-Fi,  комнаты отдыха,  бильярд (в большой сауне).  
+Общие бани работают с 09-00 до 21-00 часов,  сауны - круглосуточно. 
+Дополнительную информацию можно узнать по телефонам банного комплекса: 
++7 909 985 96 67 или +7 495 577 74 91
+За сутки: 25
+За последние 30 дней: 282
+Всего: 2703
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, мангал, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, музыкальный центр, оплата картамиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Общая баня: 
+- 500 руб, без ограничения по времени.
+Льготная цена по пенсионному удостоверению - 300 руб.
+Режим работы: 
+Вт – Вс, 09-00 – 21-00
+Мужские дни: Ср, Пт, Сб;
+Женские дни: Вт, Чт, Вс
+Сауны (круглосуточно):
+Минимальное время аренды – 2 часа.
+Малый зал – 1800 руб/час;
+Большой зал – 2000 руб/час
+ </t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Московская область, Лыткарино, Тураевское шоссе, дом 3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские Лыткаринские бани расположились на Тураевском шоссе,  дом 3.  Баня  находится в транспортной доступности от населенных пунктов: Люберцы,  Котельники,  Дзержинский,  Раменское,  Жуковский,  Октябрьский,  Малаховка,  Томилино.  Общая баня делится на мужские и женские дни посещения и работает ежедневно с 08-00 до 22-00.  
+Особая гордость Лыткаринских бань - это парная с кирпичной печью,  которая топится исключительно берёзовыми дровами.  Печь периодического действия,  топится ночью,  а весь следующий день отдает тепло.  Преимущество печи - высокая температура нагрева камней – более 540 С,  благодаря чему вода взрывчато испаряется с поверхности камней,  образуя отменный,  легкий пар.  В парной для доступа кислорода предусмотрено окно и вытяжная вентиляция.  После парной - бассейн с холодной водой.  Вода постоянно фильтруется.  Также,  рядом располагается помывочный зал с душевыми и обливными кадушками.  Для отдыха - отдельный зал с ТВ,  креслами и столами.  Работает кафе-бар.  В продаже - банные принадлежности и средства гигиены.  Дополнительно предлагаем услуги банщика - парильщика или профессионального массажиста.  
+Добро пожаловать в общие Лыткаринские бани!
+Подробную информацию можно узнать по телефону бани:
++7 915 257 70 03
+За сутки: 28
+За последние 30 дней: 337
+Всего: 2482
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, оплата картамиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Входной билет до 3х часов:
+ПН - ПТ, с 08-00 до 12-00  - 400 руб.
+ПН - ПТ, с 12-00 до 22-00 - 600 руб.
+СБ, ВС и празничные дни - 700 руб.
+Дополнительный час     - 200 руб.
+Льготы:
+Дети до 12 лет            - бесплатно;
+Дети до 14 лет            - 250 руб;
+Участники ВОВ           - бесплатно;
+Пенсионеры по возрасту, инвалиды (до 3 часов):
+ПН - Пт, до 15-00           - 350 руб.
+Дополнительно:
+Веник березовый - 100 руб.
+Веник дубовый - 180 руб.
+Тапочки - 150 руб.
+Шапка - 150 руб.
+Гель для душа (35 мл.) - 50 руб.
+Шампунь - 50 руб.
+Коврик для бани - 150 руб.
+Мочалка - 100 руб.
+Полотенце - 180 руб.
+Режим работы:
+Ежедневно с 8.00 до 22.00 
+Касса работает до 21.00
+Пн, Ср, Чт, Сб, Вс - мужские дни
+Вт, Пт - женский день
+ </t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Московская обл., г. Подольск, мкр. Львовский, ул. Красная, дом 6</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные городские Львовские бани расположились в Подольске,  в микрорайоне Львовский,  на улице Красная,  дом 6.  Банный комплекс открыт ежедневно,  кроме понедельника.  Общие отделения бани делятся на мужские и женские дни посещения.  
+В бане для посетителей:
+- бесплатная парковка;
+- русская парная,  высотой 3 м,  печь топится газом,  поэтому нет гари и сажи;
+- помывочная с душевыми,  обливными кадушками и столами для мыльного массажа;
+- купель с ледяной проточной водой,  бассейн с подогревом и гидромассажем; 
+- зал для отдыха и переодевания с деревянными скамейками;
+- зал для отдыха с диванами,  столами,  стульями и спутниковым ТВ;
+- летняя веранда для отдыха со столами и скамейками;
+- бар с прохладительными напитками и лёгкими закусками;
+- в продаже веники,  банные принадлежности,  средства гигиены и банные сувениры;
+Дополнительную информацию узнавайте по телефону бани: 
+8 496 755 02 02 или 8 910 405 92 76
+За сутки: 33
+За последние 30 дней: 298
+Всего: 2988
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баняКухня: бар, можно со своими продуктамиУслуги: веники, оплата картамиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Входной билет, без ограничения по времени.
+- 800 руб
+Действуют скидки для льготных категорий населения (по будним дням).
+Режим работы: 
+Вт - 10-00 - 22-00 (мужской);
+Ср - 10-00 - 22-00 (женский);
+Чт - 10-00 - 22-00 (мужской);
+Пт - 10-00 - 23-00 (женский);
+Сб - 09-00 - 23-00 (мужской);
+Вс - 09-00 - 22-00 (женский)</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Люблинская улица, дом 60</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские Люблинские бани расположились на Юго-Востоке Москвы,  в районе Люблино и работают для посетителей с 08-00 до 05-00 часов. 
+В общей бане 2 разряда - мужской и женский,  в каждом из которых для гостей русско-финская парная,  помывочная с душевыми и обливными кадушками,  зал для отдыха с диванами и столами.  
+Также,  гости могут арендовать индивидуальные сауны на 4 или 6 человек.  В саунах просторная банкетная зона с большим столом,  зона отдыха,  уютная финская парная и турецкая баня - хамам,  современная аудио- и видеоаппаратура,  бильярдная и комната отдыха с двуспальной кроватью. 
+В продаже имеются банные принадлежности и средства гигиены.  
+На территории Люблинских бань работает кафе,  где представлены прохладительные напитки,  закуски,  салаты и горячие блюда.  Для любителей в меню есть пиво в ассортименте.  
+Дополнительную информацию можно узнать по телефону:
+8 (495) 351-38-35
+За сутки: 24
+За последние 30 дней: 126
+Всего: 9079
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: бар, разливное пиво, кафеУслуги: веники, банщик, массажное кресло, акции и скидкиСервис: бассейн, бильярд, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость: 
+Понедельник - Пятница с 08-00 до 13-00
+(без ограничения по времени посещения) - 250 руб.
+Понедельник - Пятница с 13-20 до 22-00
+(без ограничения по времени посещения) - 500 руб.
+Понедельник - Пятница с 22-00 до 05-00
+(за каждые 2 часа посещения) - 500 руб.
+Суббота - Воскресенье с 08-00 до 22-00
+(без ограничения по времени посещения) - 700 руб.
+Суббота - Воскресенье с 22:00 до 05:00
+(за каждые 2 часа посещения) - 700 руб.
+Режим работы:
+Ежедневно  с 08-00 до 05-00
+с 05-00 до 08-00 — технический перерыв
+с 13-00 до 13-20 — технический перерыв
+ </t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>улица Нижние Поля, дом 21-Б</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+На ул.  Нижние Поля находится комплекс Марьинские бани.  Всего лишь 0, 9 километра до станции метро Братиславская.  Двухэтажное строение.  Существует уже 50 лет.  Не имеет значения бедны ли вы,  богаты,  какая вера исповедания,  национальность,  это уютное место ожидает любых посетителей.  
+Автомобильные парковочные места.  Два входа: обществ. ,  индивидуальный.   
+Обращайтесь на протяжении дня с 8 часов утра до 11 ночи.  Общее отделение работает по понедельникам,  среда-воскресенье от 8 до 22. 00.  А вот вторник начинает принимать отдыхающих в 14 и заканчивает как обычно.  Для обществ.  отделения характерны отдельно отведенные дни для женщин (ср. ,  вс. ) и мужчин (пн. ,  вт. ,  чт. -сб. ).  Вместительность: пятьдесят человек.  Территория разделена на блоки с отдельным входом/выходом.  Новый ремонт порадует,  обновленные скамьи,  кабинки.  На полу кафельная плитка,  потолок отделан мозаикой,  вентиляция,  вытяжка воздуха,  заменили коммуникации.  Для обмывания тела помещение тоже освежилось: голубой интерьер,  отсутствие грибка,  грязи.  Чистота и порядок.  Столешницы из мрамора.  Аккуратные деревянные доски,  двери в парной.  Хотите немного побыть наедине,  пожалуйста,  комнатки площадью от 3 до 5 м2 специально для вас.  Одна из них оформлена в коричнево-кремовом стиле,  другая – фиолетово-белом. 
+Тип парной: русская,  печь на газу.  Массажный кабинет. 
+Располагайтесь,  пользуйтесь услугами банщиков.  Можете приобрести веники из любого вида дерева.  Хотите перекусить,  зайдите в бар,  кафе.  Отличие от других: двор с шашлычным кофетерием.  Еда кавказская,  русская.  Открытая веранда. 
+Если у вас приоритетный семейный отдых,  рады приветствовать.  Коллектив,  составом до десяти человек,  ждут комнаты отдыха,  просторный бассейн с чистой водой.   
+За сутки: 13
+За последние 30 дней: 64
+Всего: 19474
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, разливное пиво, кафеУслуги: веники, банщик, оздоровительный массаж, оплата картамиСервис: бассейн, холодная купель, спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Стоимость.
+Общее отделение:
+750 руб/ 3 часа
+с 08-00 - 23-00 СР, ВС - женские дни.
+ПН-ВТ, ЧТ-СБ - мужские дни</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>г. Мытищи, ул. Селезнёва, стр.31</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная городская баня в Мытищах расположена на ул.  Селезнёва,  дом 31,  и разделена на 2 отделения - мужское и женское.  В каждом отделении гостей порадует чистота помещений,  вежливый персонал,  жаркие парные,  купели с ледяной и теплой водой,  бассейн с подсветкой и водопадом. 
+В каждом разряде предлагаются банные услуги от классического парения березовым веником до омолаживающих SPA - процедур и пропаркой дубовыми вениками в четыре руки!
+В Мытищинских банях работает ресторан с блюдами русской и европейской кухни,  в том числе постное и детское меню,  бар с прохладительными напитками. 
+На территорию банного комплекса "Мытищинские бани" запрещено приносить свои продукты и напитки! 
+Для семейного или корпоративного отдыха действуют специальные выгодные предложения. 
+В бане можно приобрести банные принадлежности и сувенирную продукцию. 
+Режим работы:
+Пн - Пт: 10:00-22:00
+Вт: санитарный день
+Сб: 09:00-23:00
+Вс: 9:00-22:00
+Интересующую информацию уточняйте у администратора бани по телефонам:
+8 495 005 00 35 или 8 925 014 66 48
+За сутки: 28
+За последние 30 дней: 300
+Всего: 3517
+</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картами, акции и скидкиСервис: бассейн, кондиционер, охраняемая парковка, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Входной билет (3 часа):
+Пн - Пт с 10:00 до 17:00 - 1000 руб;
+Пн - Пт с 17:00 до 22:00 - 1200 руб;
+Сб - Вс - 1200 руб
+Льготная категория, понедельник	-50%
+Ветераны ВОВ - бесплатно
+Дети с 7 до 12 лет (3 часа)  		-50%
+Дети до 7 лет (3 часа) - бесплатно
+За пребывание в разрядах свыше 3 часов взимается дополнительная плата, 30 минут - 200 руб
+Гость, пришедший до 17:00 в будний день,  тарифицируется по ставке 1000 руб за 3 часа
+*Льготная категория: пенсионеры, инвалиды (1 и 2 группа), участники боевых действий, ветераны труда, многодетные семьи (льготы на посещение бани действуют только при предъявлении оригинала документа подтверждающего личность.)
+Режим работы:
+Пн - Пт: 10:00-22:00
+Вт: санитарный день
+Сб: 09:00-23:00
+Вс: 9:00-22:00</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Московская обл., Одинцовский район, пос. Назарьево, 8А</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные бани на дровах в Одинцовском районе Московской области расположились в посёлке Назарьево,  дом 8 А.  Общее отделение бани вмещает до 30 человек и делится на мужские и женские дни посещения.  
+В Назарьевской бане для гостей:
+- русская парная (русская кирпичная печь на дровах с каменной закладкой);
+- помывочная с душевыми;
+- бассейн и купель;
+- зал для отдыха с креслами,  столами и ТВ;
+- место для отдыха во дворе,  беседки,  Wi-Fi;
+- бар-буфет с прохладительными напитками и лёгкими закусками,  русская кухня;
+- веники,  банные принадлежности и средства гигиены в продаже; услуги массажа. 
+Дополнительную информацию узнавайте по телефону:
+8 995 880 19 48
+За сутки: 30
+За последние 30 дней: 340
+Всего: 4411
+</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, кафеУслуги: веники, оздоровительный массажСервис: бассейн, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Входной билет, без ограничения по времени.
+Будние дни:
+- 800 руб;
+Выходные и праздники:
+- 1000 руб.
+Режим работы:
+Пн - 08-00 - 23-00 (мужской день);
+Ср - 08-00 - 23-00 (женский день);
+Чт - 08-00 - 23-00 (женский день);
+Пт - 08-00 - 23-00 (мужской день);
+Сб - 08-00 - 23-00 (мужской день);
+Вс - 08-00 - 23-00 (мужской день)</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Московская область, посёлок Нахабино, улица Красноармейская, дом 53 А</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня 
+Общественные городские бани в Нахабино расположились на улице Красноармейская,  дом 53 А,  в Красногорском районе,  и работают с 10-00 до 23-00.  Общие бани делятся на мужское и женское отделение,  а также Вип сауны и Вип баню на дровах.  Рядом с баней - парковка для автомобилей на 100 мест.  А в здании бани для желающих - бильярдный зал и кафе с европейской кухней. 
+Общая площадь бани 750 кв.  метров,  поэтому в бане с комфортом разместится до 200 человек. 
+Городская баня в Нахабино предлагает гостям:
+- русская парная,  турецкий хаммам;
+- помывочная,  душевые,  обливные кадушки,  купель;
+- зал для отдыха с диванами,  скамейками,  столами и кабинками для компаний;
+- бильярдный зал;
+- в продаже веники,  банные принадлежности и средства гигиены;
+- услуги парильщика и массажиста;
+- бар - кафе с напитками и меню европейской кухни. 
+Дополнительную информацию можно получить по телефону бани:
++7 (495) 545 03 00
+За сутки: 27
+За последние 30 дней: 255
+Всего: 4206
+</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, русская на дровахКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: кондиционер, бильярд, охраняемая парковка, холодная купель, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Будние дни.
+Мужское отделение:
+10-00 – 16-00 – 800 руб/4 часа;
+16-00 – 23-00 – 900 руб/4 часа;
+Пенсионеры и инвалиды с понедельника по четверг до 14-00. Продажа входных билетов до 12-00 – 400 руб/4 часа;
+Женское отделение:
+10-00 – 16-00 – 700 руб/4 часа;
+16-00 – 23-00 – 800 руб/4 часа;
+Пенсионеры и инвалиды с понедельника по четверг до 14-00. Продажа входных билетов до 12-00 – 350 руб/4 часа;
+Выходные и праздничные дни.
+Мужское отделение:
+10-00 – 23-00 – 1000 руб/4 часа;
+Женское отделение:
+10-00 – 23-00 – 900 руб/4 часа
+Дополнительно:
+Доплата за час – 200 руб;
+Дети до 7 лет – бесплатно;
+Дети 7 – 12 лет – 300 руб/4 часа;
+Бильярд – 300 руб/час;
+Кабинки, будние дни – 4000 руб/часа;
+Кабинки, выходные дни – 4500 руб/4 часа
+ </t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>кондиционер, бильярд, охраняемая парковка, холодная купель, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Некрасовка, ул. 1-я Вольская, дом 26</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественные бани. 
+Некрасовские бани в Люберцах,  в районе Некрасовка,  расположились на 1-й Вольской улице,  дом 26.  На протяжении многих лет жители прилегающих районов традиционно отдыхают у нас,  приводя с собой друзей и семью! 
+Приглашаем Вас в удобное общее отделение,  позволяющее совместить парение с чаепитием    за приятной беседой в дружной компании.  В отделении имеются купель с холодной водой и просторный бассейн 7х12 м. 
+Кроме банного отделения,  Некрасовские бани предлагают услуги профессиональных масажистов,  салон красоты,  парикмахерская,  услуги прачечной и уютное кафе.  Во время пребывания в нашем кафе к вашим услугам широкоформатный плазменный телевизор,  по которому транслируются каналы спутникового телевидения,  включая спортивные каналы.  Для вас представлена прекрасная кухня – от домашних до изысканных европейских блюд.  Огромный выбор напитков и закусок,  всегда свежее бочковое пиво.  Радушный приём и обслуживание на высшем уровне.  Также у нас предусмотрено проведение банкетов,  корпоративных вечеринок,  юбилеев,  свадеб.  Принимаем предварительные заявки.  Заказ столиков бесплатно.  
+Проезд:
+От м. Выхино: - автобус № 722  (ост.  1-я Вольская, 17)
+- маршрутное такси № 722 (ост.  1-я Вольская,  17)
+От м. Братиславская: маршрутное такси № 942 (ост.  1-я Вольская, 17)
+Новокосино: автобус № 723 (ост.  1-я Вольская, 17)
+Кожухово: автобус № 726 (ост.  1-я Вольская, 17)
+От ж/д ст.  Люберцы: маршрутное такси № 9; № 14
+"Новая Некрасовка" (от 4-й мик. р-он Кожухово) автобус № 849 (ост.  Управа р-на Некрасовка)
+За сутки: 16
+За последние 30 дней: 85
+Всего: 9186
+</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, разливное пиво, кафеУслуги: веники, банщик, оздоровительный массаж, банкеты, оплата картами, акции и скидкиСервис: бассейн, холодная купель, спутниковое тв, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ 
+Общее отделение.
+Женские дни: 
+ПН, ВТ, ПТ - 1000 руб/3 часа;
+СБ - 1100 руб/3 часа
+Мужские дни:
+СР, ЧТ - 1000 руб/3 часа;
+ВС - 1100 руб/3 часа.
+1-й разряд:
+Женские дни:
+СР, ЧТ - 1000 руб/3 часа;
+Мужские дни:
+ПН, ВТ, ПТ - 1000 руб/3 часа;
+СБ, ВС - 1100 руб/3 часа
+По истечении 3-х часов, за каждый следующий час взимается плата в размере 100 рублей.
+При посещении банных отделений без ограничения по времени стоимость билета 1500 рублей.
+Дополнительная аренда отдельной кабинки в VIP-зале составляет 1000 рублей.
+Дети в возрасте до 7 лет обслуживаются бесплатно!
+Дети в возрасте от 7 до 12 лет обслуживаются с 50 % скидкой при предъявлении документа, подтверждающего возраст ребёнка. При отсутствии такого документа, билет оплачивается в полном размере!
+На проведение массажных процедур время банного сеанса продлевается!
+Льготные дни - ПН, ВТ, СР - 500 руб/3 часа.
+Льготные билеты положены пенсионерам по возрасту (женщины от 55 лет, мужчины с 60 лет), а также льготным категориям граждан (по талонам на льготное обслуживание, предоставленным муниципальными органами власти г. Москвы).
+В праздничные дни действуют тарифы и график работы выходного дня (суббота, воскресенье)
+Режим работы, дневной тариф с 09-00 до 22-00.
+Ночной тариф с 23-00 до 08-00 - 2000 руб/час, до 6 человек. От 6 до 10 человек - 2500 руб/час. Минимальная аренда - 3 часа.</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Химки, ул. Железнодорожная, дом 16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские Николаевские бани в Химках расположились на улице Железнодорожная,  дом 16,  рядом с ж/д платформой Химки.  
+Общие отделения бани разделяются на мужские,  женские и семейные дни посещения,  и работают с 10-00 до 23-00.  
+Николаевские бани - это общая русская баня на дровах,  в которой предусмотрены льготные дни посещения,  и три отдельные сауны для компании друзей,  отдыха в семейном кругу или романтического свидания в атмосфере уединения.  
+В общественной бане для гостей:
+- охраняемая парковка для автомобилей;
+- раздевалка с индивидуальными шкафчиками,  сейфы;
+- просторная русская парная с дровяной печью;
+- помывочная с душевыми кабинами и обливными кадушками;
+- зал для отдыха с деревянными креслами и столами,  ТВ
+В индивидуальных саунах кроме парной и бассейна-купели есть гостиный зал,  мягкая мебель,  бильярд,  аудио - видео аппаратура и комната отдыха,  Wi-Fi. 
+Работает кафе - бар с прохладительными напитками и блюдами русской,  кавказской и европейской кухни.  В продаже банные принадлежности и средства гигиены. 
+Дополнительную информацию можете узнать по телефону бани:
++7 929 576 38 39
+За сутки: 30
+За последние 30 дней: 295
+Всего: 2757
+</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, оздоровительный массаж, музыкальный центрСервис: бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Баня на дровах:
+3 часа - 800 руб.
+Для льготных категорий населения Пн, Вт - 3 часа - 400 руб.
+Сауны:
+900 - 1100 руб/час
+Режим работы: 
+Ежедневно, с 10-00 до 23-00.
+Мужские дни: Вт, Ср, Пт, Сб;
+Женские дни: Пн, Чт;
+Семейный день: Вс
+Сауна работает ежедневно и круглосуточно.
+ </t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Московская область, г. Красногорск, ул. Благовещенская, дом 10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Новоникольские общественные городские бани расположились в Красногорске,  на улице Благовещенская,  дом 10.  Общие отделения бани делятся на мужское и женское,  в каждом из которых для гостей:
+- просторная раздевалка;
+- небольшая парная с электрической печью;
+- помывочная с душевыми и обливными кадушками;
+- зал для отдыха с креслами и столами;
+- бар-буфет с прохладительными напитками;
+- в продаже банные принадлежности и средства гигиены. 
+Общая городская Новоникольская баня работает ежедневно,  кроме пн и вт,  с 08-00 до 22-00
+Дополнительную информацию уточняйте по телефону бани:
++7 498 601 52 30
+За сутки: 31
+За последние 30 дней: 328
+Всего: 5148
+</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщикСервис: холодная купель, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 500 руб/2 часа
+Режим работы: 
+Ср - Вс, 08-00 - 22-00</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>холодная купель, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Московская область, городской округ Люберцы, рабочий посёлок Малаховка, Касимовское шоссе, 2/1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня № 1 в Малаховке - это русская баня на дровах с открытой каменкой и жарким паром. 
+Баня расположилась в Люберцах,  в посёлке Малаховка и работает ежедневно с 10-00 до 22-00. 
+Вместимость бани 60 человек,  в том числе ВИП-кабина на 8 человек. 
+В бане для гостей - парная на 6-8 человек,  душевые кабины,  помывочная,  зал для отдыха. 
+В бане предлагаются услуг</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапияСервис: холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- 500 руб/2 часа
+Парение веником - 400 руб
+Режим работы: с 10:00 до 22:00
+Среда, суббота- женский день </t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>холодная купель, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Московская область, Лыткарино, ул. Лесная, дом 7</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские бани на Лесной,  расположились в Московской области,  в Лыткарино.  Это уютная,  общая и недорогая баня,  рассчитана на одновременное посещение до 45 человек.  Баня делится на мужские и женские дни посещения и работает с 11-00 до 20-00 часов.  
+В бане для гостей:
+- русско-финская парная;
+- помывочный зал с душевыми,  обливными кадушками и бассейном - купелью;
+- зал для отдыха разделенный на кабинки-купе,  с креслами и столами;
+- бар-кафе,  ТВ с трансляцией спортивных каналов;
+- банные принадлежности и средства гигиены в продаже;
+- услуги банщиков-парильщиков и массажистов. 
+За сутки: 18
+За последние 30 дней: 124
+Всего: 2607
+</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, кедровая бочкаСервис: бассейн, холодная купель, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 600 руб/безлимит 
+Режим работы: 
+Вт, Ср, Пт, Вс - мужские дни, с 11-00 до 20-00;
+Чт - женский день, с 11-00 до 20-00
+После 20-00 посещение по записи.</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Подольск, ул. Ватутина, дом 63/17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня 
+Общественные бани в Подольске расположились на улице Ватутина,  дом 63/17,  в двухэтажном здании на закрытой территории.  Общие отделения бани делятся на мужские и женские дни для посещения,  и работают с 09-00 до 21-00.  
+В бане для гостей: 
+- русская парная на дровах;
+- помывочная с душевыми,  бассейном-купелью и столом для мыльного массажа;
+- зал для отдыха со столами,  скамейками и спутниковым ТВ;
+- чайник и питьевая вода - бесплатно;
+- бесплатная парковка;
+- в продаже веники,  банные принадлежности и средства гигиены;
+Продукты можно принести с собой или заказать доставку в баню. 
+Дополнительная информация по телефону бани:
+8 903 700 64 44
+За сутки: 45
+За последние 30 дней: 351
+Всего: 5764
+</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: можно со своими продуктами, меню доставкиУслуги: веникиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Входной билет, без ограничения по времени.
+- 600 руб;
+Пенсионеры - 400 руб;
+Дети до 10 лет - бесплатно;
+Дети 10 - 15 лет - 300 руб
+Режим работы:
+с 09-00 до 21-00
+Пн, Вт - выходной;
+Чт, Пт, Сб - мужские дни;
+Ср, Вс - женские дни
+ </t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ул. Совхозная, дом 55</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  Мужской разряд. 
+Общественная баня на Совхозной улице,  55 расположилась в районе Москвы Люблино,  и открыта с 08-00 до 22-00.  В сауне на Совхозной 55 нет женского отделения,  работает только мужской разряд.  
+В сауне для посетителей:
+- Финская сауна;
+- Турецкий хаммам;
+- Душевые,  обливные кадушки;
+- Зал для отдыха;
+- Раздевалка с индивидуальными шкафчиками;
+- Банные принадлежности и средства гигиены в продаже. 
+В одном здании с баней располагается ресторан "Корчма Казачья",  где гости смогут отдохнуть после банных процедур и отведать блюда старинной казачьей кухни. 
+Подробную информацию уточняйте по телефонам бани: 
+8 929 586 68 08 или 8 495 351 31 49
+За сутки: 30
+За последние 30 дней: 307
+Всего: 3265
+</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: русская, бар, ресторан, разливное пиво, можно со своими продуктами, меню доставкиУслуги: веники, оплата картамиСервис: обливное ведро, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Без ограничения времени пребывания в указанные часы.
+Пн - Пт:
+08-00 - 13-00 - 250 руб;
+13-20 - 22-00 - 500 руб;
+Сб - Вс:
+08-00 - 22-00 - 500 руб
+Режим работы: 
+Ежедневно  с 08-00 до 22-00
+с 13-00 до 13-20 — технический перерыв.</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>обливное ведро, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Подольск, ул. Плещеевская, дом 29</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские русские бани на дровах,  расположились в Подольске,  на улице Плещеевская,  дом 29.  После банных процедур,  гости могут отдохнуть на свежем воздухе во дворе бани,  а в зимний период окунуться в снег.  Общие отделения бани делятся на мужские и женские дни,  и работают с четверга по воскресенье. 
+В бане для посетителей:
+- русская парная на дровах;
+- помывочная с душевыми и бассейном-купелью;
+- зал для отдыха со столом и скамейками;
+- веники,  банные принадл</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, можно со своими продуктамиУслуги: веникиСервис: бассейн, холодная купель
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Входной билет (без ограничения по времени)
+- 600 руб
+Предусмотрены скидки для льготных категорий населения.
+Режим работы:
+Чт - с 10-00 до 22-00;
+Пт - с 10-00 до 22-00;
+Сб - с 10-00 до 19-00;
+Вс - с 09-00 до 19-00
+ </t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>г. Королёв, микрорайон Костино,  ул.Калининградская, дом 15.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня.  
+Городская общая баня в г.  Королёв расположилась в микрорайоне Костино,  на ул.  Калининградская,  дом 15.  
+Общественные бани работают ежедневно,  кроме понедельника и подразделяется на женские (вторник) и мужские (ср-вс) дни.  Высокий уровень сервиса,  грамотная ценовая политика,  качествееный пар и постоянный банщик - отличительные особенности бани в Королёве.  
+Кроме просторной русско-финской парной,  в бане присутствуют душевые,  обливные кадушки с ледяной водой,  моечная комната,  зал для отдыха с диванами,  столами и ТВ.  На территории банного комплекса работает бар,  где вы можете после банных процедур насладится холодным пивом,  квасом,  лимонадами или горячим травяным чаем.  А если проголодаетесь,  в продаже имеются закуски к пиву,  снеки и раки. 
+Все интересующие вопросы можете задать по телефону администратора бани: 
+8 495 649 96 15
+За сутки: 28
+За последние 30 дней: 291
+Всего: 7084
+</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: холодная купель, спутниковое тв, обливное ведро, японский офуро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- 800 - 1000 руб/час
+Режим работы:
+Пн - санитарный день
+Вт - женский день (с 17-00 до 23-00)
+Ср - Вс - мужские дни (с 09-00 до 23-00)
+Услуги банщика:
+Классическое парение - 1300 руб;
+Крио - парение - 1500 руб;
+Медово-солевое парение - 1800 руб
+ </t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>холодная купель, спутниковое тв, обливное ведро, японский офуро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ул. Большая Очаковская, дом 35</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня и индивидуальные сауны. 
+Общественные городские Очаковские бани открылись в 1947 году,  и с тех пор продолжают радовать посетителей незабываемой атмосферой уюта и отменным паром.  Банный комплекс расположился в районе Очаково-Матвеевское,  на улице Большая Очаковская,  дом 35,  в шаговой доступности от метро Озёрная.  
+В январе 2021 года банный комплекс вновь открыл свои двери после капитального ремонта. 
+Баня располагает двумя банными разрядами (Высшим и Первым),  в каждом из которых установлена печь-каменка. 
+В Очаковских банях вы сможете попариться в оборудованных парных,  окунуться в мини-бассейне с холодной водой,  отдохнуть после бани в уютных комнатах отдыха.  Наши дружелюбные специалисты с удовольствием проводят Вас,  объяснят правила пользования баней и ответят на все вопросы.  Так же в нашем комплексе помимо традиционных общественных бань,  Вы сможете посетить одну из саун: сауна в стиле «Лофт» с купелью,  сауна «Восток» с бассейном или сауна «Гжель» с русским бильярдом. 
+Сауны оборудованы парными  с профессиональными электрокаменками «Harvia»,  моечными,  отдельными туалетными комнатами,  комфортабельными зонами отдыха,  спутниковым телевидением. 
+Также предлагаются услуги бара (пиво,  слабо алкогольные напитки,  крепкие алкогольные напитки,  блюда на углях,  первые блюда,  закуски),  услуги профессионального массажа,  парения,  парикмахерской (мужские и женские стрижки,  маникюр/педикюр),  магазин банных принадлежностей. 
+Приглашаем компании до 8 человек в VIP кабинеты.  
+Комфортный и приватный отдых своей компанией. 
+Парение осуществляется в Первом или Высшем разряде, 
+в зависимости от приобретенного билета. 
+Вместимость бани:
+Первый разряд: 50 чел. ,  Высший разряд: 50 человек
+Сауна "Лофт": 6 человек. 
+Сауна "Восток": 12 человек. 
+Сауна "Гжель": 8 человек. 
+Общие бани работают ежедневно,  с 08-00 до 23-00.  Сауны - круглосуточно. 
+В Высшем разряде мужские дни - ежедневно. 
+В Первом разряде: мужские дни - пн,  чт,  пт,  сб; женские дни - вт,  ср,  вс
+В Первом разряде,  по будним дням предусмотрены льготы. 
+Дополнительную информацию узнавайте по телефонам бани. 
+Баня: +7(495)374-73-43
+Сауна: +7(925)727-64-44 (круглосуточно)
+VIP кабинеты: +7(925)777-64-44
+Или на официальном сайте банного комплекса:
+https://baniochakovo.ru/
+За сутки: 34
+За последние 30 дней: 207
+Всего: 15411
+</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, музыкальный центр, оплата картами, акции и скидкиСервис: бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость
+ОБЩИЕ БАНИ (с 08-00 до 23-00, ВТ с 15-00 до 23-00)
+Первый разряд:
+ПН - 1500 руб. (мужской день);
+ВТ - 1400 руб. (женский день);
+СР - 1400 руб. (женский день);
+ЧТ - 1500 руб. (мужской день);
+ПТ - 1500 руб. (женский день);
+СБ - 1800 руб. (мужской день);
+ВС - 1600 руб. (женский день).
+Льготные билеты ПН, ВТ, СР, ЧТ - 600 руб.
+Льготные категории граждан: пенсионеры, инвалиды (1 и 2 группа), ликвидаторы последствий катастрофы на Чернобыльской АЭС. Льготы на посещение бани действуют только при предъявлении документа, подтверждающего право на льготы.
+Дети до 7 лет бесплатно каждый день;
+Дети с 7 до 14 лет – 50 % от стоимости.
+Дорогим именинникам Очаковские бани дарят:
+- скидку 10% на меню гриль-бара, кроме алкоголя
+- бутылку игристого вина при бронировании сауны, в день рождения и 5 дней после
+При себе иметь документ удостоверяющий личность и подтверждающий дату рождения.
+Высший разряд (мужские дни):
+ПН – ПТ – 2000 руб;
+СБ – ВС – 2500 руб.
+САУНЫ (24 часа)
+Минимальная аренда – 2 часа.
+Сауна «Лофт» (с купелью):
+- 2500 руб/час
+Компании до 6 человек.
+Сауна «Восток» (с бассейном):
+- 3000 руб/час
+Компании до 12 человек.
+Сауна «Гжель» (с русским бильярдом):
+- 2500 руб/час
+Компании до 8 человек. 
+Сауна "Сибирь" с кедровой парной (до 5 человек)
+- 2000 руб/час;
+Сауна "Хай-Тек" с купелью (до 6 человек)
+- 2500 руб/час
+VIP Кабинеты для компаний:
+На 8 человек №1 , №6:
+3 часа - 6000 руб., 6 часов - 12000 руб.,
+Каждый последующий час - 2000 руб.,
+На 6 человек №2, №3, №4, №5:
+3 часа -5000 руб., 6 часов - 10000 руб.,
+Каждый последующий час -1500 руб.
+Билет в парную Первого или Высшего разряда приобретается отдельно на каждого Гостя.
+График работы : Пн , Ср , Чт , Пт , Сб , Вс –  8-00 : 23-00
+Вторник с 15-00 : 23-00 .
+ </t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>г. Мытищи, ул.Веры Волошиной, д.52</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+"Перловская баня" в Мытищах расположилась недалеко от станции метро Медведково (40 минут пешком),  рядом с МКАД,  поэтому будет отличной альтернативой для жителей СВАО,  которые ценят банно-оздоровительных отдых по демократичной стоимости.  
+В бане 2 отделения,  мужское и женское,  а также отдельные номера (сауны),  в каждом из которых гостей порадует чистота помещений,  вежливый персонал,  просторные парные и услуги парения профессиональными банщиками.  На территории Перловской бани работает буфет с лёгкими закусками,  прохладительными напитками и горячим чаем или кофе.  В продаже имеются банные принадлежности.  Для льготных категорий посетителей действуют скидки. 
+Режим работы:
+Мужской день: Вт,  Ср,  Пт,  Сб с 14-00 до 22-00
+Женский день: Пн,  Чт,  Вс с 14-00 до 22-00
+Отдельные номера (сауны) - ежедневно,  круглосуточно. 
+Добро пожаловать в баню в Мытищах "Перловская баня" на ул. Веры Волошиной,  д. 52 ! 
+Телефон администратора: 8 495 581 05 01 
+За сутки: 39
+За последние 30 дней: 294
+Всего: 3528
+</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картами, акции и скидкиСервис: холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ (2 часа):
+Мужское и женское отделение:
+Пн - Пт - 560 руб/2 часа
+Сб, Вс -  600 руб/2 часа
+Отдельная комната в мужском отделении - 600 руб/чел
+Пенсионеры: Пн - Пт - 280 руб/2 часа
+Дети с 7 до 14 лет - 50%
+Дети до 7 лет - бесплатно
+Участники ВОВ - бесплатно
+Режим работы:
+Мужской день: Вт, Ср, Пт, Сб с 14-00 до 22-00
+Женский день: Пн, Чт, Вс с 14-00 до 22-00
+Отдельные номера (сауны), круглосуточно
+Сауна №1, №4 (на 6 человек) - 3300 руб/2 часа
+Сауна №2, №3 (на 4 человека) - 2200 руб/2 часа
+Каждый дополнительный человек - 550 руб
+Прокат одной простыни - 100 руб</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Московская область, г. Подольск, ул. Пионерская, дом 1 А</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня 
+МУП "Комбинат Коммунальных Предприятий",  как общественные бани города Подольска,  ведут свою историю с 1970 года,  когда на улице Пионерской построили комплекс зданий "Банно-Прачечного комбината".  С тех пор внутренние помещения бани обновлялись и ремонтировались.  Общая городская баня вмещает до 120 человек,  и делится на мужские и женские дни посещения.  
+В Подольских банях для посетителей:
+- русская парная с электропечью;
+- моечный зал с бассейном-купелью и обливными кадушками;
+- детский бассейн с тёплой водой (в женском отделении);
+- душевые;
+- помещения для отдыха с диванами,  скамейками и столами;
+- бесплатный Wi-Fi;
+- массажные кресла (за дополнительную плату);
+- тренажеры,  в женском отделение - бесплатно;
+- кафе-бар с разливным пивом,  прохладительными напитками,  лёгкими закусками и чайной картой;
+- в продаже веники,  банные принадлежности и средства гигиены;
+- кабинет массажа. 
+Дополнительную информацию можно узнать по телефону бани:
+8 496 757 36 36
+За сутки: 24
+За последние 30 дней: 312
+Всего: 3015
+</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баняКухня: бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, оздоровительный массаж, массажное кресло, оплата картамиСервис: бассейн, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ.
+Посещение бани (3 часа):
+- 525 руб;
+Душ - 260 руб;
+Скидка для льготных категорий граждан - 50 %;
+Для пенсионеров при предъявлении удостоверения: 
+Вторник (мужской день) с 09-00 до 15-00 - 350 руб;
+Среда (женский день) с 09-00 до 15-00 - 350 руб;
+Дети до 7 лет - бесплатно;
+Дети 7 - 12 лет - 50 %
+Принимаем к оплате банковские карты.
+Режим работы:
+с 09-00 до 21-00 (касса до 20-00)
+Вт, Чт, Сб - мужские дни;
+Ср, Пт, Вс - женские дни
+Внимание! О летнем графике работы бани узнавайте дополнительно по телефону.
+ </t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Багратионовский проезд, дом 12</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Во все исторические времена посещение бани являлось не только способом мытья кожи,  это своеобразная традиция,  приятное времяпровождение.  	
+Именно такой отдых можно получить жителям столицы благодаря оздоровительному центру «Покровские бани» (общественные городские бани),  построенному в довоенное время прошлого века в 30 – х годах.  Обновлено было всё - от парных,  залов отдыха,  до мебели,  сантехники.  Причём в парных,  отделка выполнена из липы,  дуба,  ясеня,  а нагрев печей производится газом.  Комплекс предлагает разные виды услуг,  включающие русскую парилку,  работающую с 8. 00 до полуночи; можно посетить финскую сауну,  работающей круглые сутки,  получить массаж прямо.  Также имеется кабинет косметолога,  парикмахера.  В банном комплексе работают одно отделение для женщин,  2 мужских первого и второго разряда,  горячая вода подаётся всегда.  	
+Для проведения праздничного торжества или банкета есть караоке бар,  где только при входе чувствуется уютная,  спокойная атмосфера,  располагающая к творческому началу.  По оснащению световое,  акустическое оборудование ничуть не уступает по качеству студийному.  
+Такой уникальный комплекс продуман до мелочей.  Прежде всего,  стоянка для автомобиля,  гардеробная,  где можно оставить верхнюю одежду,  индивидуальный сейф для личных вещей,  взять напрокат шахматы либо другие настольные игры. 
+Главное достоинство Покровских бань это русские парные.  А истинное наслаждение паром можно получить только благодаря многолетнему опыту банщика,  знающему своё ремесло.  
+Расположены Покровские бани по адресу: г.  Москва,  Багратионовский проезд,  дом 12 (метро Фили,  метро Багратионовская). 
+За сутки: 9
+За последние 30 дней: 63
+Всего: 5800
+</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, разливное пиво, кафеУслуги: веники, банщик, оздоровительный массаж, оплата картами, акции и скидкиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+СТОИМОСТЬ.
+Мужское отделение, 2-й разряд:
+Будни - 1400 руб/3 часа;
+Выходные и праздники - 1600 руб/3 часа.
+Мужское отделение, 1-й разряд:
+Будни - 1500 руб/3 часа;
+Выходные и праздники - 1700 руб/3 часа
+Женское отделение:
+- 1500 руб/4 часа
+Дополнительный час - 200 руб. 
+Льготное время: ПН, ЧТ с 08-00 до 13-00, банные отделения мужское 3 часа, женское 4 часа - 500 руб. Дополнительный час - 100 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>г. Реутов, улица Победы, дом 16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Баня в Подмосковье,  в г.  Реутов - "Реутовские бани и сауны" предлагает гостям как общественные отделения,  так и индивидуальные сауны.  К вашим услугам отличные парные,  построенные в соответствии с многовековыми традициями: настоящая русская печь каменной кладки на берёзовых дровах,  купель,  бассейн с прохладной водой – всё это определенно придётся по вкусу настоящим ценителям русской бани!
+Реутовские бани это:
+2 общественные русские парные на дровах; 6 финских саун; турецкая баня (хамам); 2 бассейна; бильярд,  настольный футбол,  аэрохоккей; спутниковое ТВ,  караоке. 
+А также зона Spa&amp;Beauty: "Кедровая бочка"; гидромассажные ванны; кабинет косметологии; парикмахерские услуги; маникюр,  педикюр; солярий вертикальный. 
+На территории банного комплекса располагается кафе-бар с блюдами русской,  европейской и кавказской кухней,  а также прохладительными напитками.  
+В продаже имеются товары для бани и сауны,  аксессуары и средства гигиены. 
+Общее отделение на 1м этаже: Вместимость русской парной до 30 человек.  Русская парная на дровах.  Бассейн охлажденный (2. 4 х 4 х 1. 7).  Душевые,  обливные устройства.  Раздевалка,  комната отдыха.  Спутниковое TV. 
+Общее отделение на 2м этаже "Спорт-Бар": Вместимость до 45 человек.  Русская парная на дровах.  Финская сауна.  Большая деревянная купель,  обливные устройства,  душевая.  Раздевалка,  комната отдыха.  Спутниковое TV,  трансляция спортивных мероприятий
+За сутки: 13
+За последние 30 дней: 99
+Всего: 5700
+</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, солярий, кедровая бочка, оплата картамиСервис: бассейн, кондиционер, холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Общественные парные.
+Отделение на 1м этаже:
+ПН - ЧТ (08-00 - 22-00) - 480 руб/час;
+ПТ - ВС (08-00 - 00-00) - 600 руб/час
+Мужские дни: ПН, СР, СБ
+Женские дни: ВТ, ЧТ, ПТ, ВС
+Отделение на 2м этаже "Спорт-Бар":
+ПН - ЧТ (08-00 - 22-00) - 660 руб/час;
+ПТ - ВС (08-00 - 00-00) - 780 руб/час
+Мужские дни: ВТ, ЧТ, ПТ, ВС
+Женские дни: ПН, СР, СБ
+Технический перерыв: ежедневно с 14-00 до 17-00
+Поминутная тарификация, + 15 минут бесплатного времени на раздевание. При пользовании услугами общественных парных до 1 часа включительно, бесплатное время на раздевание/одевание (15 мин.) не предоставляется и оплачивается согласно тарификации.
+Информируем вас о том, что проносить в сауну свои напитки и еду запрещено.</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, холодная купель, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Банный проезд, дом 3, стр 1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественные бани. 
+Добро пожаловать в банный комплекс Мещанского района - Ржевские бани!
+Ржевские бани - один из старейших банных комплексов Москвы,  начавший свою работу еще с 1888 года и входящий в ТОП-10 бань города на сегодняшний день.  Мы бережно сохранили уникальный «ароматный пар» по запатентованной технологии в сводчатых парных,  не перестраивавшихся с момента основания.  Общественная городская баня с многовековой традицией парения,  душевной атмосферой и отменной кухней - это то,  что нужно для настоящего релакса по-русски.  В Ржевских банях работают два отделения: мужское и женское,  в каждом из которых есть русская парная,  бассейн и зона отдыха с ТВ. 
+Для желающих провести время в семейном кругу,  отпраздновать знаменательное событие или отдохнуть в компании друзей,  мы предлагаем кабинеты повышенной комфортности.  Для любителей сухого пара в нашем комплексе работает финская сауна с бассейном.  Общая вместимость бани 60 человек. 
+В продаже веники,  банные принадлежности и средства гигиены. 
+Желающим воспользоваться SPA процедурами,  мы предлагаем парения от банного мастера,  банные помывки,  пилинги,  маски для тела,  массажи и комплексные уходы. 
+В Ржевских банях работает салон красоты с парикмахерской,  косметологическим,  маникюрным,  педикюрным и массажным кабинетами. 
+После банно-оздоровительных процедур,  пр</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, оплата картами, акции и скидкиСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Мужской разряд (09-00 - 20-00):
+Будни - от 1800 руб/3,5 часа;
+Выходные - от 1890 руб/3,5 часа
+Женский разряд (09-00 - 20-00):
+Будни - от 1620 руб/без ограничения по времени;
+Выходные - от 1710 руб/без ограничения по времени.
+После 20-00 - от 1395 руб.
+Цена льготного* билета (3 часа) - 750 руб;
+Цена льготного** билета (3 часа) - от 1305 руб;
+Участники ВОВ обслуживаются бесплатно:
+понедельник с 9-00 до 21-30
+вторник, среда, четверг, пятница с 9-00 до 13-00
+Дети с 7 до 12 лет - 650 руб;
+Для детей в возрасте до 7 лет помывка бесплатная.
+Для студентов дневных отделений (по понедельникам весь день, остальные дни до 16.00), при предъявлении студенческого билета стоимость помывки 3 часа - от 1305 руб;
+*льготы предоставляются следующим категориям граждан:
+Пенсионеры по возрасту (женщины 55 лет, мужчины 60 лет);
+Инвалиды 1 группы
+**льготы предоставляются всем остальным гражданам, относящимся к льготным категориям, предусмотренным законом РФ.
+Льготы на посещение действуют только при предъявлении подтверждающего документа (пенсионного удостоверения, удостоверения участника ВОВ). Все граждане, относящиеся к льготной категории, могут обратиться в управу по месту жительства за получением пригласительного билета.
+Льготы действуют:
+Понедельник с 9-00 до 20-00;
+Вторник, Среда, Четверг, Пятница с 9-00 до 13-00;
+ПОМЫВ СТРОГО до 16-00
+ </t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Московская обл, г. Подольск, пос. Дубровицы, дом 36 А</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные городские русские бани на дровах,  расположились в Подольске,  в посёлке Дубровицы.  В баню удобно добираться как на автомобиле (возле бани парковка),  так и общественным транспортом (рядом с баней конечная остановка "Дубровицы").  Общие отделения бани делятся на мужские и женские дни,  и работают до 22-00 часов. 
+Общая баня предлагает гостям:
+- русская парная на дровах;
+- помывочная с душевыми и бассейном-купелью;
+- зал для отдыха с диванами,  скамейками,  столами и ТВ;
+- веники,  банные принадлежности и средства гигиены - в продаже. 
+Дополнительную информацию узнавайте по телефону бани:
++7 977 546 65 83
+За сутки: 31
+За последние 30 дней: 322
+Всего: 7105
+</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, можно со своими продуктамиУслуги: веникиСервис: бассейн, холодная купель, спутниковое тв, обливное ведро
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Время посещения не ограничено.
+- 600 руб;
+Дети до 8 лет - бесплатно;
+Дети 8 - 14 лет - 350 руб;
+Пенсионеры - 350 руб;
+Многодетные - 400 руб.
+Дополнительно:
+Веники - 200 руб;
+Простынь - 100 руб;
+Мыло - 50 руб;
+Мочалка -150 руб;
+Шапка - 200 руб;
+Тапочки - 50 руб;
+Бахилы - бесплатно
+Лимонад - 50 руб;
+Квас - 50 руб;
+Вода минеральная - 100 руб;
+"Квасель" 0,5мл - 80 руб;
+"Квасель" 1,5 мл - 150 руб;</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, обливное ведро</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Московская обл., посёлок Подольской машинно-испытательной станции, дом 10, корп. 1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные русские бани на дровах,  расположились в Подольске,  в посёлке Подольской машинно-испытательной станции,  дом 10,  корп.  1.  
+В бане для посетителей:
+- парковка для автомобилей;
+- русская парная на дровах;
+- помывочная с душевыми;
+- зал для отдыха со столом и скамейками;
+- веники,  банные принадлежности и средства гигиены - в продаже;
+Дополнительную информацию узнавайте по телефону бани:
+8 499 557 07 07
+За сутки: 30
+За последние 30 дней: 210
+Всего: 2097
+</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, можно со своими продуктамиУслуги: веникиСервис: охраняемая парковка, спутниковое тв
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 550 руб
+Входной билет, без ограничения по времени пребывания. 
+Действуют скидки для льготных категорий населения.
+Режим работы: 
+Ср - Вс, с 12-00 до 21-00</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, спутниковое тв</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>г. Видное, Северная Видновская Промзона, вл 16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в наш банный комплекс «Русская баня на дровах 555»!
+Мы находимся в г.  Видное на охраняемой территории,  с удобной транспортной доступностью,  всего в 2км от МКАД. 
+Наша баня на дровах – это настоящий русский отдых как в кругу семьи,  так и в компании друзей.  Внутренний интерьер банного комплекса выполнен в традиционном русском стиле,  из натурального дерева с его приятными и тёплыми тонами. 
+В русской бане "555" Вы можете попарится в своё удовольствие,  отдохнуть от городской суеты,  отпраздновать знаменательное событие или же просто приятно провести время с пользой для здоровья. 
+Баня,  как известно,  оздоравливающе влияет на весь организм,  снимает усталость,  помогает справится со стрессом,  даёт ощущение бодрости и свежести и заряжает энергией на всю неделю. 
+В нашей бане комфортно разместится компания до 12 человек,  площадь внутренних помещений составляет более 400 кв. м. 
+Для Вас:
+- Русская парная с каменной печью,  которая топится дровами.  При желании,  можно воспользоваться услугами нашего профессионального банщика – парильщика. 
+- Бассейн-купель с прохладной водой,  душевые
+- Комнаты отдыха с большими и удобными кроватями,  мягким освещением и необходимой мебелью (стол,  стулья). 
+- Бильярдный зал с двумя профессиональными бильярдными столами: 12 футовый стол на каменной плите с подогревом,  и 10 футовый стол на каменной плите.  Площадь зала более 50 кв метров,  здесь удобно разместятся как игроки за двумя столами,  так и зрители,  для удобства которых в зале находятся большие и удобные кожаные диваны. 
+- Тренажерный зал оборудован всеми необходимыми тренажерами для поддержания себя в отличной физической форме.  
+- Настольный теннис
+- Профессиональная система караоке предлагает большой выбор песен,  различных жанров и направлений,  более 50000 песен,  их база постоянно дополняется и обновляется
+- Кафе-бар,  в котором представлен широкий ассортимент напитков и закусок,  способных удовлетворить вкусы гурманов,  при этом с достаточно демократичными ценами.  Если у вас посещение банного комплекса связано с празднованием события,  то наши повара предложат вам именно то меню,  которое идеально подойдет для того,  чтобы вкусы всех гостей были удовлетворены.  Вы можете заказать еду (горячие блюда,  закуски,  напитки) согласно меню в нашем кафе.  Оплата заказа – предварительная,  с оплатой за сутки до посещения бани. 
+Звоните,  и бронируйте Русскую баню на дровах "555" на удобное для Вас время!
+Более подробную информацию вы можете посмотреть на официальном сайте банного комплекса  http://555sauna. ru/
+За сутки: 31
+За последние 30 дней: 279
+Всего: 6532
+</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, ресторан, разливное пиво, можно со своими продуктами, кафе, меню доставкиУслуги: веники, банщикСервис: бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, большой TV, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Расписание сеансов
+08.00 -- 11.00
+11.00 -- 14.00
+14.00 -- 17.00
+17.00 -- 20.00
+20.00 -- 23.00
+В 22.45 баня закрывается. 
+СТОИМОСТЬ:
+Стоимость сеанса (3 часа) для любого количества посетителей от 1 до 12 человек.
+- Понедельник, вторник, среда – 4000 руб./ сеанс (+каждый следующий – 3000 руб./ сеанс)
+- Четверг, пятница – 5000 руб./ сеанс (+каждый следующий – 4000 руб./ сеанс)
+- Суббота, воскресенье – 7000 руб./ сеанс (+каждый следующий – 5000 руб./ сеанс)
+Праздничные дни – по расценкам выходных дней
+Дополнительно: Полотенце – 150 руб. Простынь – 150 руб. Шапочка – 150 руб. Тапочки – 50 руб. Веник – 300 руб.
+Также, у нас Вы можете арендовать банкетный зал площадью 100 м. кв. с количеством посадочных мест – 40 мест для проведения различных мероприятий с 12.00 до 23.00 по стоимости 10000 руб за указанное время</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, большой TV, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Московская область, Одинцовский район, село Аксиньино, Ильинское шоссе, дом 89 Б</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные бани на дровах в Аксиньино расположились в Одинцовском районе Московской области,  на Ильинском шоссе,  дом 89 Б.  Общая баня вмещает одновременно до 25 человек,  и делится на мужские,  женские и семейные дни.  Общие отделения бани работают с пятницы по воскресенье. 
+В бане для гостей:
+- русская парная с каменной печью;
+- помывочный зал с душевыми;
+- бассейн во дворе под открытым небом с зоной отдыха;
+- бар с прохладительными напитками,  разливным пивом и лёгкими закусками;
+- в продаже банные принадлежности,  средства гигиены,  веники и травы для парной;
+Для компаний и семейного отдыха предлагаем в аренду банный комплекс полностью,  по будним дням. 
+Дополнительную информацию можно получить по телефонам бани:
++7 916 691 39 04
++7 910 475 94 40
+За сутки: 25
+За последние 30 дней: 283
+Всего: 2794
+</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, ароматерапияСервис: бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- 500 руб/час
+Режим работы.
+Пятница:
+- женский день с 12-00 до 17-30
+- мужской день с 18-00 до 21-00
+Суббота:
+- мужской день с 11-00 до 22-00
+Воскресенье:
+- мужской день с 11-00 до 21-00 </t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Московская обл., г. Балашиха, ул. Текстильщиков, 1А</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Общественные городские русские бани в Балашихе расположились на улице Текстильщиков,  дом 1 А.  Общая баня топится исключительно дровами,  и делится на мужские и женские дни посещения.  Рядом с баней протекает река Пехорка,  поэтому гости банного комплекса после жаркой парной могут окунуться в прохладную воду природного водоёма,  а в зимний период в прорубь,  оборудованы ступеньки для спуска.  
+В бане для гостей: 
+- русская парная на дровах;
+- помывочная с душевыми кабинами;
+- купель,  природный водоём (зимой - прорубь);
+- зал для отдыха с кабинками-купе,  скамейками и столами;
+- настольные игры;
+- бар-кафе с прохладительными напитками и лёгкими закусками;
+- услуги парения,  массажа,  маникюра,  педикюра,  парикмахерская;
+- меню доставки блюд из ресторана (на территории комплекса);
+- в продаже банные принадлежности и средства гигиены. 
+Общие бани работают ежедневно.  
+Дополнительную информацию можно узнать по телефонам бани:
++7 495 529 22 43 или +7 964 552 99 00
+За сутки: 28
+За последние 30 дней: 415
+Всего: 5676
+</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, разливное пиво, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картамиСервис: холодная купель, прорубь, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Время пребывания в бане не ограничено.
+Мужские дни:
+Пн, с 11-00 до 22-00 - 700 руб;
+Вт, с 10-00 до 22-00 - 700 руб;
+Чт, с 10-00 до 22-00 - 700 руб;
+Пт, с 10-00 до 22-00 - 700 руб;
+Вс, с 08-00 до 22-00 - 1000 руб;
+Женские дни:
+Ср, с 10-00 до 22-00 - 700 руб;
+Сб, с 08-00 до 20-00 - 700 руб.
+Дополнительные услуги.
+Платные: парикмахерская, маникюр, педикюр, массаж.
+Бесплатные: настольные игры, парная на травах (полынь, мята, пихта, лаванда, донник).
+ </t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>холодная купель, прорубь, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Неглинная улица, дом 14, стр. 3-7</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Что такое Сандуны?
+Это настоящая,  традиционная русская баня! С 1808 года Сандуны были,  есть и будут лучшими банями столицы.  В 19 веке это было настоящее архитектурное и инженерное чудо,  поражающее своими залами,  сводчатыми потолками,  богатой лепниной,  росписью и мраморными лестницами.  Со всей широтой русской души строились Сандуны! Но и сейчас,  в 21 веке не утеряли ни грамма своего величия.  Так и остаются они мерилом для русских бань. 
+Для самого искушенного знатока банного дела сегодня Сандуны открывают двери трех мужских и двух женских отделений с огромными залами отдыха,  бассейнами и русскими парными.  Для тех,  кто хочет уединения,  созданы номерные бани (8 номеров с оригинальными интерьерами,  русской печкой и бассейном-джакузи).  Появились в Сандунах салоны красоты и СПА-центр «Сандуны Восток»,  здесь можно воспользоваться услугами любых мастеров: парикмахера,  косметолога,  лучшего мастера массажа или ногтевого сервиса.  Конечно же,  на территории Сандунов есть ресторан.  Здесь после банного дня можно попробовать русские,  узбекские и китайские блюда.  Сохранилась в Сандунах прачечная,  а ещё - появилась лавка «Сандуновъ»,  где можно найти банные принадлежности,  мыло,  веники и сувениры. 
+Современные Сандуны — это бережно сохраненные традиции,  русский размах,  самый высокий уровень сервиса и всевозможные актуальные нововведения,  которые делают банный сеанс настоящим отдыхом души и тела. 
+За сутки: 15
+За последние 30 дней: 157
+Всего: 5925
+</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, русская на дровах, римскаяКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, солярий, массажное кресло, оплата картами, акции и скидкиСервис: бассейн, кондиционер, бильярд, джакузи, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, камин
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Стоимость: 
+Общественные разряды:
+- от 1200 руб/ 2 часа
+Номерные бани:
+- от 4800 руб/час</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, джакузи, холодная купель, спутниковое тв, караоке, обливное ведро, большой TV, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Михалковская ул, дом 13</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в сауну "Гоа" ,  которая расположилась в Москве,  в Коптево,  на Михалковской улице,  дом 13.  Сауна открыта 24 часа в сутки,  и располагает всем необходимым для банно-оздоровительного отдыха.  Сауна "Гоа" отличное место для посиделок в компании друзей,  проведения мальчишников-девичников,  празднований знаменательных событий или семейного отдыха.  Также,  здесь можно провести романтическое свидание в обстановке уединения и комфорта.  В сауне "Гоа" для гостей 2 отделения - большой и малый зал. 
+Большой зал:
+- русско-финская парная,  в которой можно пользоваться вениками;
+- инфракрасная сауна;
+- бассейн с подогревом и фильтрацией;
+- обливная кадушка с ледяной водой,  душевые;
+- гостиный зал с кожаными диванами,  обеденным столом,  ТВ,  караоке,  музыкальным центром;
+- кровать под балдахином;
+- кальян,  настольные игры,  Wi-Fi
+Малый зал:
+- русско-финская парная;
+- душевые;
+- гостиный зал с креслами,  столом,  ТВ,  караоке,  музыкальным центром;
+- кальян,  Wi-Fi;
+- комната отдыха с двуспальной кроватью;
+Сдаём в аренду "комнату на час" (без сауны).  В комнате - двуспальная кровать,  музыкальный центр,  душевая кабина. 
+У нас можно приобрести веники,  воспользоваться услугами профессионального банщика и массажиста,  взять в аренду простыни,  полотенца,  халаты и тапочки.  
+Также на территории сауны "Гоа" для гостей - услуги маникюра,  солярий.  
+Забронировать сауну или узнать всю интересующую информацию можете по телефонам:
++7 903 004 13 13
++7 910 428 77 22
+За сутки: 36
+За последние 30 дней: 331
+Всего: 4603
+</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, инфракрасная саунаКухня: бар, можно со своими продуктами, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центрСервис: бассейн, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Минимальная аренда сауны - 2 часа.
+Большой зал
+ПН - ЧТ
+09:00 – 18:00 - 1000 руб/час;
+18:00 – 09:00 - 1200 руб/час;
+ПТ - ВС
+- 1500 руб/час
+Малый зал
+ПН - ЧТ - 500 руб/час;
+ПТ - ВС - 800 руб/час
+Комната на час
+- 400 руб/час
+Дополнительно:
+- за принесенные с собой еду и напитки доплата 500 руб;
+- оплата +10 % от общего счёта за обслуживание и уборку.
+ </t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2-й Хорошёвский проезд, 7, стр. 1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Приятная и гостеприимная сауна "Колибри" приглашает вас отлично провести время легко и  без забот - здесь вы сможете забыть о проблемах и в полной мере насладиться гармонией и умиротворением.  Ваш отдых в приятных расслабляющих просторах сауны "Колибри" будет проходить интересно и расслабляющее - к услугам гостей финская сауна и инфракрасная кабина,  можно выбрать любимый тип парения и с наслаждением провести время в комфортных для себя пространствах с пользой для оздоровления! В сауне "Колибри",  которая располагается в районе Хорошево-Мневники,  вы легко насладитесь приятными мгновениями,  сауна располагается около станций метро Беговая и Полежаевская,  а также неподалеку станций Улица 1905 года.  В таких условиях ваш отдых будет проходить на все 100% и подарит чудесные моменты восстановления сил! Вместимость банного помещения составляет 10 человек: тут гости смогут с легкостью провести немало времени и порадовать себя,  семью и друзей замечательным оздоровлением - в сауне "Колибри" отдых всегда будет интересным и не лишенным пользы!
+Отдохнуть в сауне "Колибри" могут семи с детьми или веселые дружеские компании: в таких приятных восстанавливающих условиях отдых или празднования различных дней рождений,  юбилеев и мальчишников пройдет на все 100%!
+Отдых в сауне "Колибри" - отличное расслабление души и тела!
+В сауне "Колибри" всегда действуют различные акции,  к примеру - каждый 6-ой час в подарок! Вы сможете провести время в удовольствием в большой аква-зоне,  наполненной мгновениями комфорта.  Тут имеется жаркая финская парная и отличная расслабляющая инфракрасная кабина.  Вы легко можете выбрать приятный для себя тип парной - жаркий или,  наоборот,  нежаркий,  и провести время с пользой для своего здоровья.  Здесь же располагается бассейн и джакузи с гидромассажными потоками,  где можно насладиться неторопливым и очень приятным отдыхом,  который будет дарить вам много положительных качеств. 
+Массажные процедуры и парение от профессиональных банщиков доставят вам много приятных и восстанавливающих моментов,  способных принеси пользу и хорошее самочувствие. 
+Отдых в сауне "Колибри" - это расслабление в гостеприимной банкетной зоне,  а также в просторах гостиной,  где есть вся необходимая техника для веселых дружеских посиделок,  волнующих мгновений расслабления и комфорта. 
+За сутки: 15
+За последние 30 дней: 79
+Всего: 6502
+</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, инфракрасная саунаКухня: русская, бар, кафе, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальянСервис: бассейн, кондиционер, охраняемая парковка, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Стоимость посещения:
+с 09:00 до 15:00 – 700 руб./час;
+с 15:00 до 09:00 – 1000 руб./час.</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Совхозная, д. 3, стр. 2 </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+«Надежда» - это отличная сауна в Люблино,  где вы сможете устроить для себя незабываемые банные приключения,  с наслаждением провести мгновения отдыха и устроить для себя отличную релаксацию.  Финская парная,  большой бассейн для плавания,  массаж,  ароматерапия,  а после этого - посиделки за банкетным столом или в уютных зонах для отдыха вместе с близкими и родными.  Отдых в сауне «Надежда» порадует вас самыми яркими и незабываемыми эмоциями,  и обязательно принесет восторг,  массу приключений и приятных моментов отдыха.  Ждем всех в приятной сауне,  в которой вас ждет лучший отдых и полноценное восстановление сил! Бассейн в сауне оснащен подсветкой и системой фильтрации,  приятное охлаждение после парной здесь всегда порадует вас,  а также принесет массу оздоровления,  бодрость и отличное самочувствие! Ждем всех в просторах приятной сауны «Надежда»,  в которой любой отдых пройдет замечательно и принесет незабываемые эмоции!
+Сауна «Надежда» способна вместить в свои просторы компанию из 12 человек: здесь гости всегда смогут насладиться ярким и оригинальным  отдыхом,  волнующим душу и сознание.  Семейные посиделки,  дружеские встречи или приятные развлекательные мероприятия.  В сауне «Надежда» любой отдых запомнится массой положительных эмоций и неповторимых мгновений расслаблений и полноценного умиротворения организма! После жаркой парилки и парения вас ждет ароматерапия,  массаж в воде или оздоровительный массаж.  Устройте себе и своей семьей полезные и приятные моменты отдыха,  которые запомнятся на долгое время.  Сауна «Надежда» на Совхозной улице встретит вас всегда гостеприимно,  как лучших друзей! 
+Условия расслабления в сауне «Надежда»
+Прекрасный расслабляющий отдых ждет вас в приятных пространствах сауны «Надежда»: по предварительному заказу все гости всегда смогут заказать стриптиз-шоу,  дискотеки и проведение веселых мероприятий.  Дополнить расслабляющий отдых можно различными массажными техниками,  спа-процедурами,  ароматами для парной,  а также заказом кальяна.  Пусть ваш отдых всегда радует приятными банными приключениями,  способными принести массу расслабляющих моментов отдыха.  
+Авто гости смогут оставить на охраняемой стоянке.  В сауне «Надежда» вас всегда рады!
+За сутки: 16
+За последние 30 дней: 94
+Всего: 7498
+</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: бар, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массажСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Стоимость посещения для компании до 6 человек включительно:
+Пн-Чт 9:00-14:00 - 800 руб./час
+другое время - 1200 руб./час.
+Свыше 6 человек - доплата.</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ул. Щепкина, д.9, стр.1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна «Нирвана» - это приятные комфортабельные территории для вашего размеренного и очень приятного отдыха,  которые принесут вам массу приятных эмоций,  позволят вдохновиться яркими и незабываемыми минутами.  Настоящая экзотика,  ощущение пребывания на острове или в лагуне - в сауне «Нирвана» вы ощутите яркие эмоции и сможете провести время отдыха с любимыми друзьями,  весело и незабываемо.  Сауна «Нирвана» располагается около станции метро Сухаревская.  В таких приятных расслабляющих пространствах ваш отдых всегда пройдет весело и интересно,  а также подарит яркие эмоции и самые незабываемые банные процедуры.  Здесь гости смогут провести вечер с семьей или любимыми друзьями,  или же устроить веселый праздник,  провести корпоратив или мальчишник,  насладиться безукоризненными интерьерами и необычной атмосферой релаксации! В сауне «Нирвана» вас ждет гостеприимный персонал,  радушный прием в любое время,  а также веселье,  комфорт и самые приятные яркие эмоции.  Отдых в сауне «Нирвана» - это отличное расслабление в непринужденных сказочных интерьерах!
+Сауна «Нирвана»: ждем всех в гости за отличными эмоциями!
+В сауне «Нирвана»  вы можете приобрести банные принадлежности,  веники,  эфирные масла - все,  что нужно для приятного и незабываемого отдыха в отличных территориях,  где вы ощутите релаксацию и умиротворение.  Сауна «Корабль» - это стильное пространство для размеренного отдыха,  здесь вас ожидает отличная русская парная,  бассейн с гротами,  подогревом и системой фильтрации.  Приглашаем вас посетить приятные банные территории,   в которых  много чудесных зон для яркого и незабываемого отдыха,  способного подарить приятные расслабляющие эмоции. 
+Гости могут выбрать и другой зал - «Тропики»,  где приятные территории для отличных ярких посиделок,  насыщенных оригинальными интерьерами,  посещением финской и русской сауны,  а также интересными водными процедурами.  
+В условиях гостеприимной сауны обязательно стоит попариться свежими вениками,  которые банщики перед сеансом запаривают в ароматном настое из трав и масел.  Спа-терапия,  массаж и много приятных условий релаксации ждут вас в помещении комфорта - в отличной сауне «Нирвана»,  где комфорт и отличное самочувствие будут вас сопровождать постоянно. 
+За сутки: 13
+За последние 30 дней: 84
+Всего: 6990
+</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баняКухня: русская, бар, мангалУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапияСервис: бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Стоимость посещения:
+"КОРАБЛЬ" Финск.Русск
+8.00 - 15.00 - 2000 руб.
+15.00 - 0.00 - 2400 руб.
+0.00 - 8.00 - 2600 руб.
+"ТРОПИКИ" Финск.Русск
+8.00 - 15.00 - 2000 руб.
+15.00 - 0.00 - 2400 руб.
+0.00 - 8.00 - 2600 руб.
+"ЕГИПЕТ" Турецкая баня
+8.00 - 15.00 - 1800 руб.
+15.00 - 0.00 - 1800 руб.
+0.00 - 8.00 - 2000 руб.
+Минимальный заказ - 2 часа!</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, холодная купель, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Москва, ул. Плещеева, 15б</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Для отличного времяпрепровождения приглашаем вас в сауну «Новый мир»! 
+Комфортная обстановка,  умеренные цены,  большой ассортимент услуг.   Идеальная чистота.  Закрытая охраняемая территория.  . 
+С радостью поможем Вам в организации банкетов и праздников. 
+Отличная кухня.  Разнообразные напитки.  Разрешается приносить собой еду и напитки. 
+Приходите - заодно и помоетесь!!!
+За сутки: 12
+За последние 30 дней: 61
+Всего: 8442
+</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, мангал, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, кальянСервис: бассейн, кондиционер, охраняемая парковка, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+800 - 1200 руб/час 
+ </t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ул. Островитянова, д.32А</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна «Остров» в районе Коньково приглашает всех гостей отлично провести время в обстановке полного комфорта и отличной релаксации.  Если вам требуется немедленный отдых,  который принесет полз для здоровья,  а также позволит встретиться с друзьями,  что в сауне «Остров» легко можно устроить замечательные посиделки,  пригласить друзей и близких,  устроить отличные банные процедуры,  спа-терапию и занять время именно теми развлечениями,  которые вам нравятся.  Сауна «Остров» находится около станций метро Коньково и Теплый Стан - если в условиях большого города в желаете отлично провести время и позаботиться о своем здоровье,  то в сауне «Остров» вы получите много приятных эмоций и большую пользу для своего организма. 
+Максимальная вместимость территорий сауны составляет 10 человек: гости смогут выбрать один из трех залов сауны и отлично провести там время в обстановке полного комфорта.  Красивые современные территории,  приветливый персонал,  атмосфера спокойствия и умиротворения помогут вам провести время в сауне весело и беззаботно,  подарить вам шикарный отдых,  способный вдохновить на новые расслабляющие эмоции.  Отдых в сауне «Остров» - это позитивные эмоции и совершенно новые гарантии счастливо проведенного отдыха!
+Залы сауны «Ос</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, мангалУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапияСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Стоимость посещения:
+Сауна "Замок" -1700 руб./час
+Сауна "Изба " - 1200 руб./час
+Сауна "Тет-а-тет" - 1000 руб./час</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ул. Герасима Курина, д.14, к.1А</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна "Пальмира" расположилась в районе Москвы Фили-Давыдково,  в пешей доступности от метро Славянский Бульвар,  на улице Герасима Курина,  дом 14,  корп.  1А.  Сауна работает круглосуточно,  и вмещает компании до 15 человек.  Сауна "Пальмира" подходит для веселых вечеринок компании друзей,  празднований знаменательных событий,  организации мальчишников/девичников,  банно-оздоровительного отдыха в семейном кругу или для проведения романтического свидания в обстановке уединения и комфорта. 
+В сауне для гостей:
+- финская парная (6 человек);
+- турецкий хаммам (8 человек);
+- джакузи с гидро- и аэромассажем;
+- обливное ведро,  душевые;
+- гостиный зал с банкетным столом,  мягкими кожаными диванами и кальяном;
+- спутниковое ТВ с возможностью просмотра спортивных трансляций на экране 65 дюймов в HD качестве;
+- профессиональный караоке AST-250 (более 50 000 песен),  с акустикой и сабвуфером JBL,  беспроводными микрофонами и световым сопровождением для дискотеки;
+- комнаты отдыха с двуспальными кроватями;
+- бар с большим ассортиментом напитков,  блюд европейской,  кавказской и русской кухонь. 
+Дополнительно предлагаем услуги профессионального банщика,  массажиста и спа-процедур по уходу за лицом и телом. 
+Забронировать сауну,  или узнать дополнительную информацию можете по телефону:
++7 495 877 41 69
+Или на официальном сайте сауны:
+https://www.saunapalmira.ru/
+За сутки: 12
+За последние 30 дней: 130
+Всего: 2305
+</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам)Кухня: русская, бар, можно со своими продуктами, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центр, акции и скидкиСервис: кондиционер, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+- от 1000 руб/час
+Минимальная аренда сауны - 2 часа. 
+Внимание! АКЦИИ:
+- каждый 6й час в подарок ежедневно.
+Дополнительно:
+Веник – 500 руб;
+Халат – 100 руб;
+Полотенце – 100 руб;
+Простыня – 100 руб;
+Тапочки – 100 руб;
+Кальян – 1000 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>кондиционер, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Каширский проезд, дом 7</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна "Новая Жемчужина" расположилась в районе Москвы Нагатино-Садовники,  на Каширском проезде,  дом 7.  Ближайшие станции метро Варшавская,  Каширская или Нахимовский проспект.  Для автомобилистов рядом с сауной охраняемая парковка.  
+Сауна "Новая Жемчужина" отличное место для веселых компаний друзей,  празднования знаменательных событий,  семейного отдыха или проведения романтического свидания в обстановке комфорта и уединения. 
+В сауне три зала - Большой,  Средний и Малый,  в каждом из которых есть всё для качественного банно-оздоровительного отдыха. 
+Большой зал (до 12 человек):
+- финская парная;
+- бассейн 6х5 м с подсветкой,  подогревом и фильтрацией;
+- гостиный зал с банкетным столом,  стульями,  мягкой мебелью,  аудио-видео аппаратурой;
+- американский бильярд;
+- комната отдыха. 
+Средний зал (до 10 человек):
+- финская парная;
+- бассейн 4х3 м с подогревом и фильтрацией;
+- гостиный зал с банкетным столом,  мягкой мебелью,  аудио-видео аппаратурой;
+- американский бильярд;
+- 2 комнаты отдыха. 
+Малый зал (до 6 человек):
+- финская парная;
+- гостиный зал с банкетным столом,  мягкой мебелью,  аудио-видео аппаратурой;
+- комната отдыха. 
+Дополнительно - массажное кресло и вертикальный турбосолярий.  
+Также,  в сауне "Новая Жемчужина" гости могут заказать горячие и холодные закуски,  десерты и напитки. 
+Забронировать сауну или узнать подробную информацию можете по телефону: 
++7 903 191 01 82
+За сутки: 10
+За последние 30 дней: 82
+Всего: 4936
+</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: бар, можно со своими продуктами, меню доставкиУслуги: веники, оздоровительный массаж, ароматерапия, солярий, массажное кресло, музыкальный центр, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Большой зал:
+09-00 – 16-00 – 900 руб/час;
+16-00 – 09-00 – 1500 руб/час
+Вместимость до 12 человек.
+Средний зал:
+09-00 – 16-00 – 700 руб/час;
+16-00 – 09-00 – 1200 руб/час
+Вместимость до 10 человек.
+Малый зал:
+09-00 – 16-00 – 500 руб/час;
+16-00 – 09-00 – 800 руб/час
+Вместимость до 6 человек.
+Внимание! АКЦИИ:
+- при одновременной оплате 5 часов (Большой и Средний зал) – 6й час в подарок
+Дополнительно:
+Простынь - 100 руб;
+Полотенце - 100 руб;
+Тапочки синие - 50 руб;
+Тапочки махровые - 150 руб;
+Тапочки резиновые - 150 руб;
+Халат махровый - 200 руб;
+Веник дубовый - 400 руб;
+Аромат для парной - 100 руб.
+ </t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке, Wi-Fi, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ул. Большая Татарская, дом 5, с.5</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в сауну гостинично - офисного комплекса BonApart,  который расположился в центре Москвы в 1 минуте ходьбы от станции метро «Новокузнецкая» и в 5 минутах от станции метро «Третьяковская». 
+Это отличное место для отдыха небольшой компании (до 8 человек),  проведения мальчишника - девичника,  семейного отдыха,  банно-оздоровительных процедур после трудового дня или же для романтического свидания в условиях комфорта,  уединения и конфиденциальности.  
+В отеле к вашим услугам SPA-зона,  оснащённая гидромассажной ванной – джакузи и сауной,  зоной отдыха с лежаками,  большим столом и диваном.  По соседству находятся апартаменты — комфортный номер с джакузи для тех,  кто хочет провести время в уютной атмосфере.  Номер снабжен всем необходимым,  что позволяет гостям и жителям Москвы полноценно расслабиться и наполнить положительными эмоциями отдых или провести романтическую встречу в комфортной обстановке. 
+При желании гости могут объединить спа-зону с апартаментами. 
+У нас вы сможете погрузиться в приятную атмосферу отдыха,  которая поможет обрести гармонию,  внутренний покой и восстановить свои жизненные силы. 
+Забронировать сауну или узнать стоимость номерного фонда Вы можете у администратора по телефону:  +7 985 411 24 07
+За сутки: 27
+За последние 30 дней: 273
+Всего: 4470
+</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: можно со своими продуктами, кафеСервис: кондиционер, джакузи, спутниковое тв, Wi-Fi, обливное ведро, большой TV, Отель
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 1700 руб/час
+Минимальный заказ сауны – 3 часа (до 8 человек)
+Отель: 
+Стоимость номерного фонда по запросу</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>кондиционер, джакузи, спутниковое тв, Wi-Fi, обливное ведро, большой TV, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Перовская улица, 61/2, стр.1 (вход с торца бизнес-центра)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна в Перово "Парься по-Царски" расположилась в районе Москвы Новогиреево,  на Перовской улице,  61/2,  стр. 1 (вход с торца бизнес-центра).   В сауне 3 зала,  каждый из которых выполнен в индивидуальном стиле,  и вмещают от 8 до 25 гостей.  
+Сауна VIP "Парься по-Царски" в Перово подойдет как для отдыха в компании друзей,  празднования знаменательных событий,  мальчишников/девичников,  семейного отдыха,  так и для проведения романтического свидания в обстановке уединения и комфорта.  
+Сауна работает круглосуточно,  7 дней в неделю. 
+Большой зал (до 25 человек):
+Парная: финская сауна,  в которой могут париться одновременно до 12 человек. 
+Аква зона: бассейн,  душевые. 
+Для отдыха: аудио-видео аппаратура,  2 комнаты отдыха,  караоке,  банкетный зал,  кальян,  шоу программы,  массажное кресло,  русский бильярд,  настольные игры (на выбор),  чайные церемонии. 
+Банные услуги: банщик,  выбор веников,  различные виды пропарок,  программы по телу,  обертывания,  спа-терапия,  ароматерапия,  ароматы для парной,  оздоровительный массаж. 
+Кухня: домашняя,  русская,  европейская,  бар. 
+Зал "Русская душа" (до 10 человек):
+Парная: финская сауна,  в которой могут париться одновременно до 5 человек. 
+Аква зона: джакузи,  душевые. 
+Для отдыха: аудио-видео аппаратура,  1 комната отдыха,  караоке,  банкетный зал,  кальян,  бар,  шоу программы,  массажное кресло. 
+Банные услуги: банщик,  выбор веников,  различные виды пропарок,  программы по телу,  обертывания,  спа-терапия,  ароматерапия,  ароматы для парной,  оздоровительный массаж. 
+Кухня: домашняя,  русская,  европейская,  бар. 
+Зал "Сказочная Италия" (до 8 человек):
+Парная: финская сауна,  в которой одновременно могут находиться до 4х человек. 
+Аква зона: джакузи,  душевые. 
+Для отдыха: аудио-видео аппаратура,  1 комната отдыха,  караоке,  банкетный зал,  кальян,  бар,  шоу программы,  массажное кресло. 
+Банные услуги: банщик,  выбор веников,  различные виды пропарок,  программы по телу,  обертывания,  спа-терапия,  ароматерапия,  ароматы для парной,  оздоровительный массаж. 
+Кухня: домашняя,  русская,  европейская,  бар. 
+По предварительной записи работает новый массажный кабинет (круглосуточно)!
+Забронировать сауну,  или узнать дополнительную информацию можете по телефонам:
+8 495 797 89 46
+8 495 363 93 49
+8 916 076 01 00 (WhatsApp)
+За сутки: 21
+За последние 30 дней: 271
+Всего: 8259
+</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, кальян, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Минимальное время аренды - 2 часа.
+Большой зал с бассейном
+- 1900 руб/час до 5 чел;
+- 2500 руб/час до 10 чел;
+- 3100 руб/час до 13 чел.
+Зал "Русская душа"
+- 1600 руб/час до 5 чел;
+- 1900 руб/час до 7 чел;
+- 2300 руб/час до 10 чел.
+Зал "Сказочная Италия"
+- 1700 руб/час до 2 чел;
+- 2300 руб/час до 4 чел;
+- 2900 руб/час до 6 чел.
+Свыше указанного максимального количества человек + 200 руб/час/чел.
+За принесённые с собой продукты и напитки берётся пробковый сбор: 350 руб/1 гость;
+При обслуживании гостей со своими продуктами берется единоразовая оплата за уборку с компании: до 5 чел - 300 руб, до 10 чел - 500 руб, до 15 чел - 1000 руб, до 20 чел - 1500 руб.
+Дополнительно:
+Аренда простыни - 150 руб/шт;
+Аренда полотенца - 170 руб/шт;
+Аренда тапочек - 150 руб/пара;
+Аренда махрового халата - 460 руб/шт;
+Веник премиум береза - 790 руб/шт;
+Веник дуб-берёза - 690 - 790 руб/шт (на выбор);
+Веник бамбуковый мал. - 450 руб/шт;
+Веник бамбуковый бол. - 650 руб/шт;
+Парка (2 захода) - 1500 руб;
+Свой веник - 690 руб;
+Свой кальян - 1300 руб.
+Внимание! АКЦИИ:
+Акция №1: Золотые Часы кроме выходных и праздничных дней. Ежедневно – Большой и Русский зал с 10:00 до 15:00 - 1300 руб./час до 4 чел. Свыше +200 руб./час/чел. (шампанское не включено). Ежедневно Итальянский зал с 10-00 до 15-00 - 1400 руб/час до 2х человек. Свыше +200 руб/час/чел (шампанское не включено).
+Акция №2: При единовременной оплате 5 часов, 6-й час в подарок! Обращаем ваше внимание - путем продления времени отдыха в сауне (2 часа+1+1+1) и т.п. 6-й час в подарок не предоставляется.
+Акция №3: При единовременной оплате 7 часов получи 2 часа в подарок.
+Акция №4: Именнинику и его друзьям в День Рождения, и в течение 10 дней после, при единовременной оплате 3-х часов и более в подарок 1 час сауны (независимо от количества гостей) по цене акции 500 руб. и шампанское! Для участия в акции необходимо при посещении предъявить паспорт именинника.
+Акция №5: Дети до 6-ти лет, посещение бесплатно под наблюдением родителей!
+Акция №6: Приведи друзей и получи подарок! Ежедневно, приведи друзей и получи в подарок шампанское. Акция действует при единовременной оплате 3-х часов на компанию.
+АКЦИИ НЕ СУММИРУЮТСЯ !</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>г. Москва, Северное Бутово, ул. Ратная, д. 8А.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Представленная на нашем сайте Сауна "Бутово" - идеальное место для ценителей финской парной,  русской кухни и ароматерапии.  Она расположена в Северном Бутово,  возле одноимённой станции метро.  Пользуется большим спросом среди тех,  кто предпочитает регулярно оздоравливаться и укреплять свой организм.  Здесь всё этому способствует: интерьер в морском стиле,  сразу настраивающий на уют и отдых,  большой бассейн с фильтрацией,  в котором непрерывно проводится очистка и дезинфекция воды.  Расслабиться после парилки поможет массажное кресло.  А если вы решили не только отдохнуть,  но и весело провести время,  то банкетный зал с кондиционером к вашим услугам. 
+Наш сайт посвящён саунам и баням Москвы и располагает детальной информацией о сауне "Бутово".  Её вместимость - 15 человек,  поэтому сюда можно приезжать большой компанией и организовывать праздники.  Однако и это не всё,  что может предложить вам радушный и опытный персонал сауны "Бутово".  Во время нахождения в парной можно заказать банные принадлежности,  веники,  травяной мешочек и эфирное масло для ароматерапии.  А ещё любой поход в сауну будет немыслим без халата,  тапочек,  простени и полотенца.  Отвлечься и с пользой провести время в компании семьи или друзей помогут нарды и шахматы.  Большое преимущество сауны "Бутово" в том,  что можно приходить со своими продуктами. 
+В сауне работают опытные повара,  которые приготовят для вас горячие и холодные закуски,  сладости к чаю.  Также в меню услуг имеется кальян.  Если вы приезжаете на автомобиле,  то вас ждёт удобная и охраняемая парковка.  Как видите,  все услуги направлены на то,  чтобы повысить комфорт вашего пребывания здесь.  При этом стоимость обслуживания очень даже приемлема как для сауны такого уровня.  После всех оздоровительных процедур можно провести время за просмотром телевизора,  спеть в караоке. 
+Данный интернет-ресурс поможет выбрать оптимальную сауну в зависимости от района,  станции метро,  услуг и т. д.  Ознакомиться с интерьером заведения можно путём просмотра качественных фотографий,  причём мы приводим изображения из социальных сетей. 
+За сутки: 12
+За последние 30 дней: 66
+Всего: 11386
+</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктамиУслуги: веники, спа-терапия, ароматерапия, массажное кресло, кальянСервис: бассейн, кондиционер, спутниковое тв, караоке, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость аренды сауны:
+с 24:00 до 12:00 - 600 руб./час
+с 12:00 до 17:00 - 800 руб./час
+с 17:00 до 24:00 - 1000 руб./час
+Минимальный заказ от 1 часа.
+Цена действительна при посещении до 6 человек, свыше по 100 руб./час за каждого превышающего.
+СПЕЦИАЛЬНАЯ СКИДКА!!!
+ПРИ ЗАКАЗЕ САУНЫ С ПОНЕДЕЛЬНИКА ПО ЧЕТВЕРГ.
+С 08-00 ДО 12-00 = 2.000 РУБ. (ЗА 4 ЧАСА).
+С 24-00 ДО 06-00 = 6-ОЙ ЧАС В ПОДАРОК.
+</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, спутниковое тв, караоке, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ярославское шоссе, д. 44</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна и турецкий хаммам в Максима Славия Отель – отличный выбор как для жителей Москвы,  так и для гостей нашего города приехавших с деловым визитом или на отдых. 
+Максима Славия Отель удобно расположен в районе ВДНХ и рядом с Национальным парком Москвы «Лосиный остров»,  и является идеальным вариантом проживания для участников выставок,  проходящих на ВВЦ.  
+Здесь Вы можете совместить работу и банно-оздоровительные процедуры,  восстановить силы в турецком хамаме,  попариться в финской сауне,  а затем продолжить свой отдых в комфортабельном номере отеля,  чтобы утром вернуться к своим делам с зарядом бодрости и энергии. 
+В отеле для Вас:
+- 80 комфортабельных номеров различных категорий 
+- Конференц-зал,  вместимостью до 40 персон
+- Кафе "Славия"
+- Оздоровительный комплекс (хамам,  сауна,  тренажерный зал)
+- Бесплатный Wi-Fi на всей территории отеля
+- Прачечная
+- Охраняемая парковка
+- Гладильная комната
+- Банкомат
+- Круглосуточное обслуживание в номерах
+- Мини холодильник в каждом номере
+- Визовая поддержка
+- Сейфовые ячейки
+Кроме стандартных номеров имеются двухкомнатные «Семейные» номера для комфортного размещения с детьми.  Номера категории «Полулюкс» с гидромассажной ванной идеально подойдут молодожёнам. 
+Всю подробную информацию Вы можете узнать на официальном сайте отеля http://maximahotels. ru или позвонив по телефону +7 495 788 72 72
+За сутки: 28
+За последние 30 дней: 291
+Всего: 5323
+</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), римскаяКухня: бар, ресторан, можно со своими продуктами, кафе, меню доставкиУслуги: ароматерапия, музыкальный центр, оплата картамиСервис: кондиционер, спутниковое тв, Wi-Fi, обливное ведро, большой TV, Отель
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Турецкий хаммам:
+06-00 – 20-00 – 900 руб/час
+20-00 – 06-00 – 1200 руб/час
+Вместимость до 4х человек.
+Финская сауна:
+06-00 – 20-00 – 800 руб/час
+20-00 – 06-00 – 1100 руб/час
+Вместимость до 4х человек
+Стоимость номеров в отеле Вы можете уточнить по телефону: +7 (495) 788 72 72 или на сайте отеля http://maximahotels.ru </t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>кондиционер, спутниковое тв, Wi-Fi, обливное ведро, большой TV, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ул. Верхняя Первомайская 43</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Если вы хотите отлично расслабиться после трудового дня,  получить приятные условия для отдыха,  позабыть о проблемах и тревогах,  то обязательно приезжайте в отличную сауну на "Лидер" на Первомайской,  где для вас созданы все условия для самого гармоничного,  интересного и разнообразного отдыха.  Хорошая сауна - это отличные парилки с профессиональным оборудованием,  умелые руки банщиков,  восхитительные способности по восстановлению организма благодаря умелым спа-процедурам.  Вежливый персонал всегда поможет вам определиться с типами банных веников,  подскажет воздействие каждого на организм и всегда подарит частичку комфорта и приятных мгновений релаксации. 
+Привлекательные гостеприимные просторы сауны "Лидер" на Первомайской отлично подойдет для важного события или мероприятия - в сауне могут отлично устроиться как маленькие,  так и большие компании.  Дни рождения,  юбилеи,  веселые праздники и не менее привлекательные банные посиделки - в сауне "Лидер" на Первомайской любой тип отдыха всегда подарит массу привлекательных эмоций для расслабления и полного восстановления сил.  В просторах приветливой сауны "Лидер" на Первомайской вы отыщите финскую и русскую парные,  соляную комнату,  большой бассейн,  замечательно попаритесь вениками,  после чего закалитесь холодной водичкой.  И это только начало для вашего приятного отдыха и восстановления сил.  Приглашаем всех отлично расслабиться и провести время с пользой не только для души,  но и для тела - такое возможно только в сауне "Лидер" на Первомайской,  которая располагается в районе Измайлово,  недалеко от станций метро Щелковская,  Измайловская и Первомайская.  Планируйте отдых разумно!
+Условия отдыха в сауне "Лидер" на Первомайской
+Гармоничные территории для отдыха и восстановления сил встретят вас в сауне,  которая располагается в черте Москвы.  Попадая в эту сауну,  вы сразу забываете о проблемах и заботах,  и начинаете наслаждаться приятным отдыхом и полноценным восстановлением сил.  В гостиной для вас создана приятная обстановка,  уютные зоны с кожаными диванами и массажными креслами.  К услугам всех гостей - спутниковое ТВ,  просмотр фильмов и спортивных трансляций на большом экране,  а также приятное расслабление,  караоке,  спальня с кроватью.  Ждем всех в сауне "Лидер" на Первомайской,  где ваш день всегда пройдет незабываемо и порадует массой ярких моментов расслабления!
+За сутки: 10
+За последние 30 дней: 97
+Всего: 5791
+</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: русская, бар, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапияСервис: бассейн, кондиционер, бильярд, холодная купель, спутниковое тв
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Стоимость посещения сауны:
+До четырех человек включительно - 1300 руб./час
+Компания 5-10 человек - 1500 руб./час
+Компания 11-15 человек - 1700 руб.час
+Компания от 15 человек - 2200 руб./час
+Соляная пещера
+1 минута для 1 человека - 300 руб</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, холодная купель, спутниковое тв</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Россия, Москва, Байкальская улица, 5с1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Красивый светлый зал отдыха сауны на Байкальской очень уютен.  Он оформлен в современном стиле с использованием натуральных материалов.  Природные материалы облагораживают помещение и придают ему уют и комфорт.  Интересный каменный декор,  красивый камин и картины на стенах добавляют домашнего уюта.  Над камином установлена большая плазменная панель,  подключено спутниковое телевидение с пакетом НТВ+,  есть система караоке – незаменимая вещь при организации веселого праздника.  Зал рассчитан на 15 гостей,  в зоне для банкета установлен большой кожаный диван-уголок и удобные мягкие кресла,  есть стол для трапез.  В заведении работает собственная кухня,  клиентам доступны блюда русской и европейской кухни.  Достаточно вместительная парная способна принять в свои жаркие объятия до 8 посетителей одновременно.  В парной можно насладиться традиционным банным веничным массажем,  устроить сеанс ароматерапии с помощью ароматических эфирных масел целебных растений.  Эта процедура является не только очень приятной,  но и обладает лечебными свойствами.  Ароматы помогают справиться с простудой,  головной болью,  бессонницей и стрессом,  действуют успокаивающе и способны поднять настроение,  снять усталость.  Расслабленное и разгоряченное в парной тело так приятно погрузить в нежную освежающую воду бассейна.  В сауне на Байкальской есть бассейн размером 3×4 метра с кристально чистой (благодаря фильтрации) водой,  температура воды в бассейне составляет 27°С.  Любители водных процедур и гидромассажа оценят также наличие большой ванной-джакузи,  установленной рядом с бассейном.  Для развлечения посетители сауны могут сыграть в настольный футбол,  насладиться приятной музыкой или просмотром художественного фильма,  телевизионной передачи или спортивного матча.  Желающие уединиться могут отдохнуть в одной из двух оборудованных комнатах релаксации.  Эти уютные комнаты имеют зеркальные потолки и большие удобные кровати.  Внимательные сотрудники сауны побеспокоятся о вашем качественном отдыхе,  организации банкетного стола или романтического ужина,  по вашему желанию подготовят зал к романтическому свиданию. 
+За сутки: 30
+За последние 30 дней: 331
+Всего: 10513
+</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктами, меню доставкиУслуги: веники, банщик, оздоровительный массаж, ароматерапия, музыкальный центр, акции и скидкиСервис: бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прайс.
+Минимальное время посещения - 2 часа
+При пребывании более 5 часов - в подарок 1 час.
+Пн-Чт:
+Для 1 -2 человека с 10.00 до 16.00 - 800 руб/час
+с 16.00 до 10.00 - 1000 руб час
+Для 3-х человек - 1100 руб/час
+От 4 до 7 человек - 1300 руб/час
+От 8 до 15 человек - 1500 руб/час
+Пт, Сб, Вс:
+От 1 до 3 человек - 1100 руб/час
+От 4 до 7 человек - 1300 руб/час
+От 8 до 15 человек - 1500 руб/час
+Дополнительно: 
+Халат - 350 руб; тапочки - 50 руб; полотенце - 100 руб; простыня - 100 руб; веник - 300 руб.
+Уборка после использования веника - 300 руб. Обслуживание +10% к общему счёту.
+Допускается приносить с собой продукты и напитки - доплата по 350 руб за каждого посетителя за всё время пребывания в сауне.
+АКЦИЯ !
+- Аренда на сутки: 1 - 4 человека - 15 000 руб/сутки; 5 - 8 человек - 20 000 руб/сутки
+ </t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Пакгаузное шоссе, д. 19</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна на Лихоборах расположилась в Головинском районе Москвы,  недалеко от станций метро Лихоборы и Коптево.  
+Это загородный отдых в черте города,  где вы отдохнёте от повседневной суеты в компании друзей,  семьи,  сможете устроить вечеринку,  провести корпоратив,  или мальчишник-девичник. 
+Отдельно стоящий двухэтажный коттедж,  площадью 250 м2 на закрытой территории,  с возможностью аренды как с почасовой оплатой,  так и на сутки. 
+На первом этаже коттеджа:
+- финская сауна
+- душевая,  санузел
+- просторная гостиная с домашним кинотеатром,  диванами и столом
+- кухня (холодильник,  плита,  чайник,  мультиварка,  пароварка)
+На втором этаже:
+- две спальни
+- бильярдный зал с русским бильярдом 12 футов,  музыкальным центром и диванами
+- душевая и санузел
+- комната - гардеробная (кабинет)
+Интернет Wi-Fi на всей территории.  
+На придомовой территории - мангал,  скамейки
+Парковка для автомобилей за воротами коттеджа
+За сутки: 25
+За последние 30 дней: 289
+Всего: 4903
+</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: мангал, можно со своими продуктамиСервис: бильярд, спутниковое тв, Wi-Fi, большой TV, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> СТОИМОСТЬ: 
+- 1200 руб/час
+Минимальная аренда сауны - 4 часа
+Скидка 10% от 4х часов</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>бильярд, спутниковое тв, Wi-Fi, большой TV, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ул. Зарайская, д. 35А.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Приглашаем посетить сауну на Рязанском проспекте и убедиться в высоком качестве услуг и достойных ценах.  Она создана для любителей уюта и комфорта,  для всех,  кто хочет с пользой провести время.  Сочетание финской парной и бассейна с фильтрацией принесёт неповторимые результаты. 
+Чтобы каждый посетитель остался доволен обстановкой,  в сауне на Рязанском проспекте можно выбрать один из трёх залов для отдыха.  Таким образом,  она представляет собой целое банное заведение,  где слаженно и ответственно работает штат профессионалов.  Современная система вентиляции и кондиционирования,  плазменные телевизоры и аудио-аппаратура,  парковка для автомобилей - это только часть возможностей,  которыми вы можете воспользоваться для своего блага. 
+На выбор гостей три номера: Большой зал "На природе",  Малый Зал "Морской" и гостиничный номер "На двоих" в классическом стиле.  Догадаться,  как оформлен интерьер двух залов,  несложно,  поскольку это отражено в названии.  Первый из них олицетворяет сказочный природный стиль и рассчитан на 15 человек,  а финская парная может принять до 8 гостей.  Есть две комнаты отдыха с двуспальной кроватью.  Эксклюзивное предложение,  которое действует только в зале "На природе" - заказ банкетного зала. 
+Малый зал вмещает 10 человек,  оборудован финской парной на 5 персон.  Располагает почти теми же услугами,  что и Большой,  только комната отдыха с двуспальной кроватью всего одна. 
+Гостиничный номер оформлен в традиционном стиле.  Прекрасное место для романтической встречи.  Кровать также двуспальная,  есть отдельная обеденная зона.  Независимо от выбора зала моно посетить кабинет для спа-процедур,  поиграть в шашки,  нарды или шахматы,  спеть в караоке. 
+Все банные принадлежности можно заказать дополнительно.  В сауне работает бар,  где вам всегда рады приготовить одно из блюд русской кухни,  подать безалкогольные напитки или один из видов чая.  Так что приходите сюда и устраивайте запоминающиеся чайные церемонии!
+Наш сайт публикует только достоверную информацию о сауне на Рязанском проспекте,  мы готовы ответить на все ваши вопросы по телефону. Приглашаем посетить сауну на Рязанском проспекте и убедиться в высоком качестве услуг и достойных ценах.  Она создана для любителей уюта и комфорта,  для всех,  кто хочет с пользой провести время.  Сочетание финской парной и бассейна с фильтрацией принесёт неповторимые результаты. 
+Чтобы каждый посетитель остался доволен обстановкой,  в сауне на Рязанском проспекте можно выбрать один из трёх залов для отдыха.  Таким образом,  она представляет собой целое банное заведение,  где слаженно и ответственно работает штат профессионалов.  Современная система вентиляции и кондиционирования,  плазменные телевизоры и аудио-аппаратура,  парковка для автомобилей - это только часть возможностей,  которыми вы можете воспользоваться для своего блага. 
+На выбор гостей три номера: Большой зал "На природе",  Малый Зал "Морской" и гостиничный номер "На двоих" в классическом стиле.  Догадаться,  как оформлен интерьер двух залов,  несложно,  поскольку это отражено в названии.  Первый из них олицетворяет сказочный природный стиль и рассчитан на 15 человек,  а финская парная может принять до 8 гостей.  Есть две комнаты отдыха с двуспальной кроватью.  Эксклюзивное предложение,  которое действует только в зале "На природе" - заказ банкетного зала. 
+Малый зал вмещает 10 человек,  оборудован финской парной на 5 персон.  Располагает почти теми же услугами,  что и Большой,  только комната отдыха с двуспальной кроватью всего одна. 
+Гостиничный номер оформлен в традиционном стиле.  Прекрасное место для романтической встречи.  Кровать также двуспальная,  есть отдельная обеденная зона.  Независимо от выбора зала моно посетить кабинет для спа-процедур,  поиграть в шашки,  нарды или шахматы,  спеть в караоке. 
+Все банные принадлежности можно заказать дополнительно.  В сауне работает бар,  где вам всегда рады приготовить одно из блюд русской кухни,  подать безалкогольные напитки или один из видов чая.  Так что приходите сюда и устраивайте запоминающиеся чайные церемонии!
+Наш сайт публикует только достоверную информацию о сауне на Рязанском проспекте,  мы готовы ответить на все ваши вопросы по телефону. 
+За сутки: 13
+За последние 30 дней: 78
+Всего: 9415
+</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктамиУслуги: веники, спа-терапия, ароматерапия, массажное кресло, кальянСервис: бассейн, кондиционер, бильярд, спутниковое тв, караоке, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость аренды Большого зала:
+с 24:00 до 12:00 - 700 руб./час
+с 12:00 до 17:00 - 900 руб./час
+с 17:00 до 24:00 - 1200 руб./час
+Минимальный заказ от 1 часа.
+Цена действительна при посещении до 6 человек, свыше по 100 руб./час за каждого превышающего.
+СПЕЦИАЛЬНАЯ СКИДКА!!!
+ПРИ ЗАКАЗЕ САУНЫ С ПОНЕДЕЛЬНИКА ПО ЧЕТВЕРГ:
+С 08-00 ДО 12-00 = 3.200 РУБ. (ЗА 4 ЧАСА БОЛЬШОЙ ЗАЛ).
+С 08-00 ДО 12-00 = 3.200 РУБ. (ЗА 4 ЧАСА МАЛЫЙ ЗАЛ).
+С 24-00 ДО 06-00 = 6-ОЙ ЧАС В ПОДАРОК.
+</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, спутниковое тв, караоке, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>г. Москва, Комсомольский проспект, д. 41</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Вы любите посещать финскую сауну? Обратите внимание на баню в районе метро «Спортивная».  Она называется «Сауна на Фрунзенской».  Этот вид парной пользуется большим спросом у нас в России и по своим целебным,  восстановительным свойствам напоминает русскую баню.  Сочетание тепла и пара положительно влияет на весь организм,  способствует улучшению самочувствия,  повышает работоспособность и т.  д.  Поэтому если почувствовали усталость от работы,  хотите укрепить иммунитет или просто хорошо провести время с друзьями,  то добро пожаловать в сауну на Фрунзенской! Здесь вы будете чувствовать себя как дома. 
+Вашему вниманию предлагается посещение финской сауны,  рассчитанной на 4-5 человек,  купание в бассейне с ежедневной фильтрацией и дезинфекцией воды.  Устроить праздник или вечеринку можно в банкетном зале с кондиционером.  А ещё из удобств тут есть комната отдыха с двуспальной кроватью,  спутниковое ТВ,  караоке,  аудио- и видеоаппаратура.  Поэтому каждый гость найдёт себе занятие по душе. 
+Второе помещение представляет собой гостиничный номер с возможностью почасовой оплаты,  оформленный в классическом стиле и рассчитанный на троих человек.  В нём есть все удобства: душевая кабина,  бассейн,  спутниковое ТВ,  аудио- и видеоаппаратура,  домашняя кухня,  чайная церемония.  Банные принадлежности заказываются отдельно.  Это веники,  эфирное масло,  травяной мешочек,  простынь,  полотенце,  халат,  тапочки,  средства гигиены.  Для увлекательного досуга доступны шахматы и нарды.  Преимущество этого заведения в том,  что постоянные посетители могут рассчитывать на бонусную карту: при каждом 10 заказе 2 часа даются совершенно бесплатно!
+Сауна находится в самом центре Москвы и предоставляет качественные услуги по доступным ценам.  Она работает круглосуточно и всегда готова принимать новых посетителей. 
+За сутки: 9
+За последние 30 дней: 85
+Всего: 10212
+</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, инфракрасная саунаКухня: бар, можно со своими продуктами, меню доставкиУслуги: веники, спа-терапия, ароматерапия, массажное кресло, кальян, музыкальный центрСервис: бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость: 
+- 1300 руб/час
+- 1000 руб/час
+ </t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>5-й Верхний Михайловский пр-д, д. 6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Возле метро "Шаболовская" расположена прекрасная сауна,  которая так и называется - "На Шаболовке".  Она включает в себя финскую парную,  бассейн,  джакузи,  бар с русской кухней.  Это отличное место для того,  чтобы восстановить силы,  очистить организм от шлаков и привести в порядок своё самочувствие. 
+Интерьер сауны выполнен в природном стиле,  что видно на качественных фотографиях.  Это уже настраивает на другой лад и отвлекает от постоянных забот.  Финская парная рассчитана на 4 - 5 человек,  бассейн 2, 5х5 м и глубиной 2, 5 м оснащается системой фильтрации и дезинфекции,  поэтому вы всегда можете быть уверены в чистоте воды и в том,  что купание принесёт пользу вашему организму. 
+Среди дополнительных возможностей - джакузи с гидромассажем,  караоке,  спутниковое ТВ.  Комнаты отдыха очень уютные,  в них есть двуспальные кровати.  Это идеальное место для того,  чтобы пробыть определённое время в спокойной обстановке.  А если вы хотите провести вечеринку,  воспользуйтесь услугами банкетного зала с кондиционером.  Отличный выбор для тех,  кто приходит развлечься в большой компании.  Тем более предлагается целый ряд горячих и холодных блюд,  различные напитки,  множество видов чая и сладостей,  а также кальян.  Для чайных церемоний есть чёрный,  зелёный,  красный,  белый,  индийский чай разных сортов,  плантационный,  а также чайные напитки. 
+Сауна "На Шаболовке" характеризуется большим ассортиментом банных аксессуаров.  Например,  это эфирное масло,  чтобы насладиться прелестями ароматерапии,  тапочки,  банный халат,  бамбуковый и дубовый веник,  травяной мешочек,  запарник,  моющие средства,  полотенце,  простынь.  Для ценителей интеллектуальных баталий есть шахматы,  шашки и нарды. 
+Вы можете приносить продукты с собой,  брать посуду на прокат,  петь в караоке.  Список возможностей очень обширный,  поэтому выбирайте ту,  которая наиболее соответствует вашим пожеланиям. 
+За сутки: 9
+За последние 30 дней: 58
+Всего: 9058
+</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктамиУслуги: веники, спа-терапия, ароматерапия, массажное кресло, кальянСервис: бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость аренды сауны:
+с 24:00 до 12:00 - 600 руб./час
+с 12:00 до 17:00 - 800 руб./час
+с 17:00 до 24:00 - 1000 руб./час
+Минимальный заказ от 1 часа.
+Цена действительна при посещении до 6 человек, свыше по 100 руб./час за каждого превышающего.
+СПЕЦИАЛЬНАЯ СКИДКА!!!
+ПРИ ЗАКАЗЕ САУНЫ С ПОНЕДЕЛЬНИКА ПО ЧЕТВЕРГ.
+С 08-00 ДО 12-00 = 2.000 РУБ. (ЗА 4 ЧАСА).
+С 24-00 ДО 06-00 = 6-ОЙ ЧАС В ПОДАРОК.
+</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, джакузи, спутниковое тв, караоке, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Москва, Большая Марфинская улица, 7а</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна «Останкино» приглашает вас замечательно попариться в приятной обстановке,  в которой все продумано с точки зрения удобства для гостей и полной комфортабельности.  «Останкино» располагается улице Большой Марфинской,  7а – здесь можно отлично расслабиться в уютных просторах,  приехать большой или маленькой компанией,  чтобы отдохнуть от суеты города и полностью проникнуться расслаблением,  спокойствием и полным комфортом.  Сауна «Останкино» ждет компании до десяти человек , чтобы показать,  что значит великолепный банный отдых,  который дарит полное расслабление и восстановление сил.  В уютных просторах этой сауны можно отметить день рождения или любое другое праздничное событие,  провести неплохо время с пользой для души и тела.  На ваш выбор замечательные сеансы спа-терапии и массажа,  отличная жаркая парилка и холодная купель.  Все грани удовольствия и полноценного отдыха встретят вас и предоставят все условия для отличного отдыха. 
+Банные процедуры сауны «Останкино»
+Вас ждет большая и вместительная финская парилка,  в которой сухой воздух и горячие температуры парения,  они помогут вам сделать отдых максимально оздоровительным и приятным.  В сухом и горячем воздухе финской парной следует сначала хорошо прогреть свое тело,  чтобы потом насладиться парением,  доставляющим безгранично много удовольствия и оздоровления.  Париться веником правильно вам поможет наш профессиональный банщик,  который поможет исполнить мечту о качественном и незабываемом парение,  оказывающем высокий оздоровительный эффект.  Пусть банное парение радует вас своими неограниченными результатами: вы можете выбрать веники,  запарить их в ароматном настое из любимых эфирных масел и полезный трав и соцветий. 
+Холодная купель после этого поможет вам отлично расслабиться и провести время в полном комфорте – бодрость духа и тела обеспечена! Выбирайте спа-процедуры и массажные методики,  чтобы сделать пребывание в жаркой зоне еще более приятным и восстанавливающим.  Еще одна составляющая хорошего отдыха в парной – это ароматерапия с любимыми ароматическими маслами.  Выбирайте любимые ароматы,  которые производят на вас высокий э</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктамиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальянСервис: кондиционер, холодная купель, спутниковое тв, караоке, Wi-Fi
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость аренды комплекса - 1100 руб/час
+Скидки: 
+Ежедневно с 09:00 до 18:00 - 700 руб/час
+Специальное предложение: При заказе 3 часов сауны и заказе меню 4й час в подарок!!!
+ </t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>кондиционер, холодная купель, спутниковое тв, караоке, Wi-Fi</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>г. Москва, ул. Беломорская, д. 26, с.2</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ В Левобережном районе у метро «Речной вокзал» расположена большая сауна с одноимённым названием.  Её интерьер сразу говорит нам,  что здесь нужно только отдыхать и забыть обо всех заботах,  делах и проблемах.  После пребывания в сауне к вам придут новые идеи и приятные мысли,  а предыдущие переживания покажутся мелочью.  Сочетание финской парной и русских традиций получилось очень удачным.  Тут вам и русская кухня с большим количеством блюд,  и разнообразный ассортимент чая,  кофе и напитков. 
+В сауне могут одновременно находиться до 4 человек.  После пребывания в парилке стоит окунуться в бассейн с фильтрацией.  Его глубина — 1, 5 м,  а размеры — 2х2 м.  На наш взгляд,  такие контрастные процедуры просто клад для здоровья,  ведь они отлично стимулируют кровообращение.  Основной зал рассчитан на 10 персон и включает в  себя помещение для банкетов,  комнаты отдыха.  Именно тут проводит время основная часть посетителей.  Здесь вам и аудио-,  видео-аппаратуру предложат для прослушивания музыки и просмотра клипов,  и кальян с отличными углями. 
+Есть отдельные гостиничные номера,  выполненные в классическом стиле и рассчитанные на разное количество посетителей.  Однако украшены они совершенно по-разному,  так что каждый посетитель может выбрать тот или иной номер в зависимости от предпочтений.  Оба из них просторные,  уютные,  со всеми удобствами.  Разве что банкетный зал есть только в одном гостиничном номере.  Рассчитаны они на два человека,  поэтому идеально подходят для спокойного времяпровождения и уединения.  Аренда номера проводится круглосуточно.  Постоянным посетителям скидки: при каждом 10 посещении 2 часа даются бесплатно.  А это уже весомый аргумент в пользу сауны На Речном Вокзале. 
+Другие удобства: массажное кресло,  ЖК-телевизор,  караоке.  Все банные аксессуары выдаются по заказу.  Это дубовый или бамбуковый веник,  запарник,  тапочки,  полотенце,  простынь ил</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, можно со своими продуктамиУслуги: веники, спа-терапия, ароматерапия, массажное кресло, кальянСервис: бассейн, кондиционер, спутниковое тв, караоке, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость аренды сауны:
+с 24:00 до 12:00 - 600 руб./час
+с 12:00 до 17:00 - 800 руб./час
+с 17:00 до 24:00 - 1000 руб./час
+Минимальный заказ от 1 часа.
+Цена действительна при посещении до 6 человек, свыше по 100 руб./час за каждого превышающего.
+СПЕЦИАЛЬНАЯ СКИДКА!!!
+ПРИ ЗАКАЗЕ САУНЫ С ПОНЕДЕЛЬНИКА ПО ЧЕТВЕРГ.
+С 08-00 ДО 12-00 = 2.000 РУБ. (ЗА 4 ЧАСА).
+С 24-00 ДО 06-00 = 6-ОЙ ЧАС В ПОДАРОК.
+Номер "НА ДВОИХ" - круглосуточно 300 руб./час
+</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, спутниковое тв, караоке, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Амурская ул., 24</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Уютные просторы сауна «Феникс» в Гольяново приглашают вас провести весело и с пользой семейный или дружески отдых,  отлично расслабиться в комфортабельной обстановке,  попариться в сауне,  и даже отметить какое-либо событие,  пригласить друзей и близких.  Корпоративы или мальчишники,  дин рождения или девичники  - в сауне «Феникс» любой отдых пройдет замечательно и запомнится вам,  как самое приятное и расслабляющее мероприятие! Ждем всех ценителей прекрасного отдыха,  способного не только подарить веселье и комфорт,  но также сделать любой отдых максимально приятным и восстанавливающим.  Сауна «Феникс» имеет два вместительных зала,  которые доступны для аренды вашей компанией.  Вы получаете личную территорию,  где сможете проводить свой отдых по всем правилам,  именно так,  как вы этого хотите. 
+Два зала сауны «Феникс»: Большой и Малый
+Банный отдых в расслабляющих просторах сауны «Феникс» - это ваше расслабление и полное умиротворение.  Гости смогут арендовать большой зал,  где поместиться компания из 25 человек.  Тут можно устраивать настоящие веселые корпоративы,  приглашать друзей и близких,  радоваться уникальным моментам расслабления,  париться в жаркой сауне финского типа.  Финская парная - это сухой воздух и высокие температуры парения.  В таких условиях любой банный отдых запомниться яркими мгновениями расслабления и обязательно принесет свой высокий оздоровительный эффект.  Посещать финскую парную нужно правильно: сначала надо хорошо прогреть тело.  Для этого требуется совершить 2-3 кратковременных захода,  за которые организма станет успевать прогреваться.  Нельзя проводить много времени в жарких пространствах и терпеть - это ни к чему хорошему не приведет! Попариться ароматными вениками после прогревания организма всегда можно: в этом вам помогут профессиональные банщики,  которые способны продемонстрировать особые методики парения,  а также порадовать вас приятными расслабляющими моментами.  Запарит веник с умом также нужно: в этом вам поможет банщик,  используя ароматные травы и настои.  
+Малый зал рассчитан на компанию из десяти человек.  В этих уютных и гармоничных просторах отдых всегда порадует неограниченными пространствами для релаксации и отличного самочувствия.  Ждем всех насладиться комфортом и релаксацией в приятных банных условиях,  где все будет посвящено вашему мгновенному и совершенному расслаблению. 
+За сутки: 16
+За последние 30 дней: 109
+Всего: 6091
+</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальянСервис: бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Большой зал:
+1100 руб/час до 6 человек
+Малый зал: 
+900 руб/час до 4 человек
+Специальное предложение Именинникам подарок!</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, спутниковое тв, караоке</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Россия, Москва, Клинская улица, 6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Сауна-кафе "Сумах" приглашает насладиться привлекательными банными условиями отдыха,  в котором все создано для вашей гармонии,  релаксации и самых приятных минут расслабления: Сауна-кафе "Сумах" - это отличный выбор для полноценного восстановления сил после длинной рабочей недели.  Гостеприимный персонал вас всегда встретит со всем радушием,  предоставит апартаменты для отдыха,  а также порадует приятными моментами восстановления организма.  Приезжая в пространство сауны-кафе  "Сумах",  вы можете быть уверены,  что вас ожидает гармония банных процедур,  массаж,  приятный отдых с близкими и родными.  Семейные посиделки,  разнообразные праздники,  юбилеи или мальчишники - в сауне "Сумах" любой ваш отдых будет обречен наудачу. 
+Здесь для вас все условия для приятной релаксации и расслабляющих процедур: сауна располагается в районе Ховрино около станций метро Водный стадио,  Речной вокзал или Войковская.  Приглашаем вас чудесно провести время в сауне-кафе,  где после банных процедур вас всегда ожидает ужин от лучших поваров: большой выбор ароматных закусок,  напитков,  а также самых разнообразных блюд на мангале.  "Сумах" - это рай для гурмана,  а также любые компании могут проводить здесь праздники - имеется большой зал кафе,  который доступен под аренду.  Красивые территории,  удобное месторасположение,  увлекательные банные процедуры  - все в сауне "Сумах" направлено на получение самых ярких эмоций. 
+Здесь всегда с успехом проходят встречи друзей и родных,  милые и душевные семейные посиделки,  а также устраиваются корпоративы,  мальчишники или юбилеи.  Если вам не хочется уезжать далеко за город,  то в приятных территориях сауны-кафе "Сумах" в черте Москвы вас всегда ожидает приятная релаксация,  гармония и лучшие эмоции. 
+Отдых в сауне-кафе "Сумах" в Ховрино
+Вас ожидает приятная гостиная,  оформленная дерево,  где есть столы,  спутниковое ТВ,  караоке,  а также стол для игры в бильярд.  Гости смогут заказать блюда и напитки,  а также доступно обширное меню от лучших поваров.  На территории сауны установлена купель,  а также душевая кабина,  есть комната для отдыха.  Уютные и гармоничные территории порадуют вас своими приятными просторами и обязательно взбодрят!
+За сутки: 12
+За последние 30 дней: 85
+Всего: 8928
+</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русская, бар, мангал, ресторан, кафеУслуги: веники, оздоровительный массаж, массажное кресло, кальянСервис: кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, японский офуро, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость посещения сауны:
+с 1-го  человека - 800 руб./час,
+на  2-х человек - 900 руб./час,
+начиная с 3-го человека + 100 руб/час.
+ </t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, японский офуро, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Улица Маршала Тухачевского, 36А </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Клуб-сауна VIP - класса с красивым названием "Марракеш" напоминает о великолепии "красного города",  древней и овеянной легендами и тайнами,  столицы Марокко.  Войдя в помещение банного клуба,  вы сразу погрузитесь в атмосферу роскоши,  завораживающего интерьера и гостеприимства.  
+Сауна "Марракеш" расположилась в Москве,  на улице Маршала Тухачевского,  дом 36 А (район Хорошёво-Мнёвники) и открыта для гостей круглосуточно.  
+В помещениях комплекса всё продумано до мелочей - причудливые восточные узоры и орнаменты,  яркое сочетание красок,  россыпь удобных подушек и пуфов,  кальян,  свечи,  огромное ложе под балдахином,  воздушные ткани и мягкое освещение.  
+Клуб-сауна "Марракеш" предлагает гостям проведение закрытых вечеринок,  мальчишников,  девичников или праздно</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баняКухня: русская, бар, ресторан, можно со своими продуктами, кафе, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, большой TV, бассейн с противотоком, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- от 2500 руб/час</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, большой TV, бассейн с противотоком, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Селезневская улица, дом 15, стр. 1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Всем известно,  как полезна для здоровья русская баня.  Ощутить настоящее блаженство,  узнать все о настоящем отдыхе,  предлагают вам знаменитые «Селезневские» бани.  После их посещения вы станете здоровее,  красивее,  добрее.  Осуществив банные процедуры,  получите великолепную кожу,  крепкие волосы.  А если решили побороть лишний вес,  поход в баню просто необходим.  Его не заменят ни диеты,  ни изнурительные тренировки.  
+Селезневские бани предлагают множество процедур.  Можно посетить общественную парилку.  Для людей более состоятельных существуют индивидуальные залы,  где можно хорошо провести время.  Напарившись вволю,  обязательно воспользуйтесь бассейном.  Он очень полезен,  особенно для особ,  желающих похудеть.  Да и обычное плаванье доставляет огромное удовольствие.  
+Полезен телу после банный лечебный массаж.  Сразу перестает болеть спина,  улучшается цвет кожи,  даже настроение поднимается.  Угнетенность,  депрессия моментально проходят после посещения массажного кабинета.  
+К радости всех прекрасных дам,  наше заведение имеет салон красоты.  Поэтому здесь можно не только побаловать себя прекрасным отдыхом,  но и стать еще красивее.  Вы можете сделать превосходную прическу,  обновить маникюр,  посетить косметолога.  
+Цены в Селезневских банях доступные.  За два часа незабываемого отдыха посетители платят всего тысячу шестьсот рублей.  К тому же в будние дни посещение бани обходится дешевле,  тысячу триста.  Есть категории посетителей,  которым положены скидки.  Это дети,  участники войны,  пенсионеры.  
+Работаем мы каждый день,  кроме понедельника.  Выбирайте время,  когда вам удобно посетить нас.  Всегда будем рады.  Предоставим отличную парную с березовыми вениками,  профессионального банщика.  Покаж</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, оплата картамиСервис: бассейн, холодная купель, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ
+Мужской разряд:
+от 680 руб/час до 870 руб/час
+Женский разряд:
+от 560 руб/час до 620 руб/час. 
+Дети до 7 лет - бесплатно. Дети с 7 до 12 лет - 500 руб/ сеанс 2 часа.
+Льготы пенсионерам, инвалидам 1 и 2 групп, участникам ВОВ вторник, среда, четверг с 08-00 до 12-00 - 500 руб/сеанс 2 часа.
+График работы:
+ВТ - ВС с 08-00 до 22-00. Понедельник - санитарный день.</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Московская обл., г. Щелково, 1-ый Советский пер., д. 25</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Русская общественная баня "Славянские бани" расположилась в Московской области,  в г.  Щёлково ( 1-ый Советский пер. ,  д.  25).  
+"Славянские бани" - это большой городской банный комплекс площадью более 840 кв.  метров:
+- Большая русская парная с уникальной печью весом более 45 000 кг (аналога такой печи в Щелковском районе не существует),  эксклюзивный "лёгкий пар";
+- Плавательный бассейн;
+- Общий разряд на 100 мест и индивидуальные кабинеты;
+- Отдельная Баня – VIP;
+- Массажный кабинет;
+- Услуги массажиста и банщика;
+- Соляная пещера;
+- Кухня с разнообразным меню;
+- Спорт-бар;
+- Индивидуальные ячейки для хранения ценных вещей;
+В бане действует программа лояльности для постоянных посетителей - "накопительная карта постоянного клиента"
+Подробную информацию можно узнать у администратора по телефону:
++7 (926) 719-10-10 
+За сутки: 22
+За последние 30 дней: 313
+Всего: 3385
+</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, бар, ресторан, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, оплата картами, акции и скидкиСервис: бассейн, кондиционер, спутниковое тв, обливное ведро, большой TV, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+Входной билет (Пн-Пт) до 3 часов - 800 руб.
+Входной билет ( Выходные и праздничные дни) до 3 часов - 1000 руб.
+Почасовая оплата более 3 часов - 250 руб.
+Входной билет на 1 час ( Пн-Пт) - 400 руб.
+Входной билет на 1 час ( Выходные и праздничные дни) - 500 руб.
+Баня-VIP до 2 часов - 2400 руб.
+Баня-VIP, почасовая оплата более 2 часов - 1200 руб.
+Плата за кабину №2-7 - 1000 руб.
+Дополнительно:
+Прокат простыни	150 руб.
+Прокат полотенца	150 руб.
+Прокат халата	250 руб.
+Услуги парильщика (до 15 мин.)	1000 руб.
+Парение со льдом	1400 руб.
+Мойка	800 руб.
+Мыльный массаж (1 час)	1800 руб.
+Массаж общий (70 мин.)	1800 руб.
+Массаж спины (25 мин.)	1200 руб.
+Массаж шейно-воротниковой зоны (20 мин.)	1200 руб.
+Массаж баночный	750 руб.
+Аксессуары:
+Веник березовый	180 руб.
+Веник дубовый Кавказский	280 руб.
+Веник дубовый Канадский	280 руб.
+Тапочки	200 руб.
+Шапка	250 руб.
+Шапка (натуральный фетр)	500 руб.
+Гель для душа (35 мл)	50 руб.
+Шампунь (35 мл)	50 руб.
+Мыло банное	50 руб.
+Коврик для бани	150 руб.
+Мочалка	100 руб.
+Массажная рукавица	220 руб. 
+Льготы и скидки:
+Дети в возрасте  до 12 лет - бесплатно
+До 17-00  в будние дни:
+Ветераны и/или инвалиды ВОВ - бесплатно
+Участники и ветераны локальных войн, вооруженных конфликтов, боевых действий, а также лица, приравненные к ним - 50%
+Ветераны труда - 50%
+Пенсионеры, имеющие право на трудовую пенсию - 50%
+Лица, имеющие 1 и 2 группу инвалидности - 50%
+Члены многодетных семей - 50%</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, спутниковое тв, обливное ведро, большой TV, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Московская обл, село Павловская Слобода, ул. Урицкого, дом 1 А</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня
+Общественные городские Слободские бани расположились в Павловской Слободе на улице Урицкого,  дом 1 А.  Общие отделения бани делятся на мужское и женское,  и работают с четверга по воскресенье.  
+В бане для посетителей:
+- раздевалка с индивидуальными шкафами;
+- русская парная на дровах;
+- помывочная,  душевые,  обливная кадушка;
+- зал для отдыха со столами,  скамейками и ТВ;
+- настольные игры (шашки,  шахматы,  нарды и т п);
+- в продаже веники,  банные принадлежности и средства гигиены;
+- бар с прохладительными напитками,  лёгкими закусками и травяным чаем. 
+- услуги профессионального массажа;
+Кроме общественных отделений,  предлагаем отдельную семейную баню с русской парной,  турецким хаммамом и купелью.  
+Дополнительную информацию можете узнать по телефонам бани:
+8 495 992 38 50 или 8 905 586 89 91
+За сутки: 27
+За последние 30 дней: 381
+Всего: 6970
+</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баня, русская на дровахКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, банщик, оздоровительный массаж, ароматерапияСервис: охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ:
+- 700 руб
+Без ограничения по времени.
+Действуют скидки для льготных категорий населения.
+Режим работы: 
+Чт, Пт - 13-00 - 21-00;
+Сб, Вс - 11-00 - 21-00</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>охраняемая парковка, холодная купель, спутниковое тв, обливное ведро, настольные игры</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Московская область, посёлок совхоза Раменское, ул. Шоссейная, дом 3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня и индивидуальные сауны:
+Совхозный банный комплекс - это общественные городские бани,  расположенные в посёлке совхоза Раменское,  Московской области.  Общая баня делится на мужские и женские дни,  и работает с 11-00 до 23-00.  
+Общественная городская Совхозная баня - это классическая русская баня на дровах,  с большой печью и лёгким паром.  
+Также,  предлагаем отдельные бани и сауны для отдыха в кругу семьи,  компании друзей или уединенного романтического свидания. 
+VIP зал: баня на дровах,  бассейн,  душевые,  зал для отдыха со столом,  диванами,  ТВ,  DVD,  караоке,  холодильником и чайником.  
+Коттедж с сауной: это 2х этажный коттедж,  сауна на дровах,  душевая,  кедровая фитобочка,  зал для отдыха с диванами,  столом,  ТВ,  кухня.  На втором этаже - спальня с двуспальной кроватью.  Коттедж расположился в закрытом дворике,  где под навесом стоит стол,  стулья,  диван. 
+Русская баня с бассейном: парная,  круглый бассейн,  кухня - гостинная с диванами,  столом и кухонными принадлежностями,  ТВ,  караоке,  спальня с двуспальными кроватями,  во дворике - мангал для самостоятельного приготовления блюд на углях. 
+В продаже имеются веники,  банные принадлежности и средства гигиены.  Рядом располагается кафе-ресторан с блюдами кавказской и европейской кухни. 
+Забронировать сауну,  баню,  или узнать подробную информацию можете по телефонам: 
++7 926 791 82 64 или +7 496 465 90 15
+За сутки: 30
+За последние 30 дней: 345
+Всего: 3436
+</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, русская на дровахКухня: бар, мангал, ресторан, можно со своими продуктами, кафе, меню доставкиУслуги: веники, кедровая бочка, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, охраняемая парковка, джакузи, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, бассейн с противотоком, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>СТОИМОСТЬ
+Общая баня:
+Вт – Пт – 300 руб/час;
+Сб – Вс – 350 руб/час;
+Пенсионеры – 250 руб/час (при наличии пенсионного);
+Инвалиды и участники ВОВ – бесплатно;
+Дети до 5 лет – бесплатно;
+Дети 5 – 10 лет – 100 руб. за всё время посещения;
+Режим работы.
+Мужские дни:
+Вт, Пт – с 11-00 до 23-00;
+Сб, Вс – с 10-00 до 23-00;
+Женские дни:
+Ср, Чт – с 11-00 до 23-00
+VIP – зал:
+Вт – Вс – 1200 руб/час;
+Стоимость указана для компаний до 6 человек.  За каждого последующего гостя оплата 200 руб/час.
+Коттедж с сауной:
+Вт - Чт – 1200 руб/час;
+Пт – Вс – 1500 руб/час;
+Сутки – 10 000 руб.
+Стоимость указана для компаний до 8 человек. За каждого последующего гостя оплата 500 руб/час.
+Комната отдыха 2х местная:	
+- 1000 руб/2 часа;
+- 2000 руб/сутки
+Русская баня с бассейном:
+- 1500 руб/час
+- 15 000 руб/сутки
+Стоимость указана для компаний до 6 человек.  За каждого последующего гостя оплата 200 руб/час.</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>бассейн, охраняемая парковка, джакузи, холодная купель, спутниковое тв, Wi-Fi, обливное ведро, большой TV, бассейн с противотоком, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>улица Академика Янгеля, дом 14, корп. 7</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в банный комплекс "Три сауны в Чертаново"! 
+Сауна расположилась в районе Москвы Южное Чертаново,  на улице Академика Янгеля,  дом 14,  корп.  7,  и открыта круглосуточно.  
+В сауне 3 зала: Большой,  Средний и Малый,  вместимостью от 4х до 10 человек. 
+Большой зал (до 10 человек):
+- финская парная;
+- бассейн 4х2 метра,  глубиной 1, 5 метра,  душевые;
+- гостиный зал с ТВ,  музыкальным аппаратом,  караоке,  wi-fi;
+- массажное кресло,  настольный теннис,  комната отдыха. 
+Средний зал (до 6 человек):
+- финская парная;
+- душевые,  обливное ведро;
+- гостиный зал с ТВ,  музыкальным аппаратом,  караоке,  wi-fi;
+- комната отдыха. 
+Малый зал (до 4х человек):
+- инфракрасная сауна;
+- купель с холодной водой,  душевые;
+- гостиный зал с ТВ,  wi-fi;
+- комната отдыха. 
+Забронировать сауну или узнать дополнительную информацию можно по телефонам:
++7 (495) 386 17 11
++7 (903) 168 38 10
++7 (968) 904 33 77
+За сутки: 13
+За последние 30 дней: 109
+Всего: 13737
+</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, инфракрасная саунаКухня: бар, можно со своими продуктамиУслуги: веники, массажное кресло, акции и скидкиСервис: бассейн, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Большая сауна.
+ПН – ЧТ:
+10-00 – 17-00 – 1500 руб/час;
+17-00 – 10-00 – 2000 руб/час;
+ПТ – ВС (и праздничные дни):
+- 2000 руб/час
+До 10 человек.
+Средняя сауна.
+ПН – ЧТ:
+10-00 – 17-00 – 1200 руб/час;
+17-00 – 10-00 – 1700 руб/час;
+ПТ – ВС (и праздничные дни):
+- 1700 руб/час
+До 4х человек.
+Малая сауна.
+ПН – ЧТ:
+10-00 – 17-00 – 1000 руб/час;
+17-00 – 10-00 – 1500 руб/час;
+ПТ – ВС (и праздничные дни):
+- 1500 руб/час
+До 4х человек
+Внимание! АКЦИИ:
+- каждый 4й час в подарок!
+ </t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ул. Гостиничная, д.1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в оздоровительный центр с турецкой парной,  в Максима Ирбис отель!
+Банный комплекс в отеле – это идеальное место как для жителей столицы,  так и для гостей нашего города.  Здесь сочетаются банно-оздоровительные процедуры с отдыхом в отеле и приятным времяпровождением в компании друзей,  или романтическим парам,  молодожёнам.   А для тех,  кто приехал с рабочим визитом,  что может быть лучше,  после трудового дня окунуться в прохладный бассейн или попариться в мягком тепле турецкого хаммама.  
+Maxima Hotel Ирбис – это современный отель бизнес класса,  категория 3* который располагает всем необходимым для качественного отдыха и продуктивной работы. 
+Отель расположен в тихом и экологически чистом районе Москвы,  рядом со ст.  м.  Владыкино и Петровско-Разумовская.  В непосредственной близи от отеля находятся такие культурно-исторические объекты,  как Останкинская телебашня,  дворец Шереметьевых,  Выставка достижений народного хозяйства (ВДНХ) и Ботанический сад. 
+В Отеле для Вас:
+- 96 комфортных номеров различных категорий 
+- Конференц-зал до 100 персон
+- Ресторан "Венеция"
+- Прачечная
+- Охраняемая парковка 
+- Гладильная комната
+- Оздоровительный центр (хамам,  бассейн,  солярий,  тренажерный зал)
+- Бесплатный Wi-Fi на всей территории Отеля
+- Круглосуточное обслуживание в номерах
+- Камера хранения
+- Мини-холодильник в каждом номере
+- Визовая поддержка
+- Сейфовые ячейки
+Кроме стандартных номеров,  отель располагает дизайнерскими номерами с джакузи,  каждый из которых выполнен в индивидуальном стиле,  и идеально подойдет для молодожёнов - "Апельсин",  "Фисташковый",  "Модерн",  "Классический". 
+Всю подробную информацию Вы можете узнать на официальном сайте отеля http://maximahotels. ru или позвонив по телефону +7 495 788 72 72
+За сутки: 12
+За последние 30 дней: 90
+Всего: 4669
+</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), римскаяКухня: бар, ресторан, можно со своими продуктами, кафе, меню доставкиУслуги: ароматерапия, солярий, музыкальный центр, оплата картамиСервис: бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, большой TV, Отель
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Турецкий хаммам:
+06-00 – 20-00 – 900 руб/час
+20-00 – 06-00 – 1200 руб/час
+Стоимость номеров в отеле Вы можете уточнить по телефону: +7 (495) 788 72 72 или на сайте отеля http://maximahotels.ru
+ </t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, большой TV, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ул. Вишнёвая, д.13</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в банный комплекс класса люкс «Усадьба банная» на Вишнёвой улице,  в Тушино! Бани в Тушино работают круглосуточно,  и предлагают гостям незабываемый отдых в лучших банных традициях различных стран и народов. 
+Элитные бани в Тушино «Усадьба банная» - это банный комплекс для самых взыскательных гостей:
+- сауны и бани на любой вкус;
+- любой вид массажа;
+- услуги салона красоты;
+- бесконтактная автомойка и шиномонтаж;
+- охраняемый паркинг и услуга вызова такси;
+- ресепшен с баром,  аквариумы с крабами,  раками,  устрицами,  стерлядью (гость может выбрать их для приготовления блюда). 
+Комплекс состоит из 14 уникальных апартаментов,  которые могут быть арендованы,  как для отдыха в кругу семьи,  так и для проведения мероприятий различного масштаба: от романтических или деловых встреч до шумных вечеринок и банкетов.  В зависимости от типа апартаментов,  разместиться в них могут от 2 до 25 человек. 
+Каждый домик-сруб выполнен в индивидуальном дизайне,  с соблюдением национальных традиций страны. 
+В домиках есть просторная гостиная-столовая,  комнаты отдыха,  внутренняя связь с администрацией комплекса,  современная аудио-видео аппаратура,  караоке. 
+В большинстве апартаментов присутствуют бочки-купели,  которые по желанию гостей мы наполняем целебными травяными отварами,  соленой или молочной водой,  розовыми лепестками,  шампанским и даже пивом. 
+Дополнительные услуги в Усадьбе Банной на Вишневой: профессиональный банщик-парильщик,  веники (дубовый,  березовый,  можжевеловый,  эвкалиптовый,  пихтовый).  Также в услуги банщика входит массаж.  Вы можете выбрать традиционный массаж веником,  классический,  пенный,  медовый или спортивный. 
+К вашим услугам профессиональные массажистки,  которые великолепно выполнят классические,  лечебные и спортивные виды массажа,  а также процедуры грязевого и солевого обертывания. 
+А для тех,  кто заботится о внешнем виде и красоте,  на территории банного комплекса открыт салон красоты,  где трудятся мастера своего дела – парикмахеры,  визажисты,  мастера маникюра и педикюра,  косметологи. 
+В комплексе «Усадьба Банная» работает роскошный ресторан с искусными поварами.  Зал рассчитан на 60 посадочных мест или 100 гостей на фуршете.  На ваш выбор представлен богатый выбор блюд русской,  японской,  средиземноморской и европейской кухонь,  а также расширенная винная и коктейльная карта.  Любители элитного табака могут побаловать себя,  заказав сигары кубинских и доминиканских производителей.  Также на</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, русская на дровах, японская, римскаяКухня: русская, бар, мангал, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, кедровая бочка, музыкальный центр, банкеты, оплата картами, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, бассейн с противотоком, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость:
+РУССКИЕ СРУБЫ:
+"Терем" (до 10 чел.)
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+"Купеческий" (до 8 чел.)
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+"Охотничий" (до 10 чел.)
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 7000 руб/час;
+"Сафари" (до 20 чел.)
+- 8000 руб/час
+НАЦИОНАЛЬНЫЕ БАНИ МИРА:
+Римские термы (до 12 чел.) - 6000 руб/час
+Турецкая баня – хаммам (до 8 чел.) - 5000 руб/час
+Японское офуро (до 8 чел.) - 5000 руб/час
+АПАРТАМЕНТЫ:
+"Тропические" (до 8 чел.) – 2500 руб/час;
+"Восточные" (до 10 чел.) – 3500 руб/час;
+"Морские" (до 6 чел.) – 2500 руб/час;
+"Прованс" (до 2 чел.) – 2000 руб/час;
+"Дикий запад" (до 8 чел.) – 8000 руб/час;
+"Фьюжн" (до 5 чел.) – 2000 руб/час;
+"Мальдивы" - 4500 руб/час
+Дополнительно: 
+Бочки с травами – 3000 руб – 5000 руб;
+Большая бочка в срубе «Сафари» - 6000 руб – 8000 руб;
+Услуги банщика – 4000 руб/час
+Пилинги, помывки, массажи – 2500 руб – 7000 руб/сеанс
+Также в продаже имеются банные принадлежности, товары для бани и сауны и средства личной гигиены.
+Внимание! АКЦИИ:
+- Скидка в День Рождения - 50 %. Действует в течение 7 дней с даты.
+- Скидка по знаку зодиака - 50 %. В течение срока действия знака зодиака, с понедельника по среду до 18-00, исключая праздничные дни, которые попадают на будни.
+Акции не суммируются.
+ </t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, бассейн с противотоком, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Новопетровский проезд, строение 2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в Усадьбу Банную на Войковской! 
+Банный комплекс расположился в Войковском районе Москвы и открыт для Вас круглосуточно! 
+Банный комплекс «Усадьба Банная» предлагает гостям 11 срубов,  каждый из которых выполнен в своём индивидуальном стиле.  Все срубы имеют 2 этажа,  полностью автономны,  оборудованы собственными саунами,  парными,  обливными кадушками,  бассейнами,  бочками – купелями или банными чанами.  В каждом срубе</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровахКухня: русская, бар, мангал, ресторан, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, музыкальный центрСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Стоимость:
+«Охотничий»:
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 5000 руб/час;
+До 10 человек.
+«Советский»:
+10-00 – 18-00 – 4000 руб/час;
+18-00 – 10-00 – 5000 руб/час;
+До 10 человек.
+«Путешественник»:
+10-00 – 18-00 – 4000 руб/час;
+18-00 – 10-00 – 5000 руб/час;
+До 10 человек.
+«Портофино»:
+10-00 – 18-00 – 4000 руб/час;
+18-00 – 10-00 – 5000 руб/час;
+До 10 человек.
+«Кантри»:
+10-00 – 18-00 – 6000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек.
+«Эклектика»:
+10-00 – 18-00 – 6000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек.
+«Шале»:
+10-00 – 18-00 – 6000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек.
+«Музыкальная шкатулка»:
+10-00 – 18-00 – 7000 руб/час;
+18-00 – 10-00 – 7000 руб/час;
+До 15 человек.
+«Зимний»:
+10-00 – 18-00 – 6000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 8 человек.
+«Летний»:
+10-00 – 18-00 – 6000 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 8 человек.
+«Лофт»:
+10-00 – 18-00 – 4000 руб/час;
+18-00 – 10-00 – 5000 руб/час;
+До 8 человек.
+Дополнительно: 
+Услуги банщика – 4000 руб/час;
+Пилинг медово-соляной + легкий массаж – 2500 руб/30 минут;
+Помывка березовым веником – 2500 руб/30 минут;
+Помывка лыковым мочалом – 2500 руб/30 минут;
+Бочки с травами – 3000 – 5000 руб;
+Также в продаже имеются товары для бани и сауны, банные принадлежности, средства личной гигиены и косметические средства.
+Внимание! АКЦИИ:
+- Скидка в День Рождения - 50 %. Действует в течение 7 дней с даты.
+- Скидка по знаку зодиака - 50 %. В течение срока действия знака зодиака, с понедельника по среду до 18-00, исключая праздничные дни, которые попадают на будни.
+Акции не суммируются.</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ул. Лодочная, дом 27, корп. 1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Добро пожаловать в элитный банный комплекс «Усадьба банная» на Лодочной улице. 
+Усадьба банная расположилась в экологически чистом месте,  в окружении великолепного парка,  в северо-западной части Москвы,  на берегу Химкинского водохранилища.  
+Теперь,  чтобы насладиться спокойствием и гармонией природы,  отвлечься от городской суеты и совместить банно-оздоровительные процедуры с отдыхом в приятной обстановке,  не обязательно выезжать из Москвы.  Усадьба банная на Лодочной – это отличный отдых в черте города!
+Охраняемая закрытая территория,  свежий воздух,  приятная зелень вековых деревьев и отличный сервис будут способствовать Вашему незабываемому отдыху.  
+К услугам гостей русские и финские парные,  с обивкой из кедра или липы.  Для отопления используются только березовые дрова.  
+Дополнительно,  для оздоровления можете воспользоваться услугами профессионального банщика-парильщика или массажистов.  
+В комплексе продуманно все до мелочей:
+- бассейны с гейзерами и купели с чистой водой;
+- сеновалы с душистым сеном;
+- фонтаны и беседки во внутренних двориках для релаксации на природе;
+- уютные комнаты отдыха;
+- бильярд для дружеских матчей;
+- плазменные экраны и аудиоаппаратура,  караоке;
+- в гостиных можно отдохнуть у каминов,  наблюдая в спокойной обстановке за играющими языками пламени. 
+Предлагаем для отдыха апартаменты ("Шале",  "Прованс",  "Кантри",  "Невесомость") и срубы ("Гэтсби",  "Ибица",  "Рыцарский").  
+VIP – апартаменты «Шале». 
+Оформлены в стиле современного шале,  в натуральной цветовой гамме,  с использованием дерева и камня. 
+Уютный гостиный зал с камином,  ТВ,  музыкальным центром,  караоке,  бильярдом.  Данный номер оборудован небольшим кухонным модулем,  для арендующих на длительных срок.  Имеется выход на оборудованную террасу и крышу.  Внутренний дворик с бассейном под открытым небом и подогреваемым банным чаном. 
+Вместимость до 15 человек. 
+Апартаменты «Прованс». 
+Очаровательные апартаменты оформлены в ретро – стиле,  сочетание светлой и доброй старины с роскошью.  Помещение бассейна напоминает внутренний дворик дома,  откуда открывается вид на старинный замок на берегу реки.  Парная обшита кедром,  бассейн,  ТВ,  караоке,  2 комнаты отдыха.  Вместимость до 6 человек. 
+Апартаменты «Кантри». 
+Выполнены в ретро-стилистике.  Сочетание зелёных и тёмно-коричневых тонов,  обилие натурального дерева,  кованые светильники,  всё это создаёт комфортную и расслабляющую атмосферу.  
+Уютный зал с камином,  русская парная обшитая кедром,  бассейн,  ТВ,  музыкальный центр,  профессиональное караоке,  комната отдыха. 
+Вместимость до 6 человек
+Апартаменты «Невесомость». 
+Оформлены в современном стиле,  в светлых тонах.  Просторная релакс-зона с диванами и пуфами,  бильярд,  ТВ,  караоке,  финская парная,  бассейн,  2 комнаты отдыха.  
+Вместимость до 6 человек. 
+Сруб «Гэтсби». 
+Интерьер выполнен в стиле Арт-деко,  в котором сочетается чёрное и белое в мебели,  множество зерка</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, русская баня, русская на дровах, японскаяКухня: русская, бар, мангал, ресторан, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, кедровая бочка, музыкальный центр, банкеты, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин, загородный отдых
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость:
+АПАРТАМЕНТЫ:
+"Шале" (до 15 человек):
+С 10-00 до 18-00 – 6000 руб/час;
+С 18-00 до 10-00 – 8000 руб/час;
+Аренда на 12 часов – 60000 руб
+"Прованс" (до 6 человек):
+- 2500 руб/час;
+Аренда на 12 часов – 25000 руб
+"Кантри" (до 6 человек):
+- 2500 руб/час;
+Аренда на 12 часов – 25000 руб
+"Невесомость" (до 6 человек):
+- 3500 руб/час;
+Аренда на 12 часов - 30000 руб
+СРУБЫ:
+"Гэтсби" (до 12 человек):
+С 10-00 до 18-00 – 4000 руб/час;
+С 18-00 до 10-00 – 6000 руб/час;
+Аренда на 12 часов - 45000 руб
+"Ибица" (до 12 человек):
+С 10-00 до 18-00 – 4000 руб/час;
+С 18-00 до 10-00 – 6000 руб/час;
+Аренда на 12 часов - 45000 руб
+"Рыцарский" (до 12 человек):
+С 10-00 до 18-00 – 4000 руб/час;
+С 18-00 до 10-00 – 6000 руб/час
+Аренда на 12 часов - 45000 руб
+Дополнительно:
+Услуги банщика – 4000 руб;
+Пилинг медово-соляной + легкий массаж – 2500 руб/30 мин;
+Помывка березовым веником – 2500 руб/30 мин;
+Помывка лыковым мочалом – 2500 руб/30 мин
+Бочки с целебными травами – 3500 руб – 5000 руб
+В продаже имеются банные принадлежности, товары для бани и сауны и средства личной гигиены.
+Внимание! АКЦИИ:
+- Скидка в День Рождения - 50 %. Действует в течение 7 дней с даты.
+- Скидка по знаку зодиака - 50 %. В течение срока действия знака зодиака, с понедельника по среду до 18-00, исключая праздничные дни, которые попадают на будни.
+Акции не суммируются.
+ </t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, камин, загородный отдых</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Большой Волоколамский проезд, дом 16</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+«Усадьба Банная» на Октябрьском поле – это элитный банный комплекс в Москве,  который расположился в районе Щукино в шаговой доступности от метро Октябрьское поле и Панфиловская.  
+На территории банного комплекса кроме банных услуг находится роскошный ресторан с изысканными блюдами от шеф-повара и обширная карта напитков со всего мира.  По Вашему желанию любые выбранные блюда доставят в зону отдыха,  в арендуемые срубы или апартаменты.  Все клиенты комплекса,  приехавшие на собственном автомобиле,  могут б</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, русская на дровах, японскаяКухня: русская, бар, ресторан, меню доставкиУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, массажное кресло, кальян, кедровая бочка, музыкальный центр, банкеты, оплата картами, акции и скидкиСервис: бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, бассейн с противотоком, настольные игры, камин
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ:
+Баня «Турецкий хаммам»:
+10-00 – 18-00 – 3500 руб/час;
+18-00 – 10-00 – 5500 руб/час;
+До 10 человек
+Сауна «Японский стиль»:
+10-00 – 18-00 – 3000 руб/час;
+18-00 – 10-00 – 3500 руб/час;
+До 10 человек
+Сруб «Спортивный»:
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 7000 руб/час;
+До 15 человек
+Сруб «Купеческий»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек
+Сруб «Охотничий»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек
+Сруб «Высоцкий»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек
+Сруб «Сказка»:
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 7000 руб/час;
+До 20 человек
+Сруб «Шале»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 10 человек
+Сруб «Бунгало»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 10 человек
+Сруб «Пиратский»:
+10-00 – 18-00 – 5000 руб/час;
+18-00 – 10-00 – 7000 руб/час;
+До 20 человек
+Сруб «Скотланд-Ярд»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час;
+До 15 человек
+Сруб «Корабль»:
+10-00 – 18-00 – 4500 руб/час;
+18-00 – 10-00 – 6000 руб/час
+До 10 человек.
+Дополнительно:
+Услуги банщика – 4000 руб/час;
+Пилинг медово-соляной + легкий массаж – 2500 руб/30 мин;
+Помывка березовым веником – 2500 руб/30 мин;
+Помывка лыковым мочалом – 2500 руб/30 мин;
+Традиционный хаммам (комплекс спа-процедур) – 7000 руб/1,5 часа;
+Бочки с травами – 3000 – 5000 руб;
+Также в продаже имеются товары для бани и сауны, банные принадлежности, средства личной гигиены, косметическая продукция.
+Внимание! АКЦИИ:
+- Скидка в День Рождения - 50 %. Действует в течение 7 дней с даты.
+- Скидка по знаку зодиака - 50 %. В течение срока действия знака зодиака, с понедельника по среду до 18-00, исключая праздничные дни, которые попадают на будни.
+Акции не суммируются.
+ </t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, бильярд, охраняемая парковка, джакузи, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, японский офуро, большой TV, бассейн с противотоком, настольные игры, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ул. Панфилова, д. 12</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Усадьба Банная на Панфилова располагается в районе Сокол,  рядом со станциями метро Сокол или Панфиловская и оборудован всем необходимым для эксклюзивного отдыха. 
+Комплекс саун на Панфилова состоит из 6 апартаментов,  каждый из которых выполнен в своём индивидуальном стиле.  Кроме аренды апартаментов,  мы предлагаем изысканные блюда из нашего ресторана,  услуги профессиональных массажистов и банщиков,  большой ассортимент напитков,  безупречный сервис,  вместительную парковку для автомобилей и 100 % конфиденциальность. 
+«Японский стиль»:
+Апартаменты выполнены в японском стиле,  в которых присутствуют: традиционная финская парная,  душевая,  гостиная,  комната отдыха.  
+Вместимость до 4х человек. 
+«Турецкий хаммам»:
+Апартаменты выполнены в восточном стиле со свойственной ему роскошью.  Здесь для гостей: турецкий хаммам,  бочка-купель,  гостиный зал,  настольный футбол,  2 комнаты отдыха.  
+Вместимость до 12 человек. 
+«Кедровая бочка»: 
+В апартаментах «Кедровая бочка»: две кедровые бочки,  гостиная и комната отдыха.  
+Вместимость до 2х человек. 
+«Инфракрасная сауна»:
+В апартаментах: инфракрасная сауна,  душевая,  гостиная,  комната отдыха. 
+Вместимость до 2х человек. 
+«Итальянская баня»:
+Апартаменты «Итальянская баня» выполнены в традициях итальянского стиля и продуманы до мелочей,  начиная от мастерски выполненной плетеной мебели и заканчивая зеркальными стенами.  
+В апартаментах «Итальянская баня»: комбинированная парная с регулируемым сухим и влажным парением,  бассейн с подныром из парной,  гостиная,  комната отдыха.  
+Вместимость до 6 – 10 человек. 
+«Финская сауна»: 
+Апартаменты выполнены в традиционном стиле финских саун: классическая парная,  бассейн,  бочка-купель,  гостиная,  комната отдыха. 
+Вместимость до 8 человек. 
+Всю подробную информацию можно увидеть на официальном сайте банного комплекса «Усадьбы Банные: 
+http://par24.ru/nashi-usadby/usadba-na-sokole/
+За сутки: 15
+За последние 30 дней: 127
+Всего: 7749
+</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: финская парная, турецкая парная(хамам), русская баня, инфракрасная сауна, японскаяКухня: русская, бар, ресторанУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, кальян, кедровая бочка, музыкальный центр, акции и скидкиСервис: бассейн, кондиционер, охраняемая парковка, джакузи, спутниковое тв, караоке, японский офуро, большой TV, камин
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стоимость:
+"Японский стиль"
+10-00 – 18-00 – 2000 руб/час;
+18-00 – 10-00 – 2200 руб/час;
+Аренда на 12 часов - 19000 руб
+До 4х человек.
+"Турецкий хаммам"
+10-00 – 18-00 – 2800 руб/час;
+18-00 – 10-00 – 3300 руб/час;
+Аренда на 12 часов - 20000 руб
+До 12 человек.
+"Кедровая бочка"
+10-00 – 18-00 – 1500 руб/час;
+18-00 – 10-00 – 1500 руб/час;
+Аренда на 12 часов - 12000 руб
+До 2х человек.
+"Инфракрасная сауна"
+10-00 – 18-00 – 1500 руб/час;
+18-00 – 10-00 – 1500 руб/час;
+Аренда на 12 часов - 12000 руб
+До 2х человек.
+"Итальянская баня"
+10-00 – 18-00 – 3200 руб/час;
+18-00 – 10-00 – 3700 руб/час;
+Аренда на 12 часов - 30000 руб
+До 10 человек.
+"Финская сауна"
+10-00 – 18-00 – 3000 руб/час;
+18-00 – 10-00 – 3500 руб/час;
+Аренда на 12 часов - 28000 руб
+До 8 человек.
+Дополнительно:
+Услуги банщика – 4000 руб/час;
+Пилинг медово-соляной + легкий массаж – 2500 руб/30 мин;
+Помывка березовым веником – 2500 руб/30 мин;
+Помывка лыковым мочалом – 2500 руб/30 мин;
+Традиционный Хаммам (комплекс процедур) – 7000 руб/1,5 часа;
+Бочки с целебными травами – 3000 – 5000 руб
+В продаже имеются товары для бани и сауны, банные принадлежности, средства личной гигиены и косметические средства.
+Внимание. АКЦИИ:
+- Бочка на Панфилова. При заказе бочки в финской сауне, третий час аренды скидка 30%. 
+- Акция в День Рождения. В день рождения скидка 50% на аренду апартаментов (Хаммам, Итальянская баня, Финская сауна). При аренде апартаментов «Японский стиль», «Кедровая баня», «Инфракрасная сауна» в день рождения – шампанское в подарок. Акция действует в день рождения, в течении 7 дней с даты рождения с 10:00 до 18:00.
+- Итальянская баня. При заказе апартаментов «Итальянская баня» более трех часов - бутылка игристого итальянского вина в подарок.
+- На воскресенье и понедельник. Каждый третий час аренды – скидка 50% на апартаменты «Итальянская баня» и «Хаммам».
+- Специальное предложение "Хаммам на 12 часов" - 20 000 руб (обязательный депозит 2500 руб).
+Акции не суммируются.
+ </t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>бассейн, кондиционер, охраняемая парковка, джакузи, спутниковое тв, караоке, японский офуро, большой TV, камин</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Пятницкое шоссе, д. Юрлово, д. 107</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Любителей настоящей русской баньки с ароматными вениками и густым паром ждет «Усадьба в Юрлово».  Располагающая атмосфера тепла позволит расслабиться и зарядиться хорошим настроением в компании друзей и близких,  а приветливый персонал позаботится о вашем комфорте. 
+Баня на дровах
+К вашим услугам качественные банные процедуры в лучших русских традициях: эффективное парение с применением свежего веника дарит массу положительных ощущений и оказывает благоприятное влияние на здоровье.  Сразу после парилки вы можете окунуться в чистейший,  немного прохладный бассейн – мощный заряд энергии обеспечен.  Наш бассейн оснащен современной системой фильтрации,  благодаря которой вода всегда остается кристально чистой. 
+В перерывах между оздоровительными процедурами можно насладиться релаксом в удобной комнате отдыха с мягкими диванами и массажными креслами,  поиграть в бильярд или посмотреть любимый фильм на большом экране. 
+Дополнительные услуги
+«Усадьба в Юрлово» предусмотрена для любого типа досуга: романтический тет-а-тет,  спокойный семейный отдых,  дружеские посиделки и шумные вечеринки.  Администрация нашего банного комплекса с удовольствием поможет вам организовать корпоратив,  День Рождения,  мальчишник и другое мероприятие – будьте уверены,  что праздник запомнится вам только в позитивном ключе!
+После релаксации в бане приглашаем вас провести время в ресторане европейской кухни,  который работает на территории банного комплекса: сытно и недорого перекусить,  выпить чашечку ароматного чая или пропустить по кружке свежего пива.  Опытные повара также могут приготовить для вас мясные блюда на мангале. 
+Отель
+Вы можете приехать в «Усадьбу» на несколько часов или провести здесь все выходные,  забронировав номер в отеле.  В уютных комнатах имеется все необходимое для приятного времяпрепровождения.  После такого отдыха вы вернетесь домой полными сил и позитивных эмоций!
+За сутки: 12
+За последние 30 дней: 90
+Всего: 10180
+</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: русская баня, русская на дровахКухня: русская, мангал, ресторан, меню доставкиУслуги: массажное кресло, банкетыСервис: бассейн, бильярд, охраняемая парковка, Wi-Fi, большой TV, загородный отдых, Отель
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Стоимость:
+1400 рублей/час - 2 человека,
+1800 рублей/час - до 6 человек,
+2000 рублей/час - до 10 человек.
+Свыше 10 человек - доплата 500 руб за человека.
+Уважаемые друзья, баня работает только по предоплате!</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>бассейн, бильярд, охраняемая парковка, Wi-Fi, большой TV, загородный отдых, Отель</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Луганская улица, дом 10</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Общественная баня. 
+Городские общественные Царицынские бани расположились возле метро Царицыно,  на улице Луганская,  дом 10,  в ТЦ "Царицыно" на 4 этаже.  Бани открылись после капитальной реконструкции в 2014 году,  и порадуют посетителей обновленным интерьером,  чистотой помещений,  новым оборудованием и мебелью и приветливым персоналом.  Общие бани делятся на 2 отделения - мужское и женское.  
+В мужском отделении одновременно разместится 80 человек.  Здесь гостей ждет классическая русская парная,  турецкая баня,  помывочная с душевыми и обливными кадушками,  зона отдыха с диванами и столами.  Для любителей ярких ощущений установлен постоянно пополняющийся резервуар с ледяной крошкой.  
+В женском отделении разместится до 70 человек.  Здесь также русская парная,  помывочная с душевыми и обливными кадушками,  зона отдыха с диванами и столами. 
+Дополнительно,  предлагаем Спа-услуги - парения,  помывки,  массажи,  обертывания,  пилинги,  кедровую бочку или комплексные программы для мужчин и женщин.  
+После банных процедур гости могут вкусно и недорого перекусить в нашем кафе,  которое расположено на территории банного комплекса.  
+Режим работы бани: ежедневно,  с 09-00 до 23-00
+За сутки: 16
+За последние 30 дней: 78
+Всего: 9627
+</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баняКухня: бар, разливное пиво, кафеУслуги: веники, банщик, спа-терапия, оздоровительный массаж, ароматерапия, солярий, массажное кресло, кедровая бочка, оплата картами, акции и скидкиСервис: бассейн, холодная купель, спутниковое тв, обливное ведро, большой TV
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">СТОИМОСТЬ
+Мужской разряд:
+Цена билета на вход (3 часа), будни - 1500 руб;
+Цена билета на вход (3 часа), выходные - 1700 руб;
+Цена билета на вход (без ограничения по времени посещения), будни - 2200 руб;
+Цена билета на вход (без ограничения по времени посещения), выходные - 2500 руб;
+Цена билета на вход (1 час), будни - 750 руб;
+Цена билета на вход (1 час), выходные - 850 руб;
+Женский разряд:
+Цена билета на вход с 09-00 до 21-00 (3+2 часа) - 1500 руб;
+Цена билета на вход с 09-00 до 21-00 (безлимит) - 2000 руб;
+Цена билета на вход после 21-00 - 1100-00 руб;
+Цена билета на вход (1 час), будни - 750 руб;
+Ветераны Великой Отечественной Войны по будням обслуживаются бесплатно.
+Парная работает до 22-30, помывочное отделение до 22-45. Продажа билетов осуществляется до 21-30. Продажа билетов на 1 час осуществляется до 17 часов.
+Дети до 7 лет - бесплатно;
+Дети с 7 до 12 лет (3 часа) - 500 руб;
+Подростки с 13 до 18 лет (3 часа) - 700 руб;
+Студенты дневной формы обучения (при предъявлении студенческого билета, 3 часа) - 850 руб;
+Солярий (1 минута) - 20 руб;
+Абонемент в баню на 10 посещений - 14000 руб;
+Абонемент в баню на 5 посещений - 7200 руб;
+Прокат простыни - 200 руб;
+Веник дубовый отборный - 350 руб;
+Веник березовый отборный - 300 руб;
+О действующих скидках и льготах, категориях граждан относящихся к льготникам и о времени посещения - уточняйте по телефону бани. 
+ </t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>бассейн, холодная купель, спутниковое тв, обливное ведро, большой TV</t>
         </is>
       </c>
     </row>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -1,34 +1,456 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d9b9e4539f1364a/Рабочий стол/Scerber/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_60ADE7BDDDDAD37EAD00D0F0505ED87656CE15AA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+  <si>
+    <t>Сауна "на Шаумяна"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Сауна-на-Шаумяна/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> улица Шаумяна, 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Опиание сауны
+Если вы хотите получить хороший отдых в хороших и уютных условиях,  то сауна «на Шаумяна»,  идеальный для вас вариант.  Мы своим клиентам гарантируем чистоту и отличный сервис,  ведь у нас работает весьма дружелюбный персонал,  который ориентирован на то,  чтобы наши клиенты остались полностью всем довольны,  и вернулись к нам еще ни один раз.  Вы можете быть уверенны что в наших залах вам будет весьма комфортно и удобно,  в каждом из них вас ждет прекрасный дизайн и просторное помещение. 
+Наша сауна предлагает для вас три зала,  которые различаются вместительностью и разнообразными функциями,  которые направленны на оздоровление вашего организма,  и поднятия вашего настроения – это зал «Древний Рим»,  «Оазис Востока»,  «Турецкий зал». 
+«Древний Рим» - обладает вместительностью 8 человек,  но возможен вариант размещения компании из большего количества человек.  Здесь вас ждет горячая финская парная,  в которой вы сможете отлично попариться с веником,  и насладиться всеми оздоровительными свойствами этой парной,  а именно,  вы сможете победить множество простудных заболеваний (насморк,  кашель и так далее),  и кожные заболевания (акне,  крапивница,  и так далее). А после вы вас ждет бассейн с чистой и прозрачной водой,  который является по размерам самым большим в городе 10х3,   окунуться в который одно удовольствие,  в нем вы сможете насладиться не только водными процедурами,  но и красивым искусственным водопадом и декоративной волной.  А после разместившись в просторной гостиной самое время перекусить,  и здесь вы сможете накрыть стол продуктами принесенными с собой,  ведь у нас это разрешается.  Ну а для того чтобы время оказалось веселым и приятным в нашем заведение продается разливное пиво,  которое всегда свежее и вкусное. 
+Так же в этом зале для вас есть комната отдыха,  комната релаксации,  телевизор,  DVD,  музыкальный центр,  и русский бильярд на 10 футов.   В общем здесь вам скучно не будет. 
+«Оазис Востока» - обладает вместительностью в 6 человек,  но здесь так же возможно размещение большей компании.  В нем для вас открыта финская парная,  после которой вы сможете окунуться в бассейн с чистой водой,  размер которого 3х4,  в нем вы сполна сможете насладиться водными процедурами и позабыть обо всех проблемах.  А после вас будет ждать уютная гостиная где вы сможете накрыть стол блюдами приготовленными своими руками и насладиться приятной дружеской беседой под стакан вкусного пенного разливного пива.  Здесь для вас есть комната отдыха,  комната релаксации,  DVD,  телевизор,  музыкальный центр.  Именно в этой комнате вы отлично отдохнете и расслабитесь. 
+«Турецкий зал» - в нем с особым комфортом разместится компания из 8-ми человек,  здесь просто идеальное место для празднования дня рождения,  либо же какого другого праздника,  ведь в этом зале есть услуга сервировки стола,  что значительно сократит ваше время к приготовлению праздника.  Здесь вас ждет финская парная,  в которой вы сможете воспользоваться услугой ароматерапии и светотерапией,  как следует попариться и насладиться этими приятными моментами.  После вы сможете отсудиться с помощью обливного ведра и получить от этого небывалый заряд энергии,  так же есть бассейн в котором встроены такие дополнительные функции как подогрев,  противоток,  подсветка,  фильтрация. ,  размером 6х3.   Ну,  а для того чтобы окончательно расслабиться вас ждет весьма комфортабельная зона отдыха,  где вы и сможете устроить настоящую шумную вечеринку.  Здесь для вас так же есть 2 комнаты отдыха,  DVD,  караоке,  телевизор,  музыкальный центр. 
+Так же на всей территории сауны работает бесплатный Wi-Fi.  В общем у нас есть все то,  что вы ищите и ждете от хорошего отдыха.  
+За сутки: 10
+За последние 30 дней: 27
+Всего: 5625
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: финская парнаяКухня: бар, разливное пиво, можно со своими продуктамиУслуги: веники, оздоровительный массаж, кальянСервис: бассейн, охраняемая парковка, Wi-Fi
+</t>
+  </si>
+  <si>
+    <t> Цены
+Зал "Древний Рим" -Стоимость: 2000 руб/час (на 8 человек). Доплата за каждого последующего 100 руб/час. С понедельника  по четверг с 9.00 до 17.00 скидка 20% (кроме праздничных дней)
+Зал "Оазис Востока" - Стоимость на 6 человек - 1200 руб/час. Доплата за каждого последующего гостя - 100 руб/час.
+Зал "Турецкий зал" - Стоимость на 8 человек - 1800 руб/час. Доплата за каждого последующего гостя - 100 руб/час. С понедельника  по четверг с 9.00 до 17.00 скидка 20% (кроме праздничных дней)
+Простыни, полотенца, чай, мыльные принадлежности - входят в стоимость.
+ </t>
+  </si>
+  <si>
+    <t>финская парная</t>
+  </si>
+  <si>
+    <t>Сауна "Белый медведь"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Сауна-Белый-медведь/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> улица Розы Люксембург, 67б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+ Мы вас приглашаем в сауну «Белый медведь»,  у нас вас ждет просто великолепный отдых,  в котором вы полностью забудетесь.  Все проблемы и мысли уйдут из вашей головы,  и вы лишь будете наслаждаться приятным банным отдыхом в очень комфортных условиях.  Именно у нас вы сможете значительно сэкономить свой бюджет,  ведь наши цены весьма приемлемы,  но это никак не повлияет на качество вашего отдыха.  Ведь наше обслуживание находится на высоте,  наш администратор очень приветлив и доброжелателен.  Вас встретят с улыбкой и проводят к тому залу,  который вы выбрали.  А залов у нас три.  Это: Малый зал,  Большой зал,  Новый зал.  Каждый из них хорош по своему и обладает индивидуальным дизайном,  ну и конечно же у каждого своя вместимость. 
+Малый зал готов вместить в свои просторы компанию из 4-х человек.  Здесь вы сможете устроить как спокойный семейный отдых,  так и романтическое свидание,  уединиться полностью ото всех и насладиться друг другом.  В этом зале вы сможете попариться в русской баньке,  для которой у нас продается хороший выбор банных веников.  Здесь вы сможете хорошенько распарить свое тело,  а после,  расположившись в джакузи,  наслаждаться приятным массажем и водными процедурами.  Здесь для вас есть одна комната отдыха,  и конечно же гостевая,  в которой вы сможете удобно устроиться на весьма комфортной мебели,  и наслаждаться общением друг с другом. 
+Большой зал способен разместить компанию до 8-ми человек.  Здесь вы сможете отметить любой праздник,  будь то день рождение,  девичник,  мальчишник,  или же другой какой-либо праздник.  Мы будем рады предложить вам попариться здесь в русской парной,  для которой предлагается приобрести хорошие веники,  а после окунутся в бассейн,  размер которого 4х3,  в котором всегда чистая и прозрачная вода.  Здесь вы сможете окончательно расслабиться и получить приятные ощущения от этой водной процедуры.  Здесь для вас предоставлено две комнаты отдыха,  в которых вы сможете отдохнуть во весьма комфортных условиях,  и гостиный зал,  где вы сможете разместиться с особым комфортом и как следует отдохнуть возле камина.  Так же здесь для вас предоставляется мангал,  на котором вы сможете пожарить вкусный шашлык и удивить тем самым всех своими кулинарными способностями.  Ну а в качестве развлечения вам предоставляется караоке,  спеть в которое настоящее удовольствие.  Ну а для любителей более подвижных игр предлагаем сыграть в настольный теннис,  с помощью этой игры вы как следует разомнете свое тело,  и значительно поднимете ваше настроение. 
+Новый зал так же весьма вместителен и готов принять компанию в 8-емь человек.  Здесь для вас предоставлены абсолютно все условия.  Попариться вы здесь сможете в русской парной,  для который вы так же сможете приобрести просто отличные веники,  поплавать в бассейне,  размер которого 2. 5х2. 5,  а после отдохнуть в комнате отдыха,  которых здесь так же две.  Ну а собраться компанией и устроить настоящее веселье вы сможете в гостиной,  где вы так же сможете удивить друзей своими талантами в области кулинарии и пожарить очень вкусный шашлык.  Для вашего развлечения здесь предлагается настольный теннис,  бильярд. 
+Хочется отметить что каждый зал оборудован новейшей системой аудио- и видео- техники,  и в каждом зале есть телевизор со спутниковым тв.  Поэтому вы обязательно найдете чем себя занять во время отдыха. 
+Мы ждем вас у себя.  И поверьте вы ни на секунду не разочаруетесь в своем выборе. 
+За сутки: 13
+За последние 30 дней: 45
+Всего: 6963
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: русская баняКухня: мангалУслуги: веникиСервис: бассейн, бильярд, охраняемая парковка, караоке
+</t>
+  </si>
+  <si>
+    <t> Цены
+Зал с бильярдом:  до 18-00 -  600 руб.
+после 18-00 - 1000 руб.
+в выходные - 1000 руб.
+Актуальные цены уточняйте по телефону
+Свыше 8 чел:	100 руб/час за последующего.
+Большой зал: 	до 18-00 - 600 руб.
+после 18-00 - 800 руб.
+в выходные - 800 руб.
+Актуальные цены уточняйте по телефону
+Свыше 8 чел:	100 руб/час за последующего.
+Малый зал: 	до 18-00 - 500 руб.
+после 18-00 - 600 руб.
+в выходные - 600 руб.
+Актуальные цены уточняйте по телефону
+Свыше 4 чел:	100 руб/час за последующего.
+ </t>
+  </si>
+  <si>
+    <t>русская баня</t>
+  </si>
+  <si>
+    <t>Сауна "Реус"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Сауна-Реус/</t>
+  </si>
+  <si>
+    <t>Екатеринбург, Щорса, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+ Если вы хотите хорошо отдохнуть в красивой обстановке,  посетить сауну где следят за чистотой помещений и за своим имиджем,  то тогда сауна "Реус" именно ваш выбор.  Интерьер наших залов окунает в настоящую роскошь,  вы почувствуете себя настоящим путешественником,  которому предлагается побывать на солнечном востоке,  окунуться в европейский мир шика и блеска,  или же почувствовать весь богатый мир русской души. 
+Наша сауна готова предложить вам на выбор несколько весьма комфортабельных залов,  а именно: «Арабский зал»,  «Финский зал»,  и «Русский зал».  В каждом из них вы встретите великолепный дизайн,  четкость линий,  именно здесь вам захочется провести самые лучшие минуты своей жизни,  и окунуть в мир грез,  в мир где не нужно ничего делать,  для вас существует только отдых и больше ничего.  А для того чтобы у вас сложилось примерное впечатление о каждом из залов,  хочется вкратце разобрать каждый из них. 
+Зал «Арабский» может поразить вас своим дизайнерским решением.  Здесь царит атмосфера богатства и красоты,  попав сюда вы ощутите себя истинными богами.  Здесь для вас открыта большая турецкая парная(каменная парная),  и финская парная.  В этом зале вы сможете попробовать «на вкус» несколько видов парных,  и выбрать ту,  поклонником которой вы останетесь навеки. 
+Здесь вы сможете поплавать в большом бассейне,  а после устроить шумную вечеринку,  ведь этот зал просто создан для отдыха большими компаниями.  Здесь вы сможете организовать дискотеку,  для которой есть все необходимое,  а именно мощная акустическая система и цветомузыка,  с регулируемым сегментом освещения.  Так же здесь вы сможете развлечь себя игрой в русский бильярд. 
+Зал «Финский» предназначен для небольшой компании до 8-ми человек.  Здесь вы сможете попариться в финской парной,  а чтобы процедура парения была жаркой рекомендуем приобрести у нас банные веники.  После парной вы сможете поплавать в бассейне с чистой водой и как следует остудить свое тело,  либо же можно сполоснуться в душевой кабине.  Здесь для вас есть гостевая комната,  в которой вы сможете повеселиться от души,  устроив при этом дискотеку,  либо можно заказать любое развлекательное шоу. 
+Так же для вас здесь доступны: спутниковое телевидение,  аудио- и видео- аппаратура,  караоке,  кальян,  американский бильярд. 
+Зал «Русский» способен разместить компанию до 6-ти человек.  Среди всех залов,  это самый маленький.  Здесь вы сможете ощутить настоящий русский дух и хорошенько отпарить свое тело в русской парной,  после которой вам предлагается окунуться в купель с холодной водой и дать своему организму мощный закаливающий заряд.  Для самой парной вы сможете приобрести у нас хорошие веники,  а так же банные принадлежности. 
+Отдохнуть вы сможете в комнате отдыха,  которая в этом зале одна,  или же в гостевой,  где вы сможете себя развлечь просмотром телевизора со спутниковыми каналами,  на танцполе можно устроить зажигательные танцы с помощью аудиоаппаратуры.  Или же заказать стриптиз шоу. 
+Если вы вдруг забыли взять с собой что-либо из банных принадлежностей,  то не стоит отчаиваться,  у нас вы сможете приобрести все самое необходимое.  Так же в продаже имеются: масла для сауны,  «запарки для бани»(травы),  и веники (эвкалипт,  береза,  липа). 
+За сутки: 12
+За последние 30 дней: 33
+Всего: 6145
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Кухня: русскаяУслуги: банщик, кальянСервис: бильярд, спутниковое тв
+</t>
+  </si>
+  <si>
+    <t> Цены
+1 час - от 700 до 1000 рублей
+Акции
+При заказе арабского или финского отделения от 4 часов, в подарок 5 банок пива или шампанское (на выбор).
+Празднуйте день рождения в нашей сауне!
+Именинники получают скидку 5% (при предъявлении документа).
+ </t>
+  </si>
+  <si>
+    <t>Сауна"Карибы"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/СаунаКарибы/</t>
+  </si>
+  <si>
+    <t>Сибирский тракт, 21, 1 этаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+ Мы приглашаем вас посетить нашу сауну «Карибы».  У нас вы сможете почувствовать необычную атмосферу уюта,  и почувствовать себя настоящим путешественником.  Весь наш дизайн оригинален и выполнен в морском стиле.  Выбрав одну из предоставляемых отделений для отдыха вы отдохнете не все сто процентов,  но и забудете обо всех проблемах.  Всего в нашем комплексе два отделения,  это – «Корабль» и «Скала».   Каждый из них обладает особенным дизайном,  который очень сильно отличается друг от друга. 
+Так в отделении «Скала» вы почувствуете себя искателем сокровищ.  Дизайн помещения настолько красив,  вы окунетесь в атмосферу скал и сможете поплавать в теплом бассейне.   Здесь,  среди скал,  вы сможете попариться в русской парной,  где совместите горный отдых с нашей русской банькой.  В этом есть некая романтика.  А после того как вы до конца насладитесь парением в баньке,  то к вашему вниманию предлагается окунуться в теплый бассейн,  который обладает системой гидромассажа,  это поможет вам полностью расслабиться и получить незабываемые ощущения от отдыха.  Так же в этом отделении для вас есть душ. 
+Для любителей поваляться после банных и водных процедур открыта комната отдыха,  в которой вы сможете разместиться на мягкой кровати и вздремнуть часок другой.  А после присоединить к друзьям и повеселиться от души в нашем небольшом,  но уютном банкетном зале.  Здесь для вас есть вместительный стол со стульями выполненные из натуральных материалов,  а именно из дерева; телевизор к которому подключены кабельные каналы среди разнообразия которых вы обязательно найдете то,  что вас заинтересует; а так же аудиотехника,  с помощью которой вы  сможете послушать ваши любимые хиты,  или же устроить дискотеку; ну и конечно же бильярд,  ведь эта игра,  без которой в сауне просто не обойтись. 
+Второе,  имеющиеся у нас отделение,  «Корабль»,  говорит само за себя.  Здесь вы окунетесь в атмосферу морского интерьера и унесетесь в путешествие по морям.  Здесь вы сможете попариться и получить небывалое наслаждение в финской,  и турецкой парной (хамам).  Обе парные направленны на оздоровительное и омолаживающее действие,  но по процессу парения они абсолютно разные.  В финской,  к примеру,  очень высокий температурный режим,  и низкая влажность; а в турецкой все наоборот,  очень высокая влажность,  но низкий температурный режим. 
+Прочувствовав на своем теле все прелести банных процедур вас ждет большой и вместительный бассейн,  который обладает функцией подогрева воды и гидромассажем.  Вы получите просто нереальные ощущения от пузырьков которые обволокут ваше тело,  и хорошенечко промассируют ваше тело.  Само помещение,  в отличие от отделения «Скала»,  довольно вместительное.  Здесь гораздо просторнее банкетный зал,  мебель которого так же выполнена из натуральных пород дерева,  аудио- и видео- система,  кальян,  ну и конечно же бильярд.  А для любителей поваляться на мягкой кровати есть настоящая каюта,  в которой вы сможете разместить с комфортом,  и представить себя на настоящем корабле. 
+Кроме всего выше перечисленного в нашем комплексе вы сможете купить и попробовать свежее пенное пиво,  которое у нас очень вкусное,  настоящие гурманы по достоинству оценят его вкус.  Ну а для тех кто после отдыха хочет остаться и отдохнуть у нас предлагаем снять номер в нашей гостинице.  Сам номер очень чистый и имеет очень красивый интерьер.  В нем вы отдохнете с комфортом,  и как следует отоспитесь,  ведь во время вашего отдыха вам никто не сможет помешать. 
+Ждем вас у себя в гостях!
+За сутки: 12
+За последние 30 дней: 36
+Всего: 6793
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: русская баняКухня: разливное пивоУслуги: кальянСервис: бассейн, бильярд
+</t>
+  </si>
+  <si>
+    <t> Цены
+Отделение "Скала":
+с 9:00 до 17:00 – 1200 руб.
+с 17:00 до 9:00 – 1500 руб. (заказ не менее 2 часов).
+Отделение "Корабль":
+с 9:00 до 17:00 – 1200 руб.
+с 17:00 до 9:00 – 1600 руб. (заказ не менее 2 часов)
+Массажное кресло 15 минут – 100 руб.
+Гостиница
+2-х местный номер. Стоимость номера 1700 руб. за 12 часов. Сауны расчитаны на 8 человек.
+Более восьми человек взимается плата 100 руб. с человека за один час.
+Тапки - 30 руб.
+Простынь - 20 руб.
+Халат - 100 руб.
+Полотенце - 50 руб.
+В продаже имеются подарочные сертификаты на любую сумму.
+ </t>
+  </si>
+  <si>
+    <t>Бани "на Метеогорке"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Бани-на-Метеогорке/</t>
+  </si>
+  <si>
+    <t>Бажова, 193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание бани
+Вас приветствует баня «На Метеогорке»,  где вы можете отдохнуть на все сто процентов и окунуться в атмосферу прекрасного банного отдыха.  Мы находимся вблизи метро Геологическая,  и будем рады вам в любое время суток.   Наш приветливый персонал встретит вас в нашем заведение и ознакомит со всеми правилами нашей достаточно вместительной бани.  Именно у нас вы почувствуете истинное удовольствие от отдыха и обязательно вернетесь к нам еще и еще. 
+У нас вы сможете хорошенечко попариться и познать все прелести финской парной,  где вы попаритесь в свое удовольствие.  Придя к нам,  вы сможете заказать в парную дополнительные процедуры и услуги.  А именно воспользоваться услугами банщика,  заказать в парную дополнительно услугу ароматерапия и почувствовать как очищается ваше тело и улучшается самочувствие.  А если вы совместите услуги банщика и ароматерапию,  то получите для организма двойное лечебное действие.  Так же у нас вы сможете заказать массаж вениками,  это ободрит ваш дух и сделает вашу кожу эластичной и упругой. 
+Так же после парной вы сможете окунуться в купель с холодной водой или же отдохнуть в установленной джакузи,  где вы сможете насладиться как гидромассажем так и аэромассажем.  Это доставит вам массу приятных впечатлений и поднимет ваше настроение.  Кроме того водные процедуры улучшают самочувствие и успокаивают нервную систему. 
+Для вашего отдыха у нас открыты две комнаты отдыха,  где вы сможете развлечься по полной программе и посидеть со своими близкими друзьями,  а мы,  для хорошего отдыха,  предлогаем вам воспользоваться нашими услугами и заказать у нас наивкуснейшие блюда русской кухни и разливное пиво.  Вместимость помещения до 6 человек,  поэтому небольшой компании у нас будет комфортно и удобно.  Для вас есть спутниковое телевидение,  которое предоставляет множество каналов,  так же  будет открыт  русский бильярд,  игра в который вас развлечет,  и кальян,  который вы сможете у нас заказать и раскурить любимый ваш аромат.  Кроме всего перечисленного для вас мы предлагаем стриптиз шоу,  которое заворожит вас своим великолепием,  и оставит неизгладимое впечатление. 
+Так же мы предлагаем вам аудио- и видеоаппаратуру,  воспользовавшись которой вы сможете хорошенечко развлечься и устроить себе хорошую вечеринку. 
+Ну а для любителей спеть для друзей,  или же просто для души,  предлагаем воспользоваться новейшей системой караоке и исполнить свою любимую композицию. 
+У нас получится самый лучший отдых,  который останется надолго в ваших сердцах,  и вы будете всем полностью довольны. 
+Мы ждем вас! 
+За сутки: 10
+За последние 30 дней: 27
+Всего: 5553
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: финская парнаяКухня: русскаяУслуги: банщик, ароматерапия, кальянСервис: бильярд, джакузи, спутниковое тв, караоке
+</t>
+  </si>
+  <si>
+    <t> Цены
+за 1 час - от 800 до 1000 рублей.</t>
+  </si>
+  <si>
+    <t>"Русалочка" Оздоровительный центр</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Русалочка-Оздоровительный-центр/</t>
+  </si>
+  <si>
+    <t>Екатеринбург, Ленина, 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание бани
+ Приглашаем вас в наш оздоровительный комплекс «Русалочка»,  который готов предоставить вам самый лучший отдых.  В нашем комплексе для вас предлагаются два вида парных,  а именно русская парная и финская.  Каждая из них хороша по своему и каждая готова удивить вас своими целебными свойствами.  Именно у нас вы почувствуете себя в полном комфорте и уютных условиях.  Мы предлагаем отличный отдых как для семьи,  так и для небольшой веселой компании.  Вместимость нашей комнаты отдыха 8 человек.  Поэтому всем хватит места. 
+Перед тем как отправиться в парную самое время выбрать хороший веник,  выбор которых у нас обширен.  Ведь чтобы почувствовать весь жар в бане и хорошенечко прогреть и распарить свое тело без веника не обойтись.  Вам не придется закупать его за ранее,  у нас доступные цены и отличный выбор,  поэтому за вениками приезжайте к нам.  Так же вы сможете заказать себе дополнительную услугу в виде ароматерапии,  мы предоставим вам множество ароматов для парных,  оздоровительное действие которых разнообразно. 
+После того как вы прочувствуете все полезные свойства парной на своем теле мы предлагаем вам окунутся в бассейн,  который у нас появился совсем недавно.  Он оснащен системой фильтрации которая очищает бассейн после каждого клиента,  вы сможете насладиться водой комфортной температуры и как следует расслабиться. 
+После приятных банных процедур комната отдыха распахнет перед вами свои двери,  вы сможете расположиться на удобном мягком диване и просто отдохнуть,  забыв обо всех проблемах и городской суете.  А после расположившись за достаточно вместительным столом вы сможете заказать у нас блюда традиционной русской кухни,  а для поднятия аппетита посмотреть барную карту нашего бара и выбрать вино которое вам наиболее всего нравиться.  А в виде дополнительного развлечения предлагаем вам посетить нашу кальянную,  где вы сможете полностью расслабившись собраться в кругу друзей и раскурить любимый вкус табака.  Поверьте,  мы позаботимся в свою очередь о том,  чтобы ваше застолье было веселым и беззаботным. 
+В качестве дополнительных развлечений мы предлагаем вам заказать у нас стрип-шоу,  это развлечет гостей и добавит дополнительно веселья в ваш вечер.  Перед вами будут выступать настоящие профессионалы своего дела,  и мы просто уверенны что вы останетесь довольны таким шоу. 
+Так же мы предлагаем воспользоваться бесплатным Wi-Fi;отдохнуть за просмотром кабельных каналов,  где вы сможете выбрать наиболее интересную вам передачу; просто послушать музыку или же устроить шумную дискотеку; либо же спеть в караоке.  А для тех кто ведет здоровый образ жизни готовы предложить посетить наши тренажеры. 
+В нашем оздоровительном комплексе «Русалочка» каждый найдет себе развлечение на свой вкус.  Мы ждем вас с нетерпением. 
+За сутки: 9
+За последние 30 дней: 30
+Всего: 5806
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: русская баняКухня: русскаяУслуги: веники, кальянСервис: бассейн, бильярд, караоке
+</t>
+  </si>
+  <si>
+    <t> Цены
+с 09;00 до 16:00 - 600руб/час
+с 16;00 до 09;00 - 800 руб/час
+Свыше 6 чел; 100 руб/час за последующего.</t>
+  </si>
+  <si>
+    <t>Сауна "Золотая рыбка"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Сауна-Золотая-рыбка/</t>
+  </si>
+  <si>
+    <t>улица Титова, 27а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+Для тех кто является настоящим поклонником хорошей парной работает сауна «Золотая рыбка».  Наша сауна отличается от других идеальной чистотой,  за которой очень тщательно следит наш персонал,  и красивым дизайном.  Плюсом ко всему у нас для вас весьма приемлемые цены,  которые весьма порадуют вас,  и это абсолютно никак не влияет на качество обслуживания.  Именно у нас вас встретит весьма приветливый персонал,  который подробно объяснит обо всех предоставляемых услугах,  и проводит до зала который вы у нас сняли,  а работают в нашей сауне два зала,  которые весьма вместительные и комфортабельные.  В каждом из них вы сможете хорошенько отдохнуть и расслабиться. 
+Первый зал способен разместить с комфортом компанию из восьми человек,  здесь вы сможете как просто отдохнуть в тишине и спокойствие,  так и как следует повеселиться,  так же этот зал просто идеально подходит для празднования торжеств и дней рождений.  Здесь для вас работает финская сауна.  В которой вы с друзьями сможете попариться и получить небывалый заряд энергии.  А после самое время для вас будет окунуться в бассейн,  размером 3х4,  который обладает функцией подогрева,  и насладиться этой прекрасной водной процедурой,  вы не только охладите свое тело,  но и получите небывалый заряд энергии.  После вы сможете отдохнуть и позабыть о городской суете в комнате отдыха,  которая в этом зале одна,  или же разместиться со своими друзьями в гостином зале,  где можно провести приятный вечер за дружеской беседой.  Стоит заметить и то,  что в нашей сауне вы сможете воспользоваться мангалом,  где у вас получится наивкуснейший шашлык,  и не только,  любое блюдо на нашем мангале получиться просто невероятно вкусным. 
+Ну а в качестве развлечений предлагаем вам сыграть в бильярд,  и завлечь этой прекрасной игрой не только мужчин,  но и женщин,  так как в наше время этой игрой увлекается и прекрасная половина человечества.  Так же для вас здесь есть новейшая аудио- и видео- техника,  караоке,  телевизор подключенный к спутниковому тв,  домашний кинотеатр. 
+Второй зал так же с большим комфортом вместит компанию из восьми человек,  и это еще далеко не предел.  Здесь для вас работает финская сауна,  в которой вы сможете попариться с друзьями хорошими банными вениками,  и полностью насладиться всеми оздоровительными действиями этой парной,  так же есть бассейн размером 2х2,  в котором самое удовольствие охладиться после жаркой парной.  А после вы сможете посетить комнаты отдыха,  которых в этом зале две,  и расположившись на комфортабельной кровати позабыть о городской суете,  или же сразу же устроить с друзьями шумную вечеринку,  будь то день рождение,  или же какой-нибудь другой повод.  Здесь для вас так же предоставляется мангал,  на котором самое удовольствие самому пожарить вкусный шашлык.  А в качестве развлечения есть телевизор со спутниковым тв,  караоке,  бильярд,  новейшая аудио- и видео- аппаратура. 
+Придя к нам вы получите много позитивных эмоций,  сможете хорошенько отдохнуть и вдохнуть глоток спокойствия.  
+За сутки: 10
+За последние 30 дней: 36
+Всего: 7173
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: финская парнаяКухня: мангалСервис: бассейн, бильярд, караоке
+</t>
+  </si>
+  <si>
+    <t> Цены
+Первый зал:
+пн-чт до/после 17-00 - 600 руб/час;
+пт-вс круглосуточно - 1000 руб/час.
+Актуальные цены уточняйте по телефону.
+Свыше 6 чел:	100 руб/час за последующего.
+Второй зал:
+пн-чт до/после 17-00 - 600 руб/час;
+пт-вс круглосуточно - 1000 руб/час.
+Актуальные цены уточняйте по телефону.
+Свыше 6 чел:	100 руб/час за последующего.
+ </t>
+  </si>
+  <si>
+    <t>Оздоровительный центр "Замок"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Оздоровительный-центр-Замок/</t>
+  </si>
+  <si>
+    <t>Агрономическая, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+Вас приглашает к себе в гости для отличного банного отдыха,  оздоровительный центр «Замок».  У нас вы сможете отдохнуть в комфортной обстановке и попариться в хорошей русской баньке или же в финской либо же в турецкой парной (хамам).  Придя к нам вас сразу же заворожит приятная обстановка и красивый дизайн,  который присутствует в каждом помещение. 
+У нас вас встретит дружелюбный персонал,  который ответит с большим удовольствием на все ваши вопросы и проводит к месту вашего отдыха,  администратор нашего центра расскажет вам о всех возможностях отдыха у нас и ознакомит вас со всеми нашими услугами. 
+В нашем оздоровительном центре вы сможете снять один из залов,  которые отличаются по вместительности и дизайну помещения.  Это большой зал «Рыцарский зал»,  и малый зал «Восточный зал». 
+Большой зал «Рыцарский зал» рассчитан на 6 человек,  но если вы планируете большее количество человек,  то это возможно,  но только за дополнительную оплату.  Здесь вас ждет красивый дизайн и уютное помещение,  где вы сможете разместиться с особым комфортом и отдохнуть по полной программе.  Попариться вы здесь сможете в финской и в русской парной,  где вы испытаете сверх блаженства и хорошенько распарите свое тело,  дав при этом своему организму мощный оздоровительный эффект.  Для вас мы предлагаем приобрести у нас веники и воспользоваться услугами банщика,  который покажет вам настоящий класс в искусстве парения и банного отдыха.  Вы можете быть уверенны в том,  что после этой процедуры вы хорошенько взбодритесь,  и останетесь всем полностью довольны.  После,  самое время окунуться в бассейн охладить свое тело после сильного жара.  Вы сможете не только насладиться процедурой принятия водных процедур,  но и как следует расслабиться.  А для конечного результата вам предлагается разместиться в массажном кресле и как следует промассировать свое тело. 
+После всех оздоровительных процедур самое время как следует подкрепиться,  и тут мы вам готовы предложить свои услуги.  Расположившись в уютной гостиной за большим столом,  вы сможете заказать блюда русской кухни,  которые приготовлены настоящими специалистами своего дела.  Так же у нас вы сможете заказать свежее разливное пиво,  и расслабиться за дружеской беседой.  А для того чтобы вам не было скучно есть большой плазменный телевизор,  который транслирует спутниковые каналы,  здесь вы сможете найти как каналы для взрослых,  так каналы и для детей.  Так же есть караоке с двумя микрофонами. 
+Малый зал «Восточный зал» рассчитан на 4-х человек,  здесь так же может разместиться компания большей численностью,  но за это так же присутствует дополнительная оплата.  Здесь вас ждет турецкая парная (хамам),  где вы сможете насладиться не только процедурой парения,  но и ароматерапией.  Эта парная отлично подходит для тех кто не может переносить сильный жар,  потому что в этой парной невысокая температура,  но при этом повышенная влажность,  поэтому для тех кто не может переносить русскую баню,  это идеальный вариант.  Здесь вы так же сможете воспользоваться услугами профессионального банщика,  а после окунуться в просторный бассейн который оборудован гейзером и системой противотока.  А после вас ждет комфортная гостиная где вы сможете расслабиться и заказать у нас блюда русской кухни и конечно же разливное пиво.  Так же здесь для вас работает большой плазменный телевизор со спутниковыми каналами и караоке. 
+Мы ждем вас в любое время суток,  и мы всегда рады видеть вас у нас! 
+За сутки: 10
+За последние 30 дней: 31
+Всего: 6769
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: турецкая парная(хамам), русская баняКухня: русская, разливное пивоУслуги: веники, банщик, кальянСервис: бассейн, спутниковое тв, караоке
+</t>
+  </si>
+  <si>
+    <t>Цены
+Большой зал (Рыцарский зал):
+с 06:00 – 18:00 – 800 руб/час (6 человек, свыше 6-и – 150 руб/человек)
+с 18:00 – 06:00 – 1000 руб/час (6 человек, свыше 6-и – 150 руб/человек)
+Малый зал (Восточный зал):
+с 06:00 – 18:00 – 600 руб/час (4 чел.,  свыше 4-х – 120 руб/человек)
+с 18:00 – 06:00 – 800 руб/час (4 чел., свыше 4-х – 120 руб/человек)
+Скидки 
+1. При аренде зала на сутки, скидка 50%.
+2. В Ваш день рожденья, для Вас действует скидка 10% (при предъявлении паспорта).
+Постоянным клиентам скидка 10 %.
+ </t>
+  </si>
+  <si>
+    <t>турецкая парная(хамам), русская баня</t>
+  </si>
+  <si>
+    <t>Сауна "Белая ночь"</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Сауна-Белая-ночь/</t>
+  </si>
+  <si>
+    <t>Машиностроителей, 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание сауны
+ Вас рада приветствовать у себя в гостях сауна «Белая ночь».  Именно у нас вы сможете как следует расслабиться,  забыть о городской суете,  и просто насладиться приятным банным отдыхом,  который так полезен для нашего с вами здоровья.  У нас вас ждет все что нужно для того чтобы хорошо попариться,  как следует повеселиться,  или же просто провести спокойный вечер в кругу семьи.  Придя к нам вас встретит наш доброжелательный персонал,  который всегда приветлив и улыбчив,  и готов ответит на все ваши вопросы. 
+У нас вы сможете попариться как в финской парной так и русской баньке,  во всех двух вариантах вы сможете хорошенько распарить свое тело и почувствовать настоящий банный отдых.  Для того чтобы ваш отдых в парной был полноценным предлагаем вам приобрести у нас хороший банный веник,  ведь русская баня без веника это не баня,  и только парение с веником доставит вам истинное удовольствие.  Но веником пользуются именно в русской баньке,  в финской же парение происходит без веников,  потому что сам пар там сухой,  а температура достаточна высока.  От посещения парной кроме приятных ощущений вы получите хороший оздоровительный эффект,  очистите свой организм от шлаков,  очистите свои поры,  и сможете избавиться от множества недугов.  Хочется заметить и то,  что в нашей сауне вы сможете приобрести различные банные принадлежности. 
+После парных вас ждет бассейн в котором вода всегда чистая и прозрачная,  в том что наш бассейн всегда чист можете даже и не сомневаться,  ведь наш персонал всегда очень тщательно следит за его чистотой.  Здесь вы сможете поплавать,  охладить свое разгорячённое тело,  и просто насладиться водными услугами.  Ну а если вы хотите получить максимум приятных эмоций,  то для вас есть джакузи,  удобно устроившись в которой вы можете насладиться весьма приятным массажем.  Именно эта процедура поднимает вам настроение и даст заряд энергии на долгое время. 
+После вы сможете разместиться в комнате отдыха и отдохнуть после столь приятных и полезных для здоровья процедур.  Здесь вас ждет приятная и очень уютная обстановка,  в которой вы позабудете обо всех проблемах и окунетесь в атмосферу спокойствия и тишины.  А после присоединиться к своим друзьям и устроить веселье по полной программе.  Ну а для того чтобы ваше застолье было интересным и не давало вам скучать у нас для вас работает бар,  в котором вы сможете приобрести достаточно большое количество вин и напитков покрепче. 
+Для вашего развлечения у нас для вас есть специальная комната караоке,  где вы сможете спеть песню из любимого репертуара,  большой плазменный телевизор который подключен к спутниковому телевидению,  и новейшая аудиосистема,  с помощью которой вы сможете устроить для себя шумную и веселую вечеринку.  Так же мы для вас предоставляем кальян. 
+Мы всегда рады вам.  И ждем вас в любое удобное для вас время!
+За сутки: 10
+За последние 30 дней: 33
+Всего: 5659
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: финская парная, русская баняКухня: барУслуги: веники, кальянСервис: бассейн, джакузи, караоке
+</t>
+  </si>
+  <si>
+    <t> Цены
+с 10.00 до 17.00 - 600 рублей час (понедельник-четверг)
+с 17.00 до 10.00 - 900 рублей час (пятница-воскресенье)
+Пятница-Воскресенье и праздничные дни - 900 рублей час - КРУГЛОСУТОЧНО !!!
+( минимум 2 часа,  цена действительна до 6 человек)
+Последующий гость:   100 р/час - взрослый
+ВЕНИК Дубовый - 500 рублей
+ВЕНИК Бамбуковый - 500 рублей
+Запарка для бани на основе сбора целебных трав - 150 рублей
+эфирные масла - в ассортименте - 150 рублей
+ </t>
+  </si>
+  <si>
+    <t>финская парная, русская баня</t>
+  </si>
+  <si>
+    <t>Русская баня Теремок</t>
+  </si>
+  <si>
+    <t>http://xn--80acgfbsl1azdqr.xn--80abwt.xn--p1ai/баня/Русская-баня-Теремок/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вторчермет, Эскадронная 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Описание бани
+ Если вы ищите хороший банный отдых по приемлемым ценам,  то вам к нам,  в русскую баню «Теремок»,  которая способна вместить компанию до 15-ти человек.  Именно у нас вы найдете превосходный отдых в русской баньке,  насладить настоящим жаром,  и почувствовать аромат полезных для здоровья аромамасел.  У нас вас ждет весьма приветливый персонал,  уютная атмосфера нашего помещения,  где вы сможете разместиться с комфортом,  и полностью расслабиться,  в общем у нас вы найдете все то,  что так хотите получить от хорошей и настоящей баньки. 
+Наша русская банька готова встретить вас в своей парной и побаловать вас хорошим банным отдыхом,  в котором вы сможете как следует распарить свое тело и насладиться парением хорошим банным веником,  который вы сможете приобрести у нас.  Именно для наших клиентов мы предлагаем огромный выбор хороших веников из разнообразных видов.  Здесь с комфортом смогут разместиться 6 человек.  Именно в русской баньке вы сможете хорошенько распарить свое тело и полностью очистить свой организм.  Именно после русской баньки вы ощутите небывалую легкость в теле,  у вас появиться чувство полета,  которое вы никогда не сможете забыть.  А после вас ждет холодная купель,  в которую окунувшись вы дадите хороший закаливающий эффект.  Кроме того вы значительно повысите свой иммунитет.  Именно сочетание банных процедур баня-купель-баня значительно улучшит ваше здоровье,  и ободрит вас на долгое время.  Ну а если вы воспользуетесь услугой ароматерапия,  то вы удвоите полезные свойства парной.  Так же у нас для вас есть бассейн,  в который вы сможете поплавать и насладиться чистой и прозрачной водой. 
+После вам предлагается отдохнуть в комнате отдыха,  которых в нашей сауне одна,  здесь вас ждет комфортная кровать с мягким матрацем,  именно в этой комнате вы сможете полностью расслабиться,  ощутить спокойствие,  и удобно расположившись забыть обо всех проблемах.   Ваш отдых будет полноценным,  и вас никто не потревожит. 
+Ну а если вы настроены на веселье и хотите устроить шумную вечеринку,  то гостевая комната именно для вас.  Здесь вы сможете расположиться на комфортном и мягком диване,  и заказав у нас блюда русской кухни накрыть стол и насладиться общением со своими друзьями или же близкими людьми.  Кроме этого мы предоставляем для своих гостей мангал,  на котором вы сможете пожарить вкусный шашлык и поразить своих друзей своими кулинарными способностями. 
+А для того чтобы вам у нас не было скучно предлагаем вам сыграть партию в бильярд,  который может завлечь не только мужчин,  но и женщин,  ведь в наше время эта игра стала интересна многим.  Так же для вас есть телевизор со спутниковыми каналами,  аудио- и видео- система,  и караоке,  в которое вы сможете спеть любимую песню. 
+У нас будет интересно и весело всем,  придя к нам вы найдете отличное обслуживание,  минимальные цены,  и очень уютное и чистое помещение.  Мы работаем для вас круглосуточно,  и рады вам в любое время суток. 
+За сутки: 12
+За последние 30 дней: 37
+Всего: 7975
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Вид парной: русская баняКухня: русская, мангалУслуги: веники, ароматерапияСервис: бильярд, холодная купель
+</t>
+  </si>
+  <si>
+    <t> Цены
+Понедельника по четверг -1000 руб./час.
+Пятница по воскресенье - 1000 руб./час.
+В дневное время действуют скидки.
+ </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +469,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +771,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output2.xlsx
+++ b/output2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,1235 +424,1013 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Оздоровительный комплекс "Термы"</t>
+          <t>Сауна "Парфенон"</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Оздоровительный-комплекс-Термы/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Парфенон/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>улица, Ленина, 66а</t>
+          <t xml:space="preserve"> Березовая улица, 9</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание сауны «Термы» в Челябинске
-В сауне «Термы» в Челябинске вы сможете очень хорошо провести время,  наслаждаясь атмосферой спокойствия и только положительными эмоциями.  В любое время года отдых здесь пройдет отлично.  «Термы» - это еще и СПА-развлечения для души и тела.  Вы всегда будете радоваться отдыхом и оздоровлением в сауне,  а также здесь есть услуги массажиста.  Для всех желающих – вертикальный турбозагар.  В такой сауне всегда будет вас ждать приятная обстановка,  очень часто именно здесь устраивают дни рождения и приятные посиделки с семьей,  вы можете здесь провести хороший корпоратив – и можно с уверенностью сказать,  что отдых понравится каждому гостю.  
-В сауне «Термы» вы можете выбрать пять номеров на выбор.  К примеру,  это русский номер.  Здесь вас,  конечно же,  ждет настоящая русская баня на дровах,  которую многие любят благодаря своим оздоровительным свойствам.  В банном помещении также находится бассейн,  кадушка для обливания – все аква-развлечения вы найдете именно здесь.  В русском номере вас также ждет большой бассейн,  в котором имеется система очистки,  а также есть подогрев.  И детям,  и взрослым там будет очень приятно плавать.  Особенно приятен важный этап в посещении бани – это закаливание и парение вениками.  Закаливаться в сауне всегда можно с помощью горячих и холодных температур.  Сначала всегда стоит проводить несколько сеансов в парном помещении,  между которым обязателен отдых – принятие душа,  а также ароматная чашка горячего чая.  После всех процессов парения вы всегда можете закалиться – только не нужно этот процесс делать долгим.  Достаточно всего несколько минут окунуться в ледяной купели или прохладном бассейне – для бодрости и здоровья.  Потом сразу нужно обтереться сухим полотенцем – и также выпить морса,  чая – для того,  чтобы усилить процесс парения.  
-Еще один номер – «Финский»,  в котором во главе стоит финская парная,  обитая осиной.  В ней имеются высокие температуры,  а также сухой воздух.  Финская парная пришла из Финляндии – финны любят париться с жесткими температурами,  а потом окунаться в ледяную воду.  Этот процесс будет очень приятен для всех людей: важно правильно всегда принимать банные процедуры в парной,  тогда она принесет вам только положительный эффект.  Красивые интерьеры в этом номере понравятся многим. 
-Турецкий номер с восточной парной – это настоящая релаксация души и тела.  В комфортных интерьерах парной вам будет очень приятно провести некоторое количество времени,  тут прогреванию тела способствует еще и влажный воздух.  Интерьеры турецкой парной отличаются красотой – вам будет очень приятно находиться в просторах этой замечательной парилки.  
-Римский номер – это изысканные апартаменты,  рассчитанные на 6-10 человек.  По центру в парной стоит большая джакузи с барельефами,  вся парная отличается шикарным видом и идеальной атмосферой для парения.  
-Атмосфера тайны ждет вас в средневековом номере,  который имеет шикарную отделку,  массивные предметы мебели - это тайна,  покрыта мраком.  
-В каждой комнате имеется гармоничная мебель,  стильные предметы интерьера,  сауна с электрической каменкой,  небольшой банкетный зал,  в котором можно устроить посиделки.  Здесь вам всегда предложат расслабляющие травяные чаи,  которые являются очень полезными и незаменимыми для нашего здоровья – особенно после сауны.  Вам всегда предложат разнообразное меню различных видов кухонь,  вкусные напитки и шикарное обслуживание.  Не забудьте попробовать массаж от профессионалов-массажистов комплекса!
-За сутки: 9
-За последние 30 дней: 31
-Всего: 6468
-</t>
+ Описание бани
+Оздоровительный комплекс «Парфенон» приглашает в гости большие компании друзей или небольшие семейные компании,  двух влюбленных,  чтобы насладиться приятным отдыхом,  способным хорошо восстановить силы.  Сауна располагается в Советском районе Омска – на улице Березовой,  дом 9.  Остановка – это Областная больница.  Расположение сауны идеальное относительно многих важных точек в городе.  В самом центре города есть банный рай,  который способен принести всем много удовольствия.  Сауна сделана специально для тех людей,  которые ценят банный отдых,  любят не только попариться,  но и с наслаждением провести время в обстановке расслабления и умиротворения.   Всего несколько часов в банных помещениях – и вы хорошо расслабитесь,  взбодритесь,  и будете снова готовы вступать в бой – совершать рабочие подвиги – вы же были в «Парфеноне»! Для вас подготовили в оздоровительном центре три типа номеров с оригинальным названием,  в соответствие с которыми они и оформлены.  Получите наслаждение в номере «Греция»,  «Русский» или «Бордель». 
+«Русский» номер специально создан для тех,  кто ценит и обожает национальные колоритные черты отдыха,  умеет проводить время в обстановке релаксации,  любит хорошо попариться – так,  как просит русская душа,  окунуться в ледяную купель.  Здесь для вас сделана самая экстремальная парная с высокими температурами – это финская парилка.  Кроме того,  на водной территории вас ждет кедровая бочка,  имеющая оздоровительный эффект – ее наполняют своеобразными настоями трав и отварами,  тело погружается внутрь,  а голова остается наверху.  Определенное количество времени человек сидит там – минут 10 – и выходит оттуда с увлажненной кожей,  с открытыми порами.  Такая целебная ванная полезна и для внутренних органов.  В финской парной вы можете попариться вениками – популярностью пользуются классические березовые.  Отдыхайте в этом номере с размахом – с шумными посиделками,  с обилием блюд на столе.  Этот номер примет компанию из 8-12 человек. 
+Номер второй – это «Греция»: греки знают толк в идеальном банном отдыхе,  с красивыми волнующими интерьерами.  Здесь банкетный зал отличается роскошью и помпезностью,  свойственной богатому греческому наследию,  в котором все было величественно и с размахом,  шикарностью и помпезностью.  Зал в данном номере оформлен именно так – очень богато и красиво.  Продуманность до мелочей – это именно об номере «Греция».  Здесь финская парная,  джакузи,  отличный отдых в комнатах со всеми благами цивилизации.  
+Третий номер – «Бордель»,  это настоящий рай для тех ,  кому не хватает в жизни страсти,  и кто желает приобрести хорошее настроение,  порелаксировать,  сменить обстановку,  это самый экстравагантный и необычный из номеров в сауне.  Практически все здесь имеет красный цвет – мебель,  стены – это очень необычно.  Здесь вас ждет финская парная,  интересная большая СПА-ванна,  это идеальное место для расслабления компаний из четырех человек.  Все в этом номере пропитано страстью,  желанием и призывом к действию.  Хотите новых ощущений – приходите сюда со своей второй половинкой. 
+Во все три номера сауны при желании вам принесут вкусную еду и напитки – блюда русской,  европейской кухни,  всегда угостят шашлыком на мангале,  а также предложат и другие услуги – массаж профессиональный,  массажное кресло,  предоставление и продажа банных принадлежностей,  вся ТВ- и аудиотехника в каждом номере.  Проведите время с максимальной пользой для себя и своего самочувствия – отведайте неожиданный и глубоко волнующий все ваши системы банный отдых! Ждем в гости в сауне «Парфенон»!
+За сутки: 10
+За последние 30 дней: 34
+Всего: 8062
+</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>холодная купель, джакузи</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Цены и акции
-1 час в подарок, при заказе сауны на 4 и более часов
-1 час в подарок имениннику, при заказе сауны на 3 и более 
-Сауна «Термы» именинникам дарит цветы.
-Стоимость 1 часа - от 450 до 1100 руб (подробности по телефону)</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>джакузи</t>
+Номер "Русский"
+пн.-чт.:6.00-18.00 — 700 руб/час.;18.00-6.00 — 800 руб/час.пт.-вс.:6.00-18.00 — 900руб/час. 18.00-6.00 — 1100руб/час
+Номер "Греция"
+пн.-чт.: 6.00-18.00 — 800руб/час. 18.00-6.00 — 1000руб/час. пт.-вс.: 6.00-18.00 — 1200руб/час. 18.00-6.00 — 1400руб/час.
+Номер "Бордель"
+пн.-чт.: 6.00-18.00 — 400руб/час. 18.00-6.00 — 500руб/час. пт.-вс.:6.00-18.00 — 550руб/час. 18.00-6.00 — 600руб/час.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>от 800 до 1 100 руб./час</t>
+          <t>от 400 до 1 400 руб./час</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>+7 (351) 265 95 89</t>
+          <t>+7 (381) 224 38 04</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Баня "Берендеи"</t>
+          <t>Сауна "Дача-удача"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня-Берендеи/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Дача-удача/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Челябинск, Акакуль,26</t>
+          <t xml:space="preserve"> 6-я Станционная улица, 100</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание банного комплекса
-Банный комплекс «Берендеи» -Берендеев лес - это большие уютные территории,  на которых располагается много места для вашего отдыха.  Если хочется устроить для себя по-настоящему релаксирующий отдых,  способный дать позабыть о многочисленных проблемах,  то нужно выделить хотя бы один день,  чтобы приехать в баню «Берендеи».  Она находится в Челябинской области,  в 20 км от города Кыштым,  это северный берег озера Акакуль.  Здесь по-настоящему живописная местность,  способная внести умиротворение в ваши суетливые будни.  На территории бани располагается большой деревянный особняк,  в котором собрано много развлечений,  одно из которых – это качественная банька на дровах,  японская бочка,  красивый каминный зал. 
-Внутренняя отделка дома радует большим количеством дерева и деревянной мебели.  Большой двухэтажный дом также доступен для аренды большой компанией.  Здесь можно провести отличные дни рождения,  запоминающиеся праздники и юбилеи,  корпоративы или мальчишники.  Первое,  что вы видите,  заходя в дом – это бревенчатые стены,  банкетный зал и гостиную с красивой мебелью,  оригинальными аксессуарами на стенах.  Вам точно понравятся оригинальные светильники и множество комфортных зон для отдыха,  на которых можно с удобством устроиться и даже уединиться.  Здесь отлично пройдут выходные с друзьями или семьей.  Окружают баню лес и большие просторы,  можно полностью окунуться в чистейший воздух и прочувствовать желанную и манящую атмосферу русской деревни.  В этой местности можно полностью забыть о городском шуме и большом количестве машин,  а также отложить дела – и просто отдохнуть на природе. 
-Для всех гостей – взрослых и даже самых маленьких на территории есть все для активного отдыха.  К примеру,  волейбол или бадминтон,  вам предложат также все виды мячей.  Вы можете взять в прокат велосипед и прокатиться по лесу.  Дети могут развлекаться под присмотром в детском городке.  Так как рядом река,  то возможно арендовать и лодку с катамараном.  Зимой гостей ждет каток,  зимние виды отдыха.  Проживать на базе отдыха можно в нескольких комфортных домах.  Первый вариант – о котором говорилось выше – это двухэтажный дом,  называемый «Зеленый терем» - он находится всего в 100 метров от озера.  На втором этаже дома имеется спальня на четверых,  а также еще одна комната отдыха есть внизу,  где тоже есть кровать.  Первый этаж дома – это зал с камином,  здесь можно устраивать посиделки за праздничным столом,  так как все приготовлено именно для этого.  В кухонной зоне вы можете готовить для себя еду и закуски,  готовить их на стол.  Рядом с коттеджем – красивая зона с мангалом и чудесна открытая веранда.  Этот коттедж рассчитан на 8 человек. 
-Еще один коттедж – на 2 персоны с возможностью расположения еще двух людей.  Здесь вас ждет большая аква-зона,  аромакомната,  бассейн для плавания.  На уличной территории также есть зона отдыха с мангалом и беседка. 
-Здесь вас ждет настоящая русская баня,  которую больше всего любят.  Вам обязательно предложат ароматные веники,  а банщик запарит их профессионально и проведет процесс парения.  Настоящая деревенская банька в комплексе отдыха «Берендеи» сделает ваш отдых очень приятным и здоровым.  После парной можно и искупаться в бассейне или в озере,  а также обтереться зимой снегом.  Такие процедуры охлаждения тела должны быть кратковременными,  иначе есть вероятность заболеть.  Бассейн здесь украшен очень красивой яркой подсветкой – он понравится в особенности детям. 
-За сутки: 7
-За последние 30 дней: 28
-Всего: 6187
-</t>
-        </is>
-      </c>
+ Описание бани
+Сауна «Дача-удача» - это целый комплекс,  где можно хорошо провести время вдали от суеты большого города.  Сауна располагается на улице 6-ой Станционной,  дом 100 – здесь закрытая охраняемая территория,  всегда тихо и хорошо,  можно позабыть о шумном городе и провести немного времени в тишине и релаксации.  Отдыхать правильно – это отдыхать в бане,  только здесь гарантируется полноценное расслабление тела,  а также отдых души,  бодрость,  ясность мыслей.  «Дача-удача» - это очень домашнее место отдыха,  в котором можно чувствовать себя как на собственной даче,  с русской банькой и впечатляющими условиями для релаксации.  Попариться веником,  погреться на территории парной,  поплавать в бассейне – эти расслабляющие процедуры действуют умиротворяюще,  после правильного парения чувствуется,  как тело расслабилось и появилась бодрость.  Русская баня на дровах – это отличное средство,  гарантирующее обновление всех процессов,  приобретение хорошего настроения.  В русской парилке всегда есть печь-каменка,  на которой лежат горячие камни,  дарящие свой целебный эффект при нагревании.  В русской парилке всегда влажный воздух и горячий воздух,  а банщик сможет сделать температуру в парной такой,  что пар будет легким и приятным,  в нем будут очень приятно находиться,  он не станет обжигать тело. 
+Так как «Дача-удача» является домашней сауной,  то и все помещения в ней оформлены соответствующим образом – так,  чтобы вы себя чувствовали как дома.  Если вы хотите насладиться дачным отдыхом с уличными посиделками и жаркой шашлыка,  то приезжайте в просторы «Дачи-удачи»,  которая гарантирует вам именно такой отдых,  который бывает в отличной дачке,  только здесь есть люди,  которые следят за качественным течением вашего отдыха в сауне,  и гарантируют вам помощь в любом вопросе,   а также смогут обеспечить вас всеми необходимыми банными принадлежностями.  Также прямо здесь вы сможете купить ароматные и свежие веники,  которыми попариться в сауне – одно удовольствие.  Около русской баньки есть большой бассейн,  в котором можно поплавать немного после хорошего парения.  Бассейн оснащен системой подогрева воды,  поэтому в любой момент вы сможете настроить температурный баланс – к примеру,  для детей,  чтобы им было не холодно плавать в просторах голубых вод.  После хорошего парения всегда хочется насладиться бодростью от обливаний водой – вы сможете вылить на себя кадушку холодной воды,  и сразу же ощутите себя бодрыми и здоровыми на 100%. 
+На территории «Дачи-удачи» находится четыре комнаты отдыха разной площади,  в каждой много зон для комфортного отдыха,  восстанавливающего силы – проведите этот день с пользой для себя и своего самочувствия.  В просторах сауны это можно сделать отлично.  В этой отличной сауне сможет разместиться компания из шести человек.  В интерьере много деревянной мебели,  отличающейся удобством и экологичностью.  Множество кроватей и диванов,  столов,  различной техники сделают возможным приятный отдых,  оснащенный всем необходимым.  В сауне также есть русский бильярд в отдельно зале – для всех любителей этой волшебной игры все сделано в лучшем виде.  Приезжайте в просторы сауны «Дача-удача» провести весело время со своими любимыми друзьями и семьей – тут можно отлично провести различные праздники,  насладиться свежим чистым воздухом на уличной территории.  Желаем вам приятного расслабляющего отдыха,  который принесет много радости!
+В сауне предлагаются все веники,  а также различные банные принадлежности,  способные удовлетворить запросы в лучшем виде. 
+За сутки: 15
+За последние 30 дней: 34
+Всего: 7552
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены и услуги
-Русская баня в комплексе "Берендеи" - будни до 16:00 скидка 30%.
-Будни после 16:00, выходные - 3000 руб/час. Минимальный сеанс - 2 часа, 4-ый час бесплатно!
-"Дворец царя Берендея" коттедж с русской баней:будни - 23000/сутки, выходные - 25000 руб/сутки
-"Зеленый терем" на 8 человек;: будни 8000 руб/сутки, выходные 10000 руб/сутки
-2-х местные летние домики на двоих - будни - 1500 руб/сутки, выходные 3000 руб/сутки
+          <t xml:space="preserve">Цены и акции
+Будни - 500 руб/час
+Выходные - 700 руб/час
  </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>бассейн, кондиционер, джакузи, спутниковое тв</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>от 2 000 до 3 000 руб./час</t>
+          <t>от 500 до 700 руб./час</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>+7 (951) 472 62 62</t>
+          <t>+7 (908) 796 09 50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Сауна "Банный Двор"</t>
+          <t>Сауна "Экзотика жары"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Банный-Двор/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Экзотика-жары/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Дзержинского, 93-Б</t>
+          <t>2-я Совхозная, 21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание оздоровительного центра «Банный двор»
-Если вы хотите провести время в приятной расслабляющей обстановке,  то обязательно приезжайте в оздоровительный центр «Банный двор»,  который находится при отеле «Аврора».  Здесь вы сможете отлично отдохнуть от суеты,  провести время в расслаблении и хорошем настроении,  полакомиться вкусными блюдами в ресторане,  приобрести веники и  хорошенько попариться в настоящей бане на дровах.  Приезжайте – и вы сами увидите все! Отель располагается на улице Дзержинского ,  93б.  настоящим ценителям пара здесь будет настоящее раздолье,  вы можете выбрать один из трех номеров сауны,  и насладиться самым настоящим гармоничным отдыхом в расслабляющей обстановке.  
-Первый зал комплекса – это «Старая Прага».  Интерьер в этом зале создан спокойный и очень лаконичный,  добротный и стильный – именно такой,  как сама старая Прага.  Здесь вас ждет очень сдержанная цветовая гамма,  выполненная в коричневых тонах,  деревянные предметы мебели,  бежево-коричневая отделка стен.  Любителя спокойствия и комфорта здесь будет очень уютно отдыхать.  В гостиной есть много мест для отдыха,  а по центру стоит большой бильярдный стол,  за которым друзья смогут сыграть партию или несколько партий в эту игру.  Сауна и аква-зона здесь также поддержаны в лаконичном интерьере,  стены выполнены из бежевой мозаики,  лежаки из коричневого бамбука.  Здесь вас ждет вместительная финская парная,  бассейн 3х6 метров с гейзером также в отделке мозаикой,  комфортная джакузи,  которая подарит вам расслабляющий массаж гидромассажными струями воды.  Каждая деталь выполнена со вкусом и с четкой дизайнерской задумкой.  Вам будет очень комфортно здесь провести время или отметить любое событие.  Тут же в номере есть комната отдыха для уставших гостей,  в ней установлена круглая кровать с романтичным балдахином.  Этот зал вместит 20 человек. 
-Второй зал – «Итальянская Ривьера»,  здесь воссоздана атмосфера знаменитого итальянского побережья,  которая предполагает веселый непринужденный отдых в кругу самых любимых и близких людей.  Здесь разместиться с успехом компания из 10 человек.  В интерьере много мягкой мебели,  дерева в красивом исполнении,  также в гостиной стоит большой бильярдный стол,  большой стол для дружеский посиделок.  Тут есть большой бассейн,  комфортно оборудованная финская парилка,  а также расслабляющая джакузи.  Ваш отдых пройдет незабываемо в итальянской Ривьере!
-Третий зал – Рыцарский,  тут все оформлено в соответствии с рыцарской эпохой.  Мебель из грубого темного дерева,  фигуры рыцарей,  большие территории,  на которых можно с размахом разгуляться и устроить для себя шикарный праздник,  веселый и неповторимый.  В интерьере использовано много камня и металла – всем,  кому близка тема истории и рыцарей,  будет комфортно здесь,  а также можно с успехом устраивать запоминающиеся вечеринки тематического характера.  Этот за рассчитан на 10 человек,  в нем есть бассейн,  турецкая парная,  большая гидромассажная ванна,  в которой поместится сразу 6 человек.  Комната отдыха отличается оригинальной планировкой и интерьером в духе рыцарей.  
-Вы сможете отлично развлечься в сауне «Банный двор»: в интерьерах этого комплекса можно с успехом позабыть о проблемах и тревогах,  которые связаны с рабочими буднями и суетой большого города.  Оставляйте свои мобильные телефоны выключенными – и вперед,  наслаждаться желанными часами спокойного и интересного отдыха! Отель «Аврора» и сауна «Банный двор» ждут вас у себя в гостях всегда!
-За сутки: 7
-За последние 30 дней: 34
-Всего: 9970
-</t>
+Описание сауны
+ Мы приглашаем вас посетить сауну «Экзотика жары»,  для которой клиенты это самое дорогое,  дороже просто больше ничего нет,  и ради вас мы не поднимаем свои цены.  Придя к нам вы отдохнете по очень доступным ценам,  забудете обо всех проблемах,  и встретите настоящую заботу о себе прямо с порога.  Наш очень приветливый персонал готов решить любую вашу проблему и ответить на все интересующие вас вопросы.  Кроме этого вас будут очень быстро обслуживать и внимательно относиться к любому вашему пожеланию. 
+У нас для вас,  на выбор,  есть несколько тематических номеров,  каждый хорош по своему,  и попав в один из них вы почувствуете себя словно в настоящей сказке.  Для вас предлагаются номера: «Лукоморье»,  «Лимпопо»,  «Таежный роман»,  «Венеция»,  «Греция»,  «Египет».  Каждый из них способен вместить разное количество посетителей.  Какой-то номер хорош для большой компании,  а какой-то для романтических встреч.  И для того чтобы вам было легче разобраться хочется о каждом рассказать вкратце. 
+Номер «Лукоморье»- максимальное количество посетителей составляет до 8-ми человек,  здесь вы сразу же окунаетесь в атмосферу Пушкинских времен,  само собой вспоминается знаменитое стихотворение,  которое мы учили по школьной программе.  В этой приятной атмосфере хочется отдохнуть от городской суеты и полностью расслабиться. 
+Здесь для вашего отдыха вас ждет прекрасная финская парная,  для посещения которой вам предлагается приобрести у нас веник для парной; большой вместительный бассейн,  в который вы сможете окунуться после отличной пропарки; для вас предоставляется банные принадлежности,  поэтому если вы вдруг что-либо забыли с собой взять не переживайте,  у нас вы сможете приобрести все необходимое; для наших посетителей открыт тренажерный зал; доступна аудио- и видео- аппаратура; есть кальян. 
+Номер «Лимпопо» способен вместить в себя компанию из 6-ти человек.  Здесь вас так же ждет финская парная; большой выбор веников; большой бассейн; душ; обеденная зона; банкетный зал; для вашего развлечения есть музыкальный центр; аудио- и видео- аппаратура; тренажёрный зал; кальян. 
+Номер «Таежный роман» - вмещает в себя компанию до 4-ёх человек.  Для вас здесь работает финская парная; широкий выбор веников; вместительный бассейн; душ; банные принадлежности; аудио- и видео техника; кальян; обеденная зона. 
+Номер «Венеция» - вместимость до 3-ёх человек.  Для вас здесь финская парная; выбор веников; бассейн; банные принадлежности; душ; караоке; кальян; аудио- и видео- аппаратура. 
+Номер «Греция» - вместимость до 8-ми человек.  Для вас здесь доступны финская парная,  бассейн,  большой выбор веников; душ; мягкая обеденная зона; кальян; караоке; тренажерный зал; аудиоаппаратура и видеоаппаратура. 
+Номер «Египет» - вместимость до 8-ми человек.  Работает финская парная,  есть бассейн; душ; обеденная зона; кальян; тренажерный зал; аудио- и видео- техника. 
+В каждом зале для вас есть комната отдыха,  в которой вы расположитесь с комфортом на мягкой и уютной кровати,  и сможете как следует отдохнуть. 
+Так же в наше заведение можно приносить свои продукты и разнообразные напитки.  Или же вы сможете заказать у нас разнообразные блюда русской кухни.  Так же для вас у нас работает бар,  выбор вин в котором очень разнообразен. 
+Мы всегда рады как новым,  так и постоянным своим клиентам! И ждем вас в любое время!
+За сутки: 12
+За последние 30 дней: 49
+Всего: 9954
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wi-Fi, караоке, спутниковое тв, джакузи, охраняемая парковка, бильярд</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены и акции
-"Старая Прага" на 20 человек: Стоимость в будни С 9:00 до 15:00 — 1200 руб./час; С 15:00 до 9:00 — 1500 руб./час
-Стоимость в выходные и праздники С 9:00 до 12:00 — 1200 руб./час; С 12:00 до 9:00 — 1500 руб./час
-"Итальянская Ривьера" на 10 человек: Стоимость в будни С 9:00 до 15:00 — 1200 руб./час; С 15:00 до 9:00 — 1500 руб./час
-Стоимость в выходные и праздничные дни С 9:00 до 12:00 — 1200 руб./час; С 12:00 до 9:00 — 1500 руб./час
-"Рыцарский" на 10 человек: Стоимость в будни С 9:00 до 15:00 — 1000 руб./час; С 15:00 до 9:00 — 1300 руб./час
-Стоимость в выходные и праздничные дни С 9:00 до 12:00 — 1000 руб./час; С 12:00 до 9:00 — 1300 руб./час</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, джакузи, спутниковое тв, караоке</t>
+          <t xml:space="preserve"> Цены
+Номера;
+"Греция"
+с 09:00 до 16:00 - 800руб/час,
+с 16:00 до 09:00 - 1100руб/час.
+"Лукоморье"
+с 09:00 до 16:00 - 800руб/час,
+с 16:00 до 09:00 - 1100руб/час.
+Акция: 2+1 - 1 час в подарок!
+"Египет"
+с 09:00 до 16:00 - 700руб/час,
+с 16:00 до 09:00 - 1000руб/час.
+Вместимость; 8 мест + 2 дополнительных.
+Акция: 3+1 - 1 час в подарок!
+"Лимпопо"
+с 09:00 до 16:00 - 600руб/час,
+с 16:00 до 09:00 - 800руб/час.
+Вместимость ; 6 мест + 2 дополнительных.
+Акция: 3+1 - 1 час в подарок!!!
+"Таежный роман"
+с 09;00 до 16;00 - 500руб/час,
+с 16:00 до 09:00 - 600руб/час,
+Вместимость; 4 места + 2 дополнительных.
+Акция: 5 часов всего за 2000 рублей!!! Действует в дневное время с 9 до 16 часов.
+"Венеция"
+с 09:00 до 16:00 - 400руб/час,
+с 16:00 до 09:00 - 600руб/час.
+Вместимость; 3 места + 2 дополнительных.
+Ночи на "Экзотике жары"! 
+Номера "Лукоморье", "Египет", "Греция" с 01.00 до 08.00 всего за 4500!
+Девичники и мальчишники в "Экзотике жары"!
+5 часов в номере "Лукоморье", "Греция" или "Египет" со скидкой 30%!
+Скидка 10% для именинников, мангальная зона и бутылка шампанского в подарок!!!</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>от 1 100 до 1 500 руб./час</t>
+          <t>от 400 до 1 100 руб./час</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>+7 (351) 251 06 42</t>
+          <t>+7 (381) 268 06 80</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Сауна "Альбион"</t>
+          <t>Баня на "Енисейской"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Альбион/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Баня-на-Енисейской/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Братьев Кашириных, 120</t>
+          <t>3-я Енисейская, 30 б</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание сауны
-Сауна «Альбион» встретит вас своими приятными интерьерами и насыщенной аква-зоной,  в которой можно отдохнуть абсолютно всем гостям.  Вы можете устроить для себя здесь запоминающиеся вечеринки или просто тихо встретится узкой компанией друзей.  В любо случае отдых в сауне «Альбион» принесет только положительные эмоции,  яркие минуты расслабления и позитива.  Сауна располагается в Калининском районе города,  на улице братьев Кашириных,  120,  в этой сауне с успехом поместится компания из 20 человек.  Район – тихий и спальный,  здесь уютно и спокойно,  на северо-западе Челябинска теперь можно отдохнуть с большой пользой для своего здоровья – в сауне с русской баней и финской парной.  Оба типа парных здесь обустроены очень хорошо: русская баня традиционно топится на дровах,  имеет большую печь каменку,  и в русской парной обязательно нужно воспользоваться услугой парения.  Перед парением рекомендуется хорошо прогреть тело в несколько заходов в парную,  между которыми стоит устраивать себе отдых,  усиливать парение чашкой горячего чая – после такого правильного подхода к прогреву тела,  пот будет активно выходить,  подготавливая вас к дальнейшему сеансу парения.  Банщик здесь сможет помочь вам с выбором веника,  а также сможет искусно его запарить.  Ароматные веники,  эфирное масло и любимые травы – процесс парения может превратиться еще и в ароматерапию,  полезную во всех отношениях.  В сауне «Альбион» вас ждет большой и комфортный бассейн,  в котором можно устраивать самые настоящие заплывы,  в нем же можно хорошо охладиться после жарких парных.  Бассейн устроен с системой фильтрации,  имеет сверху красивую подсветку из точечных светильников – в таком бассейне будет очень приятно плавать.  В бассейне есть специальный инвентарь для детей – с возможностью обучения плаванию.  
-Финская парная в комплексе также устроена профессионально.  Здесь вас ждет печка с горячими камнями,  вместительное помещение,  в котором могут устроиться все гости.  Финская парная имеет горячий пар и сухой воздух – здесь очень быстро можно прогреться всем телом.  Не стоит никогда переоценивать свои возможности и находиться в парной очень долго.  Первые два захода – это всего 5-7 минут,  причем начинать нужно с нижней полки,  а не садиться сразу на верхнюю - так прогреться вы сможете гораздо лучше,  если станете усиливать температурный режим.  
-Отдельное помещение занимает массажный кабинет,  оборудованный всеми необходимыми средствами для проведения массажа.  Вам обязательно понравится гостиная,  которая оформлена в белоснежной палитре.  Белые кожаные диваны,  белые перламутровые стены,  много зеркал и подсветки – в таком помещении вы сможете отпраздновать день рождения или другое важно событие,  провести время с друзьями и с уютными посиделками.  Тут также находится большая ТВ-панель,  аудиосистема,  караоке – тут есть много места,  чтобы устроить вечеринку,  можно поиграть в аэрохоккей или настольный футбол.  Гости всегда могут заказать вкусную кухню из ресторана «Патриот»,  который обслуживает гостей.  В мини-баре вас ждут охлаждающие напитки и разнообразные предложения по меню и закускам.  Ваш отдых будет безоблачным,  благодаря стараниям вежливого и предусмотрительного персонала сауны.  В гостиной также имеется красивая барная стойка,  за которой гости сами могут готовить коктейли.  Отличное расслабление души и тела,  насыщенная аква-зона,  массаж и релаксация – вас ждут в сауне «Альбион» в Калининском районе Челябинска!
-За сутки: 9
+ Описание бани «На Енисейской»
+Если вы хотите максимально расслабиться и приобрести хорошее настроение,  то вы пришли по адресу – проведите время в релаксации и комфорте в бане «На Енисейской» в Омске.  Баня находится по адресу улица Енисейская 3-я,  дом 30б.  Здесь все есть для отличного отдыха,  способного доставить много удовольствия и комфорта.  К вашим услугам предоставляются целых восемь уютных номеров банного типа – в них каждая компания может с наслаждением расслабиться и провести время в уединении и комфорте.  Все приезжают в баню разными компаниями – теперь вы можете выбрать помещение для отдыха по размеру,  со своеобразным интерьером и оформлением,  а также со своим наполнением.  Вы приезжаете или с семьей,  или друзьями,  или для того,  чтобы хорошо отметить праздник – в любом случае,  вы сможете отлично позаботиться о своем здоровье и поднять настроение в банных просторах.  Среди номеров имеется полулюкс,  а также шикарный люкс на двоих – здесь можно провести романтический вечер или отметить важную дату,  касающуюся вашей пары. 
+В комплексе также находится три гостиных номера,  в которых вы сможете остаться переночевать,  если не хотите после банных развлечений ехать домой поздно.  Вместимость номеров с банными развлечениями составляет от 2 до 15 человек,  поэтому практически любая компания сможет весело провести время на территории комфортной сауны. 
+В комплексе вас ждет бассейн с водопадом,  который понравится и детям,  и взрослым – как известно,  вода хорошо снимает напряжение,  а водопады воды поднимут вам настроение и позволят провести время в расслаблении и комфорте.  В джакузи смогут устроиться двое влюбленных,  чтобы понежиться в теплой воде с ароматическим маслом и нежной пеной.  Финская сауна – замечательное место для оздоровление,  благодаря которому можно быстро прогреться,  тут же можно попариться вениками,  а также с помощью финской парной хорошо проходят этапы закаливания организма.  В комнатах отдыха вы сможете поспать или немного передохнуть после расслабляющих мероприятий. 
+В гостиной вас ждут развлечения,  которые подойдут для продолжения мероприятий по отдыху.  Вы сможете хорошо провести время в гостиной,  где есть караоке,  русский бильярд,  вся техника для устройства вечеринки.  Вы можете здесь устроить празднования по случаю дня рождения,  и вам,  и вашим гостям понравятся развлечения,  способные принести наслаждение и только приятные эмоции. 
+В некоторых номерах сауны есть выход на охраняемую территорию уличную,  где можно пожарить мясо на мангале,  с удобством устроиться на террасе теплым вечером.  Кроме того,  в бане на «Елисейской» вы всегда сможете заказать вкусную еду из местного ресторана,  насладиться напитками из мини-бара.  Вы сможете выбрать номер с любой стоимостью,  поэтому легко сможете найти для себя оптимальный ценовой вариант – номера в сауне «На Елисейской» устроят всех гостей,  вы обязательно будете рады отдыхом. 
+Банный отдых превратится в удовольствие,  если вы будете не пренебрегать такими услугами,  как парение вениками или ароматерапия.  Вы всегда сможете оздоровить свой организм,  правильно посещая парное помещение – в этом вам поможет банщик.  Он настроит оптимальную температуру в парилке,  поможет хорошо пропарить,  а также самостоятельно запарит вам веник в любом ароматном настое по вашему желанию.  Желаем вам хорошо проведения времени в банных помещениях,  которые отличаются комфортом и интересным наполнением – все это в сауне «На Елисейской»!
+За сутки: 12
 За последние 30 дней: 37
-Всего: 5571
-</t>
+Всего: 5824
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>холодная купель, джакузи, бильярд, кондиционер</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Цены и акции
-Скидки: Для именинников предоставляется скидка 10%, а также при оплате 4 часов один час в подарок + 8 жетоновдля игры в аэрохоккей! При покупке абонемента действует скидка 30%
-Цена: 1800 руб/час - будни, 2500 руб/час - выходные.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>бассейн, кондиционер, бильярд, джакузи, спутниковое тв, караоке</t>
+          <t xml:space="preserve"> Цены и акции
+«Номер 1» Стоимость: 700 - 1200 рублей / час, Вместимость: 10 чел.
+«Номер 2» Стоимость: 560 - 960 рублей / час, Вместимость: 8 чел.
+«Номер 3» Стоимость: 490 - 840 рублей / час, Вместимость: 6 чел
+«Номер 4 (гост.)» Стоимость: 200 - 250 рублей / час
+«Номер 7» Стоимость: 280 - 480 рублей / час Вместимость: 2 чел.
+«Номер 8» Стоимость: 350 - 500 рублей / час Вместимость: 6 чел
+«Номер 9» Стоимость: 700 - 700 рублей / час Вместимость: 6 чел.
+«Номер 10» Стоимость: 1000 - 1000 рублей / час Вместимость: 8 чел</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>от 2 000 до 2 500 руб./час</t>
+          <t>от 1 000 до 1 200 руб./час</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>+7 (351) 796 87 87</t>
+          <t>+7 (381) 276 42 22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SPA-сауна</t>
+          <t>Сауна "Акрополь"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/SPA-сауна/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Акрополь/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Победы, 166</t>
+          <t>Красный Путь, 1435</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание сауны
- Приглашаем вас посетить нашу  SPA-сауну,  у нас вы найдете хороший недорогой отдых в отличных условиях.  Интерьер нашей сауны прост и сдержан,  в помещении всегда чисто и убрано,  а сама обстановка во всем располагает к приятному отдыху.  У нас может устроить отдых как небольшая компания,  так и семейная пара,  места хватит всем.  А полностью расслабиться вам поможет наша русская банька.  Ведь нет лучшего успокаивающего средства чем банька.  Выбрав нашу сауну для вашего отдыха вы не пожалеете о том,  что сделали такой выбор.  В нашем небольшом,  но уютном помещении есть все для того чтобы вы себя чувствовали комфортно и удобно.  Именно у нас вы почувствуете настоящий русский отдых,  в хорошей парной,  и проведете свой отдых не только весело,  но и с пользой для здоровья. 
-Наша русская баня хоть и небольшая,  но напариться вы там сможете от души.  Вы прочувствуете все прелести парной,  зарядитесь положительными эмоциями,  попаритесь вениками,  выведите тем самым все шлаки,  и полностью очистите организм,  повысите свой иммунитет и почувствуете необычайную бодрость в теле.  Дополнительной услугой к парению может быть ароматерапия.  Заказав для себя эту услуг вы сможете выбрать подходящее аромамасло и испытать весь чудодейственный и оздоровительный эффект на своем организме.  Воспользовавшись ароматерапией в парной вы удвоите оздоровительный процесс,  и почувствуете как ваше самочувствие улучшается. 
-После парной предлагаем вам испытать истинное блаженство и окунуться в джакузи.  Вы сможете воспользоваться функциями различного массажа,  как гидромассажа,  так и аэромассажа,  и почувствовать как маленькие пузырьки обволакивают ваше тело.  Это полностью расслабит не только вас,  но и ваше тело и мышцы.  Вы забудете обо всех проблемах,  и будете думать лишь о хорошем отдыхе и истинном блаженстве.  Кроме того от такой водной процедуры успокаивается нервная система и улучшается настроение. 
-Поле того как вы насладитесь как банными,  так и водными процедурами предлагаем вам посетить нашу комнату для отдыха и веселья.  Вы сможете расположиться с друзьями на мягкой кожаной мебели и поговорить обо всех интересующих вас темах.  А под хороший разговор мы предлагаем вам хорошенечко подкрепиться.  Именно для этого у нас работают лучшие повара,  вы сможете заказать у нас блюда русской кухни,  поверьте вам будет из чего выбрать,  потому что наше меню настолько разнообразно,  что даже для настоящего гурмана найдется достойное блюдо,  а под хорошею еду и выпить хорошего вина не грех.  Все это вы сможете заказать у нас найдется достойное блюдо.  С нас хорошее меню  и вкусный стол,  а с вас хорошее настроение и шмное веселье. 
-Ждем вас у нас! Мы работаем для вас 24 часа в сутки. 
-За сутки: 9
-За последние 30 дней: 21
-Всего: 5503
-</t>
-        </is>
-      </c>
+Описание бани
+Сауна «Акрополь» - это красивые интерьеры,  в которых ваш отдых пройдет отлично и запомнится надолго.  Здание сауны располагается в Советском районе по адресу Красный путь,  143/5.  Остановка – это Старозагородная роща.  В сауне вам всегда предложат веники на выбор,  ароматные и свежие,  а также различные эфирные масла,  которые создадут волшебный эффект ароматерапии.  «Акрополь» - это абсолютно новая глава в банном отдыхе,  а также совершенно новый взгляд на оздоровление организма.  Для гостей предоставляются два больших банкетных зала с массивной дубовой мебелью,  здесь можно устроиться после банных развлечений и наслаждаться посиделками и общением с друзьями.  В отделке интерьера много деревянных элементов,  отличающихся экологичностью и высоким уровнем эстетики.  В близости от банкетной зоны располагается бар с большим выбором напитков,  а также расположена ТВ-панель.  Любители футбола здесь смогут с комфортом наблюдать за игрой любимой команды.  Телевидение представлено спутниковое и кабельное,  с огромным выбором ТВ-каналов.  Развлечься можно с помощью аудиотехники,  а также имеется в наличии видео аппаратура,  домашний кинотеатр.  Отдых с самыми близкими пройдет замечательно,  если вы станете выбирать только проверенные места для отдыха – такие,  как банный клуб «Акрополь».  
+В банном комплексе «Акрополь» имеется хорошо обустроенная танцевальная площадка – гости могут развлекаться,  устраивая танцы и пляски.  Из дополнительных развлечений – русский бильярд для всех ценителей и обожателей этой игры.  Поиграть можно в специально обустроенной зоне,  которая отличается комфортом и удобством для гостей.  Гости могут выбрать вариант,  удобный для себя,  который касается еды.  Есть блюда из местного ресторана с возможностью жарки мяса на мангале,  но также все желающие могут принести еду и напитки с собой – и обустроить свой стол самостоятельно – такой вариант отличается экономичностью и простотой.  В гостиной номеров установлено массажное кресло,  и каждый из гостей сможет опробовать его возможности.  Вы можете хорошо провести время в расслабление,  наслаждаясь всеми особенностями сауны "Акрополь". 
+Помимо развлечений на «суше»,  вас ждет в каждом из номеров – большом и малом,  насыщенная водная программа.  В свои расслабляющие просторы приглашает русская парная,  оформленная в лучших традициях.  Здесь вы можете приобрести веники и ароматические масла для усиления наслаждения от пребывания в парной.  Вы можете насладиться услугами банщика или самостоятельно попариться.  Банщик сумеет настроить ароматный и очень легкий пар,  который ни в коем случае не будет обжигать при парении,  а также запарить веник,  создать ароматические композиции особо характера,  которые будут усиливать лечебный эффект от парения и просто создавать полезную и волнующую ароматерапию.  Здесь же на территории парной вас ждет большой и малый бассейны,  сауна с гидромассажем,  а также самый приятный расслабляющий водный отдых,  способный доставить наслаждением и полностью расслабить все тело.  
+Вы всегда можете приехать на своем авто и оставить его под присмотром бдительной охраны.  В сауне постоянно проходят акции и скидки,  поэтом вас точно устроит ценовая политика заведения,  и вы будете приезжать сюда часто.  Все банные принадлежности всегда можно приобрести на территории комплекса – даже можно ничего с собой не брать,  а просто собираться – и ехать.  Желаем вам отличного отдыха в сауне «Акрополь»,  насладитесь самым шикарным и расслабляющим отдыхом со своими друзьями.  
+За сутки: 12
+За последние 30 дней: 30
+Всего: 6102
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены
-Цена - 700руб/час
-Скидки ; при заказе 3 часов - 4 час в подарок!
-Именинникам скидка 10%!
-Подарочные сертификаты.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>джакузи, спутниковое тв</t>
+          <t xml:space="preserve"> Цены и акции
+Малый зал приглашает компании до 4-х человек: от 300 до 500 рублей/час.
+Дополнительные люди +50 рублей/человек
+Большой зал до 6 человек: 700 рублей/час.
+Номер с бильярдом. 
+Дополнительные люди +50 рублей/человек.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>от 700 до 1 000 руб./час</t>
+          <t>от 400 до 1 200 руб./час</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>+7 (351) 233 08 73</t>
+          <t>+7 (381) 290 94 09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сауна "Эйфория"</t>
+          <t>Сауна "Морской волк"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Эйфория/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Морской-волк/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Комсомольский пр, 14</t>
+          <t>4-я Транспортная, 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание сауны
- Сауна «Эйфория» приглашает всех желающих хорошенько попариться и отдохнуть по полной программе.  У нас есть все условия которые необходимы для вашего отдыха и веселья,  плюсом ко всему у нас отличный персонал,  который пребывает всегда в хорошем настроении,  и всегда готов услужить вам.  Наша сауна общей площадью 200 кв.  метров,  и готова разместить компанию до 20 человек.  У нас всем будет комфортно,  как семье с детьми,  так и шумной компании,  для которой важно провести свое время не только с пользой для здоровья,  но и хорошенько повеселиться. 
-У нас вы сможете попариться в финской парной,  и в русской баньке,  в которых вы сможете заказать услуги банщика,  и испытать на своем теле различные виды пропарок,  разнообразные программы по телу,  и турецкий пилинг,  все это вместе сотворит с вашим здоровьем и кожей настоящее чудо.  Ваш организм получит небывалый заряд здоровья,  а кожа разгладиться,  приобретен ровный оттенок,  и станет упругой. 
-После всевозможных банных процедур вы сможете окунуться в наш просторный бассейн,  который имеет размер 5х8,  вы сможете поплавать в чистой и прозрачной воде,  и сделать для себя максимально комфортную температуру с помощью системы подогрева.  Так же для вас есть джакузи,  в которой вы сможете включить любой из видов массажа,  как гидро-,  так и аэро-,  это не только расслабит вас,  но и доставит небывалое удовольствие.  А в качестве оздоровительных услуг вам предлагается расположиться с комфортом в массажном кресле,  и выбрав любой из видов массажа хорошенько промассировать свое тело. 
-После баньки всегда хочется расслабиться и хорошенько подкрепиться,  и тут наши повара готовы предложить для вас меню,  блюда которого выполнены из русской и европейской кухни.  Так же для вас постоянно работает наш бар,  в котором вы встретите очень широкий ассортимент алкогольной продукции,  а так же заказать разнообразные коктейли,  именно наши бармены порадуют вас их широким разнообразием. 
-В качестве продолжения оздоровительного отдыха для вас всегда открыт тренажерный зал,  в котором вы сможете позаниматься на новых тренажерах и тем самым сделать первый шаг к здоровому образу жизни. 
-Для тех,  кто хочет провести свое время с особым интересом предлагаем сыграть как в русский,  так и в американский бильярд.  А для вашего веселья есть аудио- и видео- система,  караоке,  телевизор. 
-А для тех,  кто хочет отдохнуть от городской суеты,  и побыть какое-то время в одиночестве в нашей сауне есть две комнаты отдыха.  В которых,  вы сможете уединиться и полностью расслабиться. 
-За сутки: 9
-За последние 30 дней: 25
-Всего: 6990
-</t>
+ Описание сауны
+Сауна «Морской волк» приглашает всех провести время в шикарных интерьерах,  которые имеют большие территории,  а значит – много места для развлечений и приятного проведения времени.  Банный отдых,  совмещенный с увеселительными мероприятиями – это всегда оригинально,  интересно и весело.  Такой отдых можно назвать полноценным – он подарит большую помощь для вашего здоровья ввиду наличия нескольких типов парных,  бассейна,  парения вениками,  а также в здании сауны «Морской волк» есть и другие интересные мероприятия,  о которых будет рассказано далее. 
+К услугам гостей в сауне имеется два комфортных номера,  обустроенных по первому классу,  оба готовы принять компании до 20 человек,  поэтому это отличное место для веселого корпоратива или мальчишника,  а также здесь всегда пройдут шикарно дни рождения и юбилеи.  Два номера в сауне имеют одинаково комфортное оформление.  Это обязательно русская парилка с печью-каменкой на дровах,  обязательно стоит попариться свежими запаренными вениками в жарком помещении,  чтобы выйти и вылить на себя кадушку холодной воды – такое мероприятие очень быстро принесет вам расслабление и вернет бодрость – особенно,  если вы устали или пришли в сауну после длинного рабочего дня.  Обливания водой после нахождения в парной – это еще и один из видов полезного закаливания организма.  Начинайте с малых контрастных процедур и усиливайте их со временем,  чтобы получить защиту от простудных заболеваний – иммунитет станет выше.  Стоит внимательно относиться к мероприятиям по закаливанию,  чтобы не допустить переохлаждений – нужно постепенно подготавливать организм к характеру и длительности процедур. 
+На водной территории находится красивая и большая джакузи,  рассчитанная на четырех человек: веселая компания может попариться вместе в парилке,  потом охладиться и завершить банные процедуры лежанием в джакузи – приятно и расслабляющей.  В гидромассажной ванне имеется множество пузырьков,  благодаря которым нахождение в ней становится особо релаксирующим и доставляющим много удовольствия.  В обеденной зоне стоит электрический камин,  создающий атмосферу уюта и расслабления.  Вы всегда можете устроить для себя приятный сеанс отдыха в этом помещении,  устроившись за столом,  заказав еду в номер и напитки,  и разговаривая о жизни. 
+В комнате отдыха гости могут расслабиться после длительных процедур по закаливанию тела и после плавания в бассейне.  Бассейн в сауне оформлен очень красиво: он стоит между четырех черных колонн,  являющихся неотъемлемой частью интерьера.   Около бассейна стоят мягкие лежаки,  где гости смогут отдохнуть после плавания.  Благодаря большому банкетному залу в помещении сауны можно устраивать запоминающиеся вечеринки,  способные стать очень веселыми и манящими.  В комнате отдыха имеется большая кровать из кожи,  которая также стильно дополняет окружающий интерьер.  Вам будет очень комфортно в интерьерах сауны провести время с любимыми друзьями.  В гостиной для вас предусмотрен целый набор развлечений,  способных сделать отдых интересным и веселым – это спутниковое ТВ с множеством каналов,  караоке,  аудио-проигрыватель,  теннисный стол.  Песни в караоке,  танцы под современную музыку или просмотр интересного фильма – в сауне «Морской волк» можно сделать таким,  каким вы хотите,  чтобы он был.  Желаем интересного и запоминающегося проведения времени в интерьерах сауны «Морской волк»,  которая ждет с нетерпением всех гостей,  ценящих банный отдых. 
+За сутки: 12
+За последние 30 дней: 48
+Всего: 7324
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>джакузи</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены
-1 час - от 600 до 1200 рублей.
-с 08:00 до 17:00 - 600руб/час,
-с 17:00 до 08:00 - 1200руб/час.
-При оплате 5 часов - 6 в подарок ! Именинникам в день рождения 10% скидка.
- </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>бассейн, кондиционер, бильярд, джакузи, караоке</t>
+          <t xml:space="preserve"> Цены и акции
+Понедельник-Четверг:
+с 10:00 до 18:00 - 1000 руб./час
+с 18:00 до 10:00 - 1100 руб./час
+Пятница-Воскресенье:
+с 10:00 до 18:00 - 1100 руб./час
+с 18:00 до 10:00 - 1200 руб./час
+Стоимость указана для компании до 10-ти человек. Каждый последующий гость +50 руб./час</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>от 600 до 1 200 руб./час</t>
+          <t>от 800 до 1 200 руб./час</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>+7 (351) 238 66 69</t>
+          <t>+7 (381) 237 76 18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Баня «У Ильича»</t>
+          <t>Сауна "Клондайк"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня-У-Ильича/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Клондайк/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Бродоколмакский тракт, 113</t>
+          <t>1-я Транспортная, 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Описание сауны
-Сауна «У Ильича» обещает яркий и расслабляющий отдых,  который принесет вам только положительные эмоции.  База отдыха располагается на берегу озера Петровское,  поэтому вы можете быть уверены в том,  что отдых будет запоминающимся.  Приезд сюда нужно обязательно запланировать тем людям,  которые находятся постоянно в городе,  мало времени гуляют.  Здесь вы полностью отстранитесь от городской суеты,  вас ждет чистейший воздух,  лесопарковая зона,  озера – живописные и расслабляющие пейзажи,  которыми можно наслаждаться вечно.  Причем сауна находится в черте города,  поэтому вам не нужно углубляться в пригород – всего немного времени,  и вы уже на месте.  Арендуя сауну,  вы получаете ее полностью в личное пользование,  а значит,  легко сможете свободой – здесь можно устроить вечеринку,  отпраздновать день рождения,  провести время в кругу семьи и самых близких друзей – словом,  ваш отдых может протекать так,  как хочется только вам.  
-Здесь есть все,  что требуется для отличного банного отдыха,  в том числе тут есть гостиная,  комната отдыха с кожаной мебелью и деревянными столами,  отдельно расположена большая и вместительная бильярдная,  в которой можно поиграть с друзьями в бильярд,  выбрать напитки из мини-бара.  В сауне вас ждет хорошо обустроенная русская баня.  Она полностью обита деревом,  имеет удобные двухъярусные скамьи,  на которых с удобством могут расположиться все гости.  Вы также легко сможете правильно провести процесс парения – вам в этом сможет помочь банщик,  который поможет выбрать верный веник для вас,  запарит его в соответствии со всеми правилами.  Тут можно использовать приятные травяные настои,  эфирные масла – все индивидуально,  и выбирается по личным предпочтениям.  Банщик поможет настроить оптимальную температуру для парения,  а также сможет обеспечить вашу процедуру парения наибольшей эффективностью.  Во время такого парения вы будете получать и порцию ароматерапию за счет парения ароматным веником: лисья будут источать приятные ароматы,  которые вам точно понравятся,  а также благотворно скажутся на вашем здоровье.  
-После хорошего парения обязательно стоит охладиться.  Рядом с парной расположен бассейн с прохладной водой,  в котором и можно это сделать.  Охлаждаться после насыщенного парения не стоит слишком долго.  Лучше всего поплавать недолго,  а потом выйти и обтереться сухим полотенцем.  Обязательно стоит выпить чашку чая после такого насыщенного отдыха в парной – и процесс парения будет продолжаться даже вне стен русско бани.  Баня в сауне топится только на дровах с помощью печи-каменки.  Все в строгости с обязательными нормами пребывания в русской парилке.  
-В комнате с бильярдом имеются все развлечения.  В этом большом зале много свободного места,  поэтому отдыхающие гости могут устроить дискотеку и вечеринку.  Здесь на стене висит большой телевизор,  есть аудиосистема и караоке – вся аппаратура для веселой вечеринки.  В комнате отдыха есть кровать из кожи – гости,  которые устали,  легко смогут уединиться в этом помещении,  отдохнуть от шума или просто восстановить силы после парной.  Сауна «У Ильича» является неплохим местом для хорошего семейного отдыха,  здесь есть уличная терраса,  и гости смогут подарить мясо на мангале,  сделать шашлык,  уютно устроиться на веранде.  Это отличный вид отдыха,  который предполагает множество приятных моментов и расслабляющий отдых для каждого члена семьи.  Хорошего отдыха в сауне «Бередеи» и частых встреч с друзьями!
-За сутки: 9
-За последние 30 дней: 31
-Всего: 7818
-</t>
-        </is>
-      </c>
+Сауна «Клондайк» приглашает всех гостей насладиться  волшебным отдыхом,  способным принести вам покой и умиротворение.  В приветливой сауне ваш отдых пройдет на высоком уровне,  если вы заранее верно выберете место отдыха.  Сауна «Клондайк» в Омске в этом плане является идеальным вариантом,  она находится в Октябрьском районе Омска,  на улице 1-ой транспортной,  дом 1, вашим ориентиром будет ПО имени Баранова.   Здесь вас ждет русская парная,  которая отличается влажным паром и высокими температурами,  способствующие расслаблению и хорошему настроению.  Охлаждение после парной также будет впечатляющим,  если вы воспользуетесь холодным бассейном после парной,  или сделаете для себя полезное открытие,  вылив на голову ушат холодной воды.  Стоит отметить,  что такие процедуры нужно проделывать только в том случае,  если ваше тело максимально прогрелось и готов к моментальному охлаждению.  Вы сможете сделать для своего организма и здоровья в целом большой подарок,  если станете целенаправленно подходить к закаливанию своего организма.  В русской парной обязательно купите веники,  ароматные и свежие,  которые принесут вам релаксацию.  Банщик сможет помочь вам в деле парения,  настроив оптимальную температуру в парной,  что способствует налаживанию легкого пара и расслабляющей обстановки.  Особенно стоит отметить в деле парения то,  что вы легко сможете усилить релаксацию за счет запаривания веника правильным образом.  К примеру,  можно добавить в смесь для запаривания ароматные смеси,  эфирные масла и травы – этим вы усилите свое удовольствие и сможете вдыхать горячие ароматные пары.  Сауна «Клондайк» приглашает всех к себе в гости,  к вашим услугам два комфортных номера,  обустроенных по первому слову техники,  в гостиной есть вся техника.  
+На уличной территории одного из номеров можно с комфортом устроиться и приготовить мясо на мангале.  После отдыха в бане гости  могут насладиться в прохладных водах бассейна.  Прямо в номер вам могут доставить вкусные блюда – в здании сауны находится хорошее кафе. 
+В сауне «Клондайк» есть два комфортных оборудованных номера.   В первом имеется русская парная,  в которой можно отлично попариться вениками,  насладиться оздоровительными процедурами.  Зона для отдыха имеет большой стол – можно устраивать вкусные ужины и посиделки с друзьями.  Здесь же стоит дровяной камин – популярная забава гостей – это жарка шашлыка в камине.  Вам могут помочь скрасить веселье в сауне караоке,  ТВ,  музыкальный центр,  русский бильярд.  В комнатах отдыха гости смогут провести время,  расслабляясь в свое удовольствие.  Парение – это приятно,  но сильно утомляет и отнимает силы,  поэтому нет ничего удивительного восстановить силы после отличного банного отдыха.  В этом номере поместиться с удобством 12 человек. 
+Во втором номере вас ждет также русская парная,  но без возможности парения вениками,  бассейн имеет размеры 3х3 метра,  в нем есть система подогрева и очистки – всегда свежая вода обеспечена.  Здесь вместо русского бильярда есть американский,  способный доставить удовольствие и принести желанное расслабление.  В гостиной вас ждет точно тот же набор развлечений,  что и в первом номере.  Поместиться здесь также 12 человек.  Приезжайте расслабиться в один из номеров приветливой сауны «Клондайк».  Здесь вас ждет расслабление и активная помощь организму в деле поднятия иммунитета.  Устраивайте веселые вечеринки на территориях сауны,  и получайте приятные эмоции от этого.   Всех ждем в сауне «Клондайк»!
+За сутки: 12
+За последние 30 дней: 30
+Всего: 6597
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены и услуги
-Сауна работает круглосуточно - 1200 руб/час</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, спутниковое тв, караоке</t>
+          <t xml:space="preserve"> Цены и акции
+Пн.- пт.: 9:00 до 16:00 - 400р/ч, после 16:00 - 650 руб/час
+Сб.,вс. 650 руб/час
+Пн.- пт.: 9:00 до 16:00 - 550р/ч, после 16:00 - 1000р/ч 
+Сб.,вс. 1000р/ч
+Именинникам скидка 10% при предъявлении паспорта или свидетельство о рождении.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>от 800 до 1 000 руб./час</t>
+          <t>от 650 до 850 руб./час</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>+7 (351) 230 15 20</t>
+          <t>+7 (381) 248 37 74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Сауна "Восточная аквазона"</t>
+          <t>Сауна "Перекресток"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Восточная-аквазона/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Перекресток/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> улица Игуменка, 9а</t>
+          <t>Арнольда Нейбута , 91в</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание сауны
-Сауна «Восточная аквазона» приглашает вас погрузиться  в мир релаксации и хорошего настроения,  в котором вы проведете блаженные минуты отдыха.  Ваш день станет еще прекраснее самыми светлыми эмоциями,  если вы посетите красивые интерьеры сауны.  Сауна выполнена с красочным восточным колоритом,  который встретит вас в каждом помещении.  Банные помещения – это хороший вариант для празднований дней рождений и веселых праздников.  Сауна «Восточная аквазона» станет запоминающимся и ярким местом для проведения любого торжества.  Здесь вас встретит насыщенная разными развлечениями аква-зона,  которая оформлена в современном стиле,  с обилием подсветки,  мозаики и плитки – в таких интерьерах светло,  комфортно и хочется находиться как можно дольше.  Здесь сразу бросается в глаза большой бассейн с голубой водой,  который имеет причудливую форму.  В джакузи вы также всегда сможете расслабиться,  наслаждаясь гидромассажем в лучших чертах.  
-В акыв-зоне вас ждет два типа парных - это хамам и финская парилка.  Такой набор парных станет идеальным для всех людей: к примеру,  те,  кто любят жаркий обжигающий пар и как следует попариться вениками,  будут посещать финскую парилку.  А для тех,  что не любит жаркие температуры или просто их не переносит,  всегда можно отправить в турецкий хамам,  где царит блаженная комфортная температура,  много света,  тепла и влажного воздуха – в такой обстановке парение проходит в ускоренном режиме,  а температуры граничат в пределах 40-60 градусов.  Поры при влажном воздухе способны раскрыться максимально,  выпуская наружу вредные вещества. 
-Сауна «Восточная аквазона» располагается в Челябинске,  на Игуменке,  9а.  Для вас всегда смогут приготовить ароматный кальян,  способный принести колорит восточному отдыху.  После принятия водных процедур вам предложат массаж или спа-процедуры – они могут придать максимальный расслабляющий эффект,  дополнив ваш комфортный отдых приятными эмоциями и мыслями.  Ваше тело и разум скажут вам спасибо за такое расслабление и комфорт – в сауне всегда можно отдохнуть и душой,  и телом.  
-Вас ждет также очень красиво обустроенный банкетный зал и гостиная,  комфортные комнаты отдыха,  со смелым дизайном и очень красивыми зонами отдыха.  Здесь есть бар,  в котором вам предложат ароматные напитки: дизайн помещения оформлен в оригинальном формате – здесь много декоративного камня,  дерева,  а также светлых элементов отделки,  мягкая мебель.  В банкетном зале сауны можно проводить большие торжества,  в том числе свадьбы – вместимость помещения большая,  поэтому организация торжества может пройти в гостеприимных интерьерах банного заведения.  В здании саны работает кафе «Ананэ»,  которое предоставляет блюда разных кухонь мира – европейской,  русской,  грузинской.  Вы можете заказать вкусный шашлык,  приготовленный на мангале,  а также блюда национальной грузинской кухни.  
-Комнаты отдыха в сауне имеют огромные кровати с балдахином и чудесную обстановку с красивейшими интерьерами и оформлением: вы здесь можете провести чудесные минуты отдыха,  расслабиться и позабыть обо всех тревогах.  Особенно отдых требуется после парения,  массажа и спа-процедур – немного полежать в тишине,  насладиться блаженными спа-процедурами,  которые придают полезность всем вашим системам организма.  Отдельно стоит упомянуть о восточной комнате,  в которой много подушек,  ажурных и красивых,  мягкие диваны и тусклый свет – это помещение для курения кальяна,  которое сможет подарить вам приятный релакс и наслаждение от общения с друзьями и курения ароматной смеси.  
+Описание сауны
+ Если вы хотите прочувствовать на своем теле незабываемый банный отдых то банный комплекс «Перекресток» к вашим услугам.  У нас вас ждет большой выбор номеров с саунами,  в одном из которых вы сможете как следует отдохнуть и расслабиться по полной программе.  В нашем заведении для вас предоставлено шесть номеров,  каждый из которых индивидуален по своему,  у каждого своя вместимость и свой неповторимый дизайн. 
+Именно у нас вы найдете банный номер который просто идеально подходит для отдыха семейных пар с детьми.  Этот номер называется «Диснейленд».  Сам номер выполнен в ярких красках,  зайдя сюда,  ваш ребенок окунется в мир диснеевских мультиков.  Здесь ваши дети найдут себе всевозможные развлечения,  и уж им точно некогда будет скучать.  В этом номере для вас и ваших детей работает сауна с живыми звуками и переливающейся подсветкой,  что весьма должно заинтересовать ваших деток.  А после для вас предлагается окунуться в бассейн с чистой и прозрачной водой,  который оборудован гейзером.  А для того чтобы ваше семейное развлечения продолжалось,  в этом номере есть детская комната,  в которой ваши детки найдут множество красивых и красочных игрушек,  а так же для них есть детская горка и большое разнообразие детских мультиков. 
+Номер «Сакура» может вместить в себя компанию из 6-8 человек.  Здесь для вас работает турецкая парная (хамам),  и большая и просторная русская парная,  в которой вы сможете насладиться прекрасным отдыхом.  Ведь именно в этой парной вы сможете пропарить свое тело хорошим банным веником и дать своему,  телу тем самым,  хороший оздоровительный заряд.  Ведь о полезных свойствах нашей русской баньки известно даже самым маленьким.  После того как вы хорошенько пропаритесь то в самый раз окунуться в просторный бассейн,  длинной 5 метров,  и насладиться этой прекрасной банной процедурой.  Здесь есть для вашего расслабления функции гидромассажа и аэромассажа.  Именно эта функция позволит вам полностью расслабиться и забыть обо всех проблемах.  После вы сможете расслабиться в комнате отдыха,  или же переместиться в гостевую зону,  где вы сможете провести приятное время в кругу друзей и отведать блюда из нашего ресторана.  Так же для вас здесь работает бар,  в котором вы встретите большой выбор алкогольной продукции.  Для вас здесь есть телевизор со спутниковым тв,  аудио- и видео- техника,  караоке,  бесплатный Wi-fi. 
+Номер Лас-Вегас очень хорош для тех кто мечтает уединиться и спрятаться от любопытных глаз.  Именно у нас вам удастся это сделать.  Этот номер рассчитан на компанию от 4-6 человек,  поэтому для небольшой компании он так же идеально подходит.  Здесь для вас открыта небольшая,  но уютная сауна,  в которой вы сможете уединиться и насладиться отличным процессом парения.  После парной вы сможете расслабиться в джакузи и насладиться как аэро- так и гидро- массажем.  Отдохнуть вы сможете в одном из двух номеров,  которые окунут вас в незабываемую атмосферу отдыха,  а после к вашим услугам уютная  гостиная,  которая предложит вам воспользоваться меню нашего кафе и бара.  А для того чтобы вам не пришлось скучать вам предлагается посмотреть телевизор,  который подключен к спутниковому тв,  аудио- и видео- техника,  караоке. 
+Номер «Колизей» рассчитан на компанию из 8-ми человек,  это отличное место для празднования праздников,  корпоративов,  или просто для шумной вечеринки.  Здесь для вас много места,  великолепный дизайн,  и уютная атмосфера.  Для вас здесь уютная сауна,  в которой одно удовольствие попариться,  а после вы сможете разместиться в бассейном зале в восьмиместной джакузи,  это даст вам необычайное расслабление и наслаждение от дополнительных функций массажа.  После вы сможете расположиться в комнате отдыха,  или же сразу же приступить к шумному веселью и расположиться в гостевой комнате.  Здесь вам так же предлагается меню нашего ресторана,  и так же барная карта.  А для вашего развлечения есть телевизор со спутниковым тв,  караоке,  аудио- и видео- техника,  бильярд. 
+Номер «Баден-Баден» ждет в свои прекрасные просторы компанию из 6-8 человек.  Здесь может отдохнуть как небольшая компания,  так и влюбленная парочка,  которая хочет провести время вдвоем и насладиться общением друг с другом.  Здесь вы сможете попариться как в финской парной,  так и в турецкой парной (хамам).  В обоих парных вы сможете получить удовольствие от парения,  и насладиться банными услугами.  А после к вашим услугам большой пятиметровый бассейн,  где вы сможете отсудиться и насладиться водными процедурами.  Так же здесь есть гидромассажная облицовочная комната которая даст вам полное расслабление.  После вы сможете отдохнуть в комнате отдыха или же разместиться в зоне бассейна за большим столом.  Здесь вы сможете заказать разнообразное меню из нашего кафе,  и напитки из нашего бара,  так же здесь есть телевизор со спутниковым тв,  караоке,  аудио- и видео- аппаратура. 
+Номер «Купель» прекрасное место для организации праздника,  потому что здесь большая просторная зона для принятия гостей,  его вместимость составляет 10 человек.   А если вы хотите удивить своих приглашенных и устроить настоящее веселье,  то советуем снять этот номер вместе с номером «Баден-Баден»,  так как он находится внизу,  под номером «Купель».  В этом случае у вас получится широчайшее веселье и настоящий праздник.  Для ваших гостей здесь открыта финская парная,  которая весьма просторна и именно в этой парной вы получите настоящее наслаждение от парения.  После парной вы сможете окунуться в дубовую купель,  в которой одновременно смогут разместиться шесть человек.  Эта процедура даст вашему телу закаливающий эффект,  и оздоровит ваш организм.  После вы сможете отдохнуть в комнате отдыха или же начать веселиться в банкетном зале и насладиться общением с близкими вам людьми.  Для вашего развлечения здесь есть бильярд,  телевизор со спутниковым тв,  караоке,  аудио- и видео- аппаратура. 
+Приходите к нам и вы ни на секунду не пожалеете о своем выборе!
 За сутки: 12
-За последние 30 дней: 34
-Всего: 9561
-</t>
+За последние 30 дней: 39
+Всего: 10098
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>спутниковое тв, холодная купель, джакузи</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены и акции
-Стоимость 1 часа пребывания в сауне - 1200 руб на 8 человек</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>бассейн, джакузи</t>
+          <t xml:space="preserve"> Цены
+Номер "Сакура":
+С Пн - Чт. - 5.00 до 16.00 - 650 рублей.
+                    16.00 до 5.00 - 910 рублей.
+Пятница  -  5.00 до 16.00 - 650 рублей.
+                    16.00 до 5.00 - 1300 рублей.
+Суббота     - 5.00 до 16.00 - 910 рублей.
+                    16.00 до 5.00 - 1300 рублей.
+Воскресенье - 5.00 - 5.00  - 910 рублей.
+Номер "Колизей":
+С Пн - Чт. - 5.00 до 16.00 - 525 рублей.
+                     16.00 до 5.00 - 735 рублей.
+Пятница  -    5.00 до 16.00 - 525 рублей.
+                   16.00 до 5.00 - 1050 рублей.
+Суббота     - 5.00 до 16.00 - 735 рублей.
+                   16.00 до 5.00  - 1050 рублей
+Воскресенье -  5.00 - 5.00  - 735 рублей.
+Номер "Лас-Вегас":
+С Пн - Чт. -  5.00 до 16.00 - 550 рублей.
+                      16.00 до 5.00 - 770 рублей.
+Пятница  -     5.00 до 16.00 - 550 рублей.
+                      16.00 до 5.00 - 1100 рублей.
+Суббота     -    5.00 до 16.00 - 770 рублей.
+                    16.00 до 5.00  - 1100 рублей
+Воскресенье -  5.00 - 5.00 - 770 рублей.
+Номер "Баден-Баден":
+С Пн - Чт. -  5.00 до 16.00 - 775 рублей.
+                    16.00 до 5.00 - 1085 рублей.
+Пятница -    5.00 до 16.00 - 775 рублей.
+                    16.00 до 5.00 - 1550 рублей.
+Суббота -     5.00 до 16.00 - 1085 рублей.
+                     16.00 до 5.00 - 1550 рублей
+Воскресенье  - 5.00 - 5.00 - 1085 рублей.
+Номер "Купель":
+С Пн - Чт. -   5.00 до 16.00 - 700 рублей.
+                       16.00 до 5.00 - 980 рублей.
+Пятница  -     5.00 до 16.00 - 700 рублей.
+                    16.00 до 5.00 - 1400 рублей.
+Суббота  -     5.00 до 16.00 -  980 рублей.
+                     16.00 до 5.00 - 1400 рублей
+Воскресенье   -  5.00 - 5.00 - 980 рублей.
+Номер "Диснейленд":
+С Пн - Чт.   -    5.00 до 16.00 - 825 рублей.
+                         16.00 до 5.00 - 1155 рублей.
+Пятница     -      5.00 до 16.00 - 825 рублей.
+                         16.00 до 5.00 - 1650 рублей.
+Суббота     -     5.00 до 16.00 - 1155 рублей.
+                         16.00 до 5.00 - 1650 рублей
+Воскресенье  -    5.00 - 5.00 - 1155 рублей.
+Акции
+ПРИ ЗАКАЗЕ САУНЫ НА 12 ЧАСОВ С ВОСКРЕСЕНЬЯ 10-00 ПО ПЯТНИЦУ 10-00.
+«Сакура»      -   5000 рублей.
+«Колизей»    -  4500 рублей.
+«Лас-Вегас»  -  4000 рублей.
+«Баден - Баден» - 6500 рублей.
+«Купель» -    6000 рублей.
+«Купель» + «Баден - Баден»  -  12000 рублей.
+«Диснейленд»   -  6500 рублей.
+ </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>от 1 200 до 1 700 руб./час</t>
+          <t>от 1 100 до 1 500 руб./час</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>+7 (351) 200 20 47</t>
+          <t>+7 (381) 259 94 53</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сауна "Титан" на Каслинской улице</t>
+          <t>Сауна "Аура"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Титан-на-Каслинской-улице/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-Аура/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Каслинская, 101а</t>
+          <t>ул. Кемеровская, 71</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание сауны
- Ждем вас в сауне "Титан" на Каслинской улице,  именно у нас вы сможете устроить для себя отличнейший отдых,  который понравиться вам,  и вашим друзьям.  Наша приятная атмосфера,  множество развлечений,  и доброжелательный персонал помогут вам в этом.  Мы работаем для вас 24 часа в сутки,  и рады вам в любое время дня и ночи,  мы всегда встретим вас с улыбкой,  и расскажем обо всех наших возможностях.  Для такого прелестного отдыха вашему вниманию предлагается два зала,  вместимость которых 8 человек. 
-Отдых в сауне без посещения парных просто невозможен,  и тут мы для вас предлагаем несколько отдельных парных,  а именно финская и турецкая,  В них вы сможете как следует распарить свое тело,  и насладиться процессом банных процедур.  Ведь что может быть прекраснее побывать в парной,  как следует распарить свое тело хорошим банным веником,  и почувствовать как легкие и организм полностью очищаются.  После небывалого наслаждения для вас предлагается искупаться в нашем вместительном бассейне и остудить свое тело после банных процедур,  это успокоит нервную систему,  и даст вам необычайный заряд энергии.   Ну а для тех кто мечтает насладиться услугой гидромассажа есть джакуззи,  разместившись в которой вы сможете насладиться функцией массажа.   Так же в нашей сауне есть душ,  с помощью которого вы сможете прогреться перед посещением парной,  или же наоборот охладиться после. 
-После вас будут ждать две наши комнаты отдыха,  интерьер которых настраивает на полное расслабление и реллакс.  Здесь вы сможете разместиться на мягкой и комфортной кровати и как следует отдохнуть. 
-Скрасить ваш отдых вам помогут наши повара,  которые любят удивлять наших клиентов своими кулинарными хитростями.  Мы с удовольствием накроем для вас стол.  Наполненный вкусной едой и разнообразными напитками из нашего бара,  выбор вин в котором очень разнообразен.  Хочется отметить и то,  что в наше заведение можно приносить свои продукты питания и напитки. 
-После того как вы достаточно подкрепились,  и приподняли свое настроение,  для вас предлагается сыграть партию в бильярд,  эта игра настолько интересна и увлекательна,  что ей заинтересуются не только мужчины,  но и женщины,  а так же дети.  Так же в вашем распоряжении большой плазменный телевизор,  который подключен к спутниковому телевидению,  выбор каналов в котором очень разнообразен.  
-Для любителей повеселиться и спеть любимую песню есть система караоке,  список песен которой очень велико,  и вы обязательно найдете любимую песню,  исполнив которую вы удивите своих друзей своими талантами. 
-Мы рады вам всегда,  и мы ждем вашего звонка!
-За сутки: 10
-За последние 30 дней: 31
-Всего: 11619
-</t>
+ Описание бани
+Оздоровительный центра «Аура» - это целый комплекс отдыха,  в котором вы сможете отлично расслабиться на банной территории,  арендовав один из номеров,  а потом остаться ночевать в гостиничном номере,  так как в здании центра находится целых 12 уютных гостиничных номеров.  Ваш день пройдет незабываемо в сауне,  которая находится в Центральном районе,  по адресу Кемеровская улица,  дом 7/1.  Если вы добираетесь на общественно транспорте,  то вашим ориентиром будет остановка Сибзавода.  В банном номере сможет разместиться компания из 20 человек.  На территории для водных развлечений расположена комфортная финская парная,  полностью обитая ароматным натуральным деревом.  Вы можете приобрести веники и с наслаждением попариться ими – вам объяснят полезные свойства каждого веника,  а также,  по желанию ,  банщик запарит самостоятельно веник в соответствии с вашими предпочтениями,  и отлично пропарит все тело.  Вам предложат ароматные настои и эфирные масла,  которые хорошо подойдут для установления шикарного аромата в парной,  а также расслабят вас,  принесут релаксацию и умиротворение – благодаря ароматам процесс парения получится истинным наслаждением. 
+На территории парной находится большой бассейн,  в котором можно устраивать настоящие заплывы,  окунуться в чистый бассейн можно после парения в сауне – вы легко сможете проплавать здесь солидный промежуток времени,  а потом отдохнуть несколько минут в тишине и спокойствии.  Банный отдых всегда приносит усталость,  поэтому восстановить силы можно в комфортно обстановке гостиной или в гостиничных номерах,  которые находятся прямо в здании сауны.  В аква-зоне также располагаются большие душевые.  Предоставляется полный перечень банных принадлежностей,  которые понадобятся вам в сауне – это полотенца,  тапочки,  банные шапки и многое другое.  В гостиной стоит массажное кресло,  поэтому в любой момент можно насладиться оздоровительным массажем,  а также профессиональные массажисты работают в комплексе,  которые в любой момент времени смогут сделать для вас расслабляющий,  оздоровительный или любой другой тип массажа. 
+Общая площадь сауны составляет 140 метров – здесь есть много места,  где можно устроиться компании из 25 человек.  Рядом с финской парилкой расположен большой бассейн размерами 3х6 метров.  В бассейне имеется теплая вода,  а также можно всегда настроить такой уровень температуры,  какой вам требуется.  В бассейне работает мощная немецкая система очистки воды,  обещающая вам постоянное слежение за чистотой воды и ее кристальной свежестью.  В здании сауны располагается две комнаты отдыха,  в которых гости смогут провести несколько мгновений,  чтобы расслабиться после насыщенного водного отдыха и шумных посиделок с друзьями.  В одной комнате отдыха располагается большой банкетный стол на 12 персон,  тут есть все блага для комфортного и интересного отдыха – это телевизор,  DVD-центр,  караоке.  Гости могут приезжать со своей едой и напитками,  а также готовить несложные блюда на небольшой кухне с микроволновой печью,  набором посуды и чайником.  Во второй комнате отдыха есть кровать,  и там можно уединиться и провести несколько минут в тишине.  В мини-баре всегда много напитков. 
+Гостиница «Аура» с собственной большой сауной располагается в тихом центре города Омск,  сюда можно легко добраться из любой точки города и отлично отдохнуть.  Желаем вам приятного отдыха в отличной сауне Омска,  в которой учтены все ваши запросы и всегда можно настроиться на отдых без каких-либо забот. 
+За сутки: 13
+За последние 30 дней: 37
+Всего: 5736
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>бильярд</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены
-1 час - от 500 до 1000 рублей.
-В нашем заведение постоянно проводит АКЦИИ, ознакомиться с которыми вы сможете у нашего администратора!</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>бассейн, караоке</t>
+          <t xml:space="preserve"> Цены и акции
+С 6:00-17:00 в понедельник-четверг 600 руб/час, пятница-воскресенье - 700 руб/час, суббота-воскресенье и праздники - 900 руб/час
+С 17:00-6:00 в понедельник-четверг 900 руб/час, пятница-воскресенье - 1200 руб/час, суббота и праздники - 1400 руб/час, воскресенье  - 1100 руб/час
+Цены действительны для 10 гостей, свыше - доплата за человека 50 руб/час</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>от 500 до 1 000 руб./час</t>
+          <t>от 1 500 до 1 700 руб./час</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>+7 (351) 200 41 68</t>
+          <t>+7 (381) 238 59 09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Сауна "Тамико"</t>
+          <t>Сауна в" ГК Камелот"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Тамико/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-в-ГК-Камелот/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Коммуны, 87</t>
+          <t xml:space="preserve"> улица Красный Путь, 153к3, 1 этаж</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Описание сауны
- Вас приглашает сауна "Тамико",  где вас ждет великолепный отдых,  в котором будут новые эмоции,  у нас вы сможете посетить ледниковою комнату,  инфракрасную сауну,  и три вида парных.   Испытав все,  что мы готовы для вас предложить,  вы зарядитесь энергии на всю рабочую неделю,  сможете полностью расслабиться,  и забыть обо всех проблемах.  Мы готовы вам предложить отдохнуть в наших залах,  которых в нашей сауне два,  а именно «Большой зал»,  и «Малый зал».  В каждом из них присутствует приятная атмосфера и эксклюзивный дизайн.  Разница между ними по количеству вместимости,  и дополнительным услугам. 
-«Большой зал» достаточно вместителен,  и может разместить компанию от 15 до 30 человек.  Здесь вы сможете как следует повеселиться,  и отметить со своими друзьями как день рождение,  так и любой другой значимый для вас праздник.  Этот зал готов открыть перед вами двери трех парных,  а именно финской парной,  русской и турецкой бани.  Посетив каждую из них,  вы сможете насладиться банными процедурами,  и отпарить свое тело хорошими банными вениками.  Так же мы рады вам предложить посетить инфракрасную кабину,  в которой вы сможете как следует прогреть свое тело. 
-После парных и саун вы сможете посетить ледниковую комнату,  к которой вас ждет чистейший снег которым вы сможете растереть свое тело,  это как следует закалит ваш организм и укрепит ваш иммунитет.  Так же вы сможете окунуться в большой бассейн. 
-В качестве расслабляющего отдыха предлагаем вам расположиться с особым комфортом в нашей комнате отдыха,  атмосфера которой располагает к полному комфорту,  вы сможете побыть в полной тишине,  и сможете полностью расслабиться. 
-После вы сможете удобно разместиться в диванном зале и расслабиться,  заказав при этом разнообразные блюда,  которыми вас могут побаловать наши повара.  Только у нас вы сможете попробовать наивкуснейшие блюда,  вкус которых просто бесподобен,  а для поднятия настроения предлагаем вам выпить хорошего вина,  который поднимет ваш аппетит и улучшит настроение. 
-Для вашего развлечения вам предлагается аудиоаппаратура,  видеоаппаратура,  спутниковое телевидение,  караоке и американский бильярд. 
-Малый зал способен разместить от 4 до 6-ти человек,  здесь для вас работает русская баня,  которая способна подарить вам массу положительных эмоций; бассейн с водопадом,  размер которого 4х6; прекрасная русская кухня; для вас работает бар,  в котором вы сможете заказать разнообразные вина; есть комната релаксации; есть DVD; аудио- и видео- аппаратура. 
-Оба зала готовы подарить вам необычайно приятные эмоции от банного отдыха и подарить настоящее веселье. 
-Мы ждем вас!!!
-За сутки: 9
-За последние 30 дней: 27
-Всего: 8374
-</t>
-        </is>
-      </c>
+ Посетив сауну в «ГК Комелот» вы сможет насладиться банным отдыхом и приятным общением со своими друзьями.  К вашим услугам будет предоставлен один из номеров,  в котором вы сможете отлично попариться,  и отдохнуть телом и душой. 
+Наш приветливый персонал встретит вас с хорошим настроением и улыбкой,  вас ознакомят с правилами нашей сауны,  а так же дополнительными услугами нашего заведения.  Ознакомив со всей необходимой информацией вас проводят в сауну,  где и начнется ваш настоящий отдых. 
+Общая вместимость помещения 10 человек,  этот вариант отлично подходит как для небольшой компании,  так и для семейного отдыха.  В номере вы сможете попариться в финской сауне и ощутить все прелести этой парной.  Здесь есть некая схожесть с русской банькой.  Вас так же ждет высокий температурный режим и низкая влажность.  В этой парной вы сможете побороть простудные заболевания,  вылечить кашель и насморк,  и это конечно же не весь список оздоровительных свойств,  которые вам может подарить финская парная. 
+После парной одно удовольствие окунуться в бассейн и насладиться водными процедурами.  Это отличный способ расслабиться после банных процедур и насладиться чистой и прозрачной водой,  которая прогрета до комфортной температуры.  А для тех кто хочет насладиться гидромассажем мы готовы предложить комфортно разместиться в джакузи,  здесь ваше тело как следует промассируют маленькие пузырьки,  и вы почувствуете приятные ощущения по всему телу. 
+Поле того,  как вы сполоснули ваше пропаренное и очищенное тело,  самое время отдаться в руки профессионального массажиста и насладиться процедурой оздоровительного массажа.  С помощью чего ваше тело будет как следует размято,  а вы сами получите небывалый заряд бодрости. 
+После небывалого наслаждения вы сможете заказать разнообразные блюда из нашего ресторана,  поверьте кулинарные способности наших поваров приятно удивят вас и порадуют.  Наше меню настолько разнообразно,  что вы обязательно выберите себе то,  что наиболее всего вам по вкусу. 
+Здесь же вы сможете посмотреть телевизор,  который подключен к спутниковому тв,  спеть любимую песню в караоке,  и просто насладиться общением с близкими друзьями.  Кроме всего прочего вы сможете снять для дальнейшего отдыха номер в нашей гостинице,  и отдохнуть по полной программе. 
+Мы с нетерпением ждем вашего звонка,  мы очень рады каждому клиенту,  звоните и бронируйте сауну в «ГК Комелот». 
+За сутки: 13
+За последние 30 дней: 36
+Всего: 7302
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve"> Цены
-Большой;Турецкий хаммам.
-3000руб/час до 30 посетителей.
-Малый; Финская парная.
-800руб/час до 7 посетителей
-Пн-Вс
-с 00:00 до 16:00 - 800руб.
-с 16:00 до 00:00 - 1200руб.
-Акции
-10% по карте постоянного клиента
-10% - именинникам (в течении недели со дня рождения)
-5-й час в подарок.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, охраняемая парковка, караоке</t>
+Номера;
+"Суана VIP"
+Стоимость; 1400-1600руб/час
+Вместимость;10 человек -1400руб/час(Пн-Чт),1600руб/час(Пт-Вс).
+Сауна "С легким паром"
+Стоимость ; 1000-1200руб/час
+Вместимость ; 8 человек - 1400руб/час(Пн-Чт),1600руб/час(Пт-Вс).
+Сауна "Уютная"
+Стоимость ; 500 руб/час (любой день)
+Вместимость ; 2 человека.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>от 800 до 3 000 руб./час</t>
+          <t>от 500 до 1 600 руб./час</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>+7 (904) 302 04 00</t>
+          <t>+7 (381) 224 03 52</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Сауна "Эльвада"</t>
+          <t>Клуб саун "Расслабоноff"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Эльвада/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Клуб-саун-Расслабоноff/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Агалакова, 7</t>
+          <t xml:space="preserve"> улица Поворотникова, 6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание сауны
- Приглашаем к себе всех желающих провести время не только весело,  но и с пользой для своего здоровья.  Сауна «Эльвада» готова предложить вам отличный банный отдых,  и различные развлечения,  которые скрасят ваш вечер,  и не оставят ни одного гостя недовольным.  Мы рады предложить вашему вниманию два зала,  которые имеют как схожесть между собо, й так и отличия.  Для вас работают "Первый зал" и "Второй зал".  Второй зал имеет вместимость до 15-ти человек,  и находится он на втором этаже,  а Первый зал находится на первом этаже,  и готов размесить в своих стенах компанию до 16-ти человек.  Оба зала готовы предложить попарится в просторной финской парной,  которая выполнена из натурального кедра.  Финская сауна уже давно славится своими оздоровительными свойствами.  Здесь вы сможете ощутить нереально приятные эмоции от парения с вениками,  с помощью которых вы сможете хорошенько распарить друг друга и очистить тем самым организм от шлаков. 
-После банных процедур,  по традиции,  необходимо пройти всевозможные водные процедуры,  и во втором зале мы предлагаем вам разместиться в джакузи,  и сделав нужную вам температуру насладиться гидромассажем.  А в первом зале для вас работает бассейн,  за чистотой воды которого всегда следят наши работники.  Обе процедуры хороши по своему,  и хоть они и разные,  но схожесть между ними все таки есть,  и джакузи и бассейн успокаивает нервную систему и поднимает настроение. 
-После всех процедур самое время накрыть на стол и подкрепиться,  ведь после парной как обычно возникает чувство голода,  и тут вы сможете накрыть стол блюдами принесенными с собой,  наша администрация разрешает для своих клиентов данную услугу,  причем приносить можно не только свои продукты,  но и напитки.  Это особенно удобно для тех,  кто любит только домашнюю еду.  Поэтому мы о вас позаботились и решили сделать для вас эту услугу доступной. 
-Так же в нашей сауне есть комнаты отдыха,  на каждом этаже по одной,  в которой вы сможете расположиться на кровати с чистым постельным бельем,  отдохнуть и полностью расслабиться после банных процедур. 
-Большой и шумной компании всегда хочется веселья и задора,  и тут мы для вас предлагаем аудио- и видео-систему,  с помощью которой вы сможете послушать любимые композиции,  и караоке,  которое развлечет любителей пения.  Так же,  во всех двух залах,  для вас есть американский бильярд. 
-Мы ждем вас в любое время суток.  Именно у нас вы отлично отдохнете и забудете обо всех своих проблемах. 
-За сутки: 7
-За последние 30 дней: 28
-Всего: 7567
-</t>
-        </is>
-      </c>
+ Описание сауны
+Сауна «Расслабонофф» располагается в Кировском районе Омска – это целый комплекс,  состоящий из 10 банных номеров и из 4 гостиничных номеров.  Здесь можно выбрать определенный номер и провести в нем время в расслаблении и заботе о своем здоровье.  Здание сауны располагается на улице Поворотникова,  дом 6.  Если вы добираетесь на общественном транспорте,  то вам нужна остановка Суворова.  В этом банном комплексе можно провести абсолютно любой уровень отдыха – как просто приехать с семьей или своей второй половинкой,  чтобы отдохнуть в спокойствии,  так и приехать шумной компанией друзей и устроить шикарную вечеринку.  Очень часто именно в номера бани приезжают рабочие коллективы и проводят корпоративные вечеринки.  Максимальная вместимость номера сауны – это 30 человек. 
+В оздоровительном комплексе находится десять различных видов номеров,  оформленных в своеобразном стиле – можно выбрать любой номер и чувствовать себя в нем идеально.  Все аква-зоны парных оформлены очень хорошо,  а также оборудованы всеми необходимыми атрибутами для здорового отдыха.  Приезжая сюда,  вы всегда можете рассчитывать на идеально чисто оформленные помещения,  свежесть и кристальную чистоту всех банных принадлежностей – здесь высоко ценят аккуратность и внимание к деталям,  поэтому всегда можно рассчитывать на идеальное обслуживание при разумной ценовой политике.  Также созданы все условия для отдыха мечты или запоминающегося торжества,  можно не бояться и отдыхать по максимуму,  шуметь всю ночь и получать отличный заряд сил.  Вам всегда предложат блюда из местного ресторана,  где работает уже давно один шеф-повар,  постоянно удивляющий своими кулинарными изысками. 
+Номер «Царский» подойдет для тех,  кто хочет отметить большую и шикарную вечеринку.  Здесь дружные и веселые компании найдут,  чем заняться на больших территориях номера.  Гостей ждет вместительная финская парная,  в которой температура поднимается выше 90 градусов – можно отлично попариться вениками,  а затем поплавать в большом бассейне шириной 5 метров – можно устраивать большие заплывы и соревноваться с друзьями в плавании.  Бассейн оснащен мощной системой фильтрации,  а также имеет красивую подсветку – здесь всегда можно устроить завораживающие плавания и всегда наблюдать чистую и свежую воду.  Именно этот номер рассчитан на 30 человек. 
+Номер «Баобаб» - уютный и красивый,  здесь хорошо сможет отдохнуть компания на 8 человек.  Здесь рай для тех,  кто любит экзотику и желает наблюдать в помещении для отдыха шикарный современный интерьер.  Здесь финская парная,  а вся водная территория оформлена в стиле райского острова – пальмы,  бобабы.  Гости абсолютно из всех заведений и номеров всегда могут записаться на прием к косметологу или воспользоваться услугами банщика. 
+«Старушка Европа» - это элегантный и стильный номер,  который оформлен шикарно,  интерьер здесь оценят любители минимализма и естественности в оформлении.  Номер рассчитан на 12 человек,  и здесь есть финская парная с бассейном и джакузи.  Ваш день рождения в такой обстановке запомнится многим,  и останется в памяти надолго. 
+На всей территории комплекса работает быстрый беспроводной интернет,  поэтому занятые люди,  которые не могут оторваться от рабочего процесса,  всегда могут зайти в сеть и проверить почту или выполнить какие-либо другие важные дела.  В сауне имеется также номер на двоих под названием «Романтика»,  в ней могут устроится двое влюбленных и провести запоминающихся для обоих вечер.  Сауна «Расслабонофф» ждет всех гостей и гарантирует приятные эмоции и солидное оздоровление организма. 
+За сутки: 13
+За последние 30 дней: 37
+Всего: 7344
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены
-1 этаж
-1000руб/час до 16 посетителей.
-2 этаж
-1000руб/час до 15 посетителей.
-Акции
-В будние дни с 10:00 до 16:00 - 400рур/час.
-Именинникам и постоянным клиентам скидка 5%.
-Оплатив 4 часа - 5-й час в подарок.
+          <t xml:space="preserve">Цены и акции
+Номер "Царский" - 1350-2700 руб/час, вместимость 30 чел.
+«Баобаб» - 750 - 1650 руб /час, вместимость: 8 чел
+«Старушка Европа» -  950 - 1850 рублей / час, вместимость: 12 чел
+«Баунти» - 1200 - 2400 рублей / час, вместимость: 8 чел
+«Египет» - 700 - 1350 руб/час, вместимость: 8 чел
+«Русский» - 850-1650 руб/час, вместимость: 10 чел
+«Инквизиция» - 850 - 1650 руб/час, вместимость: 10 чел
+«Морской» - 1000 - 2000 руб/час, вместимость: 15 чел
+«Япония» - 700 - 1350 руб /час, вместимость: 8 чел
+«Романтика» - 1000 - 1650 рублей / час, вместимость: 2 чел
  </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, караоке</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>от 400 до 1 000 руб./час</t>
+          <t>от 700 до 1 650 руб./час</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>+7 (351) 238 23 00</t>
+          <t>+7 (381) 251 22 15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Сауна "Северокрымская"</t>
+          <t>Сауна в "СК Ермак"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Северокрымская/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Сауна-в-СК-Ермак/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1-й Северо-Крымский переулок, 14</t>
+          <t xml:space="preserve"> улица Чапаева, 71а, 1 этаж</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Описание сауны
-В тихом районе города Челябинска расположилась уютная и комфортная сауна "Северокрымская",  в которой для клиента есть все,  именно все.  Для наших клиентов работает дружелюбный и отзывчивый персонал,  комфортабельный номер,  в котором вы сможете просто великолепно отдохнуть и попариться с друзьями,  и множество разнообразных развлечений,  которые не дадут вам скучать.  Здесь никто не будет вам мешать веселиться и отрываться по полной программе. 
-Нас вы сможете снять номер,  который способен принять небольшую компанию до 15 человек.  В этом номере все создано для того чтобы ваш отдых стал просто незабываемым.  И это понятно,  ведь удобство клиентов и полное их довольство самое главное для нас.  Поэтому мы создаем все необходимые для вас условия.  Здесь вы сможете попариться в финской парной,  которая известна своими полезными свойствами,  вы с легкостью справитесь с простудными заболеваниями и поправите тем самым свое здоровье. 
-Далее к вашим услугам прекрасный и красивый небольшой бассейн,  который всегда находится в идеально чистом состоянии,  вода в нем постоянно меняется,  поэтому вы сможете занырнуть в кристально чистую воду и поплавать вдоволь.  Эта водная процедура так же полезна для здоровья как и парная,  плавание успокоит вашу нервную систему,  и значительно поднимет настроение. 
-У нас для вас работает кухня,  где мы сможем предложить вашему вниманию блюда русской кухни,  наши профессиональные повара настоящие виртуозы в кулинарии,  и они обязательно удивят вас своими кулинарными способностями.  Попробовав хоть раз блюда из нашей кухни,  вы навсегда останетесь поклонниками нашей великолепной кухни.  Так же для наших клиентов в нашем заведении работает бар,  который полон крепкими напитками и винами,  а так же наши бармены смогут удивить вас различными как алкогольными,  так и безалкогольными напитками. 
-Как следует перекусив самое время повеселиться и воспользоваться нашими развлечениями.  И тут мы готовы вам предложить поиграть весьма в интересную спортивную игру,  а именно в американский бильярд; посмотреть спутниковое тв; а так же устроить зажигательную дискотеку с помощью новейшей аудиоаппаратуры,  так же в нашей сауне есть видеоаппаратура. 
-Хочется отметить и то,  что для наших клиентов у нас круглосуточно работает охраняемая парковка.  Поэтому вам во время отдыха не нужно будет переживать за свой автомобиль. 
-Девиз нашей сауны "Все для клиента",  поэтому мы всегда к вашим услугам.  
-За сутки: 10
-За последние 30 дней: 55
-Всего: 16594
-</t>
-        </is>
-      </c>
+Сауна в спортивном оздоровительном комплексе «Ермак» приглашает вас для отличного банного отдыха.  У нас вы сможете не только отлично попариться,  но и посетить тренажерный зал,  либо поплавать в большом бассейне.  Все что может предложить спортивный комплекс полностью к вашим услугам.  Поэтому вы сможете не только попариться,  но и позаниматься спортом. 
+Сама сауна предлагает попариться в русской баньке,  в которой всегда царит атмосфера настоящего русского отдыха,  который просто не может обойтись без хорошего веника.   Именно здесь вы сможете хорошенько пропарить свое тело,  полностью очистить свой организм от шлаков,  и дать для организма отличный оздоровительный заряд.  Парение в бане не только полезно для здоровья,  это отличное омолаживающее средство,  ведь после посещения парной кожа становиться более упругой и эластичной,  а некоторые мимические морщинки и вовсе разглаживаются. 
+После парной самое время предаться водным процедурам,  и ту мы для вас предлагаем бассейн,  который всегда находится в идеальном состоянии,  вода в нем постоянно очищается,  поэтому вы будете наслаждаться водными процедурами в чистой и прозрачной воде.  Так же в нем есть функция гидромассажа,  что даст от водной процедуре небывалое наслаждение. 
+После всех приятных оздоровительных программ вы сможете отдохнуть в комнате отдыха,  где расположена комфортабельная мягкая мебель.  Вы здесь сможете полностью расслабиться и расположившись на комфортабельной мебели завести с друзьями интересный диалог.  Ну а если вы захотите хорошенько подкрепиться,  то наше кафе к вашим услугам.  Здесь в меню вы найдете как холодные закуски,  так и горячие блюда.  Наше меню весьма разнообразно,  поэтому вы найдете то,  что вам будет по душе. 
+В нашем комплексе мы предлагаем вам не только спокойный отдых,  но и активный,  например вы сможете посетить наш спортивный зал,  в котором ы сможете поиграть в баскетбол или волейбол; поплавать в большом бассейне,  который поделен на несколько дорожек,  или же потренироваться в нашем тренажерном зале. 
+Ну а когда ваша душа потребует веселья,  то новейшая видео- и аудио- аппаратура к вашему распоряжению,  вы сможете устроить шумную дискотеку,  а с помощью караоке спеть вашу любимую песню. 
+В нашей комплексе вы найдете прекрасный отдых,  направления которого весьма разнообразны,  попарившись в нашей сауне вы сможете полностью расслабиться и отлично провести оставшееся время. 
+Мы работаем для вас с 7. 00 до 24. 00,  и мы всегда вам будем рады.  
+За сутки: 13
+За последние 30 дней: 31
+Всего: 4758
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Цены
-с 8:00 до 17:00 - 600 руб./час
-с 17:00 до 8:00 - 1200 руб./час
-Стоимость указана для компании до 10-ти человек. Доплата за каждого последующего гостя 50 руб./час.
- </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, охраняемая парковка, спутниковое тв</t>
+1 час - 1000руб/час до 8 человек.
+Бассейн; Стоимость  разового посещения для взрослого состовляет 350руб/час,
+для ребенка (до 10 лет) - 180руб/час.
+Стоимость взрослого абонемента - от 1000руб, детского - от 500руб.
+Работаем с 07:00 - 24:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>от 600 до 1 200 руб./час</t>
+          <t>от 1 000 до 1 500 руб./час</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>+7 (351) 270 07 00</t>
+          <t>+7 (381) 294 82 85</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Сауна "Колизей"</t>
+          <t>Баня в "ОК Союз"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Колизей/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Баня-в-ОК-Союз/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Фрунзе, 66</t>
+          <t>улица Менжинского, 3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Описание бани
-Сауна «Колизей» в городе Челябинск встретит вас своими комфортными интерьерами,  здесь любой отдых обещает быть запоминающимся – ярким,  оригинальным,  наполненным только самыми яркими впечатлениями.  Сауна располагается в Челябинске,  в Ленинском районе,  по адресу улица Фрунзе,  дом 66.  Если вы добираетесь на общественном транспорте,  то ваша остановка – «Уют» на улице Гагарина.  Вместимость банных территорий составляет 12 человек: тут фантастически пройдет вечеринка по случаю дня рождения,  интересные посиделки с друзьями или романтические вечера.  Пусть ваш день запомнится только приятными мыслями и настроениями.  Вип-сауна «Колезей» порадует вас отлично обустроенной аква-зоной и интересным уютным оформлением гостиной.  Если вы любите роскошный и комфортный отдых,  то вам непременно нужно провести время в сауне с торжественным и величественным названием «Колизей».  Банный отдых с многочисленными водными развлечениями позволит вам улучшить свое здоровье,  приподнять настроение и провести время в расслаблении и уединении.  Сауна работает в круглосуточном режиме и предоставляет своим гостям два комфортабельных обустроенных номера. 
-Здесь вас ждет величественный «Римский» номер,  в глубинах которого царствует финская сауна.  Эта жаркая парилка специально создана для того,  чтобы провести время великолепно – в помощи своему здоровью и с высоким комфортом.  В финской парной воздух отличается сухостью,  а также присутствуют высокие температуры парения.  Здесь банщик подготовит для вас шикарные веники и отлично поработает над вашим телом.  После правильной релаксации вас будет ждать комфорт,  ощущение возрождения и приятных эмоций.  Финская парная хорошо раскрывает поры,  способствуя выведению вредных веществ из глубин организма.  После качественного парения вас ждет большой бассейн,  в котором имеется много воды – здесь поплавать можно с большим наслаждением,  а также устроить полноценные соревнования-заплывы,  которые подарят комфорт и хорошее настроение.  В римском номере имеется бар,  кухня,  кальян,  в гостиной есть вся техника для приятного проведения времени.  Вы можете поиграть в бильярд,  спеть песни в караоке,  понежить в расслабляющей джакузи.  Здесь смогут отдохнуть компании из 12 человек. 
-Малый зал в сауне «Колизей» рассчитан на 6 человек.  В гостиной вас ждет мини-бар и небольшая кухня,  где гости могут приготовить закуски на стол.  В аква-зоне посетите финскую парную и большую гидромассажную ванну,  в которой смогут разместиться сразу несколько человек.  Вместимость сауны составляет шесть человек: особенно популярен этот красивый номер для аренды влюбленными парами.  Вас ждет расслабление и только приятные ощущения в интерьерах  сауны «Колизей».  
-К услугам всех гостей большой бар,  в котором вам сделают коктейль или нальют свежее разливное пиво.  Вы всегда можете поиграть в бильярд или посмотреть фильм по спутниковому ТВ.  Бассейн в комплексе имеет длину 9 метров и ширину 5 метров.  В нем есть гейзер,  противоток и шикарная подсветка.  Гости смогут отдохнуть в личных комнатах отдыха,  которые есть в каждом номере,  насладиться профессиональным массажем или различными оздоровительными спа-процедурами.  Шикарный отдых будет радовать вас своими исключительными чертами,  в которых все продумано с точки зрения релаксации и пользы для организма.  В комплексе гости смогут приобрести любые необходимые банные принадлежности,  а также эфирные масла для ароматерапии.  Приятного отдыха в величественных интерьерах сауны «Колизей»!
-За сутки: 9
-За последние 30 дней: 40
-Всего: 10911
-</t>
-        </is>
-      </c>
+Приезжая в банное заведение,  вы всегда можете помочь своему организму оздоровиться и провести время с максимальным расслаблением и комфортом,  вы можете в подобном заведении отметить день рождения или просто посидеть тихими посиделками с друзьями,  наслаждаясь общением и банными оздоровительными процедурами.  Здесь вас ждет шесть банных номеров,  которые оформлены по-разному,  с разной степенью комфорта,  а также с различным интерьером.  Вас ждут ВИП-зона,  Баунти Египет,  Деревянный номер,  Каменный,  а также Малахитовая шкатулка.  В каждом из этих помещений вас ждет одинаковый уровень комфорта и идеального проведения время.  В банной зоне вас ждут сухая финская парная,  которая обладает сухим воздухом и очень высокими температурами парения – здесь тело может очень быстро прогреться полностью,  начиная процесс потения,  а значит,  шлаки очень быстро выйдут из организма,  кожа будет светиться красотой и здоровьем.  Все шесть номеров оформлены в соответствии с личным названием  - вы можете увидеть именно то оформлении в номере,  как он называется.  В результате,  появляется возможность очень интересно проводить время,  а также устраивать тематические вечеринки,  приглашая друзей и проводя интересно время.  В комнатах отдыха в комплексе вас ждут все развлечения,  которые могут принести удовольствие и усилить процесс релаксации. 
+После парной будет приятно провести время в хорошо обустроенной гостиной где есть мягкая мебель,  специфическое оригинальное оформление,  вся необходимая техника для того,  чтобы весело проводить время,  к примеру,  в номерах вас ждут ТВ,  аудио-проигрыватель,  караоке,  вы всегда сможете заказать кальян или вкусную еду,  отведать вкусное местное разливное пиво. 
+Аква-территория встретит вас большим набором релаксационных мероприятий: помимо финской парной,  в каждом номере вас ждет большой бассейн с системой фильтрации,  а также джакузи с гидромассажем.  вы можете взять с собой ароматическое масло,  чем усилите полезный эффект от подобных мероприятий.  В парную финского типа обязательно возьмите с собой различные веники,  которые помогут выбрать вам банщики,  они же проведут профессиональную пропарку вашего организма.  Парение вениками – это очень полезный процесс,  вы всегда можете надеяться на оздоровление организма,  так как любой тип веника даст свой оздоровительный эффект.  Запаривать веник тоже нужно правильно: вы сможете его запарить в ароматном настое из лечебных трав и ароматических масел.  Выберете оптимальный настой с ароматными и лечебными компонентами – вы можете в процессе парения наслаждаться этими ароматами,  получая дополнительную порцию ароматерапии.  После такого парения ваши дыхательные пути скажут вас спасибо,  а также кожа будет светиться здоровьем. 
+Банный комплекс «Союз» - это целое помещение для удовольствия в Омске – он располагается по адресу улица Менжинского,  дом 3,  в Кировском районе города.  Сюда легко добраться,  а также это удачное место для проведения торжеств и праздников – ваша семья и друзья буду рады такому выбору банного заведения.  Проведите время с пользой для себя и своего самочувствия.  Вас ждут красивые интерьеры,  а также своеобразное оформление с аквариумами,  экзотическими рыбками.  Здесь в комплексе,  можно сделать профессиональный массаж,  подарив себе полную релаксацию тела,  а также пройти специальный курс лечебных и косметических процедур,  которые вам посоветует косметолог.  Ваш день в комплексе «Союз» пройдет запоминающимся и максимально полезным для здоровья и самочувствия. 
+За сутки: 13
+За последние 30 дней: 34
+Всего: 6199
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve"> Цены и акции
-Понедельник-среда: с 09:00-14:00 - 1100 р/час; 14:00-17:00 - 1600 р/час; 17:00-09:00 - 2100 р/час.
-Четверг-воскресенье: с: 09:00-14:00 - 1400 р/час; 14:00-17:00 - 1700 р/час; 17:00-09:00 - 2400 р/час.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, спутниковое тв, караоке</t>
+Цена за 1 час - 1390 рублей
+С 10:00-16:00 - 1150 руб/час</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>от 1 300 до 2 300 руб./час</t>
+          <t>от 1 150 до 1 390 руб./час</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>+7 (351) 230 64 30</t>
+          <t>+7 (381) 251 95 51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Сауна "Адмирал"</t>
+          <t>Баня "Экстрим"на улице Завертяева</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Адмирал/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Баня-Экстримна-улице-Завертяева/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Российская, 159в</t>
+          <t>улица Завертяева, 32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание оздоровительного центра
-В самом центре города Челябинск вас ждет уютная сауна,  в которой можно расслабиться по максимуму! Если ваш рабочий график не позволят уехать на отдых куда-то далеко,  то отличным решением для отдыха является сауна,  которая располагается в самом центре города – она всегда под рукой,  и обещает высококлассный сервис.  Оздоровительный комплекс «Адмирал» приглашает всех,  кто любит попариться и ценит это дело,  а также тех,  кто хочет провести время в непринужденной обстановке,  хорошо расслабиться и отдохнуть от забот и тревог,  которые постоянно преследуют в большом городе.  Уделите несколько часов своему здоровью и красоте: берите всю семью и приезжайте заряжаться положительной энергией.  Центра располагается в Центральном районе города,  на улице Российской,  дом 159в. 
-Сауна представляет собой современно обустроенные интерьеры,  которые произведут на вас положительный эффект.  В гостиной установлена отличная мягкая кожаная мебель с вместительным столом,  за которым может устроиться большая компания отдыхающих.  Вы можете устроить для себя в этих помещениях запоминающуюся встречу друзей,  отметить день рождения или провести рабочий корпоратив.  Ваши близкие и родные оценят выбор такого удобного места отдыха,  в котором есть все,  что требуется для расслабляющего отдыха.  В гостиной есть вся аппаратура,  которая понадобится вам для веселья: ТВ,  караоке,  аудио.  В отдельной комнате установлен бильярдный стол,  за которым вы можете провести время после отдыха в парной,  сыграть партию-другую со своими друзьями.  Гостиная выполнена в белых тонах,  бильярдная – в зеленых,  комната отдыха – в розовых.  В комнате отдыха вы можете отдохнуть от шумного веселья,  или порелаксировать час-другой после насыщенного отдыха в парной.  Проведите отдых так,  чтобы вам он хорошо запомнился! 
-В комплексе вас ждет хорошо обустроенная аква-зона с комбинированной русской-финской парной.  Вы можете настраивать температуры таким образом,  чтобы достигался наилучший эффект именно для вас,  или для вас подберут наилучший температурный баланс специальные люди – банщик и парильщик.  В сауне вам предложат ароматные веники на выбор – березовые,  дубовые,  еловые или липовые.  Объяснят особенности,  с которыми нужно подходить к парению,  а также свойства конкретного типа веника.  Запаривание веника – тоже процесс очень длительный и интересный.  В настой можно добавлять ваши любимые эфирные масла и травы,  и процесс парения и само нахождение парной превратится в сеанс ароматерапии,  оздоравливающий дыхательные пути,  снимающий стресс и плохое настроение.  
-Отдельно стоит сказать о бассейне,  здесь он большой и красивый,  отделан шикарной мозаикой,  которая солидно украшает и создает прекрасный эффект.  Бассейн – это отличный вариант после парной,  в нем всегда можно отлично расслабиться и провести время с пользой для здоровья и своего удовольствия.  В бассейне будет комфортно взрослым и детям,  он постоянно фильтруется и очищается,  имеет красивую подсветку,  которая включается во время плавания.  
-В сауне «Адмирал» вы сможете провести день рождения или отметить любое другое событие,  пригласив любимых друзей,  а также сауна является отличным вариантом для просмотра футбольных или других трансляций.  Компания друзей сможет полноценно отдохнуть,  а также посмотреть матч любимой команды.  Две комнаты отдыха,  комфортная гостиная и раздевалка,  большая аква-территория с бассейном и финской парной,  отдельная бильярдная – все это ждет вас в самом центре города,  в сауне «Адмирал»!
-За сутки: 15
-За последние 30 дней: 36
-Всего: 8167
-</t>
+Описание бани
+Отдых в бане будет доставлять только приятные эмоции,  если вы будете правильно подходить к нему.  Баня в Омске на улице Завертяева,  32 – это качественный отдых без каких-либо проблем.  Эта сауна называется Экстрим,  и в ней имеется целых семь замечательных номеров,  которые исполнены в совершенно различных интерьерных решениях.  Вы сможете выбрать абсолютно любой вариант парной,  проведя время в номерах и наслаждаясь всеми особенностями,  которые тут находятся.  Это различные типы парных,  развлечения и интересные мероприятия,  помогающие сделать ваш отдых просто замечательным.  Притом,  выбор номеров способствует и тому,  что вы сможете выбрать для себя любой вариант,  подходящий для дружеских посиделок,  отдыха с семьей или для того,  чтобы провести вечеринку по случаю дня рождения.  Вас ждут жаркие и не очень парные,  большие бассейны т джакузи,  а напитки из мини-бара скрасят ваш отдых. 
+Оздоровительный комплекс «Экстрим» создан специально приглашенными дизайнерами,  чтобы в полной мере воплотить задумку в создании стиля номеров.  Благодаря этому вы легко сможете провести досуг любого типа в этой замечательной сауне,  а также вам будет очень приятно проводить время в этих запоминающихся интерьерах.  Здесь семь номеров с интересными названиями.  К примеру,  номер «Баунти» в полной мере изображает красоту райского полуострова,  здесь можно расслабиться и хорошо порелаксировать.  Средневековый номер «Инквизиция» - это отличный вариант,  чтобы провести стилизованную вечеринку и порадовать своих друзей.  В номерах вас ждет одинаково комфортно оформленное обустройство.  Это и шикарные аква-зоны с большими бассейнами,  имеющими подсветку,  а также ванны джакузи с бурлящими пузырьками,  где можно хорошо провести время,  насладиться массажем и приятным романтическим свиданием со своей второй половинкой.  В гостиной есть уютные зоны,  в которых можно устроиться и провести весело время,  наслаждаясь приятным просмотром телевизора,  фильмов,  спеть песни в караоке,  послушать музыку,  отлично повеселиться – тут же есть все условия для устройства вечеринки,  можно смело повеселиться с друзьями,  отметить день рождения или другое важное событие. 
+Вы всегда можете купить в помещении банного комплекса «Экстрим» все необходимые банные принадлежности – такие как полотенца,  шампуни,  банные шапки,  даже ароматические масла – вы всегда будете чувствовать себя отлично,  если  воспользуетесь дополнительным сеансом ароматерапии.  Вы также сможете всегда купить в помещении бани веники различных видов,  которыми обязательно стоит попариться.  Без парения не будет оптимального прогрева тела в финской парной,  которая расположена в каждом номере банного комплекса.  Финская парная – это оздоровление путем воздействия высоких температур и сухого воздуха.  Здесь очень быстро можно прогреться прямо до костей,  а также сразу же наступит желанное расслабление всех систем организма.  Баня обещает вам очень комфортный отдых,  какой только может быть в банных заведениях Омска,  это очень интересный  запоминающийся отдых,  способный принести только полезные эмоции и максимальное расслабление. 
+В банном комплексе «Экстрим» отдыхают только те,  кто по-настоящему ценит банный отдых и все,  что с ним связано,  знает себе цену и всегда любит отдыхать в качественных заведениях.  В центре «Экстрим» вы можете рассчитывать на то,  что ваше расслабление будет максимальным и очень приятным.  Любое торжество здесь пройдет волшебным образом и запомнится всеми на долгое время!
+За сутки: 18
+За последние 30 дней: 103
+Всего: 9441
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>бассейн</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Цены и акции
-Будни - 650 руб/час
-Выходные - 850 руб/час</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>бассейн, бильярд, охраняемая парковка</t>
+          <t xml:space="preserve"> Цены и услуги
+С 7:00-17:00 - от 350-600 руб/час (в зависимости от типа номер) - цену стоит уточнять по телефону
+С 17:00-7:00 - от 400 -1000 руб/час (в зависимости от типа номер) - цену стоит уточнять по телефону</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>от 650 до 850 руб./час</t>
+          <t>от 800 до 1 600 руб./час</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>+7 (351) 266 62 95</t>
+          <t>+7 (381) 260 01 00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Оздоровительный комплекс Водный рай</t>
+          <t>МУП Банное хозяйство №17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Оздоровительный-комплекс-Водный-рай/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/МУП-Банное-хозяйство-17/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Батумская, 22а, въезд с ул. Суркова</t>
+          <t>улица Войкова, 2 Район Ленинский административный округ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Описание сауны
-«Водный рай» - это большой комплекс,  который поможет вам избавиться от рутины и в полной мере насладиться фантастическим и таким приятным банным отдыхом.  Банный отдых является отличным решением для тех,  кому нужно очень быстро привести в порядок свое физическое и умственное состояние.  Благодаря жаркому пару каждая мышца тела может отлично расслабиться.  В бане всегда можно почувствовать себя лучше.  Если вы много работаете и мечтаете о хорошем расслаблении,  то баня – это отличный вариант,  который сделает ваш отдых полноценным.  
-В банном комплексе «Водный рай» вас ждут большие водные аттракционы,  вместительные бассейны,  а также чудесные сауны,  в которых можно попариться.  В комплексе всем посетителям на выбор предоставляется четыре зала с большой вместимостью и с оригинальным дизайнерским интерьером.  Здесь гости всегда будут рады атмосфере,  в которой можно провести праздники,  устроить запоминающийся день рождения или особенный вечер с друзьями или семьей.  В комплексе также есть небольшие номера с саунами,  рассчитанные на 4-8 человек.  Общая вместимость большого номера – 18 человек.  В этих помещениях можно устроить настоящие веселые празднования,  которые непременно запомнятся всем гостям.  Номер в банном комплексе можно выбирать как по оформлению и наполненности,  так и по типу парной. 
-Здесь вас ждут горячие финские сауны,  расслабляющие турецкие хамамы,  способные сделать для вас отличную релаксацию души и тела,  русскую баню оценят настоящие ценители национального русского парения.  После парения вы всегда сможете искупаться в больших бассейнах с системой фильтрации воды или понежиться в гидромассажных бассейнах,  которые оказывают дополнительную релаксацию всему телу.  В комплексе вы всегда сможете остаться в гостях,  забронировав понравившийся номер.  В это время для вас доступны все развлечения водного комплекса.  Вы можете сходить на массаж,  покушать в местном ресторане,  посидеть в баре,  устроить себе отдых в сауне,  пригласив профессионального парильщика,  который научит,  как правильно нужно париться.  Парильщик предложит вам ароматные веники,  сам запарит их по правильной технологии,  потом научит вас,  как правильно разогреть тело перед парением,  и,  конечно,  хорошо пропарит вас.  После такого оздоровительного парения,  после которого хорошо очищаются поры и выводятся токсины,  вы будете чувствовать себя свежо и комфортно.  Обязательно искупайтесь в бассейне,  чтобы немного охладиться после парения.  
-В комплексе «Водный рай» проходит обучение плаванию,  аквааэробика,  профессиональные массажисты подарят вам любые виды массажа,  в том числе оздоровительный,  который приведет вашу спину в порядок.  
-В комплексе есть много номеров с различными типами саун,  а также с разной вместимостью.  Вы легко сможете подобрать себе номер сауны по конкретным пожеланиям.  К примеру,  по наличию типа саун,  размеров бассейна или другим особенностям.  Можно с уверенностью сказать,  что здесь найдут для себя развлечения абсолютно все гости и будут удовлетворены качественным сервисом и современности обустроенных саун и парных.  Все,  кто любит свое тело и заботится о здоровье найдут для все,  что нужно.  Интерьеры номеров саун в «Водном рае» поразят вас своей уникальностью и неповторимостью,  какой бы вы ни выбрали,  вас ожидает полностью соответствующий названию вариант.  
-Сауна «Водный рай» ждет всех заряжаться силами и приобретать хорошее настроение!
-За сутки: 9
-За последние 30 дней: 40
-Всего: 7731
-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Цены и акции
-Цена в зависимости от выбранного номера (уточняется дополнительного) 
-Номера можно выбрать в разном ценовом диапазоне: от 300 руб/час до 1850 руб/час</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>бассейн, кондиционер, бильярд, холодная купель, караоке</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>от 1 600 до 2 900 руб./час</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>+7 (351) 253 53 36</t>
+Большое количество людей в наше время предпочитают активному отдыху времяпровождение в банях и саунах.  Все дело в том,  что такие заведения являются уникальным местом,  в котором можно расслабиться и привести мысли в порядок,  повеселиться и развлечься,  оздоровить свой организм и просто потрясающе отдохнуть.  Современные заведения предлагают широкий спектр услуг,  готовы организовать небольшие праздники и корпоративные вечера.  
+МУП Банное хозяйство №17 приглашает посетителей провести время в стенах своего заведения.  Компетентные работники готовы предложить гостям бани большой выбор водных процедур и различных развлечений.  Общественное заведение работает с субботы по вторник с часу дня до девяти вечера.  Стоимость посещения невысокая.  При этом время от времени здесь проводятся акции,  имеется система скидок. 
+Здесь работает настоящая русская парная,  в которой опытный профессиональный банщик замечательно попарит,  сделает массаж вениками.  К слову,  такой человек всегда готов поддержать беседу и развлечь посетителей интересными историями.  Банщик может также оказать помощь в выборе веника – незаменимого аксессуара для парения.  Правильно запаренный веник сделает отдых незабываемым,  поможет еще больше расслабиться.  Аромат такого веника приведет мысли в порядок. 
+МУП Банное хозяйство №17 предлагает гостям приобрести различные принадлежности,  взять напрокат полотенца и простыни,  колпаки и тапочки.  Следует также сказать,  что в данном заведении работает буфет,  в котором можно полакомиться вкусными легкими закусками или более плотными яствами,  а также попить бодрящих напитков,  выбор которых здесь также довольно большой. 
+После долгих процедур в жаркой парной посетители могут облиться прохладной водой из кадушки или ведра,  просто отдохнуть в специальной комнате.  Приятный интерьер данного помещения способствует расслаблению.  Здесь можно посмотреть телевизор и послушать музыку,  поиграть в одну из предложенных настольных игр.  
+Заведение предлагает свои услуги по организации корпоративов и небольших вечеров,  скромных семейных посиделок. 
+МУП Банное хозяйство №17 – отличное заведение,  которое сочетает в себе уютную атмосферу и высококачественный сервис,  широкий спектр услуг и развлечений,  доступную стоимость и уникальную возможность пообщаться с друзьями и коллегами,  товарищами и близкими.   
+За сутки: 10
+За последние 30 дней: 34
+Всего: 2631
+</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Сауна "Дельфин"</t>
+          <t>МУП Банное хозяйство №13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Дельфин/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/МУП-Банное-хозяйство-13/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Новороссийская, 122, 1 этаж</t>
+          <t xml:space="preserve"> Молодогвардейская, 1 Район Ленинский административный округ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Описание сауны
-В сауне «Дельфин» красиво и уютно: здесь вас ждет спокойная расслабляющая обстановка,  релаксация и хорошее настроение.  Здесь всегда удачно пройдут поселки с любимыми друзьями или вылазки на отдых с семьей.  В сауне «Дельфин» каждый член семьи найдет себе развлечение по душе,  а отдых запомнится приятными мыслями и впечатляющим расслаблением.  Банный отдых – это в первую очередь,  польза для здоровья,  хорошее настроение и полноценный отдых от рабочих будней и суеты.  Оздоровительный центр «Дельфин» находится в самом центре города Челябинска – сюда вы можете приехать после работы или с удобством добраться из дома.  Пусть ваш отдых будет приятным,  способным не причинять неудобства при способе и времени,  занимаемом на то,  чтобы добраться до места.  Сауна «Дельфин» располагается на улице Энтузиастов,  дом 11 а – это самый центр города – сюда удобно будет добраться из любого района города.  
-Приятному проведению времени способствуют и шикарные интерьеры и отделка помещений.  Гостиная оформлена очень оригинально: она имеет уютную домашнюю обстановку,  в которой есть большой банкетный зал,  много комфортных зон для отдыха,  есть в наличии вся аппаратура для комфортного проведения торжеств: ТВ,  караоке,  аудиосистема – позволят провести яркие запоминающиеся вечеринки,  способные доставить удовольствие своими приятными моментами.  
-Сауна «Дельфин» - это еще и две чудесные сауны,  в которых будет комфортно париться вениками,  просто греться,  наслаждаться сеансами ароматерапии,  которые принесут пользу для вашего здоровья,  особенно – для дыхательных путей.  Банный отдых всегда хорошо расслабляет,  а также оказывает большую помощь для вашего здоровья – закаляет сердце и сосуды,  обновляет кожу,  выводит из нее вредные вещества через открытые поры.  В сауне также есть большой бассейн с противотоком,  который доставит удовольствие от плавания детям и взрослым.  Парные отличаются вместительностью,  и здесь всегда уютно – есть нижние и верхние полки,  на которых температура различается своей интенсивностью.  Русская парная обита натуральным деревом,  которое при процессе парения источает целебные ароматы.  Благодаря услугам банщика,  вам будут предоставлены большие возможности для отдыха: банщик сможет запарить веник в ароматном настое из трав и эфирных масел,  а потом будет подливать этот настой на горячие камни – вся парная наполнится чудесными ароматами,  действующими умиротворяюще и расслабляюще.  
-Отделена стенкой в аква-зоне большая и комфортная джакузи: в ней есть подсветка,  а мягкие гидромассажные струи станут ласкать ваше тело и приносить комфорт и желанное умиротворение.  Отдельно нужно отметить и комфортно обустроенную зону в гостиной.  Тут есть все для отдыха мечты,  в котором предусмотрена каждая деталь.  Здесь вас ждет для развлечений бильярдный зал,  мягкая мебель и телевизор.  Также вы сами сможете приготовить закуски на комфортной небольшой кухне с холодильником и микроволновой печью.  Пусть ваш день пройдет именно так,  как вы этого хотите в сауне «Дельфин».  Здесь персонал предлагает вам полную организацию ваших посиделок и торжеств,  а также обещает полную конфиденциальность.  Здесь смогут проходить как личные встречи,  так и деловые.  
-В сауне «Дельфин» есть кушетка для массажа,  а также солярий – проведите время с пользой для своего здоровья.  В этой располагающей обстановке парной отлично пройдут празднования компаниями из 15 человек или романтический ужин для двоих.  Приятных встреч и запоминающихся минут отдыха!
-За сутки: 7
-За последние 30 дней: 34
-Всего: 7021
-</t>
+Отдых в бане или сауне в наше время превратился не просто в хорошую традицию,  но и в великолепную возможность совместить общение с друзьями с водными процедурами,  которые также оказывают оздоравливающий эффект на организм в целом.  В современных заведениях сервис позволяет организовывать на территории бани различные небольшие праздники и вечеринки,  дружеские посиделки и даже корпоративные вечера.  Стоит отметить,  что расслабляющая атмосфера всегда сближает людей. 
+МУП Банное хозяйство №13 предлагает посетителям посетить жарку русскую парную.  Здесь имеется общее отделение,  а также невероятно комфортабельный и уютный двухместный номер со своей парилкой и комнатой отдыха.  В данной комнате посетители могут расслабиться в комфортабельной мебели,  посмотреть телевизор и послушать музыку,  просто пообщаться и перекусить. 
+К слову,  в данном заведении работает отличный буфет,  в котором всегда имеется большой выбор свежих и вкусных закусок,  более сытных блюд.  Посетители могут также выбрать один из бодрящих напитков,  выбор которых в буфете также немаленький. 
+После парения гости могут сделать обливание из кадушек или специальных небольших ведер.  Воду можно сделать как слегка тепловатой,  так и достаточно холодной.  Стоит отметить,  что такие процедуры обладают оздоравливающим эффектом.  Более того,  они бодрят и приводят мысли в порядок.  
+МУП Банное хозяйство №13 предлагает гостям воспользоваться услугами опытного банщика – человека,  который всегда с радость попарит и поболтает на самые разные темы.  Более того,  именно банщик сможет помочь выбрать и правильно запарить веник.  Стоит отметить,  что именно ароматный веник и правильно сделанный данным незаменимым аксессуаром массаж сделает отдых в бане незабываемым. 
+Гости могут взять напрокат такие принадлежности,  как тапочки и простыни,  колпаки.  Следует также сказать,  что в МУП Банное хозяйство №13 предлагается приобрести мыльные принадлежности,  необходимые для парения. 
+Заведение приглашает посетителей с четверга по воскресенье.  Работает баня с часу дня и до девяти вечера.  Стоит отметить,  что здесь постоянно проводятся различные акции,  а также действует система скидок.  Стоимость посещения довольно низкая.  Поэтому МУП Банное хозяйство №13 – это великолепная возможность за приемлемую цену отлично и качественно отдохнуть,  расслабиться и привести мысли в порядок.  
+За сутки: 12
+За последние 30 дней: 36
+Всего: 4278
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>русская</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Цены и акции
- Будни:
-с  07.00 - 18.00 часов - 1 час - 850 руб.
-с  18.00 - 04.00 часов - 1 час - 1400 руб.
-Выходные и праздничные дни:
-с 07.00 - 18.00 часов - 1 час - 950 руб.
-с 18.00 - 04.00 часов - 1 час - 1400 руб.
-Бонус:
-При заказе 4 часов и более - скидка 10% (В стоимость входит полотенце или простынь)
-Минимальное время заказа - 2 часа
-Свыше 10 человек доплата за каждого: 1 час - 50 руб</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>бассейн, кондиционер, бильярд, джакузи, караоке</t>
+          <t xml:space="preserve"> Цена:
+150р.</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>от 1 000 до 1 200 руб./час</t>
+          <t>от 150 до 150 руб./час</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>+7 (351) 253 65 25</t>
+          <t>+7 (381) 242 87 08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Баня на Павлова</t>
+          <t>Общественная баня на дровах</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня-на-Павлова/</t>
+          <t>http://xn--j1adfn.xn--80abwt.xn--p1ai/баня/Общественная-баня-на-дровах/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Челябинск, Павлова, 75,</t>
+          <t>микрорайон СибНИИСХоз, 2-я Пригородная улица, 10 Район Советский административный округ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-«Баня на Павлова» в Челябинске – это отличное место,  где вы сможете отдохнуть от суеты и шума города,  поддаться наслаждению и релаксации.  Тут очень просто это исполнить,  так как присутствует приятная обстановка,  в которой много деревянной отделки,  а также можно устроить для себя шикарный сеанс СПА-терапии в настоящей русской баньке,  пройти процедуру закаливания организма,  которая станет радовать своими яркими и незабываемыми моментами.  «Баня на Павлова» находится в Калининском районе,  банный комплекс располагается на двух этажах,  которые поступают в личное пользование всем,  кто будет арендовать это место.  Шикарные вместительные территории позволят с успехом разместиться тут компании из 15 человек,  которая отмечает день рождения или юбилей,  провести корпоратив или просто встретиться компанией друзей и отлично провести время в их кругу,  парясь в баньке,  кушая блюда на мангале и чудесно расслабляясь.  
-Интерьер сауны «Баня на Павлова» продуман в русском стиле,  с большими банкетными столами из дерева,  множеством замечательной древесной отделки.  Большие территории позволяют устроить любой праздник,  а всем гостям будет,  где разместиться и отлично провести время с пользой для души и тела.  На втором этаже баньки есть спальня,  уютная зона с кожаными диванами.  После банных процедур гости могут устроиться в удобной для себя зоне,  заказать блюда русской кухни и разливное пиво – выбор напитков в баре достаточно широк,  а также,  есть возможность принести свои продукты и накрыть столы в соответствии с личными желаниями. 
-Банный отдых в сауне «Баня на Павлова» - парение и закаливание
-В комплексе «Баня на Павлова» вас ждет настоящая баня на дровах,  отличающаяся вместительностью и натуральной древесной отделкой,  двухъярусными полками,  на которых гости смогут отдохнуть и поддаться замечательному расслаблению и уединению.  Пусть ваш отдых будет именно таким,  каким вы его хотите видеть,  а также дарит не только веселье и общение с друзьями,  но и оздоровление.  Парение,  закаливание,  профессиональный массаж помогут восстановить силы и придать бодрость,  очистить организм – и вы снова готовы покорять просторы и работать с удвоенной силой.  
-В сауне «Баня на Павлова» проведет замечательную пропарку тела банщик,  поможет подобрать веники,  а также сделает исключительный массаж веником,  который принесет только положительный результата.  
-В гостиной для вас караоке,  спутниковое ТВ,  беспроводной интернет.  Ждем всех любителей попариться от души!
-За сутки: 7
+Огромное количество людей предпочитают отдыхать в банях и саунах.  Это великолепная возможность сочетать в себе приятное общение с друзьями или коллегами,  максимальное расслабление,  большое количество водных процедур,  а также просто отличный отдых и оздоровление. 
+Общественная баня надровах предлагает посетителям уникальную возможность расслабиться в комфортабельной уютной обстановке.  Здесь можно организовать праздник с семьей или друзьями,  коллегами или просто хорошими товарищами.  Отдыхая здесь,  гости смогут получить расслабление физическое и душевное. 
+Персонал бани может предложить посетить восхитительную русскую парную на дровах.  Жаркий пар позволит насладиться исконно русскими традициями парения.  После процедур в бане можно искупаться в отличном бассейне,  воду в которой подогревают только по желанию посетителей.  
+Есть здесь и возможность продолжить отдых в гостиной с удобной мебелью,  качественной аудиотехникой,  а также отличной системой караоке.  Гостям предлагается заказать в здешнем баре вкуснейшие блюда русской кухни.  Стоит отметить,  что гости могут приходить в данное заведение и со своей едой.  Здесь также можно приобрести какой-нибудь бодрящий напиток,  выбор которых в баре довольно велик. 
+Посетители могут воспользоваться услугами профессионального и умелого массажиста,  который с радостью сделает времяпровождение в бане более приятным и расслабляющим.  Здесь же работает профессиональный банщик,  который поможет выбрать правильный веник – неотъемлемый атрибут любойго парения,  а также сделает массаж вениками и просто поболтает.  Кроме веников в бане можно приобрести также и различные целебные травы,  ароматические масла,  которые усиливают расслабляющий эффект и оздоравливают организм. 
+К слову,  весь персонал общественной бани на дровах высококвалифицированный и очень дружелюбный,  всегда готов прийти на помощь и организовать корпоративную вечеринку или просто семейные посиделки. 
+В заведении имеется большой гостиничный номер,  в котором можно уединиться и послушать приятную музыку или просто отдохнуть от городской суеты.  Есть здесь и несколько душевых,  а также отличная зона барбекю для отдыха с веселой компанией друзей. 
+Таким образом,  отдых в данном общественном заведении – сочетание релаксации,  веселья и оздоровления по доступной цене.  Стоит отметить также,  что здесь регулярно проводятся различные акции,  предоставляются скидки. 
+За сутки: 12
 За последние 30 дней: 27
-Всего: 6627
-</t>
+Всего: 4110
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>бассейн</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стоимость аренды 2х этажного банного комплекса:
-800 руб/час.
-Скидка 20% при заказе на 5 часов!!!
- </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>спутниковое тв, караоке, Wi-Fi</t>
+          <t xml:space="preserve">Цена:
+500 р.
+Скидки:
+БУДНИЕ ДНИ (пон.- четв.) C 8-00 ДО 18-00 ЦЕНА 1-ГО ЧАСА 500 РУБЛЕЙ. 
+БУДНИЕ ДНИ (пон. - четв.) C 18-00 ДО 8-00, ВЫХОДНЫЕ (пятн. - воскр.) И ПРАЗДНИЧНЫЕ ДНИ ЦЕНА 1-ГО ЧАСА 700 РУБЛЕЙ. </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>от 800 до 800 руб./час</t>
+          <t>от 500 до 700 руб./час</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>+7 (900) 091 84 62</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Баня №7</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня-7/</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Краснознамённая, 36 Район Калининский район</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Баня №7 располагается в городе Челябинске на Краснознаменной улице,  недалеко от проспекта Победы.  Это заведение общественного типа.  Работает она с самого утра и до полного времени.  Одновременно просим наших будущих посетителей предварительно уточнять время работы по телефону и время работы в праздничные дни.  
-Немного о бане.  В самом заведении работает небольшой магазин,  где можно приобрести веник для бани,  а также другие банные принадлежности.  Также здесь есть продаются слабоалкогольные и безалкогольные напитки,  можно также взять кое-что и покушать.  В бане есть мужской и женский залы.  Также здесь можно принять гигиенический душ.  Парная здесь русского типа.  Наш персонал постоянно следит за тем,  чтобы было везде чисто.  Следовательно,  в бассейне,  что немало важно,  вода постоянно очищается посредством системы фильтров.  Можно воспользоваться и тазиком,  который можно взять на прокат,  и вылить на себя раз-второй холодной воды! Ух,  какой бодрячок! И сразу вы почувствуете,  как проходит усталость после рабочей недели.  
-После посещения водных процедур можно не спешить сразу домой,  а расположиться в комнате отдыха,  поговорить о планах на выходные за бокалом пива,  либо обсудить прошедшие футбольные матчи. 
-Кстати,  есть в бане и массажист,  который за умеренную плату сделает вам отличный расслабляющий или лечебный массаж.  Уж вы мотом точно почувствуете себя на седьмом небе от счастья!
-В общем,  если в хотите после работы заехать в наше заведение и расслабиться часик-второй после напряженного дня,  то милости просим к себе в нашу баню №7 города Челябинска!
-За сутки: 7
-За последние 30 дней: 24
-Всего: 5076
-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цена:
-цена не указана. </t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>от 0 до 0 руб./час</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>+7 (351) 791 34 05</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Сауна «Гармония»</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-Гармония/</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Копейское шоссе, 5а Район Ленинский район</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Приглашаем посетить наш оздоровительный комплекс,  который расположен в Челябинске на Копейском шоссе в районе стадиона «Торпедо». 
-Наш комплекс предлагает своим посетителям широкий комплекс косметологических и парных процедур,  а также возможность провести отлично время в небольшой компании или с любимым человеком.  
-И так,  немного о нас.  В «Гармонии» есть несколько залов,  в которых могут разместиться компании от 2 до 6 человек,  а также есть общественный зал,  рассчитанный на одновременное посещение 25 людей.  У нас можно взять на прокат все необходимые банные принадлежности,  если вы случайно что-то забыли дома,  или не захотели везти с собой.  Также в «Гармонии» продаются по низкой цене банные веники,  изготовленные из березы и дуба. 
-Общественное отделение комплекса имеет отличный интерьер,  в нем постоянно чисто и светло,  хорошо работает современная системы вентиляции.  Также перед парилкой можно принять гигиенический душ.  Посетив русскую баню можно сразу пойти и окунуться в бассейн с кристально чистой водой,  или еще вылить на себя кадку с холодной водой. 
-Затем пройти в комнату отдыха и посмотреть ТВ,  к которому подключена спутниковая антенна.  Либо просто посидеть с друзьями и побеседовать о чем-то. 
-Для небольших компаний или семьи работает финская сауна или зал с русской баней.  Здесь одновременно может разместиться 6 человек.  После посещения парилки также можно окунуться в прохладном бассейне и пройти в уютную комнату отдыха,  посидеть в семейном кругу или в паре с девушкой и провести с ней романтический вечер.  Кстати,  мебель у нас очень удобная,  а интерьер очень хорошо помогает психологически расслабиться после трудного дня и не думать ни о чем кроме как о приятном.  Здесь также установлен современный телевизор,  по которому вы можете посмотреть любимую телепрограмму благодаря спутниковому телевиденью. 
-Кстати,  наше заведение предлагает ещё и небольшую минисауну,  которая не хуже обычной восстанавливает силы,  а также способствует сбрасыванию лишнего веса. 
-А ещё в нашем комплексе есть инфракрасная сауна,  куда одновременно может поместиться до 4 человек.  Уже много известно о том,  как она позитивно влияет на состояние организма,  как улучает состояние кожи,  улучшает ее внешний вид и способствует заживлению ран. 
-Для любителей СПА-процедур в сауне «Гармония» работает салон,  где можно провести время с пользой для своего здоровья.  Для тех,  кто любит массаж,  мы рекомендуем посетить массажный кабинет,  где работает опытный массажист.  Он профессионально сделает расслабляющий и целебный массаж. 
-Мы очень ждем вас с нетерпением,  наши дорогие клиенты.  Мы все возможное сделаем для вас,  для вашего комфортного и незабываемого отдыха. 
-За сутки: 10
-За последние 30 дней: 30
-Всего: 5611
-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Цена:
-350 р.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>бассейн, спутниковое тв, Wi-Fi, обливное ведро</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>от 350 до 350 руб./час</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>+7 (351) 259 46 81</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Баня № 4</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня--4/</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Российская, 51 Район Калининский район</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Для жителей города Челябинска,  а также его гостей,  предлагаем посетить общественную баня,  которая расположена на улице Российской,  в районе Дворца спорта Челябинского Электрометаллургического комбината.  К нашему заведению очень удобно добраться на личной автомашине,  так и на общественном транспорте.  Недалеко также находится остановочная платформа электрички. 
-В общем,  немного о заведении.  Баня является общественного типа,  в ней работает русская баня.  Прямо здесь можно приобрести банный веник,  изготовленный из березовых или дубовых прутьев.  Также работает прокат банных принадлежностей.  Кстати,  также при заведении работает небольшой магазин,  где вы сможете приобрести слабоалкогольные напитки или что-то перекусить.  Так что,  если кто-то из посетителей решит вдруг после работы заглянуть к нам,  то здесь будет все необходимое для помывки и отдыха.  
-В бане одновременно может париться до 50 посетителей одновременно.  Работает при заведении и банщик,  которых поможет с советами если случайно вы ещё только недавно начали посещать подобные заведения.  После принятия гигиенического душа,  вы можете пройти непосредственно в парную и ощутить на себе все прелести русской бани.  Затем можно вылить на себя ведро холодной воды,  либо пройти в бассейн,  где всегда есть чистая вода. 
-После водных и парных процедур – добро пожаловать в комнату отдыха,  в которой вы можете расположиться на удобной мебели,  посидеть с друзьями,  выпив бокал пива за беседой о предстоящей рыбалке.  Можно и просто посмотреть футбольный матч по большому современному телевизору. 
-И пусть наше заведение не может предложить своим посетителям широкий спектр косметологических,  лечебных и других процедур,  но по крайней мере наши клиенты всегда смогут почувствовать,  что такое настоящая русская баня,  и как незаметно проходит усталость и приходит энергия на целую будущую трудовую неделю. 
-Ждем вас к себе,  просим предварительно уточнять наличие свободных мест и время работы в праздничные дни. 
-За сутки: 9
-За последние 30 дней: 31
-Всего: 6796
-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Цена:
-180 р.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>бассейн</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>от 180 до 180 руб./час</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>+7 (351) 264 11 83</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Баня № 14</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Баня--14/</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Харлова, 6 Район Ленинский район</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Для любителей помыться после рабочего дня,  да ещё и неплохо попарившись с пользой для здоровья и хорошего настроения рекомендуем посетить баню №14 в городе Челябинске,  которая открыта с самого утра и до позднего вечера. 
-Данная баня является общественной,  в ней может разместиться одновременно около 30 человек.  Причем,  здесь работает 2 зала: мужской и женский.  При бане работает небольшой магазин,  где можно купить банный веник из березы или дуба,  причем по весьма низкой цене.  Также здесь продается свежее пиво,  а также разные закуски.  Также здесь вы сможете взять на прокат банные принадлежности по низкой цене. 
-Первым вам попадется душевая комната,  где есть несколько кабинок для принятия гигиенического душа.  Затем вы пройдете в парной зал,  где работает русская баня на дровах.  Посетив парные процедуры можно вылить на себя кадку с холодной водой,  либо пройти к бассейну и окунуться в нем.  Вода в нем постоянно чистая,  о чем очень заботится персонал бани. 
-Для любителей поговорить о мужских делах за бокалом пива есть комната отдыха.  Также здесь установлен современный телевизор,  который подключен к спутниковой антенне.  Так что,  если посетитель придет во время футбольного матча,  то он не сможет упустить возможности посмотреть игру любимой команды. 
-В общем,  ждем в гости жителей и гостей нашего города.  Вас очень удивят низкие цены и качество предлагаемых услуг.  Просим предварительно уточнять наличие свободных мест и время работы в конкретный день недели. 
-За сутки: 7
-За последние 30 дней: 28
-Всего: 5316
-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Цена:
-цена не указана. </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>бассейн</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>от 0 до 0 руб./час</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>+7 (351) 256 14 41</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Сауна С легким паром</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://xn--90ahkico2a6b9d.xn--80abwt.xn--p1ai/баня/Сауна-С-легким-паром/</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> г. Челябинск, ул. Копейское шоссе 29а</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Сауна «С легким паром» всегда порадует вас бесчисленными мгновениями комфорта и релаксации организма - в таких условиях вы легко сможете проникнуться комфортными минутами отдыха,  оздоровиться полностью и почувствовать себя гораздо лучше.  Особенно приятно посетить сауну «С легким паром» после работы,  тут к вашим условиям приятные парилки,  отличные процедуры и бесчисленные мгновения отдыха вместе с близкими и друзьями.  В условиях приятной сауны «С легким паром» вас ждет гармония отличного банного отдыха,  которая поможет вам почувствовать себя легко и с приятной гармонией банных процедур.  В сауне «С легким паром»  вы всегда получите приятные парилки,  отличающиеся профессиональным оборудованием и самыми завораживающими температурами - в таких условиях вы всегда приобретете незабываемую релаксацию всего организма. 
-Сауна «С легким паром»  - мир гармонии и отличного самочувствия!
-Если вы хотите порадовать себя и своих близким прекрасным отдыхом в условиях города,  то предлагаем проникнуться настоящим приятным отдыхом в сауне «С легким паром» ,  которая располагается в удобном районе,  рядом имеется охраняемая парковка,  поэтому личный автомобиль всегда можно оставить пол присмотром.  К вашим услугам - финская сауна и русская баня,  в которых царит жаркий климат и прекрасные условия приятной релаксации всего организма,  тут можно отлично прогреть свой организм и попариться ароматными вениками - такой отдых в любой момент поможет восстановить силы и получить желаемую бодрость всего тела и духа! В сауне «С легким паром»  вам всегда предложат ароматные и свежие веники,  а также приятную ароматерапию - любые ароматические масла и эфирные компоненты. 
-Ваш отдых в расслабляющих пространствах сауны «С легким паром» всегда пройдет незабываемо и поможет почувствовать себя в отличном расположении духа.  Караоке,  спутниковое ТВ,  а также веселая музыка - в сауне «С легким паром»  есть все необходимые развлечения.  После жаркой парилки можно с удовольствием окунуться в приятных водах бассейна,  а также окунуться в ледяных водах купели.  Гости смогут заказать ароматный кальян и напитки из бара! Ждем всех в сауне «С легким паром»!
-За сутки: 13
-За последние 30 дней: 33
-Всего: 8518
-</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>С понедельника попятницу:
-с 9-00 до 16-00 - 600 руб/час.
-с 16-00 до 9-00 - 800 руб/час.
-Суббота, воскресенье:
-Круглосуточно- 800 руб/час.
-АКЦИИ: 
-1) При оплате 3 часов, четвертый в подарок.
-2) Именинника скидка 5%
-3) скажите администратору, что нашли нас на сайте БАНИ.РФ и получите скидку 5%!</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>бассейн, охраняемая парковка, холодная купель, спутниковое тв, караоке, Wi-Fi, обливное ведро, большой TV, настольные игры</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>от 600 до 800 руб./час</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>+7 (351) 220 46 49</t>
+          <t>+7 (381) 248 69 00</t>
         </is>
       </c>
     </row>
